--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89743566513062</t>
+    <t xml:space="preserve">3.89743542671204</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">3.89920902252197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89034605026245</t>
+    <t xml:space="preserve">3.89034652709961</t>
   </si>
   <si>
     <t xml:space="preserve">3.88857460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81059074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76628112792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81945157051086</t>
+    <t xml:space="preserve">3.81059050559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76628136634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81945204734802</t>
   </si>
   <si>
     <t xml:space="preserve">3.80172848701477</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">3.6865246295929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66702914237976</t>
+    <t xml:space="preserve">3.66702890396118</t>
   </si>
   <si>
     <t xml:space="preserve">3.50928807258606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63335347175598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71311020851135</t>
+    <t xml:space="preserve">3.63335371017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71311044692993</t>
   </si>
   <si>
     <t xml:space="preserve">3.69006967544556</t>
@@ -98,91 +98,91 @@
     <t xml:space="preserve">3.6262640953064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70424818992615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58904480934143</t>
+    <t xml:space="preserve">3.70424842834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58904457092285</t>
   </si>
   <si>
     <t xml:space="preserve">3.56245899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63867044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67234563827515</t>
+    <t xml:space="preserve">3.6386706829071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67234587669373</t>
   </si>
   <si>
     <t xml:space="preserve">3.67589020729065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67411780357361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66525650024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61740255355835</t>
+    <t xml:space="preserve">3.67411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66525626182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61740207672119</t>
   </si>
   <si>
     <t xml:space="preserve">3.73792338371277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77514362335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83717608451843</t>
+    <t xml:space="preserve">3.77514338493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83717560768127</t>
   </si>
   <si>
     <t xml:space="preserve">3.81768012046814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88680219650269</t>
+    <t xml:space="preserve">3.88680195808411</t>
   </si>
   <si>
     <t xml:space="preserve">3.83894801139832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83363151550293</t>
+    <t xml:space="preserve">3.83363175392151</t>
   </si>
   <si>
     <t xml:space="preserve">3.75741934776306</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76096415519714</t>
+    <t xml:space="preserve">3.76096391677856</t>
   </si>
   <si>
     <t xml:space="preserve">3.73615097999573</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7556471824646</t>
+    <t xml:space="preserve">3.75564694404602</t>
   </si>
   <si>
     <t xml:space="preserve">3.74501276016235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79286670684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78932189941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77337050437927</t>
+    <t xml:space="preserve">3.79286694526672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78932166099548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77337074279785</t>
   </si>
   <si>
     <t xml:space="preserve">3.76982569694519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75387501716614</t>
+    <t xml:space="preserve">3.75387454032898</t>
   </si>
   <si>
     <t xml:space="preserve">3.72197198867798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70956563949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74855756759644</t>
+    <t xml:space="preserve">3.70956540107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74855780601501</t>
   </si>
   <si>
     <t xml:space="preserve">3.84781002998352</t>
@@ -191,43 +191,43 @@
     <t xml:space="preserve">3.97896480560303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9435179233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95946860313416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00909566879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96833109855652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9399733543396</t>
+    <t xml:space="preserve">3.94351744651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95946884155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00909519195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96833062171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93997311592102</t>
   </si>
   <si>
     <t xml:space="preserve">4.01086759567261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93820023536682</t>
+    <t xml:space="preserve">3.9382004737854</t>
   </si>
   <si>
     <t xml:space="preserve">3.91870450973511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98605465888977</t>
+    <t xml:space="preserve">3.98605513572693</t>
   </si>
   <si>
     <t xml:space="preserve">3.91693234443665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96124196052551</t>
+    <t xml:space="preserve">3.96124172210693</t>
   </si>
   <si>
     <t xml:space="preserve">3.95237946510315</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90807056427002</t>
+    <t xml:space="preserve">3.90807032585144</t>
   </si>
   <si>
     <t xml:space="preserve">4.02458620071411</t>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89743638038635</t>
+    <t xml:space="preserve">3.89743614196777</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89566373825073</t>
+    <t xml:space="preserve">3.89566421508789</t>
   </si>
   <si>
     <t xml:space="preserve">3.89920902252197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89034652709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88857555389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81059074401855</t>
+    <t xml:space="preserve">3.89034676551819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88857483863831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81059002876282</t>
   </si>
   <si>
     <t xml:space="preserve">3.76628112792969</t>
@@ -65,16 +65,16 @@
     <t xml:space="preserve">3.81945204734802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80172824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65284967422485</t>
+    <t xml:space="preserve">3.80172872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65284991264343</t>
   </si>
   <si>
     <t xml:space="preserve">3.70070385932922</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67766261100769</t>
+    <t xml:space="preserve">3.67766284942627</t>
   </si>
   <si>
     <t xml:space="preserve">3.68652439117432</t>
@@ -86,37 +86,37 @@
     <t xml:space="preserve">3.50928807258606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63335371017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71311044692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69006943702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62626433372498</t>
+    <t xml:space="preserve">3.63335347175598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71311020851135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6900691986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6262640953064</t>
   </si>
   <si>
     <t xml:space="preserve">3.70424795150757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58904457092285</t>
+    <t xml:space="preserve">3.58904480934143</t>
   </si>
   <si>
     <t xml:space="preserve">3.56245875358582</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63867044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67234539985657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67589044570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67411780357361</t>
+    <t xml:space="preserve">3.6386706829071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67234563827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67589020729065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67411804199219</t>
   </si>
   <si>
     <t xml:space="preserve">3.66525626182556</t>
@@ -125,22 +125,22 @@
     <t xml:space="preserve">3.61740207672119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73792314529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77514338493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83717632293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81767988204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88680219650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83894801139832</t>
+    <t xml:space="preserve">3.73792338371277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77514314651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83717584609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81768012046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88680291175842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83894824981689</t>
   </si>
   <si>
     <t xml:space="preserve">3.83363151550293</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">3.75741910934448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76096439361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73615121841431</t>
+    <t xml:space="preserve">3.76096391677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73615097999573</t>
   </si>
   <si>
     <t xml:space="preserve">3.75564694404602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74501252174377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79286670684814</t>
+    <t xml:space="preserve">3.74501276016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79286694526672</t>
   </si>
   <si>
     <t xml:space="preserve">3.78932189941406</t>
@@ -170,28 +170,28 @@
     <t xml:space="preserve">3.77337050437927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76982617378235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75387477874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7219717502594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70956540107727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74855780601501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84781002998352</t>
+    <t xml:space="preserve">3.76982593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75387454032898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72197198867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70956516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74855709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84781050682068</t>
   </si>
   <si>
     <t xml:space="preserve">3.97896504402161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94351768493652</t>
+    <t xml:space="preserve">3.94351744651794</t>
   </si>
   <si>
     <t xml:space="preserve">3.95946884155273</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">4.00909566879272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9683313369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93997311592102</t>
+    <t xml:space="preserve">3.96833109855652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93997359275818</t>
   </si>
   <si>
     <t xml:space="preserve">4.01086807250977</t>
@@ -212,40 +212,40 @@
     <t xml:space="preserve">3.9382004737854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91870450973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98605513572693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91693234443665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96124124526978</t>
+    <t xml:space="preserve">3.91870522499084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98605465888977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91693258285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96124148368835</t>
   </si>
   <si>
     <t xml:space="preserve">3.95237922668457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90807056427002</t>
+    <t xml:space="preserve">3.90807032585144</t>
   </si>
   <si>
     <t xml:space="preserve">4.02458620071411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05171823501587</t>
+    <t xml:space="preserve">4.05171871185303</t>
   </si>
   <si>
     <t xml:space="preserve">3.99745440483093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01554203033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00288105010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980609893799</t>
+    <t xml:space="preserve">4.01554298400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00288057327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980657577515</t>
   </si>
   <si>
     <t xml:space="preserve">4.00830698013306</t>
@@ -254,40 +254,40 @@
     <t xml:space="preserve">3.97936606407166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96127796173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90701413154602</t>
+    <t xml:space="preserve">3.96127772331238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90701389312744</t>
   </si>
   <si>
     <t xml:space="preserve">3.95223379135132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94861674308777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85998582839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91605830192566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8889262676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88711738586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8437066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73156023025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78944206237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61760544776917</t>
+    <t xml:space="preserve">3.94861698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85998511314392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9160578250885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88892602920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88711714744568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84370589256287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73155999183655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78944230079651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61760568618774</t>
   </si>
   <si>
     <t xml:space="preserve">3.63569355010986</t>
@@ -296,19 +296,19 @@
     <t xml:space="preserve">3.7026195526123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65378141403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6447377204895</t>
+    <t xml:space="preserve">3.65378165245056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64473795890808</t>
   </si>
   <si>
     <t xml:space="preserve">3.6809139251709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66101694107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70442843437195</t>
+    <t xml:space="preserve">3.66101670265198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70442819595337</t>
   </si>
   <si>
     <t xml:space="preserve">3.59590005874634</t>
@@ -317,16 +317,16 @@
     <t xml:space="preserve">3.63931131362915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6266496181488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67006087303162</t>
+    <t xml:space="preserve">3.62665009498596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6700611114502</t>
   </si>
   <si>
     <t xml:space="preserve">3.71528077125549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76050114631653</t>
+    <t xml:space="preserve">3.76050138473511</t>
   </si>
   <si>
     <t xml:space="preserve">3.78039765357971</t>
@@ -335,40 +335,40 @@
     <t xml:space="preserve">3.82742667198181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89073514938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84189701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83466148376465</t>
+    <t xml:space="preserve">3.89073467254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84189748764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83466172218323</t>
   </si>
   <si>
     <t xml:space="preserve">3.81657385826111</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76773643493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79848575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81476497650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80029487609863</t>
+    <t xml:space="preserve">3.76773619651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79848599433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81476521492004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80029511451721</t>
   </si>
   <si>
     <t xml:space="preserve">3.81295657157898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77135419845581</t>
+    <t xml:space="preserve">3.77135396003723</t>
   </si>
   <si>
     <t xml:space="preserve">3.77497148513794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82561779022217</t>
+    <t xml:space="preserve">3.82561755180359</t>
   </si>
   <si>
     <t xml:space="preserve">3.75688338279724</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">3.74783945083618</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7948682308197</t>
+    <t xml:space="preserve">3.79486846923828</t>
   </si>
   <si>
     <t xml:space="preserve">3.74422192573547</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">3.74964833259583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73336911201477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72613382339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76230978965759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75326609611511</t>
+    <t xml:space="preserve">3.73336863517761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7261335849762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76230955123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75326585769653</t>
   </si>
   <si>
     <t xml:space="preserve">3.74603080749512</t>
@@ -410,22 +410,22 @@
     <t xml:space="preserve">3.75145697593689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77678036689758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78220701217651</t>
+    <t xml:space="preserve">3.77678060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78220677375793</t>
   </si>
   <si>
     <t xml:space="preserve">3.71889853477478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70804595947266</t>
+    <t xml:space="preserve">3.7080454826355</t>
   </si>
   <si>
     <t xml:space="preserve">3.71708989143372</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68814921379089</t>
+    <t xml:space="preserve">3.68814897537231</t>
   </si>
   <si>
     <t xml:space="preserve">3.71166348457336</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">3.73698663711548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80572128295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85817646980286</t>
+    <t xml:space="preserve">3.80572152137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85817623138428</t>
   </si>
   <si>
     <t xml:space="preserve">3.83647084236145</t>
@@ -452,58 +452,61 @@
     <t xml:space="preserve">3.85094118118286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85275053977966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95042538642883</t>
+    <t xml:space="preserve">3.8527500629425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95042586326599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95946931838989</t>
   </si>
   <si>
     <t xml:space="preserve">3.94680738449097</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92510199546814</t>
+    <t xml:space="preserve">3.92510223388672</t>
   </si>
   <si>
     <t xml:space="preserve">3.89796996116638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87083864212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86179423332214</t>
+    <t xml:space="preserve">3.87083840370178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86179375648499</t>
   </si>
   <si>
     <t xml:space="preserve">3.89977884292603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96670484542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93414640426636</t>
+    <t xml:space="preserve">3.96670508384705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93414616584778</t>
   </si>
   <si>
     <t xml:space="preserve">3.97755742073059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00649833679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00468969345093</t>
+    <t xml:space="preserve">4.00649881362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00468921661377</t>
   </si>
   <si>
     <t xml:space="preserve">3.90882301330566</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97393989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90339660644531</t>
+    <t xml:space="preserve">3.97394013404846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90339684486389</t>
   </si>
   <si>
     <t xml:space="preserve">4.04086542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04629230499268</t>
+    <t xml:space="preserve">4.04629182815552</t>
   </si>
   <si>
     <t xml:space="preserve">4.03363037109375</t>
@@ -512,85 +515,85 @@
     <t xml:space="preserve">4.0661883354187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07885074615479</t>
+    <t xml:space="preserve">4.07885122299194</t>
   </si>
   <si>
     <t xml:space="preserve">4.04267406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08789396286011</t>
+    <t xml:space="preserve">4.08789443969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.0969386100769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1692910194397</t>
+    <t xml:space="preserve">4.16929054260254</t>
   </si>
   <si>
     <t xml:space="preserve">4.09512948989868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11502647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43156623840332</t>
+    <t xml:space="preserve">4.11502695083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43156719207764</t>
   </si>
   <si>
     <t xml:space="preserve">4.40443515777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37368488311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37549352645874</t>
+    <t xml:space="preserve">4.37368535995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37549448013306</t>
   </si>
   <si>
     <t xml:space="preserve">4.35559701919556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29952478408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14215803146362</t>
+    <t xml:space="preserve">4.29952430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14215850830078</t>
   </si>
   <si>
     <t xml:space="preserve">4.06257104873657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01011610031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06799745559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98117446899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94499897956848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94319009780884</t>
+    <t xml:space="preserve">4.01011562347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06799793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9811749458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94499850273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.943190574646</t>
   </si>
   <si>
     <t xml:space="preserve">3.97213101387024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95766043663025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86541199684143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89254355430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92871928215027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97032189369202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98878884315491</t>
+    <t xml:space="preserve">3.95766067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86541175842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89254379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92872023582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9703221321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98878908157349</t>
   </si>
   <si>
     <t xml:space="preserve">4.01648855209351</t>
@@ -602,31 +605,28 @@
     <t xml:space="preserve">4.09404850006104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97032237052917</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.91492199897766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89645528793335</t>
+    <t xml:space="preserve">3.89645600318909</t>
   </si>
   <si>
     <t xml:space="preserve">3.95185565948486</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09035491943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15498781204224</t>
+    <t xml:space="preserve">4.09035539627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15498828887939</t>
   </si>
   <si>
     <t xml:space="preserve">4.20115518569946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15314197540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13282775878906</t>
+    <t xml:space="preserve">4.15314149856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13282871246338</t>
   </si>
   <si>
     <t xml:space="preserve">4.08481502532959</t>
@@ -635,19 +635,19 @@
     <t xml:space="preserve">4.06265544891357</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02018213272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07927560806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10882186889648</t>
+    <t xml:space="preserve">4.02018165588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07927513122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10882091522217</t>
   </si>
   <si>
     <t xml:space="preserve">4.05896234512329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0995888710022</t>
+    <t xml:space="preserve">4.09958839416504</t>
   </si>
   <si>
     <t xml:space="preserve">4.11805486679077</t>
@@ -659,22 +659,22 @@
     <t xml:space="preserve">4.08112239837646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11620855331421</t>
+    <t xml:space="preserve">4.11620903015137</t>
   </si>
   <si>
     <t xml:space="preserve">4.08850860595703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17899465560913</t>
+    <t xml:space="preserve">4.17899513244629</t>
   </si>
   <si>
     <t xml:space="preserve">4.18268823623657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19192171096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13652181625366</t>
+    <t xml:space="preserve">4.19192123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1365213394165</t>
   </si>
   <si>
     <t xml:space="preserve">4.11990165710449</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">4.23624134063721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18084192276001</t>
+    <t xml:space="preserve">4.18084144592285</t>
   </si>
   <si>
     <t xml:space="preserve">4.164222240448</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">4.15129518508911</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14575481414795</t>
+    <t xml:space="preserve">4.14575433731079</t>
   </si>
   <si>
     <t xml:space="preserve">4.16237449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17714834213257</t>
+    <t xml:space="preserve">4.17714881896973</t>
   </si>
   <si>
     <t xml:space="preserve">4.12913513183594</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">4.19930791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13836765289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09589529037476</t>
+    <t xml:space="preserve">4.13836860656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0958948135376</t>
   </si>
   <si>
     <t xml:space="preserve">4.12728786468506</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">4.1051287651062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1605281829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24547529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15868186950684</t>
+    <t xml:space="preserve">4.16052865982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24547481536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15868139266968</t>
   </si>
   <si>
     <t xml:space="preserve">4.14760208129883</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">4.14390802383423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17345476150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17530202865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21777486801147</t>
+    <t xml:space="preserve">4.17345523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17530107498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21777439117432</t>
   </si>
   <si>
     <t xml:space="preserve">4.2196216583252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02202892303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0700421333313</t>
+    <t xml:space="preserve">4.02202844619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07004165649414</t>
   </si>
   <si>
     <t xml:space="preserve">4.0109486579895</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">4.0608081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11251544952393</t>
+    <t xml:space="preserve">4.11251497268677</t>
   </si>
   <si>
     <t xml:space="preserve">4.07373523712158</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99248194694519</t>
+    <t xml:space="preserve">3.99248242378235</t>
   </si>
   <si>
     <t xml:space="preserve">3.95000910758972</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">3.94262218475342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02572202682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802231788635</t>
+    <t xml:space="preserve">4.02572250366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802207946777</t>
   </si>
   <si>
     <t xml:space="preserve">3.96293544769287</t>
@@ -815,31 +815,31 @@
     <t xml:space="preserve">4.02387523651123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07188844680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90568947792053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8779890537262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97955513000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85952210426331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92415547370911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93338966369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96108841896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88722252845764</t>
+    <t xml:space="preserve">4.07188892364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90568900108337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87798881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97955560684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85952234268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92415523529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93338918685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96108865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88722276687622</t>
   </si>
   <si>
     <t xml:space="preserve">3.8502893447876</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">3.81335616111755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83182263374329</t>
+    <t xml:space="preserve">3.83182239532471</t>
   </si>
   <si>
     <t xml:space="preserve">4.04594755172729</t>
@@ -9130,7 +9130,7 @@
         <v>4.37799978256226</v>
       </c>
       <c r="G257" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9182,7 +9182,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G259" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9208,7 +9208,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G260" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9234,7 +9234,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G261" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9260,7 +9260,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G262" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9286,7 +9286,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G263" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9312,7 +9312,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G264" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9338,7 +9338,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G265" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9364,7 +9364,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G266" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9442,7 +9442,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G269" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9468,7 +9468,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G270" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9546,7 +9546,7 @@
         <v>4.31199979782104</v>
       </c>
       <c r="G273" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9572,7 +9572,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G274" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9624,7 +9624,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G276" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9650,7 +9650,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G277" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9676,7 +9676,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G278" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9702,7 +9702,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G279" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9728,7 +9728,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G280" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9806,7 +9806,7 @@
         <v>4.32200002670288</v>
       </c>
       <c r="G283" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9832,7 +9832,7 @@
         <v>4.32200002670288</v>
       </c>
       <c r="G284" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9884,7 +9884,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G286" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9910,7 +9910,7 @@
         <v>4.39400005340576</v>
       </c>
       <c r="G287" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9962,7 +9962,7 @@
         <v>4.31599998474121</v>
       </c>
       <c r="G289" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10040,7 +10040,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G292" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10066,7 +10066,7 @@
         <v>4.47399997711182</v>
       </c>
       <c r="G293" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10118,7 +10118,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G295" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10170,7 +10170,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G297" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10196,7 +10196,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G298" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10248,7 +10248,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G300" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10300,7 +10300,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G302" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10352,7 +10352,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G304" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10378,7 +10378,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G305" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10456,7 +10456,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G308" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10560,7 +10560,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G312" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10586,7 +10586,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G313" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10612,7 +10612,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G314" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10638,7 +10638,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G315" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10664,7 +10664,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G316" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10690,7 +10690,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G317" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10716,7 +10716,7 @@
         <v>4.83599996566772</v>
       </c>
       <c r="G318" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10742,7 +10742,7 @@
         <v>4.83799982070923</v>
       </c>
       <c r="G319" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10768,7 +10768,7 @@
         <v>4.81599998474121</v>
       </c>
       <c r="G320" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10794,7 +10794,7 @@
         <v>4.75400018692017</v>
       </c>
       <c r="G321" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10820,7 +10820,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10846,7 +10846,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G323" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10898,7 +10898,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G325" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10924,7 +10924,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G326" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10950,7 +10950,7 @@
         <v>4.43400001525879</v>
       </c>
       <c r="G327" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10976,7 +10976,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G328" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11106,7 +11106,7 @@
         <v>4.40199995040894</v>
       </c>
       <c r="G333" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11132,7 +11132,7 @@
         <v>4.36199998855591</v>
       </c>
       <c r="G334" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11158,7 +11158,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G335" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11262,7 +11262,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G339" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11288,7 +11288,7 @@
         <v>4.37599992752075</v>
       </c>
       <c r="G340" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11314,7 +11314,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G341" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11340,7 +11340,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G342" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11418,7 +11418,7 @@
         <v>4.30399990081787</v>
       </c>
       <c r="G345" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11600,7 +11600,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G352" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11626,7 +11626,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G353" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11652,7 +11652,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G354" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11678,7 +11678,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G355" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11704,7 +11704,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G356" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11730,7 +11730,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G357" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11756,7 +11756,7 @@
         <v>4.43400001525879</v>
       </c>
       <c r="G358" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11782,7 +11782,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G359" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12068,7 +12068,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15084,7 +15084,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G486" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15136,7 +15136,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16306,7 +16306,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G533" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16332,7 +16332,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G534" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16436,7 +16436,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16618,7 +16618,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G545" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16644,7 +16644,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G546" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16670,7 +16670,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G547" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16748,7 +16748,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G550" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16774,7 +16774,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G551" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16800,7 +16800,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17060,7 +17060,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G562" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17138,7 +17138,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G565" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17164,7 +17164,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17190,7 +17190,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G567" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17710,7 +17710,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G587" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18126,7 +18126,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G603" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18152,7 +18152,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G604" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18230,7 +18230,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G607" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18542,7 +18542,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G619" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18776,7 +18776,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18802,7 +18802,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G629" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18880,7 +18880,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18906,7 +18906,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19270,7 +19270,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19296,7 +19296,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19322,7 +19322,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G649" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19348,7 +19348,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G650" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19374,7 +19374,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G651" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19400,7 +19400,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19426,7 +19426,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G653" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19452,7 +19452,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19504,7 +19504,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19634,7 +19634,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G661" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19660,7 +19660,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G662" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19686,7 +19686,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19712,7 +19712,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G664" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19738,7 +19738,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G665" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19764,7 +19764,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19998,7 +19998,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G675" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20024,7 +20024,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G676" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20518,7 +20518,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20544,7 +20544,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G696" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -58356,7 +58356,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.4396527778</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>1500</v>
@@ -58377,6 +58377,32 @@
         <v>674</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6162962963</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>4.90000009536743</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>4.78999996185303</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>4.90000009536743</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>4.88000011444092</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>697</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89743614196777</t>
+    <t xml:space="preserve">3.89743590354919</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89566421508789</t>
+    <t xml:space="preserve">3.89566373825073</t>
   </si>
   <si>
     <t xml:space="preserve">3.89920902252197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89034676551819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88857483863831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81059002876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76628112792969</t>
+    <t xml:space="preserve">3.89034628868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88857460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81059074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76628184318542</t>
   </si>
   <si>
     <t xml:space="preserve">3.81945204734802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80172872543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65284991264343</t>
+    <t xml:space="preserve">3.80172824859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65284967422485</t>
   </si>
   <si>
     <t xml:space="preserve">3.70070385932922</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">3.67766284942627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68652439117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6670286655426</t>
+    <t xml:space="preserve">3.6865246295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66702890396118</t>
   </si>
   <si>
     <t xml:space="preserve">3.50928807258606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63335347175598</t>
+    <t xml:space="preserve">3.63335371017456</t>
   </si>
   <si>
     <t xml:space="preserve">3.71311020851135</t>
@@ -98,19 +98,19 @@
     <t xml:space="preserve">3.6262640953064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70424795150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58904480934143</t>
+    <t xml:space="preserve">3.70424818992615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58904457092285</t>
   </si>
   <si>
     <t xml:space="preserve">3.56245875358582</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6386706829071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67234563827515</t>
+    <t xml:space="preserve">3.63867092132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67234587669373</t>
   </si>
   <si>
     <t xml:space="preserve">3.67589020729065</t>
@@ -125,70 +125,70 @@
     <t xml:space="preserve">3.61740207672119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73792338371277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77514314651489</t>
+    <t xml:space="preserve">3.73792314529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77514338493347</t>
   </si>
   <si>
     <t xml:space="preserve">3.83717584609985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81768012046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88680291175842</t>
+    <t xml:space="preserve">3.81768035888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88680219650269</t>
   </si>
   <si>
     <t xml:space="preserve">3.83894824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83363151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75741910934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76096391677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73615097999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75564694404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74501276016235</t>
+    <t xml:space="preserve">3.83363127708435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75741934776306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76096343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73615074157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75564622879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7450122833252</t>
   </si>
   <si>
     <t xml:space="preserve">3.79286694526672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78932189941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77337050437927</t>
+    <t xml:space="preserve">3.78932213783264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77337098121643</t>
   </si>
   <si>
     <t xml:space="preserve">3.76982593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75387454032898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72197198867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70956516265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74855709075928</t>
+    <t xml:space="preserve">3.7538743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7219717502594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70956540107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74855756759644</t>
   </si>
   <si>
     <t xml:space="preserve">3.84781050682068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97896504402161</t>
+    <t xml:space="preserve">3.97896528244019</t>
   </si>
   <si>
     <t xml:space="preserve">3.94351744651794</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">3.95946884155273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00909566879272</t>
+    <t xml:space="preserve">4.00909519195557</t>
   </si>
   <si>
     <t xml:space="preserve">3.96833109855652</t>
@@ -206,25 +206,25 @@
     <t xml:space="preserve">3.93997359275818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01086807250977</t>
+    <t xml:space="preserve">4.01086854934692</t>
   </si>
   <si>
     <t xml:space="preserve">3.9382004737854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91870522499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98605465888977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91693258285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96124148368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95237922668457</t>
+    <t xml:space="preserve">3.91870498657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98605513572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9169328212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96124172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95237946510315</t>
   </si>
   <si>
     <t xml:space="preserve">3.90807032585144</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">4.02458620071411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05171871185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99745440483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01554298400879</t>
+    <t xml:space="preserve">4.05171775817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99745464324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01554250717163</t>
   </si>
   <si>
     <t xml:space="preserve">4.00288057327271</t>
@@ -248,76 +248,76 @@
     <t xml:space="preserve">4.06980657577515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00830698013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97936606407166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96127772331238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90701389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95223379135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94861698150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85998511314392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9160578250885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88892602920532</t>
+    <t xml:space="preserve">4.00830745697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97936654090881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96127796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90701460838318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95223426818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94861674308777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85998558998108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91605830192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8889262676239</t>
   </si>
   <si>
     <t xml:space="preserve">3.88711714744568</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84370589256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73155999183655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78944230079651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61760568618774</t>
+    <t xml:space="preserve">3.84370613098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73156023025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78944182395935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61760544776917</t>
   </si>
   <si>
     <t xml:space="preserve">3.63569355010986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7026195526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65378165245056</t>
+    <t xml:space="preserve">3.70261931419373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65378141403198</t>
   </si>
   <si>
     <t xml:space="preserve">3.64473795890808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6809139251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66101670265198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70442819595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59590005874634</t>
+    <t xml:space="preserve">3.68091416358948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66101694107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70442867279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59590029716492</t>
   </si>
   <si>
     <t xml:space="preserve">3.63931131362915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62665009498596</t>
+    <t xml:space="preserve">3.62664985656738</t>
   </si>
   <si>
     <t xml:space="preserve">3.6700611114502</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">3.71528077125549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76050138473511</t>
+    <t xml:space="preserve">3.76050114631653</t>
   </si>
   <si>
     <t xml:space="preserve">3.78039765357971</t>
@@ -335,94 +335,94 @@
     <t xml:space="preserve">3.82742667198181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89073467254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84189748764038</t>
+    <t xml:space="preserve">3.89073514938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8418972492218</t>
   </si>
   <si>
     <t xml:space="preserve">3.83466172218323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81657385826111</t>
+    <t xml:space="preserve">3.81657338142395</t>
   </si>
   <si>
     <t xml:space="preserve">3.76773619651794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79848599433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81476521492004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80029511451721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295657157898</t>
+    <t xml:space="preserve">3.79848551750183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81476497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80029439926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295609474182</t>
   </si>
   <si>
     <t xml:space="preserve">3.77135396003723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77497148513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82561755180359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75688338279724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80753016471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74783945083618</t>
+    <t xml:space="preserve">3.77497100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82561802864075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75688314437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80752944946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74783968925476</t>
   </si>
   <si>
     <t xml:space="preserve">3.79486846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74422192573547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78763318061829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74964833259583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73336863517761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7261335849762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76230955123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75326585769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74603080749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75145697593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77678060531616</t>
+    <t xml:space="preserve">3.74422216415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78763341903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74964809417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73336887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72613382339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76230978965759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75326609611511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7460310459137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75145649909973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77678036689758</t>
   </si>
   <si>
     <t xml:space="preserve">3.78220677375793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71889853477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7080454826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71708989143372</t>
+    <t xml:space="preserve">3.71889877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70804595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71709012985229</t>
   </si>
   <si>
     <t xml:space="preserve">3.68814897537231</t>
@@ -431,40 +431,37 @@
     <t xml:space="preserve">3.71166348457336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7550745010376</t>
+    <t xml:space="preserve">3.75507473945618</t>
   </si>
   <si>
     <t xml:space="preserve">3.73698663711548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80572152137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85817623138428</t>
+    <t xml:space="preserve">3.80572104454041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85817646980286</t>
   </si>
   <si>
     <t xml:space="preserve">3.83647084236145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84008836746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85094118118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8527500629425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95042586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95946931838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94680738449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92510223388672</t>
+    <t xml:space="preserve">3.84008765220642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85094141960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85275053977966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95042538642883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94680786132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9251024723053</t>
   </si>
   <si>
     <t xml:space="preserve">3.89796996116638</t>
@@ -473,49 +470,49 @@
     <t xml:space="preserve">3.87083840370178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86179375648499</t>
+    <t xml:space="preserve">3.86179399490356</t>
   </si>
   <si>
     <t xml:space="preserve">3.89977884292603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96670508384705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93414616584778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97755742073059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00649881362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00468921661377</t>
+    <t xml:space="preserve">3.96670460700989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9341459274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97755670547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00649833679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00468969345093</t>
   </si>
   <si>
     <t xml:space="preserve">3.90882301330566</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97394013404846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90339684486389</t>
+    <t xml:space="preserve">3.97393989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90339636802673</t>
   </si>
   <si>
     <t xml:space="preserve">4.04086542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04629182815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03363037109375</t>
+    <t xml:space="preserve">4.04629230499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03363084793091</t>
   </si>
   <si>
     <t xml:space="preserve">4.0661883354187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07885122299194</t>
+    <t xml:space="preserve">4.07885026931763</t>
   </si>
   <si>
     <t xml:space="preserve">4.04267406463623</t>
@@ -527,7 +524,7 @@
     <t xml:space="preserve">4.0969386100769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16929054260254</t>
+    <t xml:space="preserve">4.1692910194397</t>
   </si>
   <si>
     <t xml:space="preserve">4.09512948989868</t>
@@ -539,25 +536,25 @@
     <t xml:space="preserve">4.43156719207764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40443515777588</t>
+    <t xml:space="preserve">4.40443468093872</t>
   </si>
   <si>
     <t xml:space="preserve">4.37368535995483</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37549448013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35559701919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29952430725098</t>
+    <t xml:space="preserve">4.37549352645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35559749603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29952478408813</t>
   </si>
   <si>
     <t xml:space="preserve">4.14215850830078</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06257104873657</t>
+    <t xml:space="preserve">4.06257152557373</t>
   </si>
   <si>
     <t xml:space="preserve">4.01011562347412</t>
@@ -569,28 +566,28 @@
     <t xml:space="preserve">3.9811749458313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94499850273132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.943190574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97213101387024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95766067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86541175842285</t>
+    <t xml:space="preserve">3.94499897956848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94319009780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97213125228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95766043663025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86541199684143</t>
   </si>
   <si>
     <t xml:space="preserve">3.89254379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92872023582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9703221321106</t>
+    <t xml:space="preserve">3.92871928215027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97032141685486</t>
   </si>
   <si>
     <t xml:space="preserve">3.98878908157349</t>
@@ -599,22 +596,25 @@
     <t xml:space="preserve">4.01648855209351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00725555419922</t>
+    <t xml:space="preserve">4.00725603103638</t>
   </si>
   <si>
     <t xml:space="preserve">4.09404850006104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91492199897766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89645600318909</t>
+    <t xml:space="preserve">3.97032189369202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91492223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89645504951477</t>
   </si>
   <si>
     <t xml:space="preserve">3.95185565948486</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09035539627075</t>
+    <t xml:space="preserve">4.09035491943359</t>
   </si>
   <si>
     <t xml:space="preserve">4.15498828887939</t>
@@ -623,28 +623,28 @@
     <t xml:space="preserve">4.20115518569946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15314149856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13282871246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08481502532959</t>
+    <t xml:space="preserve">4.15314197540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13282823562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08481550216675</t>
   </si>
   <si>
     <t xml:space="preserve">4.06265544891357</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02018165588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07927513122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10882091522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05896234512329</t>
+    <t xml:space="preserve">4.02018213272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07927560806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10882139205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05896186828613</t>
   </si>
   <si>
     <t xml:space="preserve">4.09958839416504</t>
@@ -653,13 +653,13 @@
     <t xml:space="preserve">4.11805486679077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10697555541992</t>
+    <t xml:space="preserve">4.10697507858276</t>
   </si>
   <si>
     <t xml:space="preserve">4.08112239837646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11620903015137</t>
+    <t xml:space="preserve">4.11620807647705</t>
   </si>
   <si>
     <t xml:space="preserve">4.08850860595703</t>
@@ -671,13 +671,13 @@
     <t xml:space="preserve">4.18268823623657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19192123413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1365213394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11990165710449</t>
+    <t xml:space="preserve">4.19192171096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13652181625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11990213394165</t>
   </si>
   <si>
     <t xml:space="preserve">4.23624134063721</t>
@@ -686,34 +686,34 @@
     <t xml:space="preserve">4.18084144592285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.164222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15129518508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14575433731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16237449645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17714881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12913513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19930791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13836860656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0958948135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12728786468506</t>
+    <t xml:space="preserve">4.16422176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15129470825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14575481414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16237497329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17714834213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12913465499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19930839538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13836812973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09589529037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12728834152222</t>
   </si>
   <si>
     <t xml:space="preserve">4.19561529159546</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">4.1051287651062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16052865982056</t>
+    <t xml:space="preserve">4.1605281829834</t>
   </si>
   <si>
     <t xml:space="preserve">4.24547481536865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15868139266968</t>
+    <t xml:space="preserve">4.15868234634399</t>
   </si>
   <si>
     <t xml:space="preserve">4.14760208129883</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">4.14206171035767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14390802383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17345523834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17530107498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21777439117432</t>
+    <t xml:space="preserve">4.14390850067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17345476150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17530202865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21777486801147</t>
   </si>
   <si>
     <t xml:space="preserve">4.2196216583252</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">4.02202844619751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07004165649414</t>
+    <t xml:space="preserve">4.0700421333313</t>
   </si>
   <si>
     <t xml:space="preserve">4.0109486579895</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">3.96847534179688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0460352897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.948162317276</t>
+    <t xml:space="preserve">4.04603576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94816184043884</t>
   </si>
   <si>
     <t xml:space="preserve">4.0608081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11251497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07373523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99248242378235</t>
+    <t xml:space="preserve">4.11251449584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07373571395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99248170852661</t>
   </si>
   <si>
     <t xml:space="preserve">3.95000910758972</t>
@@ -803,25 +803,25 @@
     <t xml:space="preserve">3.94262218475342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02572250366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802207946777</t>
+    <t xml:space="preserve">4.02572202682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802231788635</t>
   </si>
   <si>
     <t xml:space="preserve">3.96293544769287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02387523651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07188892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90568900108337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87798881530762</t>
+    <t xml:space="preserve">4.02387571334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07188844680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90568923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87798929214478</t>
   </si>
   <si>
     <t xml:space="preserve">3.97955560684204</t>
@@ -830,25 +830,25 @@
     <t xml:space="preserve">3.85952234268188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92415523529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93338918685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96108865737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88722276687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8502893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81335616111755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83182239532471</t>
+    <t xml:space="preserve">3.92415595054626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93338942527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96108889579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88722229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85028910636902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81335639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83182287216187</t>
   </si>
   <si>
     <t xml:space="preserve">4.04594755172729</t>
@@ -860,37 +860,37 @@
     <t xml:space="preserve">4.06485366821289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99868154525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01758766174316</t>
+    <t xml:space="preserve">3.99868178367615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01758813858032</t>
   </si>
   <si>
     <t xml:space="preserve">4.05540037155151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98922872543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92305636405945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9419629573822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80016541481018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72454047203064</t>
+    <t xml:space="preserve">3.98922801017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92305660247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94196271896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80016565322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72454023361206</t>
   </si>
   <si>
     <t xml:space="preserve">3.78125929832458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76235318183899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74344658851624</t>
+    <t xml:space="preserve">3.76235270500183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74344682693481</t>
   </si>
   <si>
     <t xml:space="preserve">3.73399353027344</t>
@@ -902,25 +902,25 @@
     <t xml:space="preserve">3.64891505241394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54493045806885</t>
+    <t xml:space="preserve">3.54493069648743</t>
   </si>
   <si>
     <t xml:space="preserve">3.45039892196655</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30860161781311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37477397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35586738586426</t>
+    <t xml:space="preserve">3.30860185623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37477374076843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35586762428284</t>
   </si>
   <si>
     <t xml:space="preserve">3.39368009567261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40313315391541</t>
+    <t xml:space="preserve">3.40313339233398</t>
   </si>
   <si>
     <t xml:space="preserve">3.47875881195068</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">3.4882116317749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38422703742981</t>
+    <t xml:space="preserve">3.38422679901123</t>
   </si>
   <si>
     <t xml:space="preserve">3.46930551528931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45985245704651</t>
+    <t xml:space="preserve">3.45985221862793</t>
   </si>
   <si>
     <t xml:space="preserve">3.42203950881958</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">3.4976646900177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51657104492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33696150779724</t>
+    <t xml:space="preserve">3.51657128334045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33696126937866</t>
   </si>
   <si>
     <t xml:space="preserve">3.63000869750977</t>
@@ -956,10 +956,10 @@
     <t xml:space="preserve">3.59219622612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52602434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67727470397949</t>
+    <t xml:space="preserve">3.52602410316467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67727494239807</t>
   </si>
   <si>
     <t xml:space="preserve">3.50711798667908</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">3.70563411712646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62055587768555</t>
+    <t xml:space="preserve">3.62055563926697</t>
   </si>
   <si>
     <t xml:space="preserve">3.63946199417114</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">3.61110258102417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5732901096344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55438351631165</t>
+    <t xml:space="preserve">3.57328987121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55438375473022</t>
   </si>
   <si>
     <t xml:space="preserve">3.5827431678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60164928436279</t>
+    <t xml:space="preserve">3.60164952278137</t>
   </si>
   <si>
     <t xml:space="preserve">3.66782164573669</t>
@@ -1004,13 +1004,13 @@
     <t xml:space="preserve">3.7270679473877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57177352905273</t>
+    <t xml:space="preserve">3.57177376747131</t>
   </si>
   <si>
     <t xml:space="preserve">3.64942073822021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61059713363647</t>
+    <t xml:space="preserve">3.61059737205505</t>
   </si>
   <si>
     <t xml:space="preserve">3.68824434280396</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">3.80471539497375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82412719726562</t>
+    <t xml:space="preserve">3.82412695884705</t>
   </si>
   <si>
     <t xml:space="preserve">3.76589179039001</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">3.8435389995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86295080184937</t>
+    <t xml:space="preserve">3.86295056343079</t>
   </si>
   <si>
     <t xml:space="preserve">3.88236260414124</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">3.74647974967957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66883277893066</t>
+    <t xml:space="preserve">3.66883254051208</t>
   </si>
   <si>
     <t xml:space="preserve">3.63000893592834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59118556976318</t>
+    <t xml:space="preserve">3.5911853313446</t>
   </si>
   <si>
     <t xml:space="preserve">3.55236172676086</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">3.49412631988525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53294992446899</t>
+    <t xml:space="preserve">3.53295016288757</t>
   </si>
   <si>
     <t xml:space="preserve">3.43589091300964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45530247688293</t>
+    <t xml:space="preserve">3.45530271530151</t>
   </si>
   <si>
     <t xml:space="preserve">3.4747142791748</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">3.12530183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0864782333374</t>
+    <t xml:space="preserve">3.08647847175598</t>
   </si>
   <si>
     <t xml:space="preserve">3.06706643104553</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">3.04765486717224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93118357658386</t>
+    <t xml:space="preserve">2.93118381500244</t>
   </si>
   <si>
     <t xml:space="preserve">2.87294840812683</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.85353636741638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98941922187805</t>
+    <t xml:space="preserve">2.98941898345947</t>
   </si>
   <si>
     <t xml:space="preserve">2.91177201271057</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">3.14471364021301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00883078575134</t>
+    <t xml:space="preserve">3.00883102416992</t>
   </si>
   <si>
     <t xml:space="preserve">2.97000741958618</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">2.83412480354309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81471300125122</t>
+    <t xml:space="preserve">2.81471276283264</t>
   </si>
   <si>
     <t xml:space="preserve">2.77588891983032</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">2.75647735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56235933303833</t>
+    <t xml:space="preserve">2.56235957145691</t>
   </si>
   <si>
     <t xml:space="preserve">2.64000654220581</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">2.52353572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48471188545227</t>
+    <t xml:space="preserve">2.48471212387085</t>
   </si>
   <si>
     <t xml:space="preserve">2.34882950782776</t>
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">2.15471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25177025794983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03824019432068</t>
+    <t xml:space="preserve">2.25177001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03824043273926</t>
   </si>
   <si>
     <t xml:space="preserve">2.21294665336609</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">2.2711820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31000566482544</t>
+    <t xml:space="preserve">2.31000590324402</t>
   </si>
   <si>
     <t xml:space="preserve">2.32941746711731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28088784217834</t>
+    <t xml:space="preserve">2.28088808059692</t>
   </si>
   <si>
     <t xml:space="preserve">2.42647647857666</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">2.44588851928711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29059386253357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30029988288879</t>
+    <t xml:space="preserve">2.29059362411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30029964447021</t>
   </si>
   <si>
     <t xml:space="preserve">2.3585352897644</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">2.37794709205627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31971168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2420642375946</t>
+    <t xml:space="preserve">2.31971192359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24206447601318</t>
   </si>
   <si>
     <t xml:space="preserve">2.26147603988647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36824131011963</t>
+    <t xml:space="preserve">2.36824107170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.33912348747253</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.19353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324063301086</t>
+    <t xml:space="preserve">2.20324087142944</t>
   </si>
   <si>
     <t xml:space="preserve">2.18382883071899</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">2.11588764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12559366226196</t>
+    <t xml:space="preserve">2.12559342384338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08676981925964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0479462146759</t>
+    <t xml:space="preserve">2.04794597625732</t>
   </si>
   <si>
     <t xml:space="preserve">1.99941670894623</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">1.94118130207062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95088708400726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97029900550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22265267372131</t>
+    <t xml:space="preserve">1.95088720321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97029888629913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22265243530273</t>
   </si>
   <si>
     <t xml:space="preserve">2.16441702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38765287399292</t>
+    <t xml:space="preserve">2.3876531124115</t>
   </si>
   <si>
     <t xml:space="preserve">2.39735889434814</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">2.5817711353302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8923602104187</t>
+    <t xml:space="preserve">2.89235997200012</t>
   </si>
   <si>
     <t xml:space="preserve">2.67883014678955</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">2.65941834449768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61088895797729</t>
+    <t xml:space="preserve">2.61088871955872</t>
   </si>
   <si>
     <t xml:space="preserve">2.69824194908142</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">2.66912436485291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63030052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55265331268311</t>
+    <t xml:space="preserve">2.63030076026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55265355110168</t>
   </si>
   <si>
     <t xml:space="preserve">2.54294729232788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53324151039124</t>
+    <t xml:space="preserve">2.53324127197266</t>
   </si>
   <si>
     <t xml:space="preserve">2.71765375137329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72735953330994</t>
+    <t xml:space="preserve">2.72735977172852</t>
   </si>
   <si>
     <t xml:space="preserve">2.70794773101807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74677157402039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.805006980896</t>
+    <t xml:space="preserve">2.74677133560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80500721931458</t>
   </si>
   <si>
     <t xml:space="preserve">2.96030139923096</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">3.01853680610657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99912476539612</t>
+    <t xml:space="preserve">2.9991250038147</t>
   </si>
   <si>
     <t xml:space="preserve">2.97971320152283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05736064910889</t>
+    <t xml:space="preserve">3.05736041069031</t>
   </si>
   <si>
     <t xml:space="preserve">3.18353724479675</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">3.23206663131714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25147843360901</t>
+    <t xml:space="preserve">3.25147867202759</t>
   </si>
   <si>
     <t xml:space="preserve">3.26118445396423</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">3.21265506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19324326515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15441942214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17383122444153</t>
+    <t xml:space="preserve">3.1932430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15441966056824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17383146286011</t>
   </si>
   <si>
     <t xml:space="preserve">3.29030251502991</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">3.28059649467468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32912588119507</t>
+    <t xml:space="preserve">3.32912611961365</t>
   </si>
   <si>
     <t xml:space="preserve">3.34853768348694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27089047431946</t>
+    <t xml:space="preserve">3.27089023590088</t>
   </si>
   <si>
     <t xml:space="preserve">3.1155960559845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09618425369263</t>
+    <t xml:space="preserve">3.09618401527405</t>
   </si>
   <si>
     <t xml:space="preserve">3.03794884681702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07677221298218</t>
+    <t xml:space="preserve">3.07677245140076</t>
   </si>
   <si>
     <t xml:space="preserve">2.94088959693909</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">2.86324238777161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82441902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13500785827637</t>
+    <t xml:space="preserve">2.82441878318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13500761985779</t>
   </si>
   <si>
     <t xml:space="preserve">3.3097140789032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6203031539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6979501247406</t>
+    <t xml:space="preserve">3.62030291557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69795036315918</t>
   </si>
   <si>
     <t xml:space="preserve">3.73677396774292</t>
@@ -1457,22 +1457,22 @@
     <t xml:space="preserve">3.91148042678833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97942137718201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96971607208252</t>
+    <t xml:space="preserve">3.97942161560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96971559524536</t>
   </si>
   <si>
     <t xml:space="preserve">4.00853967666626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07648038864136</t>
+    <t xml:space="preserve">4.07648086547852</t>
   </si>
   <si>
     <t xml:space="preserve">3.99883341789246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09589242935181</t>
+    <t xml:space="preserve">4.09589195251465</t>
   </si>
   <si>
     <t xml:space="preserve">4.23177528381348</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">4.26089286804199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37736415863037</t>
+    <t xml:space="preserve">4.37736368179321</t>
   </si>
   <si>
     <t xml:space="preserve">4.36765766143799</t>
@@ -1496,25 +1496,25 @@
     <t xml:space="preserve">4.42589330673218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45501136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48412847518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25118732452393</t>
+    <t xml:space="preserve">4.45501089096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48412895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25118684768677</t>
   </si>
   <si>
     <t xml:space="preserve">4.1153039932251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05706834793091</t>
+    <t xml:space="preserve">4.05706882476807</t>
   </si>
   <si>
     <t xml:space="preserve">4.27059888839722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33853960037231</t>
+    <t xml:space="preserve">4.33854007720947</t>
   </si>
   <si>
     <t xml:space="preserve">4.31912803649902</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">4.53265810012817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56177568435669</t>
+    <t xml:space="preserve">4.56177616119385</t>
   </si>
   <si>
     <t xml:space="preserve">4.46471691131592</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">4.39677572250366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15412855148315</t>
+    <t xml:space="preserve">4.154128074646</t>
   </si>
   <si>
     <t xml:space="preserve">4.19295167922974</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">4.28030490875244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21236324310303</t>
+    <t xml:space="preserve">4.21236371994019</t>
   </si>
   <si>
     <t xml:space="preserve">4.17353963851929</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">4.10559844970703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2026572227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35795164108276</t>
+    <t xml:space="preserve">4.20265769958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35795211791992</t>
   </si>
   <si>
     <t xml:space="preserve">4.5423641204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49383449554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40648126602173</t>
+    <t xml:space="preserve">4.49383497238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40648174285889</t>
   </si>
   <si>
     <t xml:space="preserve">4.51324653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50354051589966</t>
+    <t xml:space="preserve">4.5035400390625</t>
   </si>
   <si>
     <t xml:space="preserve">4.52295207977295</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">4.47442293167114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44530534744263</t>
+    <t xml:space="preserve">4.44530487060547</t>
   </si>
   <si>
     <t xml:space="preserve">4.67824697494507</t>
@@ -1601,25 +1601,25 @@
     <t xml:space="preserve">4.65883493423462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63942337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60059976577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29971647262573</t>
+    <t xml:space="preserve">4.63942384719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60059928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29971599578857</t>
   </si>
   <si>
     <t xml:space="preserve">4.14442205429077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18324518203735</t>
+    <t xml:space="preserve">4.18324565887451</t>
   </si>
   <si>
     <t xml:space="preserve">4.41618776321411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57148218154907</t>
+    <t xml:space="preserve">4.57148170471191</t>
   </si>
   <si>
     <t xml:space="preserve">4.64912891387939</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">5.04707145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49354314804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62942600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53236627578735</t>
+    <t xml:space="preserve">5.49354267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62942552566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53236675262451</t>
   </si>
   <si>
     <t xml:space="preserve">5.31883668899536</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">5.33824872970581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45471906661987</t>
+    <t xml:space="preserve">5.45471954345703</t>
   </si>
   <si>
     <t xml:space="preserve">5.41589546203613</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">4.87236499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96942377090454</t>
+    <t xml:space="preserve">4.9694242477417</t>
   </si>
   <si>
     <t xml:space="preserve">4.76560020446777</t>
@@ -9130,7 +9130,7 @@
         <v>4.37799978256226</v>
       </c>
       <c r="G257" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9182,7 +9182,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G259" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9208,7 +9208,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G260" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9234,7 +9234,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G261" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9260,7 +9260,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G262" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9286,7 +9286,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G263" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9312,7 +9312,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G264" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9338,7 +9338,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G265" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9364,7 +9364,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G266" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9442,7 +9442,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G269" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9468,7 +9468,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G270" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9546,7 +9546,7 @@
         <v>4.31199979782104</v>
       </c>
       <c r="G273" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9572,7 +9572,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G274" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9624,7 +9624,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G276" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9650,7 +9650,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G277" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9676,7 +9676,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G278" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9702,7 +9702,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G279" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9728,7 +9728,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G280" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9806,7 +9806,7 @@
         <v>4.32200002670288</v>
       </c>
       <c r="G283" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9832,7 +9832,7 @@
         <v>4.32200002670288</v>
       </c>
       <c r="G284" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9884,7 +9884,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G286" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9910,7 +9910,7 @@
         <v>4.39400005340576</v>
       </c>
       <c r="G287" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9962,7 +9962,7 @@
         <v>4.31599998474121</v>
       </c>
       <c r="G289" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10040,7 +10040,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G292" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10066,7 +10066,7 @@
         <v>4.47399997711182</v>
       </c>
       <c r="G293" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10118,7 +10118,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G295" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10170,7 +10170,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G297" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10196,7 +10196,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G298" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10248,7 +10248,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G300" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10300,7 +10300,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G302" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10352,7 +10352,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G304" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10378,7 +10378,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G305" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10456,7 +10456,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G308" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10560,7 +10560,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G312" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10586,7 +10586,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G313" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10612,7 +10612,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G314" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10638,7 +10638,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G315" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10664,7 +10664,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G316" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10690,7 +10690,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G317" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10716,7 +10716,7 @@
         <v>4.83599996566772</v>
       </c>
       <c r="G318" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10742,7 +10742,7 @@
         <v>4.83799982070923</v>
       </c>
       <c r="G319" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10768,7 +10768,7 @@
         <v>4.81599998474121</v>
       </c>
       <c r="G320" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10794,7 +10794,7 @@
         <v>4.75400018692017</v>
       </c>
       <c r="G321" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10820,7 +10820,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10846,7 +10846,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G323" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10898,7 +10898,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G325" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10924,7 +10924,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G326" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10950,7 +10950,7 @@
         <v>4.43400001525879</v>
       </c>
       <c r="G327" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10976,7 +10976,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G328" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11106,7 +11106,7 @@
         <v>4.40199995040894</v>
       </c>
       <c r="G333" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11132,7 +11132,7 @@
         <v>4.36199998855591</v>
       </c>
       <c r="G334" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11158,7 +11158,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G335" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11262,7 +11262,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G339" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11288,7 +11288,7 @@
         <v>4.37599992752075</v>
       </c>
       <c r="G340" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11314,7 +11314,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G341" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11340,7 +11340,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G342" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11418,7 +11418,7 @@
         <v>4.30399990081787</v>
       </c>
       <c r="G345" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11600,7 +11600,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G352" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11626,7 +11626,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G353" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11652,7 +11652,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G354" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11678,7 +11678,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G355" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11704,7 +11704,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G356" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11730,7 +11730,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G357" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11756,7 +11756,7 @@
         <v>4.43400001525879</v>
       </c>
       <c r="G358" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11782,7 +11782,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G359" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12068,7 +12068,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15084,7 +15084,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G486" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15136,7 +15136,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16306,7 +16306,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G533" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16332,7 +16332,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G534" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16436,7 +16436,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16618,7 +16618,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G545" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16644,7 +16644,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G546" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16670,7 +16670,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G547" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16748,7 +16748,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G550" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16774,7 +16774,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G551" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16800,7 +16800,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17060,7 +17060,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G562" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17138,7 +17138,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G565" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17164,7 +17164,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17190,7 +17190,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G567" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17710,7 +17710,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G587" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18126,7 +18126,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G603" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18152,7 +18152,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G604" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18230,7 +18230,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G607" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18542,7 +18542,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G619" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18776,7 +18776,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18802,7 +18802,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G629" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18880,7 +18880,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18906,7 +18906,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19270,7 +19270,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19296,7 +19296,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19322,7 +19322,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G649" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19348,7 +19348,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G650" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19374,7 +19374,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G651" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19400,7 +19400,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19426,7 +19426,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G653" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19452,7 +19452,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19504,7 +19504,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19634,7 +19634,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G661" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19660,7 +19660,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G662" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19686,7 +19686,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19712,7 +19712,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G664" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19738,7 +19738,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G665" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19764,7 +19764,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19998,7 +19998,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G675" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20024,7 +20024,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G676" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20518,7 +20518,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20544,7 +20544,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G696" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -58382,7 +58382,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6162962963</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>1320</v>
@@ -58403,6 +58403,32 @@
         <v>697</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6496180556</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>10556</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>4.98000001907349</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>4.76999998092651</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>4.8899998664856</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>4.96999979019165</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>700</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89743590354919</t>
+    <t xml:space="preserve">3.89743638038635</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89566349983215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89920878410339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89034700393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88857460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81059050559998</t>
+    <t xml:space="preserve">3.89566397666931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89920830726624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89034652709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88857483863831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81059074401855</t>
   </si>
   <si>
     <t xml:space="preserve">3.76628160476685</t>
@@ -65,52 +65,52 @@
     <t xml:space="preserve">3.8194522857666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80172848701477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65285015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7007040977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67766308784485</t>
+    <t xml:space="preserve">3.80172872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65284991264343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70070385932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67766261100769</t>
   </si>
   <si>
     <t xml:space="preserve">3.6865246295929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66702842712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50928807258606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63335347175598</t>
+    <t xml:space="preserve">3.6670286655426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50928831100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63335394859314</t>
   </si>
   <si>
     <t xml:space="preserve">3.71310997009277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6900691986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62626361846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70424795150757</t>
+    <t xml:space="preserve">3.69006967544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62626433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70424818992615</t>
   </si>
   <si>
     <t xml:space="preserve">3.58904480934143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56245899200439</t>
+    <t xml:space="preserve">3.56245875358582</t>
   </si>
   <si>
     <t xml:space="preserve">3.6386706829071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67234539985657</t>
+    <t xml:space="preserve">3.67234587669373</t>
   </si>
   <si>
     <t xml:space="preserve">3.67589068412781</t>
@@ -119,46 +119,46 @@
     <t xml:space="preserve">3.67411828041077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66525602340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61740183830261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73792314529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77514362335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83717608451843</t>
+    <t xml:space="preserve">3.66525650024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61740207672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73792290687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77514338493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83717632293701</t>
   </si>
   <si>
     <t xml:space="preserve">3.81767988204956</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88680291175842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83894824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83363103866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7574188709259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76096415519714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73615074157715</t>
+    <t xml:space="preserve">3.88680171966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83894801139832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83363151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75741934776306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76096367835999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73615097999573</t>
   </si>
   <si>
     <t xml:space="preserve">3.75564646720886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74501276016235</t>
+    <t xml:space="preserve">3.74501252174377</t>
   </si>
   <si>
     <t xml:space="preserve">3.79286694526672</t>
@@ -170,40 +170,40 @@
     <t xml:space="preserve">3.77337074279785</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76982593536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75387477874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7219717502594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70956540107727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74855780601501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8478102684021</t>
+    <t xml:space="preserve">3.76982617378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7538743019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72197151184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70956516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74855732917786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84781002998352</t>
   </si>
   <si>
     <t xml:space="preserve">3.97896528244019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94351744651794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95946955680847</t>
+    <t xml:space="preserve">3.94351768493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95946979522705</t>
   </si>
   <si>
     <t xml:space="preserve">4.00909566879272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96833109855652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93997359275818</t>
+    <t xml:space="preserve">3.9683313369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9399733543396</t>
   </si>
   <si>
     <t xml:space="preserve">4.01086807250977</t>
@@ -212,61 +212,61 @@
     <t xml:space="preserve">3.93820095062256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91870450973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98605465888977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91693234443665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96124172210693</t>
+    <t xml:space="preserve">3.91870498657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98605513572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9169328212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96124148368835</t>
   </si>
   <si>
     <t xml:space="preserve">3.95237994194031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90807032585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05171775817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99745416641235</t>
+    <t xml:space="preserve">3.90807008743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458620071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05171823501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99745440483093</t>
   </si>
   <si>
     <t xml:space="preserve">4.01554203033447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00288057327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980657577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00830698013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97936630249023</t>
+    <t xml:space="preserve">4.00288105010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980609893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00830745697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97936582565308</t>
   </si>
   <si>
     <t xml:space="preserve">3.96127796173096</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90701389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95223379135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94861698150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8599853515625</t>
+    <t xml:space="preserve">3.9070143699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9522340297699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94861650466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85998558998108</t>
   </si>
   <si>
     <t xml:space="preserve">3.91605830192566</t>
@@ -275,67 +275,67 @@
     <t xml:space="preserve">3.8889262676239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88711667060852</t>
+    <t xml:space="preserve">3.88711738586426</t>
   </si>
   <si>
     <t xml:space="preserve">3.84370636940002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73156046867371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78944182395935</t>
+    <t xml:space="preserve">3.73156023025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78944206237793</t>
   </si>
   <si>
     <t xml:space="preserve">3.61760568618774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63569378852844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70261931419373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65378189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6447377204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68091416358948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66101717948914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70442867279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59590005874634</t>
+    <t xml:space="preserve">3.63569355010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7026195526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65378141403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64473795890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6809139251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66101694107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70442843437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59590029716492</t>
   </si>
   <si>
     <t xml:space="preserve">3.63931131362915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62664985656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67006087303162</t>
+    <t xml:space="preserve">3.6266496181488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6700611114502</t>
   </si>
   <si>
     <t xml:space="preserve">3.71528077125549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76050090789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78039741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82742691040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89073491096497</t>
+    <t xml:space="preserve">3.76050114631653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78039765357971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82742667198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89073538780212</t>
   </si>
   <si>
     <t xml:space="preserve">3.8418972492218</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">3.81657385826111</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76773595809937</t>
+    <t xml:space="preserve">3.76773643493652</t>
   </si>
   <si>
     <t xml:space="preserve">3.79848575592041</t>
@@ -359,34 +359,34 @@
     <t xml:space="preserve">3.80029511451721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81295609474182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77135396003723</t>
+    <t xml:space="preserve">3.8129563331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77135419845581</t>
   </si>
   <si>
     <t xml:space="preserve">3.77497148513794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82561826705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75688362121582</t>
+    <t xml:space="preserve">3.82561802864075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75688338279724</t>
   </si>
   <si>
     <t xml:space="preserve">3.80753016471863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7478392124176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79486799240112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74422144889832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78763294219971</t>
+    <t xml:space="preserve">3.74783945083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7948682308197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74422192573547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78763318061829</t>
   </si>
   <si>
     <t xml:space="preserve">3.7496485710144</t>
@@ -401,112 +401,112 @@
     <t xml:space="preserve">3.76230978965759</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75326609611511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74603056907654</t>
+    <t xml:space="preserve">3.75326585769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74603080749512</t>
   </si>
   <si>
     <t xml:space="preserve">3.75145721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77678060531616</t>
+    <t xml:space="preserve">3.77678036689758</t>
   </si>
   <si>
     <t xml:space="preserve">3.78220701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7188982963562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70804572105408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71709012985229</t>
+    <t xml:space="preserve">3.71889877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70804595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71708989143372</t>
   </si>
   <si>
     <t xml:space="preserve">3.68814897537231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71166348457336</t>
+    <t xml:space="preserve">3.71166324615479</t>
   </si>
   <si>
     <t xml:space="preserve">3.75507473945618</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73698663711548</t>
+    <t xml:space="preserve">3.7369863986969</t>
   </si>
   <si>
     <t xml:space="preserve">3.80572128295898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8581759929657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83647108078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.840087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85094141960144</t>
+    <t xml:space="preserve">3.85817646980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83647084236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84008836746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85094118118286</t>
   </si>
   <si>
     <t xml:space="preserve">3.85275053977966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95042538642883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95946907997131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94680762290955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92510223388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89797019958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8708381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86179399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89977836608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96670532226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9341459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97755694389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00649785995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00468969345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90882253646851</t>
+    <t xml:space="preserve">3.95042514801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95946931838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94680738449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92510199546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89796996116638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87083864212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86179423332214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89977884292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96670460700989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93414616584778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97755742073059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00649833679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00468921661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90882301330566</t>
   </si>
   <si>
     <t xml:space="preserve">3.97394013404846</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90339660644531</t>
+    <t xml:space="preserve">3.90339636802673</t>
   </si>
   <si>
     <t xml:space="preserve">4.04086589813232</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04629230499268</t>
+    <t xml:space="preserve">4.04629182815552</t>
   </si>
   <si>
     <t xml:space="preserve">4.03363037109375</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">4.07885026931763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04267406463623</t>
+    <t xml:space="preserve">4.04267454147339</t>
   </si>
   <si>
     <t xml:space="preserve">4.08789396286011</t>
@@ -527,13 +527,13 @@
     <t xml:space="preserve">4.0969386100769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16929054260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09512948989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11502695083618</t>
+    <t xml:space="preserve">4.1692910194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09512901306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11502647399902</t>
   </si>
   <si>
     <t xml:space="preserve">4.43156671524048</t>
@@ -542,58 +542,58 @@
     <t xml:space="preserve">4.40443468093872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37368535995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3754940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35559749603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29952430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14215850830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06257152557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01011562347412</t>
+    <t xml:space="preserve">4.37368488311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37549352645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3555965423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29952478408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14215755462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06257104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01011657714844</t>
   </si>
   <si>
     <t xml:space="preserve">4.06799745559692</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98117542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94499897956848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.943190574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97213125228882</t>
+    <t xml:space="preserve">3.98117446899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94499850273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94319033622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97213077545166</t>
   </si>
   <si>
     <t xml:space="preserve">3.95766067504883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86541175842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89254355430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92872023582458</t>
+    <t xml:space="preserve">3.86541199684143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89254331588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92871928215027</t>
   </si>
   <si>
     <t xml:space="preserve">3.9703221321106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98878860473633</t>
+    <t xml:space="preserve">3.98878884315491</t>
   </si>
   <si>
     <t xml:space="preserve">4.01648855209351</t>
@@ -602,43 +602,43 @@
     <t xml:space="preserve">4.00725555419922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09404850006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97032237052917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91492176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89645552635193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95185565948486</t>
+    <t xml:space="preserve">4.09404802322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97032260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91492199897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89645528793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95185589790344</t>
   </si>
   <si>
     <t xml:space="preserve">4.09035491943359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15498876571655</t>
+    <t xml:space="preserve">4.15498828887939</t>
   </si>
   <si>
     <t xml:space="preserve">4.20115518569946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15314149856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13282823562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08481502532959</t>
+    <t xml:space="preserve">4.15314197540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13282775878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08481454849243</t>
   </si>
   <si>
     <t xml:space="preserve">4.06265544891357</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02018165588379</t>
+    <t xml:space="preserve">4.02018213272095</t>
   </si>
   <si>
     <t xml:space="preserve">4.07927560806274</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">4.10882139205933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05896139144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09958839416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11805534362793</t>
+    <t xml:space="preserve">4.05896186828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0995888710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11805486679077</t>
   </si>
   <si>
     <t xml:space="preserve">4.10697507858276</t>
@@ -662,13 +662,13 @@
     <t xml:space="preserve">4.08112192153931</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11620855331421</t>
+    <t xml:space="preserve">4.11620903015137</t>
   </si>
   <si>
     <t xml:space="preserve">4.08850860595703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17899513244629</t>
+    <t xml:space="preserve">4.17899465560913</t>
   </si>
   <si>
     <t xml:space="preserve">4.18268823623657</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">4.19192171096802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1365213394165</t>
+    <t xml:space="preserve">4.13652181625366</t>
   </si>
   <si>
     <t xml:space="preserve">4.11990165710449</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">4.23624134063721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18084144592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16422176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15129470825195</t>
+    <t xml:space="preserve">4.18084192276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.164222240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15129518508911</t>
   </si>
   <si>
     <t xml:space="preserve">4.14575481414795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16237497329712</t>
+    <t xml:space="preserve">4.16237449645996</t>
   </si>
   <si>
     <t xml:space="preserve">4.17714834213257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12913513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19930839538574</t>
+    <t xml:space="preserve">4.1291356086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19930791854858</t>
   </si>
   <si>
     <t xml:space="preserve">4.13836812973022</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">4.12728834152222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19561529159546</t>
+    <t xml:space="preserve">4.1956148147583</t>
   </si>
   <si>
     <t xml:space="preserve">4.21038818359375</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">4.12359523773193</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07742881774902</t>
+    <t xml:space="preserve">4.07742834091187</t>
   </si>
   <si>
     <t xml:space="preserve">4.04418849945068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1051287651062</t>
+    <t xml:space="preserve">4.10512828826904</t>
   </si>
   <si>
     <t xml:space="preserve">4.1605281829834</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">4.24547481536865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15868186950684</t>
+    <t xml:space="preserve">4.15868139266968</t>
   </si>
   <si>
     <t xml:space="preserve">4.14760208129883</t>
@@ -755,31 +755,31 @@
     <t xml:space="preserve">4.14206171035767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14390850067139</t>
+    <t xml:space="preserve">4.14390802383423</t>
   </si>
   <si>
     <t xml:space="preserve">4.17345476150513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17530155181885</t>
+    <t xml:space="preserve">4.17530202865601</t>
   </si>
   <si>
     <t xml:space="preserve">4.21777486801147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2196216583252</t>
+    <t xml:space="preserve">4.21962213516235</t>
   </si>
   <si>
     <t xml:space="preserve">4.02202892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0700421333313</t>
+    <t xml:space="preserve">4.07004165649414</t>
   </si>
   <si>
     <t xml:space="preserve">4.01094913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96847486495972</t>
+    <t xml:space="preserve">3.96847534179688</t>
   </si>
   <si>
     <t xml:space="preserve">4.0460352897644</t>
@@ -791,31 +791,31 @@
     <t xml:space="preserve">4.0608081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11251449584961</t>
+    <t xml:space="preserve">4.11251497268677</t>
   </si>
   <si>
     <t xml:space="preserve">4.07373523712158</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99248170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95000910758972</t>
+    <t xml:space="preserve">3.99248242378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95000863075256</t>
   </si>
   <si>
     <t xml:space="preserve">3.94262218475342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02572250366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802231788635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96293544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02387571334839</t>
+    <t xml:space="preserve">4.02572202682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802255630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96293568611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02387523651123</t>
   </si>
   <si>
     <t xml:space="preserve">4.07188844680786</t>
@@ -827,22 +827,22 @@
     <t xml:space="preserve">3.8779890537262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97955560684204</t>
+    <t xml:space="preserve">3.97955536842346</t>
   </si>
   <si>
     <t xml:space="preserve">3.85952210426331</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92415595054626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93338942527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96108889579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88722276687622</t>
+    <t xml:space="preserve">3.92415547370911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93338966369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96108865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88722252845764</t>
   </si>
   <si>
     <t xml:space="preserve">3.8502893447876</t>
@@ -851,49 +851,49 @@
     <t xml:space="preserve">3.81335616111755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83182287216187</t>
+    <t xml:space="preserve">3.83182263374329</t>
   </si>
   <si>
     <t xml:space="preserve">4.04594755172729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07430696487427</t>
+    <t xml:space="preserve">4.07430648803711</t>
   </si>
   <si>
     <t xml:space="preserve">4.06485366821289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99868178367615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01758813858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05540037155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98922801017761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92305660247803</t>
+    <t xml:space="preserve">3.99868154525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01758766174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05540084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98922848701477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92305636405945</t>
   </si>
   <si>
     <t xml:space="preserve">3.94196271896362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80016565322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72454023361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78125929832458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76235270500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74344682693481</t>
+    <t xml:space="preserve">3.80016541481018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72454047203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78125905990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76235318183899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74344658851624</t>
   </si>
   <si>
     <t xml:space="preserve">3.73399353027344</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">3.65836811065674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64891505241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54493069648743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45039892196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30860185623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37477374076843</t>
+    <t xml:space="preserve">3.64891529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54493045806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45039916038513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30860161781311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37477397918701</t>
   </si>
   <si>
     <t xml:space="preserve">3.35586762428284</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">3.39368009567261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40313339233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47875881195068</t>
+    <t xml:space="preserve">3.40313315391541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4787585735321</t>
   </si>
   <si>
     <t xml:space="preserve">3.4882116317749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38422679901123</t>
+    <t xml:space="preserve">3.38422703742981</t>
   </si>
   <si>
     <t xml:space="preserve">3.46930551528931</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">3.42203950881958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4976646900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51657128334045</t>
+    <t xml:space="preserve">3.49766492843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51657104492188</t>
   </si>
   <si>
     <t xml:space="preserve">3.33696126937866</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">3.59219622612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52602410316467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67727494239807</t>
+    <t xml:space="preserve">3.52602434158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67727470397949</t>
   </si>
   <si>
     <t xml:space="preserve">3.50711798667908</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">3.70563411712646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62055563926697</t>
+    <t xml:space="preserve">3.62055587768555</t>
   </si>
   <si>
     <t xml:space="preserve">3.63946199417114</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">3.55438375473022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5827431678772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60164952278137</t>
+    <t xml:space="preserve">3.58274340629578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60164928436279</t>
   </si>
   <si>
     <t xml:space="preserve">3.66782164573669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69618082046509</t>
+    <t xml:space="preserve">3.69618105888367</t>
   </si>
   <si>
     <t xml:space="preserve">3.53547739982605</t>
@@ -58463,7 +58463,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.3143402778</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>20</v>
@@ -58484,6 +58484,32 @@
         <v>670</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6493402778</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>399</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>4.90000009536743</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>4.90000009536743</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>4.90000009536743</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>4.84000015258789</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>669</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89743590354919</t>
+    <t xml:space="preserve">3.89743614196777</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89566397666931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89920902252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89034652709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88857460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81059098243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76628088951111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81945204734802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80172824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65284991264343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70070362091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67766308784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6865246295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66702890396118</t>
+    <t xml:space="preserve">3.89566421508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89920878410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89034700393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88857483863831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8105902671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76628136634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81945252418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80172848701477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65285015106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7007040977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67766284942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68652415275574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6670286655426</t>
   </si>
   <si>
     <t xml:space="preserve">3.50928807258606</t>
@@ -89,85 +89,85 @@
     <t xml:space="preserve">3.63335371017456</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71311044692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69006943702698</t>
+    <t xml:space="preserve">3.71310997009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69006896018982</t>
   </si>
   <si>
     <t xml:space="preserve">3.62626385688782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70424795150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58904480934143</t>
+    <t xml:space="preserve">3.70424818992615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58904457092285</t>
   </si>
   <si>
     <t xml:space="preserve">3.56245899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6386706829071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67234563827515</t>
+    <t xml:space="preserve">3.63867044448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67234587669373</t>
   </si>
   <si>
     <t xml:space="preserve">3.67589044570923</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67411756515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66525626182556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61740231513977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73792362213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77514362335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83717632293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81767988204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88680195808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83894801139832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83363151550293</t>
+    <t xml:space="preserve">3.67411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66525602340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61740207672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73792314529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77514338493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83717608451843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81767964363098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88680219650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83894777297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83363103866577</t>
   </si>
   <si>
     <t xml:space="preserve">3.75741910934448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76096415519714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73615097999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7556471824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74501276016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79286670684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78932189941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77337026596069</t>
+    <t xml:space="preserve">3.76096367835999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73615074157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75564646720886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74501299858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79286694526672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7893214225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77337050437927</t>
   </si>
   <si>
     <t xml:space="preserve">3.76982617378235</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">3.72197198867798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70956563949585</t>
+    <t xml:space="preserve">3.70956540107727</t>
   </si>
   <si>
     <t xml:space="preserve">3.74855756759644</t>
@@ -188,34 +188,34 @@
     <t xml:space="preserve">3.84780979156494</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97896504402161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94351768493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95946884155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00909614562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9683313369751</t>
+    <t xml:space="preserve">3.97896575927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94351744651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95946907997131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00909566879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96833109855652</t>
   </si>
   <si>
     <t xml:space="preserve">3.93997311592102</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01086759567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93820071220398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91870522499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98605465888977</t>
+    <t xml:space="preserve">4.01086807250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9382004737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91870498657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98605513572693</t>
   </si>
   <si>
     <t xml:space="preserve">3.91693258285522</t>
@@ -224,61 +224,61 @@
     <t xml:space="preserve">3.96124172210693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95238018035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90807104110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458620071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05171871185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99745440483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01554250717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00288105010986</t>
+    <t xml:space="preserve">3.95237946510315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90807056427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05171823501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99745464324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01554203033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00288057327271</t>
   </si>
   <si>
     <t xml:space="preserve">4.06980609893799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00830745697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97936654090881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96127843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90701413154602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95223426818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94861674308777</t>
+    <t xml:space="preserve">4.00830698013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97936630249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96127796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9070143699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95223379135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94861698150635</t>
   </si>
   <si>
     <t xml:space="preserve">3.8599853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91605854034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88892674446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8871169090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84370589256287</t>
+    <t xml:space="preserve">3.91605830192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88892579078674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88711714744568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84370636940002</t>
   </si>
   <si>
     <t xml:space="preserve">3.73156023025513</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">3.78944206237793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61760568618774</t>
+    <t xml:space="preserve">3.61760592460632</t>
   </si>
   <si>
     <t xml:space="preserve">3.63569378852844</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">3.70261931419373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65378165245056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64473795890808</t>
+    <t xml:space="preserve">3.65378189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6447377204895</t>
   </si>
   <si>
     <t xml:space="preserve">3.68091416358948</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">3.66101694107056</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70442843437195</t>
+    <t xml:space="preserve">3.70442867279053</t>
   </si>
   <si>
     <t xml:space="preserve">3.59590005874634</t>
@@ -317,58 +317,58 @@
     <t xml:space="preserve">3.63931131362915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62665009498596</t>
+    <t xml:space="preserve">3.62664985656738</t>
   </si>
   <si>
     <t xml:space="preserve">3.6700611114502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71528077125549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76050090789795</t>
+    <t xml:space="preserve">3.71528100967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76050114631653</t>
   </si>
   <si>
     <t xml:space="preserve">3.78039765357971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82742667198181</t>
+    <t xml:space="preserve">3.82742691040039</t>
   </si>
   <si>
     <t xml:space="preserve">3.89073491096497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84189748764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83466148376465</t>
+    <t xml:space="preserve">3.8418972492218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83466196060181</t>
   </si>
   <si>
     <t xml:space="preserve">3.81657338142395</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76773643493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79848575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81476521492004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80029463768005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81295657157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77135396003723</t>
+    <t xml:space="preserve">3.76773619651794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79848599433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81476497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80029511451721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295609474182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77135372161865</t>
   </si>
   <si>
     <t xml:space="preserve">3.77497124671936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82561802864075</t>
+    <t xml:space="preserve">3.82561826705933</t>
   </si>
   <si>
     <t xml:space="preserve">3.75688314437866</t>
@@ -377,76 +377,76 @@
     <t xml:space="preserve">3.80752992630005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74783945083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79486846923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74422192573547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78763341903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74964785575867</t>
+    <t xml:space="preserve">3.74783968925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79486799240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74422121047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78763318061829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74964833259583</t>
   </si>
   <si>
     <t xml:space="preserve">3.73336887359619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7261335849762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76230978965759</t>
+    <t xml:space="preserve">3.72613382339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76230955123901</t>
   </si>
   <si>
     <t xml:space="preserve">3.75326609611511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7460310459137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75145673751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77678036689758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78220725059509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71889877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70804595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71708989143372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68814921379089</t>
+    <t xml:space="preserve">3.74603056907654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75145721435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77678060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78220677375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7188982963562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70804572105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71709012985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68814897537231</t>
   </si>
   <si>
     <t xml:space="preserve">3.71166348457336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7550745010376</t>
+    <t xml:space="preserve">3.75507473945618</t>
   </si>
   <si>
     <t xml:space="preserve">3.73698663711548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80572128295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85817670822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83647084236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84008812904358</t>
+    <t xml:space="preserve">3.80572152137756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8581759929657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83647108078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.840087890625</t>
   </si>
   <si>
     <t xml:space="preserve">3.85094094276428</t>
@@ -455,16 +455,16 @@
     <t xml:space="preserve">3.85275053977966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95042490959167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94680738449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9251024723053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89796996116638</t>
+    <t xml:space="preserve">3.95042538642883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9468080997467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92510271072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89797019958496</t>
   </si>
   <si>
     <t xml:space="preserve">3.8708381652832</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">3.89977884292603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96670436859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93414640426636</t>
+    <t xml:space="preserve">3.96670484542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9341459274292</t>
   </si>
   <si>
     <t xml:space="preserve">3.97755694389343</t>
@@ -491,34 +491,34 @@
     <t xml:space="preserve">4.00468969345093</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90882301330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97393989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90339612960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04086494445801</t>
+    <t xml:space="preserve">3.90882253646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97394013404846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90339660644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04086589813232</t>
   </si>
   <si>
     <t xml:space="preserve">4.04629230499268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03363037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06618881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07885122299194</t>
+    <t xml:space="preserve">4.03362989425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0661883354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07885026931763</t>
   </si>
   <si>
     <t xml:space="preserve">4.04267406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08789443969727</t>
+    <t xml:space="preserve">4.08789396286011</t>
   </si>
   <si>
     <t xml:space="preserve">4.0969386100769</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">4.1692910194397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09512996673584</t>
+    <t xml:space="preserve">4.09512948989868</t>
   </si>
   <si>
     <t xml:space="preserve">4.11502695083618</t>
@@ -536,22 +536,22 @@
     <t xml:space="preserve">4.43156671524048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40443468093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37368488311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37549352645874</t>
+    <t xml:space="preserve">4.40443420410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37368535995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3754940032959</t>
   </si>
   <si>
     <t xml:space="preserve">4.35559749603271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29952478408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14215898513794</t>
+    <t xml:space="preserve">4.29952430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14215850830078</t>
   </si>
   <si>
     <t xml:space="preserve">4.06257152557373</t>
@@ -560,25 +560,25 @@
     <t xml:space="preserve">4.01011562347412</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06799745559692</t>
+    <t xml:space="preserve">4.06799793243408</t>
   </si>
   <si>
     <t xml:space="preserve">3.9811749458313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94499945640564</t>
+    <t xml:space="preserve">3.94499897956848</t>
   </si>
   <si>
     <t xml:space="preserve">3.94319009780884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9721314907074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95766043663025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86541199684143</t>
+    <t xml:space="preserve">3.97213125228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95766067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86541175842285</t>
   </si>
   <si>
     <t xml:space="preserve">3.89254355430603</t>
@@ -587,28 +587,28 @@
     <t xml:space="preserve">3.92871975898743</t>
   </si>
   <si>
+    <t xml:space="preserve">3.9703221321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98878908157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01648855209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00725603103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09404850006104</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.97032189369202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98878884315491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01648855209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00725555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09404850006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97032237052917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91492199897766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89645528793335</t>
+    <t xml:space="preserve">3.91492223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89645504951477</t>
   </si>
   <si>
     <t xml:space="preserve">3.95185565948486</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">4.09035491943359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15498781204224</t>
+    <t xml:space="preserve">4.15498828887939</t>
   </si>
   <si>
     <t xml:space="preserve">4.20115518569946</t>
@@ -626,10 +626,10 @@
     <t xml:space="preserve">4.15314197540283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13282775878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08481502532959</t>
+    <t xml:space="preserve">4.13282823562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08481550216675</t>
   </si>
   <si>
     <t xml:space="preserve">4.06265544891357</t>
@@ -641,31 +641,31 @@
     <t xml:space="preserve">4.07927560806274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10882186889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05896234512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0995888710022</t>
+    <t xml:space="preserve">4.10882139205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05896186828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09958839416504</t>
   </si>
   <si>
     <t xml:space="preserve">4.11805486679077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10697555541992</t>
+    <t xml:space="preserve">4.10697507858276</t>
   </si>
   <si>
     <t xml:space="preserve">4.08112239837646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11620855331421</t>
+    <t xml:space="preserve">4.11620807647705</t>
   </si>
   <si>
     <t xml:space="preserve">4.08850860595703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17899465560913</t>
+    <t xml:space="preserve">4.17899513244629</t>
   </si>
   <si>
     <t xml:space="preserve">4.18268823623657</t>
@@ -677,43 +677,43 @@
     <t xml:space="preserve">4.13652181625366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11990165710449</t>
+    <t xml:space="preserve">4.11990213394165</t>
   </si>
   <si>
     <t xml:space="preserve">4.23624134063721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18084192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.164222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15129518508911</t>
+    <t xml:space="preserve">4.18084144592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16422176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15129470825195</t>
   </si>
   <si>
     <t xml:space="preserve">4.14575481414795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16237449645996</t>
+    <t xml:space="preserve">4.16237497329712</t>
   </si>
   <si>
     <t xml:space="preserve">4.17714834213257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12913513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19930791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13836765289307</t>
+    <t xml:space="preserve">4.12913465499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19930839538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13836812973022</t>
   </si>
   <si>
     <t xml:space="preserve">4.09589529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12728786468506</t>
+    <t xml:space="preserve">4.12728834152222</t>
   </si>
   <si>
     <t xml:space="preserve">4.19561529159546</t>
@@ -740,10 +740,10 @@
     <t xml:space="preserve">4.1605281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24547529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15868186950684</t>
+    <t xml:space="preserve">4.24547481536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15868234634399</t>
   </si>
   <si>
     <t xml:space="preserve">4.14760208129883</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">4.14206171035767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14390802383423</t>
+    <t xml:space="preserve">4.14390850067139</t>
   </si>
   <si>
     <t xml:space="preserve">4.17345476150513</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">4.2196216583252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02202892303467</t>
+    <t xml:space="preserve">4.02202844619751</t>
   </si>
   <si>
     <t xml:space="preserve">4.0700421333313</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">3.96847534179688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0460352897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.948162317276</t>
+    <t xml:space="preserve">4.04603576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94816184043884</t>
   </si>
   <si>
     <t xml:space="preserve">4.0608081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11251544952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07373523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99248194694519</t>
+    <t xml:space="preserve">4.11251449584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07373571395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99248170852661</t>
   </si>
   <si>
     <t xml:space="preserve">3.95000910758972</t>
@@ -812,43 +812,43 @@
     <t xml:space="preserve">3.96293544769287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02387523651123</t>
+    <t xml:space="preserve">4.02387571334839</t>
   </si>
   <si>
     <t xml:space="preserve">4.07188844680786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90568947792053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8779890537262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97955513000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85952210426331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92415547370911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93338966369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96108841896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88722252845764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8502893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81335616111755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83182263374329</t>
+    <t xml:space="preserve">3.90568923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87798929214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97955560684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85952234268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92415595054626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93338942527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96108889579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88722229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85028910636902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81335639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83182287216187</t>
   </si>
   <si>
     <t xml:space="preserve">4.04594755172729</t>
@@ -860,37 +860,37 @@
     <t xml:space="preserve">4.06485366821289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99868154525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01758766174316</t>
+    <t xml:space="preserve">3.99868178367615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01758813858032</t>
   </si>
   <si>
     <t xml:space="preserve">4.05540037155151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98922872543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92305636405945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9419629573822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80016541481018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72454047203064</t>
+    <t xml:space="preserve">3.98922801017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92305660247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94196271896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80016565322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72454023361206</t>
   </si>
   <si>
     <t xml:space="preserve">3.78125929832458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76235318183899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74344658851624</t>
+    <t xml:space="preserve">3.76235270500183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74344682693481</t>
   </si>
   <si>
     <t xml:space="preserve">3.73399353027344</t>
@@ -902,25 +902,25 @@
     <t xml:space="preserve">3.64891505241394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54493045806885</t>
+    <t xml:space="preserve">3.54493069648743</t>
   </si>
   <si>
     <t xml:space="preserve">3.45039892196655</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30860161781311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37477397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35586738586426</t>
+    <t xml:space="preserve">3.30860185623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37477374076843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35586762428284</t>
   </si>
   <si>
     <t xml:space="preserve">3.39368009567261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40313315391541</t>
+    <t xml:space="preserve">3.40313339233398</t>
   </si>
   <si>
     <t xml:space="preserve">3.47875881195068</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">3.4882116317749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38422703742981</t>
+    <t xml:space="preserve">3.38422679901123</t>
   </si>
   <si>
     <t xml:space="preserve">3.46930551528931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45985245704651</t>
+    <t xml:space="preserve">3.45985221862793</t>
   </si>
   <si>
     <t xml:space="preserve">3.42203950881958</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">3.4976646900177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51657104492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33696150779724</t>
+    <t xml:space="preserve">3.51657128334045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33696126937866</t>
   </si>
   <si>
     <t xml:space="preserve">3.63000869750977</t>
@@ -956,10 +956,10 @@
     <t xml:space="preserve">3.59219622612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52602434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67727470397949</t>
+    <t xml:space="preserve">3.52602410316467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67727494239807</t>
   </si>
   <si>
     <t xml:space="preserve">3.50711798667908</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">3.70563411712646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62055587768555</t>
+    <t xml:space="preserve">3.62055563926697</t>
   </si>
   <si>
     <t xml:space="preserve">3.63946199417114</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">3.61110258102417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5732901096344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55438351631165</t>
+    <t xml:space="preserve">3.57328987121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55438375473022</t>
   </si>
   <si>
     <t xml:space="preserve">3.5827431678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60164928436279</t>
+    <t xml:space="preserve">3.60164952278137</t>
   </si>
   <si>
     <t xml:space="preserve">3.66782164573669</t>
@@ -1004,13 +1004,13 @@
     <t xml:space="preserve">3.7270679473877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57177352905273</t>
+    <t xml:space="preserve">3.57177376747131</t>
   </si>
   <si>
     <t xml:space="preserve">3.64942073822021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61059713363647</t>
+    <t xml:space="preserve">3.61059737205505</t>
   </si>
   <si>
     <t xml:space="preserve">3.68824434280396</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">3.80471539497375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82412719726562</t>
+    <t xml:space="preserve">3.82412695884705</t>
   </si>
   <si>
     <t xml:space="preserve">3.76589179039001</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">3.8435389995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86295080184937</t>
+    <t xml:space="preserve">3.86295056343079</t>
   </si>
   <si>
     <t xml:space="preserve">3.88236260414124</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">3.74647974967957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66883277893066</t>
+    <t xml:space="preserve">3.66883254051208</t>
   </si>
   <si>
     <t xml:space="preserve">3.63000893592834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59118556976318</t>
+    <t xml:space="preserve">3.5911853313446</t>
   </si>
   <si>
     <t xml:space="preserve">3.55236172676086</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">3.49412631988525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53294992446899</t>
+    <t xml:space="preserve">3.53295016288757</t>
   </si>
   <si>
     <t xml:space="preserve">3.43589091300964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45530247688293</t>
+    <t xml:space="preserve">3.45530271530151</t>
   </si>
   <si>
     <t xml:space="preserve">3.4747142791748</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">3.12530183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0864782333374</t>
+    <t xml:space="preserve">3.08647847175598</t>
   </si>
   <si>
     <t xml:space="preserve">3.06706643104553</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">3.04765486717224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93118357658386</t>
+    <t xml:space="preserve">2.93118381500244</t>
   </si>
   <si>
     <t xml:space="preserve">2.87294840812683</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.85353636741638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98941922187805</t>
+    <t xml:space="preserve">2.98941898345947</t>
   </si>
   <si>
     <t xml:space="preserve">2.91177201271057</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">3.14471364021301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00883078575134</t>
+    <t xml:space="preserve">3.00883102416992</t>
   </si>
   <si>
     <t xml:space="preserve">2.97000741958618</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">2.83412480354309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81471300125122</t>
+    <t xml:space="preserve">2.81471276283264</t>
   </si>
   <si>
     <t xml:space="preserve">2.77588891983032</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">2.75647735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56235933303833</t>
+    <t xml:space="preserve">2.56235957145691</t>
   </si>
   <si>
     <t xml:space="preserve">2.64000654220581</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">2.52353572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48471188545227</t>
+    <t xml:space="preserve">2.48471212387085</t>
   </si>
   <si>
     <t xml:space="preserve">2.34882950782776</t>
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">2.15471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25177025794983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03824019432068</t>
+    <t xml:space="preserve">2.25177001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03824043273926</t>
   </si>
   <si>
     <t xml:space="preserve">2.21294665336609</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">2.2711820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31000566482544</t>
+    <t xml:space="preserve">2.31000590324402</t>
   </si>
   <si>
     <t xml:space="preserve">2.32941746711731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28088784217834</t>
+    <t xml:space="preserve">2.28088808059692</t>
   </si>
   <si>
     <t xml:space="preserve">2.42647647857666</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">2.44588851928711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29059386253357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30029988288879</t>
+    <t xml:space="preserve">2.29059362411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30029964447021</t>
   </si>
   <si>
     <t xml:space="preserve">2.3585352897644</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">2.37794709205627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31971168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2420642375946</t>
+    <t xml:space="preserve">2.31971192359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24206447601318</t>
   </si>
   <si>
     <t xml:space="preserve">2.26147603988647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36824131011963</t>
+    <t xml:space="preserve">2.36824107170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.33912348747253</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.19353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324063301086</t>
+    <t xml:space="preserve">2.20324087142944</t>
   </si>
   <si>
     <t xml:space="preserve">2.18382883071899</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">2.11588764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12559366226196</t>
+    <t xml:space="preserve">2.12559342384338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08676981925964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0479462146759</t>
+    <t xml:space="preserve">2.04794597625732</t>
   </si>
   <si>
     <t xml:space="preserve">1.99941670894623</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">1.94118130207062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95088708400726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97029900550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22265267372131</t>
+    <t xml:space="preserve">1.95088720321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97029888629913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22265243530273</t>
   </si>
   <si>
     <t xml:space="preserve">2.16441702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38765287399292</t>
+    <t xml:space="preserve">2.3876531124115</t>
   </si>
   <si>
     <t xml:space="preserve">2.39735889434814</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">2.5817711353302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8923602104187</t>
+    <t xml:space="preserve">2.89235997200012</t>
   </si>
   <si>
     <t xml:space="preserve">2.67883014678955</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">2.65941834449768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61088895797729</t>
+    <t xml:space="preserve">2.61088871955872</t>
   </si>
   <si>
     <t xml:space="preserve">2.69824194908142</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">2.66912436485291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63030052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55265331268311</t>
+    <t xml:space="preserve">2.63030076026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55265355110168</t>
   </si>
   <si>
     <t xml:space="preserve">2.54294729232788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53324151039124</t>
+    <t xml:space="preserve">2.53324127197266</t>
   </si>
   <si>
     <t xml:space="preserve">2.71765375137329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72735953330994</t>
+    <t xml:space="preserve">2.72735977172852</t>
   </si>
   <si>
     <t xml:space="preserve">2.70794773101807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74677157402039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.805006980896</t>
+    <t xml:space="preserve">2.74677133560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80500721931458</t>
   </si>
   <si>
     <t xml:space="preserve">2.96030139923096</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">3.01853680610657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99912476539612</t>
+    <t xml:space="preserve">2.9991250038147</t>
   </si>
   <si>
     <t xml:space="preserve">2.97971320152283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05736064910889</t>
+    <t xml:space="preserve">3.05736041069031</t>
   </si>
   <si>
     <t xml:space="preserve">3.18353724479675</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">3.23206663131714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25147843360901</t>
+    <t xml:space="preserve">3.25147867202759</t>
   </si>
   <si>
     <t xml:space="preserve">3.26118445396423</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">3.21265506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19324326515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15441942214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17383122444153</t>
+    <t xml:space="preserve">3.1932430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15441966056824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17383146286011</t>
   </si>
   <si>
     <t xml:space="preserve">3.29030251502991</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">3.28059649467468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32912588119507</t>
+    <t xml:space="preserve">3.32912611961365</t>
   </si>
   <si>
     <t xml:space="preserve">3.34853768348694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27089047431946</t>
+    <t xml:space="preserve">3.27089023590088</t>
   </si>
   <si>
     <t xml:space="preserve">3.1155960559845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09618425369263</t>
+    <t xml:space="preserve">3.09618401527405</t>
   </si>
   <si>
     <t xml:space="preserve">3.03794884681702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07677221298218</t>
+    <t xml:space="preserve">3.07677245140076</t>
   </si>
   <si>
     <t xml:space="preserve">2.94088959693909</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">2.86324238777161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82441902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13500785827637</t>
+    <t xml:space="preserve">2.82441878318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13500761985779</t>
   </si>
   <si>
     <t xml:space="preserve">3.3097140789032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6203031539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6979501247406</t>
+    <t xml:space="preserve">3.62030291557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69795036315918</t>
   </si>
   <si>
     <t xml:space="preserve">3.73677396774292</t>
@@ -1457,22 +1457,22 @@
     <t xml:space="preserve">3.91148042678833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97942137718201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96971607208252</t>
+    <t xml:space="preserve">3.97942161560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96971559524536</t>
   </si>
   <si>
     <t xml:space="preserve">4.00853967666626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07648038864136</t>
+    <t xml:space="preserve">4.07648086547852</t>
   </si>
   <si>
     <t xml:space="preserve">3.99883341789246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09589242935181</t>
+    <t xml:space="preserve">4.09589195251465</t>
   </si>
   <si>
     <t xml:space="preserve">4.23177528381348</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">4.26089286804199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37736415863037</t>
+    <t xml:space="preserve">4.37736368179321</t>
   </si>
   <si>
     <t xml:space="preserve">4.36765766143799</t>
@@ -1496,25 +1496,25 @@
     <t xml:space="preserve">4.42589330673218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45501136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48412847518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25118732452393</t>
+    <t xml:space="preserve">4.45501089096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48412895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25118684768677</t>
   </si>
   <si>
     <t xml:space="preserve">4.1153039932251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05706834793091</t>
+    <t xml:space="preserve">4.05706882476807</t>
   </si>
   <si>
     <t xml:space="preserve">4.27059888839722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33853960037231</t>
+    <t xml:space="preserve">4.33854007720947</t>
   </si>
   <si>
     <t xml:space="preserve">4.31912803649902</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">4.53265810012817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56177568435669</t>
+    <t xml:space="preserve">4.56177616119385</t>
   </si>
   <si>
     <t xml:space="preserve">4.46471691131592</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">4.39677572250366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15412855148315</t>
+    <t xml:space="preserve">4.154128074646</t>
   </si>
   <si>
     <t xml:space="preserve">4.19295167922974</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">4.28030490875244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21236324310303</t>
+    <t xml:space="preserve">4.21236371994019</t>
   </si>
   <si>
     <t xml:space="preserve">4.17353963851929</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">4.10559844970703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2026572227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35795164108276</t>
+    <t xml:space="preserve">4.20265769958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35795211791992</t>
   </si>
   <si>
     <t xml:space="preserve">4.5423641204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49383449554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40648126602173</t>
+    <t xml:space="preserve">4.49383497238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40648174285889</t>
   </si>
   <si>
     <t xml:space="preserve">4.51324653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50354051589966</t>
+    <t xml:space="preserve">4.5035400390625</t>
   </si>
   <si>
     <t xml:space="preserve">4.52295207977295</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">4.47442293167114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44530534744263</t>
+    <t xml:space="preserve">4.44530487060547</t>
   </si>
   <si>
     <t xml:space="preserve">4.67824697494507</t>
@@ -1601,25 +1601,25 @@
     <t xml:space="preserve">4.65883493423462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63942337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60059976577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29971647262573</t>
+    <t xml:space="preserve">4.63942384719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60059928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29971599578857</t>
   </si>
   <si>
     <t xml:space="preserve">4.14442205429077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18324518203735</t>
+    <t xml:space="preserve">4.18324565887451</t>
   </si>
   <si>
     <t xml:space="preserve">4.41618776321411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57148218154907</t>
+    <t xml:space="preserve">4.57148170471191</t>
   </si>
   <si>
     <t xml:space="preserve">4.64912891387939</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">5.04707145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49354314804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62942600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53236627578735</t>
+    <t xml:space="preserve">5.49354267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62942552566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53236675262451</t>
   </si>
   <si>
     <t xml:space="preserve">5.31883668899536</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">5.33824872970581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45471906661987</t>
+    <t xml:space="preserve">5.45471954345703</t>
   </si>
   <si>
     <t xml:space="preserve">5.41589546203613</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">4.87236499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96942377090454</t>
+    <t xml:space="preserve">4.9694242477417</t>
   </si>
   <si>
     <t xml:space="preserve">4.76560020446777</t>
@@ -58512,7 +58512,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494560185</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>520</v>
@@ -58533,6 +58533,32 @@
         <v>696</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6406018518</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>2440</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>4.92000007629395</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>4.84999990463257</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>4.92000007629395</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>4.8600001335144</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>667</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89743590354919</t>
+    <t xml:space="preserve">3.89743566513062</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">3.89566397666931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89920854568481</t>
+    <t xml:space="preserve">3.89920878410339</t>
   </si>
   <si>
     <t xml:space="preserve">3.89034652709961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88857436180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81059074401855</t>
+    <t xml:space="preserve">3.88857483863831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8105902671814</t>
   </si>
   <si>
     <t xml:space="preserve">3.76628136634827</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">3.81945204734802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80172896385193</t>
+    <t xml:space="preserve">3.80172872543335</t>
   </si>
   <si>
     <t xml:space="preserve">3.65285015106201</t>
@@ -74,43 +74,43 @@
     <t xml:space="preserve">3.70070385932922</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67766308784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6865246295929</t>
+    <t xml:space="preserve">3.67766261100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68652439117432</t>
   </si>
   <si>
     <t xml:space="preserve">3.6670286655426</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50928807258606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63335371017456</t>
+    <t xml:space="preserve">3.50928783416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63335347175598</t>
   </si>
   <si>
     <t xml:space="preserve">3.71310997009277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69006967544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62626433372498</t>
+    <t xml:space="preserve">3.69006943702698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62626385688782</t>
   </si>
   <si>
     <t xml:space="preserve">3.70424795150757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58904480934143</t>
+    <t xml:space="preserve">3.58904457092285</t>
   </si>
   <si>
     <t xml:space="preserve">3.56245899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63867092132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67234587669373</t>
+    <t xml:space="preserve">3.6386706829071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67234563827515</t>
   </si>
   <si>
     <t xml:space="preserve">3.67589044570923</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">3.67411804199219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66525673866272</t>
+    <t xml:space="preserve">3.66525626182556</t>
   </si>
   <si>
     <t xml:space="preserve">3.61740183830261</t>
@@ -128,22 +128,22 @@
     <t xml:space="preserve">3.73792314529419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77514338493347</t>
+    <t xml:space="preserve">3.77514314651489</t>
   </si>
   <si>
     <t xml:space="preserve">3.83717584609985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81768012046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88680195808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83894824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83363151550293</t>
+    <t xml:space="preserve">3.81767988204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88680267333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83894777297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83363175392151</t>
   </si>
   <si>
     <t xml:space="preserve">3.75741910934448</t>
@@ -155,25 +155,25 @@
     <t xml:space="preserve">3.73615097999573</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75564670562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74501252174377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79286670684814</t>
+    <t xml:space="preserve">3.7556471824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74501276016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79286694526672</t>
   </si>
   <si>
     <t xml:space="preserve">3.78932213783264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77337121963501</t>
+    <t xml:space="preserve">3.77337026596069</t>
   </si>
   <si>
     <t xml:space="preserve">3.76982617378235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7538743019104</t>
+    <t xml:space="preserve">3.75387501716614</t>
   </si>
   <si>
     <t xml:space="preserve">3.72197198867798</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">3.74855732917786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84781002998352</t>
+    <t xml:space="preserve">3.84780979156494</t>
   </si>
   <si>
     <t xml:space="preserve">3.97896528244019</t>
@@ -194,22 +194,22 @@
     <t xml:space="preserve">3.94351744651794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95946979522705</t>
+    <t xml:space="preserve">3.95946907997131</t>
   </si>
   <si>
     <t xml:space="preserve">4.00909519195557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96833157539368</t>
+    <t xml:space="preserve">3.96833109855652</t>
   </si>
   <si>
     <t xml:space="preserve">3.93997359275818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01086807250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93820142745972</t>
+    <t xml:space="preserve">4.01086759567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9382004737854</t>
   </si>
   <si>
     <t xml:space="preserve">3.91870498657227</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">3.98605465888977</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91693329811096</t>
+    <t xml:space="preserve">3.91693258285522</t>
   </si>
   <si>
     <t xml:space="preserve">3.96124124526978</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">3.95237994194031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90806984901428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458620071411</t>
+    <t xml:space="preserve">3.90807056427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458572387695</t>
   </si>
   <si>
     <t xml:space="preserve">4.05171823501587</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">3.99745464324951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01554250717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00288105010986</t>
+    <t xml:space="preserve">4.01554203033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00288057327271</t>
   </si>
   <si>
     <t xml:space="preserve">4.06980609893799</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">4.00830745697021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97936606407166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96127843856812</t>
+    <t xml:space="preserve">3.97936582565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96127796173096</t>
   </si>
   <si>
     <t xml:space="preserve">3.90701413154602</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">3.95223426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94861650466919</t>
+    <t xml:space="preserve">3.94861698150635</t>
   </si>
   <si>
     <t xml:space="preserve">3.8599853515625</t>
@@ -272,16 +272,16 @@
     <t xml:space="preserve">3.9160578250885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8889262676239</t>
+    <t xml:space="preserve">3.88892579078674</t>
   </si>
   <si>
     <t xml:space="preserve">3.88711714744568</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84370636940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73156023025513</t>
+    <t xml:space="preserve">3.84370589256287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73155999183655</t>
   </si>
   <si>
     <t xml:space="preserve">3.78944182395935</t>
@@ -296,79 +296,79 @@
     <t xml:space="preserve">3.70261931419373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65378141403198</t>
+    <t xml:space="preserve">3.65378165245056</t>
   </si>
   <si>
     <t xml:space="preserve">3.64473795890808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6809139251709</t>
+    <t xml:space="preserve">3.68091368675232</t>
   </si>
   <si>
     <t xml:space="preserve">3.66101670265198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70442867279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59590029716492</t>
+    <t xml:space="preserve">3.70442843437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59589982032776</t>
   </si>
   <si>
     <t xml:space="preserve">3.63931131362915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62664985656738</t>
+    <t xml:space="preserve">3.62665009498596</t>
   </si>
   <si>
     <t xml:space="preserve">3.6700611114502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71528077125549</t>
+    <t xml:space="preserve">3.71528053283691</t>
   </si>
   <si>
     <t xml:space="preserve">3.76050114631653</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78039789199829</t>
+    <t xml:space="preserve">3.78039765357971</t>
   </si>
   <si>
     <t xml:space="preserve">3.82742643356323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89073491096497</t>
+    <t xml:space="preserve">3.89073514938354</t>
   </si>
   <si>
     <t xml:space="preserve">3.8418972492218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83466172218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81657385826111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76773619651794</t>
+    <t xml:space="preserve">3.83466148376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81657409667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76773643493652</t>
   </si>
   <si>
     <t xml:space="preserve">3.79848551750183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81476521492004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80029463768005</t>
+    <t xml:space="preserve">3.81476497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80029511451721</t>
   </si>
   <si>
     <t xml:space="preserve">3.8129563331604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77135372161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77497100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82561755180359</t>
+    <t xml:space="preserve">3.77135396003723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77497124671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82561802864075</t>
   </si>
   <si>
     <t xml:space="preserve">3.75688338279724</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">3.80753016471863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74783968925476</t>
+    <t xml:space="preserve">3.74783945083618</t>
   </si>
   <si>
     <t xml:space="preserve">3.79486846923828</t>
@@ -386,70 +386,70 @@
     <t xml:space="preserve">3.74422192573547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78763318061829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74964809417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73336911201477</t>
+    <t xml:space="preserve">3.78763341903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74964833259583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73336887359619</t>
   </si>
   <si>
     <t xml:space="preserve">3.72613382339478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76230978965759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75326609611511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7460310459137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75145673751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77678036689758</t>
+    <t xml:space="preserve">3.76230955123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75326561927795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74603056907654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75145697593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77678060531616</t>
   </si>
   <si>
     <t xml:space="preserve">3.78220701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71889877319336</t>
+    <t xml:space="preserve">3.71889853477478</t>
   </si>
   <si>
     <t xml:space="preserve">3.70804572105408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71709012985229</t>
+    <t xml:space="preserve">3.71708989143372</t>
   </si>
   <si>
     <t xml:space="preserve">3.68814897537231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71166372299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75507497787476</t>
+    <t xml:space="preserve">3.71166324615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7550745010376</t>
   </si>
   <si>
     <t xml:space="preserve">3.73698663711548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80572152137756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85817646980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83647084236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84008812904358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85094141960144</t>
+    <t xml:space="preserve">3.80572128295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8581759929657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83647108078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84008860588074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85094094276428</t>
   </si>
   <si>
     <t xml:space="preserve">3.85275053977966</t>
@@ -458,67 +458,67 @@
     <t xml:space="preserve">3.95042538642883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95946931838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94680690765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9251024723053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89796996116638</t>
+    <t xml:space="preserve">3.95946955680847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94680762290955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92510223388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89797019958496</t>
   </si>
   <si>
     <t xml:space="preserve">3.87083864212036</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86179399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89977884292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96670460700989</t>
+    <t xml:space="preserve">3.86179423332214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89977836608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96670436859131</t>
   </si>
   <si>
     <t xml:space="preserve">3.9341459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97755718231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00649785995483</t>
+    <t xml:space="preserve">3.97755694389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00649833679199</t>
   </si>
   <si>
     <t xml:space="preserve">4.00468969345093</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90882301330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97393989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90339636802673</t>
+    <t xml:space="preserve">3.90882277488708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97394013404846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90339660644531</t>
   </si>
   <si>
     <t xml:space="preserve">4.04086542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04629230499268</t>
+    <t xml:space="preserve">4.04629278182983</t>
   </si>
   <si>
     <t xml:space="preserve">4.03363037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0661883354187</t>
+    <t xml:space="preserve">4.06618881225586</t>
   </si>
   <si>
     <t xml:space="preserve">4.07885074615479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04267454147339</t>
+    <t xml:space="preserve">4.04267358779907</t>
   </si>
   <si>
     <t xml:space="preserve">4.08789443969727</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">4.1692910194397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09512948989868</t>
+    <t xml:space="preserve">4.09512996673584</t>
   </si>
   <si>
     <t xml:space="preserve">4.11502695083618</t>
@@ -539,85 +539,85 @@
     <t xml:space="preserve">4.43156671524048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40443420410156</t>
+    <t xml:space="preserve">4.40443468093872</t>
   </si>
   <si>
     <t xml:space="preserve">4.37368535995483</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3754940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35559749603271</t>
+    <t xml:space="preserve">4.37549448013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35559701919556</t>
   </si>
   <si>
     <t xml:space="preserve">4.29952430725098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14215803146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06257104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01011610031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06799745559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9811749458313</t>
+    <t xml:space="preserve">4.14215850830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06257152557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01011562347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06799793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98117542266846</t>
   </si>
   <si>
     <t xml:space="preserve">3.94499850273132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94319009780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97213077545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95766091346741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86541223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89254355430603</t>
+    <t xml:space="preserve">3.943190574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97213125228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95766067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86541175842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89254331588745</t>
   </si>
   <si>
     <t xml:space="preserve">3.92871975898743</t>
   </si>
   <si>
+    <t xml:space="preserve">3.9703221321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98878884315491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01648855209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00725555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09404850006104</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.97032189369202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98878908157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01648902893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00725555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09404850006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97032237052917</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.91492176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89645552635193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95185565948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09035491943359</t>
+    <t xml:space="preserve">3.89645576477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95185613632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09035539627075</t>
   </si>
   <si>
     <t xml:space="preserve">4.15498828887939</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">4.20115518569946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15314149856567</t>
+    <t xml:space="preserve">4.15314197540283</t>
   </si>
   <si>
     <t xml:space="preserve">4.13282823562622</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08481550216675</t>
+    <t xml:space="preserve">4.08481502532959</t>
   </si>
   <si>
     <t xml:space="preserve">4.06265497207642</t>
@@ -647,22 +647,22 @@
     <t xml:space="preserve">4.10882139205933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05896186828613</t>
+    <t xml:space="preserve">4.05896234512329</t>
   </si>
   <si>
     <t xml:space="preserve">4.09958839416504</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11805486679077</t>
+    <t xml:space="preserve">4.11805534362793</t>
   </si>
   <si>
     <t xml:space="preserve">4.10697507858276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08112192153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11620807647705</t>
+    <t xml:space="preserve">4.08112239837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11620855331421</t>
   </si>
   <si>
     <t xml:space="preserve">4.08850860595703</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">4.18268823623657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19192123413086</t>
+    <t xml:space="preserve">4.19192171096802</t>
   </si>
   <si>
     <t xml:space="preserve">4.13652181625366</t>
@@ -683,22 +683,22 @@
     <t xml:space="preserve">4.11990165710449</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23624086380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18084144592285</t>
+    <t xml:space="preserve">4.23624134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18084192276001</t>
   </si>
   <si>
     <t xml:space="preserve">4.164222240448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15129470825195</t>
+    <t xml:space="preserve">4.15129518508911</t>
   </si>
   <si>
     <t xml:space="preserve">4.14575481414795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16237545013428</t>
+    <t xml:space="preserve">4.16237497329712</t>
   </si>
   <si>
     <t xml:space="preserve">4.17714834213257</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">4.12913513183594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19930839538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13836812973022</t>
+    <t xml:space="preserve">4.19930791854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13836860656738</t>
   </si>
   <si>
     <t xml:space="preserve">4.0958948135376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12728834152222</t>
+    <t xml:space="preserve">4.12728786468506</t>
   </si>
   <si>
     <t xml:space="preserve">4.19561529159546</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">4.07742834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.044189453125</t>
+    <t xml:space="preserve">4.04418849945068</t>
   </si>
   <si>
     <t xml:space="preserve">4.1051287651062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16052865982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24547529220581</t>
+    <t xml:space="preserve">4.1605281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24547481536865</t>
   </si>
   <si>
     <t xml:space="preserve">4.15868186950684</t>
@@ -752,61 +752,61 @@
     <t xml:space="preserve">4.14760208129883</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14206218719482</t>
+    <t xml:space="preserve">4.14206171035767</t>
   </si>
   <si>
     <t xml:space="preserve">4.14390802383423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17345476150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17530202865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21777486801147</t>
+    <t xml:space="preserve">4.17345523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17530155181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21777439117432</t>
   </si>
   <si>
     <t xml:space="preserve">4.2196216583252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02202892303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07004165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01094913482666</t>
+    <t xml:space="preserve">4.02202844619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0700421333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0109486579895</t>
   </si>
   <si>
     <t xml:space="preserve">3.96847534179688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0460352897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94816207885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06080865859985</t>
+    <t xml:space="preserve">4.04603481292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94816184043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0608081817627</t>
   </si>
   <si>
     <t xml:space="preserve">4.11251497268677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07373523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99248170852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95000863075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94262218475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02572202682495</t>
+    <t xml:space="preserve">4.07373571395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99248242378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95000910758972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.942622423172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02572250366211</t>
   </si>
   <si>
     <t xml:space="preserve">3.99802184104919</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">4.07188844680786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90568923950195</t>
+    <t xml:space="preserve">3.90568900108337</t>
   </si>
   <si>
     <t xml:space="preserve">3.87798881530762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97955513000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85952210426331</t>
+    <t xml:space="preserve">3.97955560684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85952234268188</t>
   </si>
   <si>
     <t xml:space="preserve">3.92415547370911</t>
@@ -842,43 +842,43 @@
     <t xml:space="preserve">3.96108889579773</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88722252845764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85028958320618</t>
+    <t xml:space="preserve">3.88722276687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8502893447876</t>
   </si>
   <si>
     <t xml:space="preserve">3.81335616111755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83182287216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04594802856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07430648803711</t>
+    <t xml:space="preserve">3.83182239532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04594755172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07430696487427</t>
   </si>
   <si>
     <t xml:space="preserve">4.06485366821289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99868178367615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01758813858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05540084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98922848701477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92305660247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94196271896362</t>
+    <t xml:space="preserve">3.99868154525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01758766174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05540037155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98922872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92305636405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9419629573822</t>
   </si>
   <si>
     <t xml:space="preserve">3.80016541481018</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">3.78125929832458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76235294342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74344682693481</t>
+    <t xml:space="preserve">3.76235318183899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74344658851624</t>
   </si>
   <si>
     <t xml:space="preserve">3.73399353027344</t>
@@ -905,52 +905,52 @@
     <t xml:space="preserve">3.64891505241394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54493069648743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45039916038513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30860185623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37477374076843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35586786270142</t>
+    <t xml:space="preserve">3.54493045806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45039892196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30860161781311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37477397918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35586738586426</t>
   </si>
   <si>
     <t xml:space="preserve">3.39368009567261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40313339233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4787585735321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48821187019348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38422679901123</t>
+    <t xml:space="preserve">3.40313315391541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47875881195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4882116317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38422703742981</t>
   </si>
   <si>
     <t xml:space="preserve">3.46930551528931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45985221862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42203974723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49766492843628</t>
+    <t xml:space="preserve">3.45985245704651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42203950881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4976646900177</t>
   </si>
   <si>
     <t xml:space="preserve">3.51657104492188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33696126937866</t>
+    <t xml:space="preserve">3.33696150779724</t>
   </si>
   <si>
     <t xml:space="preserve">3.63000869750977</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">3.67727470397949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5071177482605</t>
+    <t xml:space="preserve">3.50711798667908</t>
   </si>
   <si>
     <t xml:space="preserve">3.70563411712646</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">3.5732901096344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55438375473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58274292945862</t>
+    <t xml:space="preserve">3.55438351631165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5827431678772</t>
   </si>
   <si>
     <t xml:space="preserve">3.60164928436279</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">3.66782164573669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69618105888367</t>
+    <t xml:space="preserve">3.69618082046509</t>
   </si>
   <si>
     <t xml:space="preserve">3.53547739982605</t>
@@ -58671,7 +58671,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.3567592593</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>450</v>
@@ -58692,6 +58692,32 @@
         <v>660</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6227546296</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>3120</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>4.65999984741211</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>4.55999994277954</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>4.55999994277954</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>4.61999988555908</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89743566513062</t>
+    <t xml:space="preserve">3.89743590354919</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89566397666931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89920878410339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89034652709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88857483863831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8105902671814</t>
+    <t xml:space="preserve">3.89566373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89920830726624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89034628868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88857412338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81059074401855</t>
   </si>
   <si>
     <t xml:space="preserve">3.76628136634827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81945204734802</t>
+    <t xml:space="preserve">3.81945252418518</t>
   </si>
   <si>
     <t xml:space="preserve">3.80172872543335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65285015106201</t>
+    <t xml:space="preserve">3.65284991264343</t>
   </si>
   <si>
     <t xml:space="preserve">3.70070385932922</t>
@@ -80,103 +80,103 @@
     <t xml:space="preserve">3.68652439117432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6670286655426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50928783416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63335347175598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71310997009277</t>
+    <t xml:space="preserve">3.66702890396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50928807258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63335371017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71311020851135</t>
   </si>
   <si>
     <t xml:space="preserve">3.69006943702698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62626385688782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70424795150757</t>
+    <t xml:space="preserve">3.62626433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70424842834473</t>
   </si>
   <si>
     <t xml:space="preserve">3.58904457092285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56245899200439</t>
+    <t xml:space="preserve">3.56245875358582</t>
   </si>
   <si>
     <t xml:space="preserve">3.6386706829071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67234563827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67589044570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67411804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66525626182556</t>
+    <t xml:space="preserve">3.67234587669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67589020729065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67411828041077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66525673866272</t>
   </si>
   <si>
     <t xml:space="preserve">3.61740183830261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73792314529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77514314651489</t>
+    <t xml:space="preserve">3.73792338371277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77514338493347</t>
   </si>
   <si>
     <t xml:space="preserve">3.83717584609985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81767988204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88680267333984</t>
+    <t xml:space="preserve">3.81768035888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88680219650269</t>
   </si>
   <si>
     <t xml:space="preserve">3.83894777297974</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83363175392151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75741910934448</t>
+    <t xml:space="preserve">3.83363127708435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75741934776306</t>
   </si>
   <si>
     <t xml:space="preserve">3.76096391677856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73615097999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7556471824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74501276016235</t>
+    <t xml:space="preserve">3.73615074157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75564670562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74501252174377</t>
   </si>
   <si>
     <t xml:space="preserve">3.79286694526672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78932213783264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77337026596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76982617378235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75387501716614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72197198867798</t>
+    <t xml:space="preserve">3.78932237625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77337098121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76982641220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75387454032898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72197151184082</t>
   </si>
   <si>
     <t xml:space="preserve">3.70956516265869</t>
@@ -185,22 +185,22 @@
     <t xml:space="preserve">3.74855732917786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84780979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97896528244019</t>
+    <t xml:space="preserve">3.84781050682068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97896480560303</t>
   </si>
   <si>
     <t xml:space="preserve">3.94351744651794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95946907997131</t>
+    <t xml:space="preserve">3.95946979522705</t>
   </si>
   <si>
     <t xml:space="preserve">4.00909519195557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96833109855652</t>
+    <t xml:space="preserve">3.96833157539368</t>
   </si>
   <si>
     <t xml:space="preserve">3.93997359275818</t>
@@ -209,52 +209,52 @@
     <t xml:space="preserve">4.01086759567261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9382004737854</t>
+    <t xml:space="preserve">3.93820095062256</t>
   </si>
   <si>
     <t xml:space="preserve">3.91870498657227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98605465888977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91693258285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96124124526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95237994194031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90807056427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458572387695</t>
+    <t xml:space="preserve">3.98605513572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91693234443665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96124172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95237946510315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9080708026886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458620071411</t>
   </si>
   <si>
     <t xml:space="preserve">4.05171823501587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99745464324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01554203033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00288057327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980609893799</t>
+    <t xml:space="preserve">3.99745416641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01554250717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00288105010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980657577515</t>
   </si>
   <si>
     <t xml:space="preserve">4.00830745697021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97936582565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96127796173096</t>
+    <t xml:space="preserve">3.97936606407166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96127843856812</t>
   </si>
   <si>
     <t xml:space="preserve">3.90701413154602</t>
@@ -263,31 +263,31 @@
     <t xml:space="preserve">3.95223426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94861698150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8599853515625</t>
+    <t xml:space="preserve">3.94861650466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85998511314392</t>
   </si>
   <si>
     <t xml:space="preserve">3.9160578250885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88892579078674</t>
+    <t xml:space="preserve">3.8889262676239</t>
   </si>
   <si>
     <t xml:space="preserve">3.88711714744568</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84370589256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73155999183655</t>
+    <t xml:space="preserve">3.84370613098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73156046867371</t>
   </si>
   <si>
     <t xml:space="preserve">3.78944182395935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61760568618774</t>
+    <t xml:space="preserve">3.61760544776917</t>
   </si>
   <si>
     <t xml:space="preserve">3.63569355010986</t>
@@ -299,85 +299,85 @@
     <t xml:space="preserve">3.65378165245056</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64473795890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68091368675232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66101670265198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70442843437195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59589982032776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63931131362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62665009498596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6700611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71528053283691</t>
+    <t xml:space="preserve">3.6447377204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6809139251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66101694107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70442867279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59590029716492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63931155204773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62664985656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67006134986877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71528077125549</t>
   </si>
   <si>
     <t xml:space="preserve">3.76050114631653</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78039765357971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82742643356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89073514938354</t>
+    <t xml:space="preserve">3.78039789199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82742619514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89073467254639</t>
   </si>
   <si>
     <t xml:space="preserve">3.8418972492218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83466148376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81657409667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76773643493652</t>
+    <t xml:space="preserve">3.83466172218323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81657385826111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76773619651794</t>
   </si>
   <si>
     <t xml:space="preserve">3.79848551750183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81476497650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80029511451721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8129563331604</t>
+    <t xml:space="preserve">3.81476545333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80029439926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81295609474182</t>
   </si>
   <si>
     <t xml:space="preserve">3.77135396003723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77497124671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82561802864075</t>
+    <t xml:space="preserve">3.77497100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82561755180359</t>
   </si>
   <si>
     <t xml:space="preserve">3.75688338279724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80753016471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74783945083618</t>
+    <t xml:space="preserve">3.80752992630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74783968925476</t>
   </si>
   <si>
     <t xml:space="preserve">3.79486846923828</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">3.78763341903687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74964833259583</t>
+    <t xml:space="preserve">3.74964809417725</t>
   </si>
   <si>
     <t xml:space="preserve">3.73336887359619</t>
@@ -401,91 +401,91 @@
     <t xml:space="preserve">3.76230955123901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75326561927795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74603056907654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75145697593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77678060531616</t>
+    <t xml:space="preserve">3.75326585769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74603080749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75145673751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77678036689758</t>
   </si>
   <si>
     <t xml:space="preserve">3.78220701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71889853477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70804572105408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71708989143372</t>
+    <t xml:space="preserve">3.71889877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70804595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71709036827087</t>
   </si>
   <si>
     <t xml:space="preserve">3.68814897537231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71166324615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7550745010376</t>
+    <t xml:space="preserve">3.71166372299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75507497787476</t>
   </si>
   <si>
     <t xml:space="preserve">3.73698663711548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80572128295898</t>
+    <t xml:space="preserve">3.80572152137756</t>
   </si>
   <si>
     <t xml:space="preserve">3.8581759929657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83647108078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84008860588074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85094094276428</t>
+    <t xml:space="preserve">3.83647084236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84008812904358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85094141960144</t>
   </si>
   <si>
     <t xml:space="preserve">3.85275053977966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95042538642883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95946955680847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94680762290955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92510223388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89797019958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87083864212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86179423332214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89977836608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96670436859131</t>
+    <t xml:space="preserve">3.95042490959167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95946931838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94680738449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92510271072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89797043800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87083840370178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86179399490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89977884292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96670460700989</t>
   </si>
   <si>
     <t xml:space="preserve">3.9341459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97755694389343</t>
+    <t xml:space="preserve">3.97755670547485</t>
   </si>
   <si>
     <t xml:space="preserve">4.00649833679199</t>
@@ -494,31 +494,31 @@
     <t xml:space="preserve">4.00468969345093</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90882277488708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97394013404846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90339660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04086542129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04629278182983</t>
+    <t xml:space="preserve">3.90882301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97393989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90339636802673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04086589813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04629230499268</t>
   </si>
   <si>
     <t xml:space="preserve">4.03363037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06618881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07885074615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04267358779907</t>
+    <t xml:space="preserve">4.0661883354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07885026931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04267454147339</t>
   </si>
   <si>
     <t xml:space="preserve">4.08789443969727</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">4.1692910194397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09512996673584</t>
+    <t xml:space="preserve">4.09512901306152</t>
   </si>
   <si>
     <t xml:space="preserve">4.11502695083618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43156671524048</t>
+    <t xml:space="preserve">4.43156719207764</t>
   </si>
   <si>
     <t xml:space="preserve">4.40443468093872</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">4.37368535995483</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37549448013306</t>
+    <t xml:space="preserve">4.37549352645874</t>
   </si>
   <si>
     <t xml:space="preserve">4.35559701919556</t>
@@ -554,46 +554,46 @@
     <t xml:space="preserve">4.29952430725098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14215850830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06257152557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01011562347412</t>
+    <t xml:space="preserve">4.14215803146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06257104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01011610031128</t>
   </si>
   <si>
     <t xml:space="preserve">4.06799793243408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98117542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94499850273132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.943190574646</t>
+    <t xml:space="preserve">3.9811749458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94499897956848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94319009780884</t>
   </si>
   <si>
     <t xml:space="preserve">3.97213125228882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95766067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86541175842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89254331588745</t>
+    <t xml:space="preserve">3.95766043663025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86541223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89254379272461</t>
   </si>
   <si>
     <t xml:space="preserve">3.92871975898743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9703221321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98878884315491</t>
+    <t xml:space="preserve">3.97032141685486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98878908157349</t>
   </si>
   <si>
     <t xml:space="preserve">4.01648855209351</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">3.97032189369202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91492176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89645576477051</t>
+    <t xml:space="preserve">3.91492223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89645552635193</t>
   </si>
   <si>
     <t xml:space="preserve">3.95185613632202</t>
@@ -629,31 +629,31 @@
     <t xml:space="preserve">4.15314197540283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13282823562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08481502532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06265497207642</t>
+    <t xml:space="preserve">4.13282775878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08481550216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06265544891357</t>
   </si>
   <si>
     <t xml:space="preserve">4.02018213272095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07927513122559</t>
+    <t xml:space="preserve">4.07927560806274</t>
   </si>
   <si>
     <t xml:space="preserve">4.10882139205933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05896234512329</t>
+    <t xml:space="preserve">4.05896186828613</t>
   </si>
   <si>
     <t xml:space="preserve">4.09958839416504</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11805534362793</t>
+    <t xml:space="preserve">4.11805486679077</t>
   </si>
   <si>
     <t xml:space="preserve">4.10697507858276</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">4.08112239837646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11620855331421</t>
+    <t xml:space="preserve">4.11620807647705</t>
   </si>
   <si>
     <t xml:space="preserve">4.08850860595703</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">4.164222240448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15129518508911</t>
+    <t xml:space="preserve">4.15129470825195</t>
   </si>
   <si>
     <t xml:space="preserve">4.14575481414795</t>
@@ -704,16 +704,16 @@
     <t xml:space="preserve">4.17714834213257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12913513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19930791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13836860656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0958948135376</t>
+    <t xml:space="preserve">4.12913465499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19930839538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13836812973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09589529037476</t>
   </si>
   <si>
     <t xml:space="preserve">4.12728786468506</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">4.21038818359375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23808813095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12359523773193</t>
+    <t xml:space="preserve">4.23808860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12359476089478</t>
   </si>
   <si>
     <t xml:space="preserve">4.07742834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04418849945068</t>
+    <t xml:space="preserve">4.04418897628784</t>
   </si>
   <si>
     <t xml:space="preserve">4.1051287651062</t>
@@ -743,28 +743,28 @@
     <t xml:space="preserve">4.1605281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24547481536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15868186950684</t>
+    <t xml:space="preserve">4.24547529220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15868234634399</t>
   </si>
   <si>
     <t xml:space="preserve">4.14760208129883</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14206171035767</t>
+    <t xml:space="preserve">4.14206218719482</t>
   </si>
   <si>
     <t xml:space="preserve">4.14390802383423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17345523834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17530155181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21777439117432</t>
+    <t xml:space="preserve">4.17345476150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17530202865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21777486801147</t>
   </si>
   <si>
     <t xml:space="preserve">4.2196216583252</t>
@@ -779,34 +779,34 @@
     <t xml:space="preserve">4.0109486579895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96847534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04603481292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94816184043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0608081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11251497268677</t>
+    <t xml:space="preserve">3.96847486495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0460352897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94816207885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06080865859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11251449584961</t>
   </si>
   <si>
     <t xml:space="preserve">4.07373571395874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99248242378235</t>
+    <t xml:space="preserve">3.99248170852661</t>
   </si>
   <si>
     <t xml:space="preserve">3.95000910758972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.942622423172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02572250366211</t>
+    <t xml:space="preserve">3.94262218475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02572202682495</t>
   </si>
   <si>
     <t xml:space="preserve">3.99802184104919</t>
@@ -821,64 +821,64 @@
     <t xml:space="preserve">4.07188844680786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90568900108337</t>
+    <t xml:space="preserve">3.90568923950195</t>
   </si>
   <si>
     <t xml:space="preserve">3.87798881530762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97955560684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85952234268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92415547370911</t>
+    <t xml:space="preserve">3.97955513000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85952186584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92415595054626</t>
   </si>
   <si>
     <t xml:space="preserve">3.93338942527771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96108889579773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88722276687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8502893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81335616111755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83182239532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04594755172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07430696487427</t>
+    <t xml:space="preserve">3.96108937263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88722229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85028910636902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81335639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83182287216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04594802856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07430648803711</t>
   </si>
   <si>
     <t xml:space="preserve">4.06485366821289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99868154525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01758766174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05540037155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98922872543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92305636405945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9419629573822</t>
+    <t xml:space="preserve">3.99868178367615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01758813858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05540084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98922848701477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92305660247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94196271896362</t>
   </si>
   <si>
     <t xml:space="preserve">3.80016541481018</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">3.78125929832458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76235318183899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74344658851624</t>
+    <t xml:space="preserve">3.76235294342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74344682693481</t>
   </si>
   <si>
     <t xml:space="preserve">3.73399353027344</t>
@@ -905,52 +905,52 @@
     <t xml:space="preserve">3.64891505241394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54493045806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45039892196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30860161781311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37477397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35586738586426</t>
+    <t xml:space="preserve">3.54493069648743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45039916038513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30860185623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37477374076843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35586786270142</t>
   </si>
   <si>
     <t xml:space="preserve">3.39368009567261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40313315391541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47875881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4882116317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38422703742981</t>
+    <t xml:space="preserve">3.40313339233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4787585735321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48821187019348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38422679901123</t>
   </si>
   <si>
     <t xml:space="preserve">3.46930551528931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45985245704651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42203950881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4976646900177</t>
+    <t xml:space="preserve">3.45985221862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42203974723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49766492843628</t>
   </si>
   <si>
     <t xml:space="preserve">3.51657104492188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33696150779724</t>
+    <t xml:space="preserve">3.33696126937866</t>
   </si>
   <si>
     <t xml:space="preserve">3.63000869750977</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">3.67727470397949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50711798667908</t>
+    <t xml:space="preserve">3.5071177482605</t>
   </si>
   <si>
     <t xml:space="preserve">3.70563411712646</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">3.5732901096344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55438351631165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5827431678772</t>
+    <t xml:space="preserve">3.55438375473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58274292945862</t>
   </si>
   <si>
     <t xml:space="preserve">3.60164928436279</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">3.66782164573669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69618082046509</t>
+    <t xml:space="preserve">3.69618105888367</t>
   </si>
   <si>
     <t xml:space="preserve">3.53547739982605</t>
@@ -58697,7 +58697,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6227546296</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>3120</v>
@@ -58718,6 +58718,32 @@
         <v>659</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.5240740741</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>630</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>4.65999984741211</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>4.65999984741211</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>645</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -47,178 +47,178 @@
     <t xml:space="preserve">3.89566373825073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89920830726624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89034628868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88857412338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81059074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76628136634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81945252418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80172872543335</t>
+    <t xml:space="preserve">3.89920878410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89034700393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88857460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81059002876282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76628160476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8194522857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80172848701477</t>
   </si>
   <si>
     <t xml:space="preserve">3.65284991264343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70070385932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67766261100769</t>
+    <t xml:space="preserve">3.7007040977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67766308784485</t>
   </si>
   <si>
     <t xml:space="preserve">3.68652439117432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66702890396118</t>
+    <t xml:space="preserve">3.6670286655426</t>
   </si>
   <si>
     <t xml:space="preserve">3.50928807258606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63335371017456</t>
+    <t xml:space="preserve">3.63335347175598</t>
   </si>
   <si>
     <t xml:space="preserve">3.71311020851135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69006943702698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62626433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70424842834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58904457092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56245875358582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6386706829071</t>
+    <t xml:space="preserve">3.6900691986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62626361846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70424818992615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58904480934143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56245899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63867044448853</t>
   </si>
   <si>
     <t xml:space="preserve">3.67234587669373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67589020729065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67411828041077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66525673866272</t>
+    <t xml:space="preserve">3.67589068412781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66525602340698</t>
   </si>
   <si>
     <t xml:space="preserve">3.61740183830261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73792338371277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77514338493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83717584609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81768035888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88680219650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83894777297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83363127708435</t>
+    <t xml:space="preserve">3.73792314529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77514362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83717608451843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81767988204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88680243492126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83894824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83363151550293</t>
   </si>
   <si>
     <t xml:space="preserve">3.75741934776306</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76096391677856</t>
+    <t xml:space="preserve">3.76096367835999</t>
   </si>
   <si>
     <t xml:space="preserve">3.73615074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75564670562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74501252174377</t>
+    <t xml:space="preserve">3.75564646720886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74501276016235</t>
   </si>
   <si>
     <t xml:space="preserve">3.79286694526672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78932237625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77337098121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76982641220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75387454032898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72197151184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70956516265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74855732917786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84781050682068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97896480560303</t>
+    <t xml:space="preserve">3.78932166099548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77337026596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76982617378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75387477874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72197198867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70956540107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74855780601501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84780979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97896528244019</t>
   </si>
   <si>
     <t xml:space="preserve">3.94351744651794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95946979522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00909519195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96833157539368</t>
+    <t xml:space="preserve">3.95946955680847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00909566879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96833109855652</t>
   </si>
   <si>
     <t xml:space="preserve">3.93997359275818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01086759567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93820095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91870498657227</t>
+    <t xml:space="preserve">4.01086807250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9382004737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91870450973511</t>
   </si>
   <si>
     <t xml:space="preserve">3.98605513572693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91693234443665</t>
+    <t xml:space="preserve">3.9169328212738</t>
   </si>
   <si>
     <t xml:space="preserve">3.96124172210693</t>
@@ -227,82 +227,82 @@
     <t xml:space="preserve">3.95237946510315</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9080708026886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02458620071411</t>
+    <t xml:space="preserve">3.90807032585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02458572387695</t>
   </si>
   <si>
     <t xml:space="preserve">4.05171823501587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99745416641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01554250717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00288105010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06980657577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00830745697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97936606407166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96127843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90701413154602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95223426818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94861650466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85998511314392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9160578250885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8889262676239</t>
+    <t xml:space="preserve">3.99745464324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01554203033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00288057327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06980609893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00830698013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97936630249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96127796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9070143699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95223379135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94861698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8599853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91605830192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88892579078674</t>
   </si>
   <si>
     <t xml:space="preserve">3.88711714744568</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84370613098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73156046867371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78944182395935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61760544776917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63569355010986</t>
+    <t xml:space="preserve">3.84370636940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73156023025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78944206237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61760592460632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63569378852844</t>
   </si>
   <si>
     <t xml:space="preserve">3.70261931419373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65378165245056</t>
+    <t xml:space="preserve">3.65378189086914</t>
   </si>
   <si>
     <t xml:space="preserve">3.6447377204895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6809139251709</t>
+    <t xml:space="preserve">3.68091416358948</t>
   </si>
   <si>
     <t xml:space="preserve">3.66101694107056</t>
@@ -311,67 +311,67 @@
     <t xml:space="preserve">3.70442867279053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59590029716492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63931155204773</t>
+    <t xml:space="preserve">3.59590005874634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63931131362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.62664985656738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67006134986877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71528077125549</t>
+    <t xml:space="preserve">3.6700611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71528100967407</t>
   </si>
   <si>
     <t xml:space="preserve">3.76050114631653</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78039789199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82742619514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89073467254639</t>
+    <t xml:space="preserve">3.78039765357971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82742691040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89073491096497</t>
   </si>
   <si>
     <t xml:space="preserve">3.8418972492218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83466172218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81657385826111</t>
+    <t xml:space="preserve">3.83466196060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81657338142395</t>
   </si>
   <si>
     <t xml:space="preserve">3.76773619651794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79848551750183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81476545333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80029439926147</t>
+    <t xml:space="preserve">3.79848599433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81476497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80029511451721</t>
   </si>
   <si>
     <t xml:space="preserve">3.81295609474182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77135396003723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77497100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82561755180359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75688338279724</t>
+    <t xml:space="preserve">3.77135372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77497124671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82561826705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75688314437866</t>
   </si>
   <si>
     <t xml:space="preserve">3.80752992630005</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">3.74783968925476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79486846923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74422192573547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78763341903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74964809417725</t>
+    <t xml:space="preserve">3.79486799240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74422121047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78763318061829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74964833259583</t>
   </si>
   <si>
     <t xml:space="preserve">3.73336887359619</t>
@@ -401,37 +401,37 @@
     <t xml:space="preserve">3.76230955123901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75326585769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74603080749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75145673751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77678036689758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78220701217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71889877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70804595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71709036827087</t>
+    <t xml:space="preserve">3.75326609611511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74603056907654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75145721435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77678060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78220677375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7188982963562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70804572105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71709012985229</t>
   </si>
   <si>
     <t xml:space="preserve">3.68814897537231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71166372299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75507497787476</t>
+    <t xml:space="preserve">3.71166348457336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75507473945618</t>
   </si>
   <si>
     <t xml:space="preserve">3.73698663711548</t>
@@ -443,34 +443,34 @@
     <t xml:space="preserve">3.8581759929657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83647084236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84008812904358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85094141960144</t>
+    <t xml:space="preserve">3.83647108078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.840087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85094094276428</t>
   </si>
   <si>
     <t xml:space="preserve">3.85275053977966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95042490959167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95946931838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94680738449097</t>
+    <t xml:space="preserve">3.95042538642883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95946907997131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9468080997467</t>
   </si>
   <si>
     <t xml:space="preserve">3.92510271072388</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89797043800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87083840370178</t>
+    <t xml:space="preserve">3.89797019958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8708381652832</t>
   </si>
   <si>
     <t xml:space="preserve">3.86179399490356</t>
@@ -479,28 +479,28 @@
     <t xml:space="preserve">3.89977884292603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96670460700989</t>
+    <t xml:space="preserve">3.96670484542847</t>
   </si>
   <si>
     <t xml:space="preserve">3.9341459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97755670547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00649833679199</t>
+    <t xml:space="preserve">3.97755694389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00649785995483</t>
   </si>
   <si>
     <t xml:space="preserve">4.00468969345093</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90882301330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97393989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90339636802673</t>
+    <t xml:space="preserve">3.90882253646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97394013404846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90339660644531</t>
   </si>
   <si>
     <t xml:space="preserve">4.04086589813232</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">4.04629230499268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03363037109375</t>
+    <t xml:space="preserve">4.03362989425659</t>
   </si>
   <si>
     <t xml:space="preserve">4.0661883354187</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">4.07885026931763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04267454147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08789443969727</t>
+    <t xml:space="preserve">4.04267406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08789396286011</t>
   </si>
   <si>
     <t xml:space="preserve">4.0969386100769</t>
@@ -530,37 +530,37 @@
     <t xml:space="preserve">4.1692910194397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09512901306152</t>
+    <t xml:space="preserve">4.09512948989868</t>
   </si>
   <si>
     <t xml:space="preserve">4.11502695083618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43156719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40443468093872</t>
+    <t xml:space="preserve">4.43156671524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40443420410156</t>
   </si>
   <si>
     <t xml:space="preserve">4.37368535995483</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37549352645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35559701919556</t>
+    <t xml:space="preserve">4.3754940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35559749603271</t>
   </si>
   <si>
     <t xml:space="preserve">4.29952430725098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14215803146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06257104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01011610031128</t>
+    <t xml:space="preserve">4.14215850830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06257152557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01011562347412</t>
   </si>
   <si>
     <t xml:space="preserve">4.06799793243408</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">3.97213125228882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95766043663025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86541223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89254379272461</t>
+    <t xml:space="preserve">3.95766067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86541175842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89254355430603</t>
   </si>
   <si>
     <t xml:space="preserve">3.92871975898743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97032141685486</t>
+    <t xml:space="preserve">3.9703221321106</t>
   </si>
   <si>
     <t xml:space="preserve">3.98878908157349</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">4.01648855209351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00725555419922</t>
+    <t xml:space="preserve">4.00725603103638</t>
   </si>
   <si>
     <t xml:space="preserve">4.09404850006104</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">3.91492223739624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89645552635193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95185613632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09035539627075</t>
+    <t xml:space="preserve">3.89645504951477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95185565948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09035491943359</t>
   </si>
   <si>
     <t xml:space="preserve">4.15498828887939</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">4.15314197540283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13282775878906</t>
+    <t xml:space="preserve">4.13282823562622</t>
   </si>
   <si>
     <t xml:space="preserve">4.08481550216675</t>
@@ -680,16 +680,16 @@
     <t xml:space="preserve">4.13652181625366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11990165710449</t>
+    <t xml:space="preserve">4.11990213394165</t>
   </si>
   <si>
     <t xml:space="preserve">4.23624134063721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18084192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.164222240448</t>
+    <t xml:space="preserve">4.18084144592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16422176361084</t>
   </si>
   <si>
     <t xml:space="preserve">4.15129470825195</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">4.09589529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12728786468506</t>
+    <t xml:space="preserve">4.12728834152222</t>
   </si>
   <si>
     <t xml:space="preserve">4.19561529159546</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">4.21038818359375</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23808860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12359476089478</t>
+    <t xml:space="preserve">4.23808813095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12359523773193</t>
   </si>
   <si>
     <t xml:space="preserve">4.07742834091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04418897628784</t>
+    <t xml:space="preserve">4.04418849945068</t>
   </si>
   <si>
     <t xml:space="preserve">4.1051287651062</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">4.1605281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24547529220581</t>
+    <t xml:space="preserve">4.24547481536865</t>
   </si>
   <si>
     <t xml:space="preserve">4.15868234634399</t>
@@ -752,10 +752,10 @@
     <t xml:space="preserve">4.14760208129883</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14206218719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14390802383423</t>
+    <t xml:space="preserve">4.14206171035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14390850067139</t>
   </si>
   <si>
     <t xml:space="preserve">4.17345476150513</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">4.0109486579895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96847486495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0460352897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94816207885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06080865859985</t>
+    <t xml:space="preserve">3.96847534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04603576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94816184043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0608081817627</t>
   </si>
   <si>
     <t xml:space="preserve">4.11251449584961</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">4.02572202682495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99802184104919</t>
+    <t xml:space="preserve">3.99802231788635</t>
   </si>
   <si>
     <t xml:space="preserve">3.96293544769287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02387523651123</t>
+    <t xml:space="preserve">4.02387571334839</t>
   </si>
   <si>
     <t xml:space="preserve">4.07188844680786</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">3.90568923950195</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87798881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97955513000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85952186584473</t>
+    <t xml:space="preserve">3.87798929214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97955560684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85952234268188</t>
   </si>
   <si>
     <t xml:space="preserve">3.92415595054626</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">3.93338942527771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96108937263489</t>
+    <t xml:space="preserve">3.96108889579773</t>
   </si>
   <si>
     <t xml:space="preserve">3.88722229003906</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">3.83182287216187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04594802856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07430648803711</t>
+    <t xml:space="preserve">4.04594755172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07430696487427</t>
   </si>
   <si>
     <t xml:space="preserve">4.06485366821289</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">4.01758813858032</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05540084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98922848701477</t>
+    <t xml:space="preserve">4.05540037155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98922801017761</t>
   </si>
   <si>
     <t xml:space="preserve">3.92305660247803</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">3.94196271896362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80016541481018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72454047203064</t>
+    <t xml:space="preserve">3.80016565322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72454023361206</t>
   </si>
   <si>
     <t xml:space="preserve">3.78125929832458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76235294342041</t>
+    <t xml:space="preserve">3.76235270500183</t>
   </si>
   <si>
     <t xml:space="preserve">3.74344682693481</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">3.54493069648743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45039916038513</t>
+    <t xml:space="preserve">3.45039892196655</t>
   </si>
   <si>
     <t xml:space="preserve">3.30860185623169</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">3.37477374076843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35586786270142</t>
+    <t xml:space="preserve">3.35586762428284</t>
   </si>
   <si>
     <t xml:space="preserve">3.39368009567261</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">3.40313339233398</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4787585735321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48821187019348</t>
+    <t xml:space="preserve">3.47875881195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4882116317749</t>
   </si>
   <si>
     <t xml:space="preserve">3.38422679901123</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">3.45985221862793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42203974723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49766492843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51657104492188</t>
+    <t xml:space="preserve">3.42203950881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4976646900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51657128334045</t>
   </si>
   <si>
     <t xml:space="preserve">3.33696126937866</t>
@@ -959,19 +959,19 @@
     <t xml:space="preserve">3.59219622612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52602434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67727470397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5071177482605</t>
+    <t xml:space="preserve">3.52602410316467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67727494239807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50711798667908</t>
   </si>
   <si>
     <t xml:space="preserve">3.70563411712646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62055587768555</t>
+    <t xml:space="preserve">3.62055563926697</t>
   </si>
   <si>
     <t xml:space="preserve">3.63946199417114</t>
@@ -983,22 +983,22 @@
     <t xml:space="preserve">3.61110258102417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5732901096344</t>
+    <t xml:space="preserve">3.57328987121582</t>
   </si>
   <si>
     <t xml:space="preserve">3.55438375473022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58274292945862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60164928436279</t>
+    <t xml:space="preserve">3.5827431678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60164952278137</t>
   </si>
   <si>
     <t xml:space="preserve">3.66782164573669</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69618105888367</t>
+    <t xml:space="preserve">3.69618082046509</t>
   </si>
   <si>
     <t xml:space="preserve">3.53547739982605</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">3.7270679473877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57177352905273</t>
+    <t xml:space="preserve">3.57177376747131</t>
   </si>
   <si>
     <t xml:space="preserve">3.64942073822021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61059713363647</t>
+    <t xml:space="preserve">3.61059737205505</t>
   </si>
   <si>
     <t xml:space="preserve">3.68824434280396</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">3.80471539497375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82412719726562</t>
+    <t xml:space="preserve">3.82412695884705</t>
   </si>
   <si>
     <t xml:space="preserve">3.76589179039001</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">3.8435389995575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86295080184937</t>
+    <t xml:space="preserve">3.86295056343079</t>
   </si>
   <si>
     <t xml:space="preserve">3.88236260414124</t>
@@ -1046,13 +1046,13 @@
     <t xml:space="preserve">3.74647974967957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66883277893066</t>
+    <t xml:space="preserve">3.66883254051208</t>
   </si>
   <si>
     <t xml:space="preserve">3.63000893592834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59118556976318</t>
+    <t xml:space="preserve">3.5911853313446</t>
   </si>
   <si>
     <t xml:space="preserve">3.55236172676086</t>
@@ -1061,13 +1061,13 @@
     <t xml:space="preserve">3.49412631988525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53294992446899</t>
+    <t xml:space="preserve">3.53295016288757</t>
   </si>
   <si>
     <t xml:space="preserve">3.43589091300964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45530247688293</t>
+    <t xml:space="preserve">3.45530271530151</t>
   </si>
   <si>
     <t xml:space="preserve">3.4747142791748</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">3.12530183792114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0864782333374</t>
+    <t xml:space="preserve">3.08647847175598</t>
   </si>
   <si>
     <t xml:space="preserve">3.06706643104553</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">3.04765486717224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93118357658386</t>
+    <t xml:space="preserve">2.93118381500244</t>
   </si>
   <si>
     <t xml:space="preserve">2.87294840812683</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">2.85353636741638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98941922187805</t>
+    <t xml:space="preserve">2.98941898345947</t>
   </si>
   <si>
     <t xml:space="preserve">2.91177201271057</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">3.14471364021301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00883078575134</t>
+    <t xml:space="preserve">3.00883102416992</t>
   </si>
   <si>
     <t xml:space="preserve">2.97000741958618</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">2.83412480354309</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81471300125122</t>
+    <t xml:space="preserve">2.81471276283264</t>
   </si>
   <si>
     <t xml:space="preserve">2.77588891983032</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">2.75647735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56235933303833</t>
+    <t xml:space="preserve">2.56235957145691</t>
   </si>
   <si>
     <t xml:space="preserve">2.64000654220581</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">2.52353572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48471188545227</t>
+    <t xml:space="preserve">2.48471212387085</t>
   </si>
   <si>
     <t xml:space="preserve">2.34882950782776</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">2.15471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25177025794983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03824019432068</t>
+    <t xml:space="preserve">2.25177001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03824043273926</t>
   </si>
   <si>
     <t xml:space="preserve">2.21294665336609</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">2.2711820602417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31000566482544</t>
+    <t xml:space="preserve">2.31000590324402</t>
   </si>
   <si>
     <t xml:space="preserve">2.32941746711731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28088784217834</t>
+    <t xml:space="preserve">2.28088808059692</t>
   </si>
   <si>
     <t xml:space="preserve">2.42647647857666</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">2.44588851928711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29059386253357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30029988288879</t>
+    <t xml:space="preserve">2.29059362411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30029964447021</t>
   </si>
   <si>
     <t xml:space="preserve">2.3585352897644</t>
@@ -1235,16 +1235,16 @@
     <t xml:space="preserve">2.37794709205627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31971168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2420642375946</t>
+    <t xml:space="preserve">2.31971192359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24206447601318</t>
   </si>
   <si>
     <t xml:space="preserve">2.26147603988647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36824131011963</t>
+    <t xml:space="preserve">2.36824107170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.33912348747253</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">2.19353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324063301086</t>
+    <t xml:space="preserve">2.20324087142944</t>
   </si>
   <si>
     <t xml:space="preserve">2.18382883071899</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">2.11588764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12559366226196</t>
+    <t xml:space="preserve">2.12559342384338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08676981925964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0479462146759</t>
+    <t xml:space="preserve">2.04794597625732</t>
   </si>
   <si>
     <t xml:space="preserve">1.99941670894623</t>
@@ -1286,19 +1286,19 @@
     <t xml:space="preserve">1.94118130207062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95088708400726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97029900550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22265267372131</t>
+    <t xml:space="preserve">1.95088720321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97029888629913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22265243530273</t>
   </si>
   <si>
     <t xml:space="preserve">2.16441702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38765287399292</t>
+    <t xml:space="preserve">2.3876531124115</t>
   </si>
   <si>
     <t xml:space="preserve">2.39735889434814</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.5817711353302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8923602104187</t>
+    <t xml:space="preserve">2.89235997200012</t>
   </si>
   <si>
     <t xml:space="preserve">2.67883014678955</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">2.65941834449768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61088895797729</t>
+    <t xml:space="preserve">2.61088871955872</t>
   </si>
   <si>
     <t xml:space="preserve">2.69824194908142</t>
@@ -1325,31 +1325,31 @@
     <t xml:space="preserve">2.66912436485291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63030052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55265331268311</t>
+    <t xml:space="preserve">2.63030076026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55265355110168</t>
   </si>
   <si>
     <t xml:space="preserve">2.54294729232788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53324151039124</t>
+    <t xml:space="preserve">2.53324127197266</t>
   </si>
   <si>
     <t xml:space="preserve">2.71765375137329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72735953330994</t>
+    <t xml:space="preserve">2.72735977172852</t>
   </si>
   <si>
     <t xml:space="preserve">2.70794773101807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74677157402039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.805006980896</t>
+    <t xml:space="preserve">2.74677133560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80500721931458</t>
   </si>
   <si>
     <t xml:space="preserve">2.96030139923096</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">3.01853680610657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99912476539612</t>
+    <t xml:space="preserve">2.9991250038147</t>
   </si>
   <si>
     <t xml:space="preserve">2.97971320152283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05736064910889</t>
+    <t xml:space="preserve">3.05736041069031</t>
   </si>
   <si>
     <t xml:space="preserve">3.18353724479675</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">3.23206663131714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25147843360901</t>
+    <t xml:space="preserve">3.25147867202759</t>
   </si>
   <si>
     <t xml:space="preserve">3.26118445396423</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">3.21265506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19324326515198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15441942214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17383122444153</t>
+    <t xml:space="preserve">3.1932430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15441966056824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17383146286011</t>
   </si>
   <si>
     <t xml:space="preserve">3.29030251502991</t>
@@ -1397,25 +1397,25 @@
     <t xml:space="preserve">3.28059649467468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32912588119507</t>
+    <t xml:space="preserve">3.32912611961365</t>
   </si>
   <si>
     <t xml:space="preserve">3.34853768348694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27089047431946</t>
+    <t xml:space="preserve">3.27089023590088</t>
   </si>
   <si>
     <t xml:space="preserve">3.1155960559845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09618425369263</t>
+    <t xml:space="preserve">3.09618401527405</t>
   </si>
   <si>
     <t xml:space="preserve">3.03794884681702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07677221298218</t>
+    <t xml:space="preserve">3.07677245140076</t>
   </si>
   <si>
     <t xml:space="preserve">2.94088959693909</t>
@@ -1436,19 +1436,19 @@
     <t xml:space="preserve">2.86324238777161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82441902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13500785827637</t>
+    <t xml:space="preserve">2.82441878318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13500761985779</t>
   </si>
   <si>
     <t xml:space="preserve">3.3097140789032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6203031539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6979501247406</t>
+    <t xml:space="preserve">3.62030291557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69795036315918</t>
   </si>
   <si>
     <t xml:space="preserve">3.73677396774292</t>
@@ -1460,22 +1460,22 @@
     <t xml:space="preserve">3.91148042678833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97942137718201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96971607208252</t>
+    <t xml:space="preserve">3.97942161560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96971559524536</t>
   </si>
   <si>
     <t xml:space="preserve">4.00853967666626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07648038864136</t>
+    <t xml:space="preserve">4.07648086547852</t>
   </si>
   <si>
     <t xml:space="preserve">3.99883341789246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09589242935181</t>
+    <t xml:space="preserve">4.09589195251465</t>
   </si>
   <si>
     <t xml:space="preserve">4.23177528381348</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">4.26089286804199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37736415863037</t>
+    <t xml:space="preserve">4.37736368179321</t>
   </si>
   <si>
     <t xml:space="preserve">4.36765766143799</t>
@@ -1499,25 +1499,25 @@
     <t xml:space="preserve">4.42589330673218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45501136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48412847518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25118732452393</t>
+    <t xml:space="preserve">4.45501089096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48412895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25118684768677</t>
   </si>
   <si>
     <t xml:space="preserve">4.1153039932251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05706834793091</t>
+    <t xml:space="preserve">4.05706882476807</t>
   </si>
   <si>
     <t xml:space="preserve">4.27059888839722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33853960037231</t>
+    <t xml:space="preserve">4.33854007720947</t>
   </si>
   <si>
     <t xml:space="preserve">4.31912803649902</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">4.53265810012817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56177568435669</t>
+    <t xml:space="preserve">4.56177616119385</t>
   </si>
   <si>
     <t xml:space="preserve">4.46471691131592</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">4.39677572250366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15412855148315</t>
+    <t xml:space="preserve">4.154128074646</t>
   </si>
   <si>
     <t xml:space="preserve">4.19295167922974</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">4.28030490875244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21236324310303</t>
+    <t xml:space="preserve">4.21236371994019</t>
   </si>
   <si>
     <t xml:space="preserve">4.17353963851929</t>
@@ -1559,25 +1559,25 @@
     <t xml:space="preserve">4.10559844970703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2026572227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35795164108276</t>
+    <t xml:space="preserve">4.20265769958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35795211791992</t>
   </si>
   <si>
     <t xml:space="preserve">4.5423641204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49383449554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40648126602173</t>
+    <t xml:space="preserve">4.49383497238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40648174285889</t>
   </si>
   <si>
     <t xml:space="preserve">4.51324653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50354051589966</t>
+    <t xml:space="preserve">4.5035400390625</t>
   </si>
   <si>
     <t xml:space="preserve">4.52295207977295</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">4.47442293167114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44530534744263</t>
+    <t xml:space="preserve">4.44530487060547</t>
   </si>
   <si>
     <t xml:space="preserve">4.67824697494507</t>
@@ -1604,25 +1604,25 @@
     <t xml:space="preserve">4.65883493423462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63942337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60059976577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29971647262573</t>
+    <t xml:space="preserve">4.63942384719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60059928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29971599578857</t>
   </si>
   <si>
     <t xml:space="preserve">4.14442205429077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18324518203735</t>
+    <t xml:space="preserve">4.18324565887451</t>
   </si>
   <si>
     <t xml:space="preserve">4.41618776321411</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57148218154907</t>
+    <t xml:space="preserve">4.57148170471191</t>
   </si>
   <si>
     <t xml:space="preserve">4.64912891387939</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">5.04707145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49354314804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62942600250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53236627578735</t>
+    <t xml:space="preserve">5.49354267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62942552566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53236675262451</t>
   </si>
   <si>
     <t xml:space="preserve">5.31883668899536</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">5.33824872970581</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45471906661987</t>
+    <t xml:space="preserve">5.45471954345703</t>
   </si>
   <si>
     <t xml:space="preserve">5.41589546203613</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">4.87236499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96942377090454</t>
+    <t xml:space="preserve">4.9694242477417</t>
   </si>
   <si>
     <t xml:space="preserve">4.76560020446777</t>
@@ -58723,7 +58723,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.5240740741</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>630</v>
@@ -58744,6 +58744,32 @@
         <v>645</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6495717593</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>4.71999979019165</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>4.71999979019165</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>638</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87282133102417</t>
+    <t xml:space="preserve">3.87282085418701</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87105965614319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458181381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86577606201172</t>
+    <t xml:space="preserve">3.87105917930603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8657763004303</t>
   </si>
   <si>
     <t xml:space="preserve">3.86401534080505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78652405738831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74249458312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532957077026</t>
+    <t xml:space="preserve">3.78652358055115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7424943447113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532980918884</t>
   </si>
   <si>
     <t xml:space="preserve">3.77771782875061</t>
@@ -71,70 +71,70 @@
     <t xml:space="preserve">3.62977933883667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67733097076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65443563461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.663241147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64386868476868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48712420463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61040639877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68965864181519</t>
+    <t xml:space="preserve">3.67733120918274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65443539619446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66324138641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64386892318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4871244430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61040616035461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68965888023376</t>
   </si>
   <si>
     <t xml:space="preserve">3.6667640209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60336184501648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68085289001465</t>
+    <t xml:space="preserve">3.6033616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68085312843323</t>
   </si>
   <si>
     <t xml:space="preserve">3.56637740135193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.539959192276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61568975448608</t>
+    <t xml:space="preserve">3.53995895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61568999290466</t>
   </si>
   <si>
     <t xml:space="preserve">3.64915204048157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65267419815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65091347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64210748672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59455537796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71431517601013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.751300573349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81294131278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356813430786</t>
+    <t xml:space="preserve">3.65267395973206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65091300010681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64210772514343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59455561637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71431565284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75130033493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81294107437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7935688495636</t>
   </si>
   <si>
     <t xml:space="preserve">3.86225390434265</t>
@@ -146,37 +146,37 @@
     <t xml:space="preserve">3.80941915512085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73368811607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73721027374268</t>
+    <t xml:space="preserve">3.73368835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73721075057983</t>
   </si>
   <si>
     <t xml:space="preserve">3.71255445480347</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73192667961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72135996818542</t>
+    <t xml:space="preserve">3.73192691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72135972976685</t>
   </si>
   <si>
     <t xml:space="preserve">3.76891207695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76538944244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7495391368866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74601674079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73016571998596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6984646320343</t>
+    <t xml:space="preserve">3.76538991928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74953889846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74601697921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73016548156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69846439361572</t>
   </si>
   <si>
     <t xml:space="preserve">3.68613648414612</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">3.72488236427307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8235080242157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95383477210999</t>
+    <t xml:space="preserve">3.82350850105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95383501052856</t>
   </si>
   <si>
     <t xml:space="preserve">3.91861152648926</t>
@@ -197,67 +197,67 @@
     <t xml:space="preserve">3.93446230888367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98377513885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94326829910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508936882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9855363368988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91332864761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89395546913147</t>
+    <t xml:space="preserve">3.9837749004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326853752136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98553586006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91332769393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89395499229431</t>
   </si>
   <si>
     <t xml:space="preserve">3.96087980270386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89219450950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622279167175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92741751670837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88338780403137</t>
+    <t xml:space="preserve">3.89219427108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622326850891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92741727828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88338804244995</t>
   </si>
   <si>
     <t xml:space="preserve">3.99916791915894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02612829208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220778465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759985923767</t>
+    <t xml:space="preserve">4.0261287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9901819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759938240051</t>
   </si>
   <si>
     <t xml:space="preserve">4.04410219192505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98299169540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423316955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625926971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88233828544617</t>
+    <t xml:space="preserve">3.98299193382263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423340797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625998497009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88233852386475</t>
   </si>
   <si>
     <t xml:space="preserve">3.92727255821228</t>
@@ -266,28 +266,28 @@
     <t xml:space="preserve">3.92367792129517</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83560705184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8913254737854</t>
+    <t xml:space="preserve">3.83560681343079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89132499694824</t>
   </si>
   <si>
     <t xml:space="preserve">3.86436462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86256742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8194305896759</t>
+    <t xml:space="preserve">3.86256718635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81943035125732</t>
   </si>
   <si>
     <t xml:space="preserve">3.70799255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76550889015198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475755691528</t>
+    <t xml:space="preserve">3.7655086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475779533386</t>
   </si>
   <si>
     <t xml:space="preserve">3.61273121833801</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">3.62171840667725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65766620635986</t>
+    <t xml:space="preserve">3.65766596794128</t>
   </si>
   <si>
     <t xml:space="preserve">3.63789463043213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68103194236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57318902015686</t>
+    <t xml:space="preserve">3.68103218078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57318949699402</t>
   </si>
   <si>
     <t xml:space="preserve">3.61632657051086</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">3.60374474525452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64688158035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6918158531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73675084114075</t>
+    <t xml:space="preserve">3.64688205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69181609153748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73675060272217</t>
   </si>
   <si>
     <t xml:space="preserve">3.75652170181274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80325365066528</t>
+    <t xml:space="preserve">3.80325317382812</t>
   </si>
   <si>
     <t xml:space="preserve">3.86616206169128</t>
@@ -341,34 +341,34 @@
     <t xml:space="preserve">3.8176326751709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81044268608093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79246950149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74394011497498</t>
+    <t xml:space="preserve">3.81044292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79246926307678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7439398765564</t>
   </si>
   <si>
     <t xml:space="preserve">3.77449512481689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79067182540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77629327774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74753522872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75112962722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80145621299744</t>
+    <t xml:space="preserve">3.79067206382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887486457825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74753475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75112915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80145597457886</t>
   </si>
   <si>
     <t xml:space="preserve">3.73315572738647</t>
@@ -377,22 +377,22 @@
     <t xml:space="preserve">3.78348255157471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72416925430298</t>
+    <t xml:space="preserve">3.7241690158844</t>
   </si>
   <si>
     <t xml:space="preserve">3.77090072631836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72057414054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371145248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70978975296021</t>
+    <t xml:space="preserve">3.72057437896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371169090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596621513367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70978999137878</t>
   </si>
   <si>
     <t xml:space="preserve">3.70260047912598</t>
@@ -401,40 +401,40 @@
     <t xml:space="preserve">3.73854804039001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72956109046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237157821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72776389122009</t>
+    <t xml:space="preserve">3.72956085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237181663513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72776341438293</t>
   </si>
   <si>
     <t xml:space="preserve">3.75292730331421</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75831937789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69541072845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68462681770325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69361352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68822145462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73135852813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7133846282959</t>
+    <t xml:space="preserve">3.75831913948059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69541096687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68462657928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69361400604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485571861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68822169303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73135876655579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338486671448</t>
   </si>
   <si>
     <t xml:space="preserve">3.78168535232544</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">3.83380913734436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81224060058594</t>
+    <t xml:space="preserve">3.81224083900452</t>
   </si>
   <si>
     <t xml:space="preserve">3.81583499908447</t>
@@ -452,10 +452,10 @@
     <t xml:space="preserve">3.82661962509155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82841730117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547559738159</t>
+    <t xml:space="preserve">3.8284170627594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547488212585</t>
   </si>
   <si>
     <t xml:space="preserve">3.93446183204651</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">3.92188024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9003119468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87335133552551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84639167785645</t>
+    <t xml:space="preserve">3.90031242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87335157394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84639120101929</t>
   </si>
   <si>
     <t xml:space="preserve">3.83740377426147</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">3.87514877319336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94165229797363</t>
+    <t xml:space="preserve">3.9416515827179</t>
   </si>
   <si>
     <t xml:space="preserve">3.90929913520813</t>
@@ -488,34 +488,34 @@
     <t xml:space="preserve">3.95243573188782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98119425773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97939682006836</t>
+    <t xml:space="preserve">3.98119378089905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97939705848694</t>
   </si>
   <si>
     <t xml:space="preserve">3.88413572311401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94884157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87874364852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01534414291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02073669433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00815486907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04050731658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0530891418457</t>
+    <t xml:space="preserve">3.94884085655212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87874388694763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01534461975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073621749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00815439224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04050779342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05308961868286</t>
   </si>
   <si>
     <t xml:space="preserve">4.01714181900024</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">4.06207609176636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07106351852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06926488876343</t>
+    <t xml:space="preserve">4.07106304168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295864105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06926584243774</t>
   </si>
   <si>
     <t xml:space="preserve">4.08903646469116</t>
@@ -539,10 +539,10 @@
     <t xml:space="preserve">4.40357780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37661743164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34606218338013</t>
+    <t xml:space="preserve">4.37661695480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34606170654297</t>
   </si>
   <si>
     <t xml:space="preserve">4.34785890579224</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">4.27236986160278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11599683761597</t>
+    <t xml:space="preserve">4.11599731445312</t>
   </si>
   <si>
     <t xml:space="preserve">4.03691291809082</t>
@@ -563,43 +563,43 @@
     <t xml:space="preserve">3.9847891330719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04230499267578</t>
+    <t xml:space="preserve">4.04230546951294</t>
   </si>
   <si>
     <t xml:space="preserve">3.95603060722351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92008328437805</t>
+    <t xml:space="preserve">3.92008304595947</t>
   </si>
   <si>
     <t xml:space="preserve">3.91828560829163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94704365730286</t>
+    <t xml:space="preserve">3.94704413414001</t>
   </si>
   <si>
     <t xml:space="preserve">3.93266487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84099888801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86795902252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90390658378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94524621963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96359658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112153053284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98194670677185</t>
+    <t xml:space="preserve">3.84099912643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86795878410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90390682220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94524645805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96359634399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112176895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98194646835327</t>
   </si>
   <si>
     <t xml:space="preserve">4.06819152832031</t>
@@ -608,19 +608,19 @@
     <t xml:space="preserve">3.94524669647217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89019632339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184596061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92689681053162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06452083587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12874603271484</t>
+    <t xml:space="preserve">3.8901960849762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8718466758728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92689728736877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06452178955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.128746509552</t>
   </si>
   <si>
     <t xml:space="preserve">4.17462158203125</t>
@@ -629,46 +629,46 @@
     <t xml:space="preserve">4.12691164016724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10672616958618</t>
+    <t xml:space="preserve">4.10672569274902</t>
   </si>
   <si>
     <t xml:space="preserve">4.05901622772217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03699636459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99479150772095</t>
+    <t xml:space="preserve">4.03699588775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99479198455811</t>
   </si>
   <si>
     <t xml:space="preserve">4.05351114273071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0828709602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03332710266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07369661331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09204626083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08103609085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05534648895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09021186828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06268644332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15260124206543</t>
+    <t xml:space="preserve">4.08287143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03332614898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07369613647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0920467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08103656768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05534696578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09021139144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0626859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15260171890259</t>
   </si>
   <si>
     <t xml:space="preserve">4.15627145767212</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">4.11039686203003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09388113021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20948648452759</t>
+    <t xml:space="preserve">4.09388160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20948600769043</t>
   </si>
   <si>
     <t xml:space="preserve">4.15443658828735</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">4.13792181015015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12507724761963</t>
+    <t xml:space="preserve">4.12507677078247</t>
   </si>
   <si>
     <t xml:space="preserve">4.11957120895386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13608551025391</t>
+    <t xml:space="preserve">4.13608646392822</t>
   </si>
   <si>
     <t xml:space="preserve">4.15076637268066</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">4.10305643081665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17278575897217</t>
+    <t xml:space="preserve">4.17278623580933</t>
   </si>
   <si>
     <t xml:space="preserve">4.11223125457764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07002687454224</t>
+    <t xml:space="preserve">4.07002592086792</t>
   </si>
   <si>
     <t xml:space="preserve">4.10122108459473</t>
@@ -728,16 +728,16 @@
     <t xml:space="preserve">4.21132135391235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09755229949951</t>
+    <t xml:space="preserve">4.0975513458252</t>
   </si>
   <si>
     <t xml:space="preserve">4.05167627334595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01864624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07920169830322</t>
+    <t xml:space="preserve">4.01864671707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07920122146606</t>
   </si>
   <si>
     <t xml:space="preserve">4.13425159454346</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">4.11773633956909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14709615707397</t>
+    <t xml:space="preserve">4.14709663391113</t>
   </si>
   <si>
     <t xml:space="preserve">4.1489315032959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1911358833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19297170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99662709236145</t>
+    <t xml:space="preserve">4.19113636016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19297122955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99662637710571</t>
   </si>
   <si>
     <t xml:space="preserve">4.04433631896973</t>
@@ -779,28 +779,28 @@
     <t xml:space="preserve">3.98561668395996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94341135025024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0204815864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92322659492493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03516101837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08654165267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04800653457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96726655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92506122589111</t>
+    <t xml:space="preserve">3.94341087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02048110961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92322635650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03516149520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08654117584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04800701141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96726608276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92506170272827</t>
   </si>
   <si>
     <t xml:space="preserve">3.91772150993347</t>
@@ -809,115 +809,115 @@
     <t xml:space="preserve">4.00029611587524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97277164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93790674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9984610080719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04617118835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88102173805237</t>
+    <t xml:space="preserve">3.97277116775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93790698051453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846124649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04617166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88102149963379</t>
   </si>
   <si>
     <t xml:space="preserve">3.85349631309509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95442128181458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83514642715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89937138557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90854716300964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267185211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597160339355</t>
+    <t xml:space="preserve">3.95442152023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83514666557312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8993718624115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90854692459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9360716342926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86267161369324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597184181213</t>
   </si>
   <si>
     <t xml:space="preserve">3.78927183151245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80762147903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02039432525635</t>
+    <t xml:space="preserve">3.80762195587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02039480209351</t>
   </si>
   <si>
     <t xml:space="preserve">4.04857444763184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03918075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97342681884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99221348762512</t>
+    <t xml:space="preserve">4.03918123245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97342658042908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9922137260437</t>
   </si>
   <si>
     <t xml:space="preserve">4.02978754043579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96403336524963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89827919006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91706609725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77616429328918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70101714134216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75737762451172</t>
+    <t xml:space="preserve">3.96403360366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89827990531921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9170663356781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77616453170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70101690292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7573778629303</t>
   </si>
   <si>
     <t xml:space="preserve">3.73859095573425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71980381011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71041035652161</t>
+    <t xml:space="preserve">3.71980428695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71041059494019</t>
   </si>
   <si>
     <t xml:space="preserve">3.63526272773743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62586951255798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52254176139832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42860746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28770542144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35345983505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33467268943787</t>
+    <t xml:space="preserve">3.6258692741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52254152297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42860722541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28770565986633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35345959663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33467292785645</t>
   </si>
   <si>
     <t xml:space="preserve">3.37224650382996</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">3.38163995742798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45678782463074</t>
+    <t xml:space="preserve">3.45678758621216</t>
   </si>
   <si>
     <t xml:space="preserve">3.46618103981018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36285305023193</t>
+    <t xml:space="preserve">3.36285281181335</t>
   </si>
   <si>
     <t xml:space="preserve">3.44739413261414</t>
@@ -941,22 +941,22 @@
     <t xml:space="preserve">3.43800067901611</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40042662620544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47557473182678</t>
+    <t xml:space="preserve">3.40042686462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4755744934082</t>
   </si>
   <si>
     <t xml:space="preserve">3.49436140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3158860206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60708236694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56950855255127</t>
+    <t xml:space="preserve">3.31588578224182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60708260536194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56950879096985</t>
   </si>
   <si>
     <t xml:space="preserve">3.50375485420227</t>
@@ -965,40 +965,40 @@
     <t xml:space="preserve">3.65404987335205</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48496794700623</t>
+    <t xml:space="preserve">3.48496770858765</t>
   </si>
   <si>
     <t xml:space="preserve">3.68222999572754</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59768891334534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61647582054138</t>
+    <t xml:space="preserve">3.59768915176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61647605895996</t>
   </si>
   <si>
     <t xml:space="preserve">3.66344332695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58829569816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5507218837738</t>
+    <t xml:space="preserve">3.58829545974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55072212219238</t>
   </si>
   <si>
     <t xml:space="preserve">3.53193497657776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56011533737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57890200614929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64465618133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6728367805481</t>
+    <t xml:space="preserve">3.56011557579041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57890224456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64465641975403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67283701896667</t>
   </si>
   <si>
     <t xml:space="preserve">3.51314830780029</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">3.70352864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54921507835388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62637209892273</t>
+    <t xml:space="preserve">3.5492148399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62637186050415</t>
   </si>
   <si>
     <t xml:space="preserve">3.58779358863831</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">3.66495037078857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68423962593079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78068542480469</t>
+    <t xml:space="preserve">3.68423938751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78068566322327</t>
   </si>
   <si>
     <t xml:space="preserve">3.7999746799469</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">3.81926417350769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83855319023132</t>
+    <t xml:space="preserve">3.8385534286499</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1049,40 +1049,40 @@
     <t xml:space="preserve">3.64566111564636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60708260536194</t>
+    <t xml:space="preserve">3.60708284378052</t>
   </si>
   <si>
     <t xml:space="preserve">3.56850433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52992606163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47205805778503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51063656806946</t>
+    <t xml:space="preserve">3.52992582321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47205829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51063680648804</t>
   </si>
   <si>
     <t xml:space="preserve">3.41419053077698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43347978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4527690410614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37561202049255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39490127563477</t>
+    <t xml:space="preserve">3.43347954750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45276880264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37561225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39490151405334</t>
   </si>
   <si>
     <t xml:space="preserve">3.33703374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27916598320007</t>
+    <t xml:space="preserve">3.27916622161865</t>
   </si>
   <si>
     <t xml:space="preserve">3.18271994590759</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">3.02840662002563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91267085075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85480332374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71977877616882</t>
+    <t xml:space="preserve">2.91267108917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85480356216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7197790145874</t>
   </si>
   <si>
     <t xml:space="preserve">2.83551430702209</t>
@@ -1133,43 +1133,43 @@
     <t xml:space="preserve">3.08627390861511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12485265731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98982787132263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95124936103821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8162248134613</t>
+    <t xml:space="preserve">3.12485241889954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98982763290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95124959945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81622505187988</t>
   </si>
   <si>
     <t xml:space="preserve">2.79693579673767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75835728645325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77764654159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73906803131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54617619514465</t>
+    <t xml:space="preserve">2.75835704803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77764678001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73906779289246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54617595672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.62333297729492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60404372215271</t>
+    <t xml:space="preserve">2.60404396057129</t>
   </si>
   <si>
     <t xml:space="preserve">2.5847544670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50759744644165</t>
+    <t xml:space="preserve">2.50759768486023</t>
   </si>
   <si>
     <t xml:space="preserve">2.46901917457581</t>
@@ -1178,31 +1178,31 @@
     <t xml:space="preserve">2.33399486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16039180755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04465651512146</t>
+    <t xml:space="preserve">2.16039204597473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04465627670288</t>
   </si>
   <si>
     <t xml:space="preserve">2.21825933456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14110279083252</t>
+    <t xml:space="preserve">2.14110255241394</t>
   </si>
   <si>
     <t xml:space="preserve">2.23754858970642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02536702156067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19897031784058</t>
+    <t xml:space="preserve">2.02536725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.198970079422</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683760643005</t>
+    <t xml:space="preserve">2.25683784484863</t>
   </si>
   <si>
     <t xml:space="preserve">2.29541611671448</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">2.31470537185669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26648235321045</t>
+    <t xml:space="preserve">2.26648211479187</t>
   </si>
   <si>
     <t xml:space="preserve">2.41115140914917</t>
@@ -1220,46 +1220,46 @@
     <t xml:space="preserve">2.47866368293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43044090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27612686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28577136993408</t>
+    <t xml:space="preserve">2.43044066429138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27612709999084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28577160835266</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436393737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36292862892151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30506086349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22790384292603</t>
+    <t xml:space="preserve">2.36292839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30506110191345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2279040813446</t>
   </si>
   <si>
     <t xml:space="preserve">2.24719309806824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35328388214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32434988021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17968106269836</t>
+    <t xml:space="preserve">2.35328412055969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32435011863708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17968082427979</t>
   </si>
   <si>
     <t xml:space="preserve">2.18932557106018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17003655433655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1314582824707</t>
+    <t xml:space="preserve">2.17003631591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13145804405212</t>
   </si>
   <si>
     <t xml:space="preserve">2.08323502540588</t>
@@ -1268,19 +1268,19 @@
     <t xml:space="preserve">2.1025242805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11216878890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07359051704407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03501200675964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98678874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92409896850586</t>
+    <t xml:space="preserve">2.11216902732849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07359027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03501176834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98678886890411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92409884929657</t>
   </si>
   <si>
     <t xml:space="preserve">1.92892122268677</t>
@@ -1295,28 +1295,28 @@
     <t xml:space="preserve">2.20861482620239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15074729919434</t>
+    <t xml:space="preserve">2.15074706077576</t>
   </si>
   <si>
     <t xml:space="preserve">2.37257313728333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38221764564514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56546545028687</t>
+    <t xml:space="preserve">2.38221788406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56546521186829</t>
   </si>
   <si>
     <t xml:space="preserve">2.87409257888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66191148757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64262223243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59439921379089</t>
+    <t xml:space="preserve">2.66191124916077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64262199401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59439897537231</t>
   </si>
   <si>
     <t xml:space="preserve">2.68120050430298</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">2.61368823051453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53653168678284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52688694000244</t>
+    <t xml:space="preserve">2.53653144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52688670158386</t>
   </si>
   <si>
     <t xml:space="preserve">2.51724195480347</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">2.70048975944519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71013426780701</t>
+    <t xml:space="preserve">2.71013402938843</t>
   </si>
   <si>
     <t xml:space="preserve">2.69084501266479</t>
@@ -1349,22 +1349,22 @@
     <t xml:space="preserve">2.72942352294922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78729104995728</t>
+    <t xml:space="preserve">2.78729128837585</t>
   </si>
   <si>
     <t xml:space="preserve">2.94160485267639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99947237968445</t>
+    <t xml:space="preserve">2.99947261810303</t>
   </si>
   <si>
     <t xml:space="preserve">2.98018312454224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9608941078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03805112838745</t>
+    <t xml:space="preserve">2.96089386940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03805088996887</t>
   </si>
   <si>
     <t xml:space="preserve">3.16343092918396</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">3.17307543754578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13449716567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15378618240356</t>
+    <t xml:space="preserve">3.13449692726135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15378594398499</t>
   </si>
   <si>
     <t xml:space="preserve">3.26952147483826</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">3.25987696647644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3080997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32738924026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25023198127747</t>
+    <t xml:space="preserve">3.30809998512268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32738900184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25023221969604</t>
   </si>
   <si>
     <t xml:space="preserve">3.09591865539551</t>
@@ -1412,22 +1412,22 @@
     <t xml:space="preserve">3.0766294002533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01876187324524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05734038352966</t>
+    <t xml:space="preserve">3.01876163482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05734014511108</t>
   </si>
   <si>
     <t xml:space="preserve">2.92231559753418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93196034431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90302634239197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88373708724976</t>
+    <t xml:space="preserve">2.931960105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90302658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88373732566833</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">2.84515881538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80658030509949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11520767211914</t>
+    <t xml:space="preserve">2.80658054351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11520791053772</t>
   </si>
   <si>
     <t xml:space="preserve">3.28881072998047</t>
@@ -1454,64 +1454,64 @@
     <t xml:space="preserve">3.71317315101624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79033017158508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88677644729614</t>
+    <t xml:space="preserve">3.79033041000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88677668571472</t>
   </si>
   <si>
     <t xml:space="preserve">3.95428848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9446439743042</t>
+    <t xml:space="preserve">3.94464421272278</t>
   </si>
   <si>
     <t xml:space="preserve">3.98322248458862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05073404312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97357749938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002401351929</t>
+    <t xml:space="preserve">4.0507345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97357773780823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002353668213</t>
   </si>
   <si>
     <t xml:space="preserve">4.20504856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26291656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30149459838867</t>
+    <t xml:space="preserve">4.26291608810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30149412155151</t>
   </si>
   <si>
     <t xml:space="preserve">4.23398208618164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34971761703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3400731086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42687463760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45580768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22433757781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08931303024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03144502639771</t>
+    <t xml:space="preserve">4.34971809387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34007263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4268741607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45580816268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22433805465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08931255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03144454956055</t>
   </si>
   <si>
     <t xml:space="preserve">4.24362659454346</t>
@@ -1520,37 +1520,37 @@
     <t xml:space="preserve">4.31113862991333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2918496131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40758562088013</t>
+    <t xml:space="preserve">4.29185009002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40758514404297</t>
   </si>
   <si>
     <t xml:space="preserve">4.50403070449829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5329647064209</t>
+    <t xml:space="preserve">4.53296422958374</t>
   </si>
   <si>
     <t xml:space="preserve">4.43651866912842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3690071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12789154052734</t>
+    <t xml:space="preserve">4.36900663375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1278920173645</t>
   </si>
   <si>
     <t xml:space="preserve">4.16647005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25327110290527</t>
+    <t xml:space="preserve">4.25327157974243</t>
   </si>
   <si>
     <t xml:space="preserve">4.1857590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14718103408813</t>
+    <t xml:space="preserve">4.14718055725098</t>
   </si>
   <si>
     <t xml:space="preserve">4.02180099487305</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">4.0796685218811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17611455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33042812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51367521286011</t>
+    <t xml:space="preserve">4.17611408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33042764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.46545267105103</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">4.37865114212036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48474168777466</t>
+    <t xml:space="preserve">4.48474216461182</t>
   </si>
   <si>
     <t xml:space="preserve">4.47509717941284</t>
@@ -1583,46 +1583,46 @@
     <t xml:space="preserve">4.49438619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44616317749023</t>
+    <t xml:space="preserve">4.44616365432739</t>
   </si>
   <si>
     <t xml:space="preserve">4.41722965240479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64869976043701</t>
+    <t xml:space="preserve">4.64870023727417</t>
   </si>
   <si>
     <t xml:space="preserve">4.80301380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72585725784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6390552520752</t>
+    <t xml:space="preserve">4.72585678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63905572891235</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61012172698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57154273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27256059646606</t>
+    <t xml:space="preserve">4.6101222038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57154321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27256011962891</t>
   </si>
   <si>
     <t xml:space="preserve">4.11824655532837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15682554244995</t>
+    <t xml:space="preserve">4.15682506561279</t>
   </si>
   <si>
     <t xml:space="preserve">4.38829612731934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54260921478271</t>
+    <t xml:space="preserve">4.54260969161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.61976623535156</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">4.67763376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78372430801392</t>
+    <t xml:space="preserve">4.78372478485107</t>
   </si>
   <si>
     <t xml:space="preserve">4.89945983886719</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">4.97661638259888</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0151948928833</t>
+    <t xml:space="preserve">5.01519536972046</t>
   </si>
   <si>
     <t xml:space="preserve">5.45884704589844</t>
@@ -1649,31 +1649,31 @@
     <t xml:space="preserve">5.59387159347534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4974250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28524446487427</t>
+    <t xml:space="preserve">5.49742555618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28524398803711</t>
   </si>
   <si>
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026853561401</t>
+    <t xml:space="preserve">5.42026805877686</t>
   </si>
   <si>
     <t xml:space="preserve">5.38169002532959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84159183502197</t>
+    <t xml:space="preserve">4.86088132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84159231185913</t>
   </si>
   <si>
     <t xml:space="preserve">4.93803834915161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73550128936768</t>
+    <t xml:space="preserve">4.73550176620483</t>
   </si>
   <si>
     <t xml:space="preserve">4.70608854293823</t>
@@ -1748,9 +1748,6 @@
     <t xml:space="preserve">4.92178392410278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73550176620483</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.83354520797729</t>
   </si>
   <si>
@@ -2130,6 +2127,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.67000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65000009536743</t>
   </si>
 </sst>
 </file>
@@ -46169,7 +46169,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1681" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46325,7 +46325,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1687" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46403,7 +46403,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46429,7 +46429,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46455,7 +46455,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1692" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46507,7 +46507,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1694" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46533,7 +46533,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1695" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46585,7 +46585,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1697" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46611,7 +46611,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1698" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46637,7 +46637,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1699" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46663,7 +46663,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1700" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46689,7 +46689,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1701" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46715,7 +46715,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46845,7 +46845,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1707" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46871,7 +46871,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1708" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46897,7 +46897,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1709" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46923,7 +46923,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1710" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46975,7 +46975,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1712" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47001,7 +47001,7 @@
         <v>4.5</v>
       </c>
       <c r="G1713" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47027,7 +47027,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1714" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47053,7 +47053,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1715" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47079,7 +47079,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1716" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47105,7 +47105,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47131,7 +47131,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1718" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47183,7 +47183,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1720" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47209,7 +47209,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47235,7 +47235,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1722" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47313,7 +47313,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1725" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47339,7 +47339,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1726" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47365,7 +47365,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1727" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47391,7 +47391,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1728" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47417,7 +47417,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1729" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47443,7 +47443,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1730" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47469,7 +47469,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1731" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47495,7 +47495,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1732" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47521,7 +47521,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1733" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47599,7 +47599,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47625,7 +47625,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1737" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47651,7 +47651,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1738" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47703,7 +47703,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1740" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47729,7 +47729,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1741" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47755,7 +47755,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1742" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47833,7 +47833,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1745" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47859,7 +47859,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1746" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47911,7 +47911,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1748" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47937,7 +47937,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1749" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47963,7 +47963,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1750" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47989,7 +47989,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1751" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48015,7 +48015,7 @@
         <v>4.5</v>
       </c>
       <c r="G1752" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48041,7 +48041,7 @@
         <v>4.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48067,7 +48067,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1754" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48093,7 +48093,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1755" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48119,7 +48119,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48145,7 +48145,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1757" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48171,7 +48171,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48197,7 +48197,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48223,7 +48223,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1760" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48249,7 +48249,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1761" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48275,7 +48275,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1762" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48301,7 +48301,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1763" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48327,7 +48327,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1764" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48353,7 +48353,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1765" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48379,7 +48379,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1766" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48405,7 +48405,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1767" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48431,7 +48431,7 @@
         <v>4.5</v>
       </c>
       <c r="G1768" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48457,7 +48457,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1769" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48483,7 +48483,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1770" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48509,7 +48509,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1771" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48535,7 +48535,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1772" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48561,7 +48561,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1773" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48587,7 +48587,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1774" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48613,7 +48613,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1775" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48639,7 +48639,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1776" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48665,7 +48665,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1777" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48691,7 +48691,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1778" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48717,7 +48717,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1779" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48743,7 +48743,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1780" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48769,7 +48769,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1781" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48795,7 +48795,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1782" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48821,7 +48821,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48847,7 +48847,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1784" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48873,7 +48873,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1785" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48899,7 +48899,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1786" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48925,7 +48925,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1787" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48951,7 +48951,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1788" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48977,7 +48977,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49003,7 +49003,7 @@
         <v>4.5</v>
       </c>
       <c r="G1790" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49029,7 +49029,7 @@
         <v>4.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49055,7 +49055,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49081,7 +49081,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49107,7 +49107,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49133,7 +49133,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1795" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49159,7 +49159,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1796" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49185,7 +49185,7 @@
         <v>4.75</v>
       </c>
       <c r="G1797" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49211,7 +49211,7 @@
         <v>4.75</v>
       </c>
       <c r="G1798" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49237,7 +49237,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1799" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49263,7 +49263,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49315,7 +49315,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1802" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49341,7 +49341,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1803" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49367,7 +49367,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1804" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49393,7 +49393,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1805" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49419,7 +49419,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1806" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49445,7 +49445,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1807" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49471,7 +49471,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49497,7 +49497,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1809" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49523,7 +49523,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49549,7 +49549,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49575,7 +49575,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1812" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49601,7 +49601,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1813" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49627,7 +49627,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1814" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49653,7 +49653,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1815" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49679,7 +49679,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1816" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49705,7 +49705,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1817" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49731,7 +49731,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49757,7 +49757,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1819" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49783,7 +49783,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1820" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49809,7 +49809,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49835,7 +49835,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49861,7 +49861,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1823" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49887,7 +49887,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1824" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49965,7 +49965,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50121,7 +50121,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50147,7 +50147,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1834" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50173,7 +50173,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1835" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50199,7 +50199,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1836" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50225,7 +50225,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1837" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50303,7 +50303,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1840" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50355,7 +50355,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1842" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50407,7 +50407,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1844" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50459,7 +50459,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1846" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50485,7 +50485,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1847" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50511,7 +50511,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1848" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50537,7 +50537,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1849" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50563,7 +50563,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1850" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50589,7 +50589,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1851" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50615,7 +50615,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50641,7 +50641,7 @@
         <v>4.25</v>
       </c>
       <c r="G1853" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50667,7 +50667,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1854" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50693,7 +50693,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1855" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50719,7 +50719,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1856" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50745,7 +50745,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50771,7 +50771,7 @@
         <v>4.5</v>
       </c>
       <c r="G1858" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50797,7 +50797,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1859" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50823,7 +50823,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1860" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50849,7 +50849,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1861" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50875,7 +50875,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1862" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50901,7 +50901,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1863" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50927,7 +50927,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1864" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50953,7 +50953,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1865" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50979,7 +50979,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1866" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51005,7 +51005,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51031,7 +51031,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1868" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51057,7 +51057,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51083,7 +51083,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51109,7 +51109,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51135,7 +51135,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1872" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51161,7 +51161,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1873" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51187,7 +51187,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51213,7 +51213,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1875" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51239,7 +51239,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1876" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51265,7 +51265,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1877" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51291,7 +51291,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1878" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51317,7 +51317,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51343,7 +51343,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1880" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51369,7 +51369,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1881" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51395,7 +51395,7 @@
         <v>4.5</v>
       </c>
       <c r="G1882" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51421,7 +51421,7 @@
         <v>4.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51447,7 +51447,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51473,7 +51473,7 @@
         <v>4.5</v>
       </c>
       <c r="G1885" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51499,7 +51499,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51525,7 +51525,7 @@
         <v>4.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51551,7 +51551,7 @@
         <v>4.5</v>
       </c>
       <c r="G1888" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51577,7 +51577,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51603,7 +51603,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1890" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51629,7 +51629,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1891" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51655,7 +51655,7 @@
         <v>4.5</v>
       </c>
       <c r="G1892" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51681,7 +51681,7 @@
         <v>4.5</v>
       </c>
       <c r="G1893" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51707,7 +51707,7 @@
         <v>4.5</v>
       </c>
       <c r="G1894" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51733,7 +51733,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1895" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51759,7 +51759,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1896" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51785,7 +51785,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1897" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51811,7 +51811,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1898" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51837,7 +51837,7 @@
         <v>4.5</v>
       </c>
       <c r="G1899" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51863,7 +51863,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1900" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51889,7 +51889,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1901" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51915,7 +51915,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1902" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51941,7 +51941,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1903" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51967,7 +51967,7 @@
         <v>4.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51993,7 +51993,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1905" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52019,7 +52019,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1906" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52045,7 +52045,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1907" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52071,7 +52071,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1908" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52097,7 +52097,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1909" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52123,7 +52123,7 @@
         <v>4.75</v>
       </c>
       <c r="G1910" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52149,7 +52149,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52175,7 +52175,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1912" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52201,7 +52201,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1913" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52227,7 +52227,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1914" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52253,7 +52253,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1915" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52279,7 +52279,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1916" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52305,7 +52305,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G1917" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52331,7 +52331,7 @@
         <v>4.75</v>
       </c>
       <c r="G1918" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52357,7 +52357,7 @@
         <v>4.75</v>
       </c>
       <c r="G1919" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52383,7 +52383,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1920" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52409,7 +52409,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1921" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52435,7 +52435,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1922" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52461,7 +52461,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52487,7 +52487,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1924" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52513,7 +52513,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1925" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52539,7 +52539,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1926" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52565,7 +52565,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52591,7 +52591,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1928" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52617,7 +52617,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1929" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52643,7 +52643,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1930" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52669,7 +52669,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1931" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52695,7 +52695,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1932" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52721,7 +52721,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1933" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52747,7 +52747,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52773,7 +52773,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1935" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52799,7 +52799,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52825,7 +52825,7 @@
         <v>4.5</v>
       </c>
       <c r="G1937" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52851,7 +52851,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52877,7 +52877,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1939" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52903,7 +52903,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1940" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52929,7 +52929,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52955,7 +52955,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1942" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52981,7 +52981,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1943" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53007,7 +53007,7 @@
         <v>4.5</v>
       </c>
       <c r="G1944" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53033,7 +53033,7 @@
         <v>4.5</v>
       </c>
       <c r="G1945" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53059,7 +53059,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1946" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53085,7 +53085,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1947" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53111,7 +53111,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1948" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53137,7 +53137,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1949" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53163,7 +53163,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1950" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53189,7 +53189,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1951" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53215,7 +53215,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1952" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53241,7 +53241,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1953" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53267,7 +53267,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53293,7 +53293,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1955" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53319,7 +53319,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53345,7 +53345,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1957" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53371,7 +53371,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1958" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53397,7 +53397,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53423,7 +53423,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1960" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53449,7 +53449,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53475,7 +53475,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1962" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53501,7 +53501,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53527,7 +53527,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1964" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53553,7 +53553,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1965" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53579,7 +53579,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1966" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53605,7 +53605,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1967" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53631,7 +53631,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1968" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53657,7 +53657,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1969" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53683,7 +53683,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1970" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53709,7 +53709,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53735,7 +53735,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1972" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53761,7 +53761,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53787,7 +53787,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1974" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53813,7 +53813,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53839,7 +53839,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53865,7 +53865,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1977" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53891,7 +53891,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1978" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53917,7 +53917,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1979" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53943,7 +53943,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53969,7 +53969,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53995,7 +53995,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1982" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54021,7 +54021,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1983" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54047,7 +54047,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1984" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54073,7 +54073,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54099,7 +54099,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1986" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54125,7 +54125,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1987" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54151,7 +54151,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1988" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54177,7 +54177,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1989" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54203,7 +54203,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54229,7 +54229,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1991" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54255,7 +54255,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1992" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54281,7 +54281,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1993" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54307,7 +54307,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54333,7 +54333,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1995" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54359,7 +54359,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54385,7 +54385,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54411,7 +54411,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1998" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54437,7 +54437,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54463,7 +54463,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2000" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54489,7 +54489,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2001" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54515,7 +54515,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2002" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54541,7 +54541,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2003" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54567,7 +54567,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2004" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54593,7 +54593,7 @@
         <v>4.75</v>
       </c>
       <c r="G2005" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54619,7 +54619,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2006" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54645,7 +54645,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2007" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54671,7 +54671,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2008" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54697,7 +54697,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2009" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54723,7 +54723,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2010" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54749,7 +54749,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2011" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54775,7 +54775,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2012" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54801,7 +54801,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54827,7 +54827,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54853,7 +54853,7 @@
         <v>4.5</v>
       </c>
       <c r="G2015" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54879,7 +54879,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2016" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54905,7 +54905,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2017" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54931,7 +54931,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2018" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54957,7 +54957,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54983,7 +54983,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2020" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55009,7 +55009,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2021" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55035,7 +55035,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2022" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55061,7 +55061,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2023" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55087,7 +55087,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55113,7 +55113,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2025" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55139,7 +55139,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2026" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55165,7 +55165,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2027" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55191,7 +55191,7 @@
         <v>4.75</v>
       </c>
       <c r="G2028" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55217,7 +55217,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2029" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55243,7 +55243,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2030" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55269,7 +55269,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2031" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55295,7 +55295,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2032" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55321,7 +55321,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2033" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55347,7 +55347,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2034" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55373,7 +55373,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2035" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55399,7 +55399,7 @@
         <v>5</v>
       </c>
       <c r="G2036" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55425,7 +55425,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2037" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55451,7 +55451,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2038" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55477,7 +55477,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2039" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55503,7 +55503,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55529,7 +55529,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2041" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55555,7 +55555,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2042" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55581,7 +55581,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2043" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55607,7 +55607,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2044" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55633,7 +55633,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2045" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55659,7 +55659,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2046" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55685,7 +55685,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2047" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55711,7 +55711,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2048" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55737,7 +55737,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2049" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55763,7 +55763,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2050" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55789,7 +55789,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55815,7 +55815,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2052" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55841,7 +55841,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2053" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55867,7 +55867,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2054" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55893,7 +55893,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2055" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55919,7 +55919,7 @@
         <v>5</v>
       </c>
       <c r="G2056" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55945,7 +55945,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55971,7 +55971,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55997,7 +55997,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2059" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56023,7 +56023,7 @@
         <v>5</v>
       </c>
       <c r="G2060" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56049,7 +56049,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2061" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56075,7 +56075,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2062" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56101,7 +56101,7 @@
         <v>5</v>
       </c>
       <c r="G2063" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56127,7 +56127,7 @@
         <v>5</v>
       </c>
       <c r="G2064" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56153,7 +56153,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2065" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56179,7 +56179,7 @@
         <v>5</v>
       </c>
       <c r="G2066" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56205,7 +56205,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2067" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56231,7 +56231,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2068" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56257,7 +56257,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G2069" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56283,7 +56283,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2070" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56309,7 +56309,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2071" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56335,7 +56335,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56361,7 +56361,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2073" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56387,7 +56387,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2074" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56413,7 +56413,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56439,7 +56439,7 @@
         <v>5.5</v>
       </c>
       <c r="G2076" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56465,7 +56465,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56491,7 +56491,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2078" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56517,7 +56517,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56543,7 +56543,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2080" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56569,7 +56569,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2081" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56595,7 +56595,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2082" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56621,7 +56621,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56647,7 +56647,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2084" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56673,7 +56673,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2085" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56699,7 +56699,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56725,7 +56725,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2087" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56751,7 +56751,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2088" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56777,7 +56777,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2089" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56803,7 +56803,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2090" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56829,7 +56829,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2091" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56855,7 +56855,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56881,7 +56881,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2093" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56907,7 +56907,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2094" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56933,7 +56933,7 @@
         <v>5</v>
       </c>
       <c r="G2095" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56959,7 +56959,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2096" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56985,7 +56985,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2097" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57011,7 +57011,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57037,7 +57037,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2099" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57063,7 +57063,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2100" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57089,7 +57089,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57115,7 +57115,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57141,7 +57141,7 @@
         <v>5</v>
       </c>
       <c r="G2103" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57167,7 +57167,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57193,7 +57193,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2105" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57219,7 +57219,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2106" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57245,7 +57245,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2107" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57271,7 +57271,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2108" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57297,7 +57297,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2109" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57323,7 +57323,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2110" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57349,7 +57349,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2111" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57375,7 +57375,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2112" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57401,7 +57401,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2113" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57427,7 +57427,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2114" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57453,7 +57453,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2115" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57479,7 +57479,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57505,7 +57505,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57531,7 +57531,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2118" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57557,7 +57557,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2119" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57583,7 +57583,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2120" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57609,7 +57609,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2121" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57635,7 +57635,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57661,7 +57661,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2123" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57687,7 +57687,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2124" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57713,7 +57713,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2125" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57739,7 +57739,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57765,7 +57765,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57791,7 +57791,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2128" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57817,7 +57817,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2129" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57843,7 +57843,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57869,7 +57869,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2131" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57895,7 +57895,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57921,7 +57921,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2133" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57947,7 +57947,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2134" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57973,7 +57973,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2135" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57999,7 +57999,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2136" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58025,7 +58025,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58051,7 +58051,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2138" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58077,7 +58077,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2139" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58103,7 +58103,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2140" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58129,7 +58129,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2141" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58155,7 +58155,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2142" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58181,7 +58181,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2143" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58207,7 +58207,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58233,7 +58233,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2145" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58259,7 +58259,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2146" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58285,7 +58285,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58311,7 +58311,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58337,7 +58337,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2149" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58363,7 +58363,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2150" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58389,7 +58389,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58415,7 +58415,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2152" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58441,7 +58441,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2153" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58467,7 +58467,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2154" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58493,7 +58493,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2155" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58519,7 +58519,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2156" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58545,7 +58545,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58571,7 +58571,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2158" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58597,7 +58597,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58623,7 +58623,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2160" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58649,7 +58649,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2161" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58675,7 +58675,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2162" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58701,7 +58701,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2163" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58727,7 +58727,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2164" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58753,7 +58753,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2165" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58779,7 +58779,7 @@
         <v>4.75</v>
       </c>
       <c r="G2166" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58805,7 +58805,7 @@
         <v>4.75</v>
       </c>
       <c r="G2167" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58831,7 +58831,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2168" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58857,7 +58857,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2169" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58865,7 +58865,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6493171296</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>4915</v>
@@ -58883,9 +58883,35 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2170" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.649537037</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>246</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="G2171" t="s">
         <v>705</v>
       </c>
-      <c r="H2170" t="s">
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="707">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87282061576843</t>
+    <t xml:space="preserve">3.87282085418701</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87106013298035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458205223083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8657763004303</t>
+    <t xml:space="preserve">3.87106037139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458252906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86577653884888</t>
   </si>
   <si>
     <t xml:space="preserve">3.86401534080505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78652358055115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7424943447113</t>
+    <t xml:space="preserve">3.78652381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74249410629272</t>
   </si>
   <si>
     <t xml:space="preserve">3.79532933235168</t>
@@ -68,46 +68,46 @@
     <t xml:space="preserve">3.77771782875061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62977933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733073234558</t>
+    <t xml:space="preserve">3.62977957725525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.677330493927</t>
   </si>
   <si>
     <t xml:space="preserve">3.65443563461304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.663241147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6438684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48712396621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61040639877319</t>
+    <t xml:space="preserve">3.66324138641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64386868476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48712420463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61040616035461</t>
   </si>
   <si>
     <t xml:space="preserve">3.68965911865234</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66676330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60336089134216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68085336685181</t>
+    <t xml:space="preserve">3.6667640209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60336136817932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68085312843323</t>
   </si>
   <si>
     <t xml:space="preserve">3.56637692451477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53995943069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61568975448608</t>
+    <t xml:space="preserve">3.539959192276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61568927764893</t>
   </si>
   <si>
     <t xml:space="preserve">3.64915204048157</t>
@@ -116,16 +116,16 @@
     <t xml:space="preserve">3.65267419815063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65091347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64210724830627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59455513954163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71431517601013</t>
+    <t xml:space="preserve">3.65091276168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64210748672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59455537796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71431541442871</t>
   </si>
   <si>
     <t xml:space="preserve">3.751300573349</t>
@@ -134,37 +134,37 @@
     <t xml:space="preserve">3.81294107437134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79356837272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81470227241516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80941843986511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73368811607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73721027374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71255397796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73192715644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.721360206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76891183853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76538896560669</t>
+    <t xml:space="preserve">3.79356861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225366592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81470251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80941891670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73368787765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73721051216125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71255373954773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73192763328552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72136044502258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76891207695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76538944244385</t>
   </si>
   <si>
     <t xml:space="preserve">3.74953866004944</t>
@@ -173,73 +173,73 @@
     <t xml:space="preserve">3.74601650238037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73016595840454</t>
+    <t xml:space="preserve">3.73016619682312</t>
   </si>
   <si>
     <t xml:space="preserve">3.69846487045288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68613624572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72488307952881</t>
+    <t xml:space="preserve">3.68613648414612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72488236427307</t>
   </si>
   <si>
     <t xml:space="preserve">3.82350826263428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95383501052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9186110496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446278572083</t>
+    <t xml:space="preserve">3.95383429527283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91861152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446207046509</t>
   </si>
   <si>
     <t xml:space="preserve">3.98377513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9432680606842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508913040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9855363368988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91332769393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89395546913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96087956428528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622303009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92741703987122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88338828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99916744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02612829208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018120765686</t>
+    <t xml:space="preserve">3.94326782226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98553609848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91332793235779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89395523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96088027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219355583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92741799354553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88338780403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99916791915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0261287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220683097839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99018096923828</t>
   </si>
   <si>
     <t xml:space="preserve">3.97759938240051</t>
@@ -248,52 +248,52 @@
     <t xml:space="preserve">4.04410219192505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98299193382263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9542338848114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625950813293</t>
+    <t xml:space="preserve">3.98299121856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423364639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625974655151</t>
   </si>
   <si>
     <t xml:space="preserve">3.88233828544617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92727279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92367815971375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560633659363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8913254737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86436462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86256694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81943011283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799255371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7655086517334</t>
+    <t xml:space="preserve">3.92727303504944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92367839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560705184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89132499694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86436486244202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86256670951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81942987442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70799231529236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76550889015198</t>
   </si>
   <si>
     <t xml:space="preserve">3.59475755691528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61273169517517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67923450469971</t>
+    <t xml:space="preserve">3.61273145675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67923426628113</t>
   </si>
   <si>
     <t xml:space="preserve">3.63070511817932</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">3.63789463043213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68103241920471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57318925857544</t>
+    <t xml:space="preserve">3.68103194236755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57318902015686</t>
   </si>
   <si>
     <t xml:space="preserve">3.61632633209229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60374474525452</t>
+    <t xml:space="preserve">3.6037449836731</t>
   </si>
   <si>
     <t xml:space="preserve">3.64688181877136</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6918158531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73675060272217</t>
+    <t xml:space="preserve">3.69181609153748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73675084114075</t>
   </si>
   <si>
     <t xml:space="preserve">3.75652170181274</t>
@@ -335,31 +335,31 @@
     <t xml:space="preserve">3.80325365066528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86616158485413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8176326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81044292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79246878623962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74394011497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77449584007263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7762930393219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887438774109</t>
+    <t xml:space="preserve">3.86616206169128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81763315200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81044268608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7924690246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7439398765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77449560165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067206382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887414932251</t>
   </si>
   <si>
     <t xml:space="preserve">3.74753475189209</t>
@@ -380,124 +380,124 @@
     <t xml:space="preserve">3.7241690158844</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77090048789978</t>
+    <t xml:space="preserve">3.77090096473694</t>
   </si>
   <si>
     <t xml:space="preserve">3.72057390213013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76371145248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596621513367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70978975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7026002407074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73854756355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956132888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237157821655</t>
+    <t xml:space="preserve">3.76371192932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596597671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70978951454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70260000228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73854804039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956109046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237205505371</t>
   </si>
   <si>
     <t xml:space="preserve">3.72776365280151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75292730331421</t>
+    <t xml:space="preserve">3.75292682647705</t>
   </si>
   <si>
     <t xml:space="preserve">3.75831913948059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69541072845459</t>
+    <t xml:space="preserve">3.69541096687317</t>
   </si>
   <si>
     <t xml:space="preserve">3.68462657928467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6936137676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485548019409</t>
+    <t xml:space="preserve">3.69361352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485571861267</t>
   </si>
   <si>
     <t xml:space="preserve">3.68822145462036</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73135876655579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7133846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168535232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8338086605072</t>
+    <t xml:space="preserve">3.73135852813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338438987732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168559074402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83380889892578</t>
   </si>
   <si>
     <t xml:space="preserve">3.81224060058594</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81583499908447</t>
+    <t xml:space="preserve">3.81583452224731</t>
   </si>
   <si>
     <t xml:space="preserve">3.82661938667297</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82841753959656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547535896301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446230888367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9218807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90031266212463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87335181236267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84639072418213</t>
+    <t xml:space="preserve">3.82841730117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547488212585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446254730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90031242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87335133552551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84639096260071</t>
   </si>
   <si>
     <t xml:space="preserve">3.83740377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87514877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94165229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929865837097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95243549346924</t>
+    <t xml:space="preserve">3.87514853477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94165134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929889678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95243573188782</t>
   </si>
   <si>
     <t xml:space="preserve">3.98119378089905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97939658164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88413524627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94884133338928</t>
+    <t xml:space="preserve">3.97939682006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88413572311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9488410949707</t>
   </si>
   <si>
     <t xml:space="preserve">3.87874341011047</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">4.01534414291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02073669433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00815486907959</t>
+    <t xml:space="preserve">4.02073621749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00815534591675</t>
   </si>
   <si>
     <t xml:space="preserve">4.04050731658936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0530891418457</t>
+    <t xml:space="preserve">4.05308961868286</t>
   </si>
   <si>
     <t xml:space="preserve">4.01714181900024</t>
@@ -524,79 +524,79 @@
     <t xml:space="preserve">4.06207609176636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07106351852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295864105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06926536560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08903741836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40357828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37661743164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34606266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34785890579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32808828353882</t>
+    <t xml:space="preserve">4.07106304168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295816421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06926584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08903694152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40357875823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37661695480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34606218338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34785938262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32808876037598</t>
   </si>
   <si>
     <t xml:space="preserve">4.27236986160278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11599779129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03691339492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98478865623474</t>
+    <t xml:space="preserve">4.11599731445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03691291809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9847891330719</t>
   </si>
   <si>
     <t xml:space="preserve">4.04230546951294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95603036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92008376121521</t>
+    <t xml:space="preserve">3.95603108406067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92008304595947</t>
   </si>
   <si>
     <t xml:space="preserve">3.91828584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94704461097717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93266439437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84099888801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86795949935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90390682220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94524621963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9635968208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112129211426</t>
+    <t xml:space="preserve">3.94704413414001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93266463279724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84099912643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86795878410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90390729904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94524669647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96359658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112153053284</t>
   </si>
   <si>
     <t xml:space="preserve">3.98194718360901</t>
@@ -605,10 +605,13 @@
     <t xml:space="preserve">4.06819152832031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89019656181335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184596061707</t>
+    <t xml:space="preserve">3.94524717330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89019632339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87184619903564</t>
   </si>
   <si>
     <t xml:space="preserve">3.92689657211304</t>
@@ -617,19 +620,19 @@
     <t xml:space="preserve">4.06452131271362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.128746509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17462158203125</t>
+    <t xml:space="preserve">4.12874603271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17462205886841</t>
   </si>
   <si>
     <t xml:space="preserve">4.12691164016724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10672616958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05901670455933</t>
+    <t xml:space="preserve">4.10672664642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05901575088501</t>
   </si>
   <si>
     <t xml:space="preserve">4.03699684143066</t>
@@ -641,70 +644,70 @@
     <t xml:space="preserve">4.05351161956787</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0828709602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03332662582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07369613647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09204626083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08103656768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05534696578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09021091461182</t>
+    <t xml:space="preserve">4.08287191390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03332710266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07369661331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0920467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08103609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05534648895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09021139144897</t>
   </si>
   <si>
     <t xml:space="preserve">4.06268644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15260171890259</t>
+    <t xml:space="preserve">4.15260124206543</t>
   </si>
   <si>
     <t xml:space="preserve">4.15627145767212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16544628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11039638519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09388160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20948600769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1544361114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13792133331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12507629394531</t>
+    <t xml:space="preserve">4.16544675827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11039686203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09388113021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20948648452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15443658828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13792181015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12507677078247</t>
   </si>
   <si>
     <t xml:space="preserve">4.11957120895386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13608646392822</t>
+    <t xml:space="preserve">4.13608598709106</t>
   </si>
   <si>
     <t xml:space="preserve">4.15076637268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10305595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17278671264648</t>
+    <t xml:space="preserve">4.10305643081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17278575897217</t>
   </si>
   <si>
     <t xml:space="preserve">4.11223125457764</t>
@@ -725,25 +728,25 @@
     <t xml:space="preserve">4.21132135391235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0975513458252</t>
+    <t xml:space="preserve">4.09755182266235</t>
   </si>
   <si>
     <t xml:space="preserve">4.05167627334595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01864624023438</t>
+    <t xml:space="preserve">4.01864671707153</t>
   </si>
   <si>
     <t xml:space="preserve">4.07920169830322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1342511177063</t>
+    <t xml:space="preserve">4.13425159454346</t>
   </si>
   <si>
     <t xml:space="preserve">4.21866130828857</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13241720199585</t>
+    <t xml:space="preserve">4.13241624832153</t>
   </si>
   <si>
     <t xml:space="preserve">4.12140655517578</t>
@@ -755,40 +758,40 @@
     <t xml:space="preserve">4.11773633956909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14709615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14893198013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19113636016846</t>
+    <t xml:space="preserve">4.14709663391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14893102645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1911358833313</t>
   </si>
   <si>
     <t xml:space="preserve">4.19297170639038</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99662613868713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04433679580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561644554138</t>
+    <t xml:space="preserve">3.99662661552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04433631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561668395996</t>
   </si>
   <si>
     <t xml:space="preserve">3.94341135025024</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02048206329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92322611808777</t>
+    <t xml:space="preserve">4.0204815864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92322659492493</t>
   </si>
   <si>
     <t xml:space="preserve">4.03516101837158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08654069900513</t>
+    <t xml:space="preserve">4.08654117584229</t>
   </si>
   <si>
     <t xml:space="preserve">4.04800701141357</t>
@@ -797,7 +800,7 @@
     <t xml:space="preserve">3.96726608276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92506170272827</t>
+    <t xml:space="preserve">3.92506122589111</t>
   </si>
   <si>
     <t xml:space="preserve">3.91772150993347</t>
@@ -809,10 +812,10 @@
     <t xml:space="preserve">3.97277164459229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93790650367737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99846196174622</t>
+    <t xml:space="preserve">3.93790626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846148490906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04617118835449</t>
@@ -830,37 +833,37 @@
     <t xml:space="preserve">3.83514642715454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8993718624115</t>
+    <t xml:space="preserve">3.89937114715576</t>
   </si>
   <si>
     <t xml:space="preserve">3.90854716300964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9360716342926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267161369324</t>
+    <t xml:space="preserve">3.93607187271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86267185211182</t>
   </si>
   <si>
     <t xml:space="preserve">3.82597160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78927206993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80762195587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02039432525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04857444763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03918123245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97342705726624</t>
+    <t xml:space="preserve">3.78927183151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.807621717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02039480209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04857492446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03918075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97342681884766</t>
   </si>
   <si>
     <t xml:space="preserve">3.99221396446228</t>
@@ -869,25 +872,25 @@
     <t xml:space="preserve">4.02978754043579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96403288841248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89827942848206</t>
+    <t xml:space="preserve">3.96403336524963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89827990531921</t>
   </si>
   <si>
     <t xml:space="preserve">3.91706609725952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77616477012634</t>
+    <t xml:space="preserve">3.77616453170776</t>
   </si>
   <si>
     <t xml:space="preserve">3.70101690292358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75737762451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73859047889709</t>
+    <t xml:space="preserve">3.7573778629303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73859095573425</t>
   </si>
   <si>
     <t xml:space="preserve">3.71980404853821</t>
@@ -896,25 +899,25 @@
     <t xml:space="preserve">3.71041059494019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63526272773743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6258692741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52254176139832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42860698699951</t>
+    <t xml:space="preserve">3.63526296615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62586951255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52254152297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42860722541809</t>
   </si>
   <si>
     <t xml:space="preserve">3.28770542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35345935821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33467268943787</t>
+    <t xml:space="preserve">3.35345959663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33467245101929</t>
   </si>
   <si>
     <t xml:space="preserve">3.37224650382996</t>
@@ -929,7 +932,7 @@
     <t xml:space="preserve">3.4661808013916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36285281181335</t>
+    <t xml:space="preserve">3.36285305023193</t>
   </si>
   <si>
     <t xml:space="preserve">3.44739413261414</t>
@@ -941,16 +944,16 @@
     <t xml:space="preserve">3.40042662620544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47557425498962</t>
+    <t xml:space="preserve">3.4755744934082</t>
   </si>
   <si>
     <t xml:space="preserve">3.49436140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31588578224182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60708236694336</t>
+    <t xml:space="preserve">3.31588554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60708260536194</t>
   </si>
   <si>
     <t xml:space="preserve">3.56950879096985</t>
@@ -968,25 +971,25 @@
     <t xml:space="preserve">3.68223023414612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59768915176392</t>
+    <t xml:space="preserve">3.59768891334534</t>
   </si>
   <si>
     <t xml:space="preserve">3.61647605895996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66344356536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58829569816589</t>
+    <t xml:space="preserve">3.66344332695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58829545974731</t>
   </si>
   <si>
     <t xml:space="preserve">3.5507218837738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53193497657776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56011533737183</t>
+    <t xml:space="preserve">3.53193521499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56011557579041</t>
   </si>
   <si>
     <t xml:space="preserve">3.57890224456787</t>
@@ -995,10 +998,10 @@
     <t xml:space="preserve">3.64465641975403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67283654212952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314806938171</t>
+    <t xml:space="preserve">3.6728367805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314783096313</t>
   </si>
   <si>
     <t xml:space="preserve">3.70352864265442</t>
@@ -1007,13 +1010,13 @@
     <t xml:space="preserve">3.54921531677246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62637186050415</t>
+    <t xml:space="preserve">3.62637209892273</t>
   </si>
   <si>
     <t xml:space="preserve">3.58779358863831</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66495013237</t>
+    <t xml:space="preserve">3.66495037078857</t>
   </si>
   <si>
     <t xml:space="preserve">3.68423938751221</t>
@@ -1025,13 +1028,13 @@
     <t xml:space="preserve">3.7999746799469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74210739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81926417350769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83855295181274</t>
+    <t xml:space="preserve">3.74210715293884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81926393508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83855319023132</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1040,15 +1043,12 @@
     <t xml:space="preserve">3.76139640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72281789779663</t>
+    <t xml:space="preserve">3.72281765937805</t>
   </si>
   <si>
     <t xml:space="preserve">3.64566111564636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60708260536194</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.56850433349609</t>
   </si>
   <si>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">3.45276880264282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37561225891113</t>
+    <t xml:space="preserve">3.37561202049255</t>
   </si>
   <si>
     <t xml:space="preserve">3.39490151405334</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">3.27916598320007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18271994590759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22129845619202</t>
+    <t xml:space="preserve">3.18272018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22129821777344</t>
   </si>
   <si>
     <t xml:space="preserve">3.14414167404175</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10556316375732</t>
+    <t xml:space="preserve">3.1055634021759</t>
   </si>
   <si>
     <t xml:space="preserve">3.06698489189148</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">2.91267108917236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85480356216431</t>
+    <t xml:space="preserve">2.85480332374573</t>
   </si>
   <si>
     <t xml:space="preserve">2.71977877616882</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">2.75835704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77764678001404</t>
+    <t xml:space="preserve">2.77764654159546</t>
   </si>
   <si>
     <t xml:space="preserve">2.73906803131104</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">2.60404372215271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5847544670105</t>
+    <t xml:space="preserve">2.58475470542908</t>
   </si>
   <si>
     <t xml:space="preserve">2.50759768486023</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">2.46901917457581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33399486541748</t>
+    <t xml:space="preserve">2.3339946269989</t>
   </si>
   <si>
     <t xml:space="preserve">2.16039180755615</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">2.21825933456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14110255241394</t>
+    <t xml:space="preserve">2.14110279083252</t>
   </si>
   <si>
     <t xml:space="preserve">2.23754835128784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02536749839783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.198970079422</t>
+    <t xml:space="preserve">2.02536725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19897031784058</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683784484863</t>
+    <t xml:space="preserve">2.25683760643005</t>
   </si>
   <si>
     <t xml:space="preserve">2.29541635513306</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">2.31470537185669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26648259162903</t>
+    <t xml:space="preserve">2.26648235321045</t>
   </si>
   <si>
     <t xml:space="preserve">2.41115140914917</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">2.3436393737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36292862892151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30506110191345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2279040813446</t>
+    <t xml:space="preserve">2.36292839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30506086349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22790384292603</t>
   </si>
   <si>
     <t xml:space="preserve">2.24719309806824</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">2.18932580947876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17003631591797</t>
+    <t xml:space="preserve">2.17003655433655</t>
   </si>
   <si>
     <t xml:space="preserve">2.13145804405212</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">2.1025242805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11216855049133</t>
+    <t xml:space="preserve">2.11216878890991</t>
   </si>
   <si>
     <t xml:space="preserve">2.07359027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03501152992249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98678886890411</t>
+    <t xml:space="preserve">2.03501176834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9867889881134</t>
   </si>
   <si>
     <t xml:space="preserve">1.92409884929657</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">1.9578549861908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20861458778381</t>
+    <t xml:space="preserve">2.20861482620239</t>
   </si>
   <si>
     <t xml:space="preserve">2.15074706077576</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.87409257888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66191124916077</t>
+    <t xml:space="preserve">2.66191148757935</t>
   </si>
   <si>
     <t xml:space="preserve">2.64262199401855</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">2.70048975944519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71013450622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69084501266479</t>
+    <t xml:space="preserve">2.71013426780701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69084525108337</t>
   </si>
   <si>
     <t xml:space="preserve">2.72942328453064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78729152679443</t>
+    <t xml:space="preserve">2.78729128837585</t>
   </si>
   <si>
     <t xml:space="preserve">2.94160485267639</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">2.99947237968445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98018312454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9608941078186</t>
+    <t xml:space="preserve">2.98018336296082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96089386940002</t>
   </si>
   <si>
     <t xml:space="preserve">3.03805088996887</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">3.21165370941162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23094320297241</t>
+    <t xml:space="preserve">3.23094296455383</t>
   </si>
   <si>
     <t xml:space="preserve">3.24058747291565</t>
@@ -1379,22 +1379,22 @@
     <t xml:space="preserve">3.19236469268799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1730751991272</t>
+    <t xml:space="preserve">3.17307543754578</t>
   </si>
   <si>
     <t xml:space="preserve">3.13449716567993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378618240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26952171325684</t>
+    <t xml:space="preserve">3.15378642082214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26952147483826</t>
   </si>
   <si>
     <t xml:space="preserve">3.25987696647644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30810022354126</t>
+    <t xml:space="preserve">3.30809998512268</t>
   </si>
   <si>
     <t xml:space="preserve">3.32738900184631</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">3.09591865539551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07662916183472</t>
+    <t xml:space="preserve">3.0766294002533</t>
   </si>
   <si>
     <t xml:space="preserve">3.01876187324524</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.90302634239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88373732566833</t>
+    <t xml:space="preserve">2.88373708724976</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">3.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59743785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67459487915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71317338943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79033041000366</t>
+    <t xml:space="preserve">3.59743809700012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67459511756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71317315101624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79033017158508</t>
   </si>
   <si>
     <t xml:space="preserve">3.88677644729614</t>
@@ -1460,19 +1460,19 @@
     <t xml:space="preserve">3.95428848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94464373588562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9832227230072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05073499679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97357773780823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002305984497</t>
+    <t xml:space="preserve">3.9446439743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98322248458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0507345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97357797622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002353668213</t>
   </si>
   <si>
     <t xml:space="preserve">4.20504856109619</t>
@@ -1487,22 +1487,22 @@
     <t xml:space="preserve">4.23398208618164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34971714019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34007263183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794015884399</t>
+    <t xml:space="preserve">4.34971761703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3400731086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794063568115</t>
   </si>
   <si>
     <t xml:space="preserve">4.4268741607666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45580816268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22433710098267</t>
+    <t xml:space="preserve">4.45580768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22433757781982</t>
   </si>
   <si>
     <t xml:space="preserve">4.08931255340576</t>
@@ -1514,28 +1514,28 @@
     <t xml:space="preserve">4.24362659454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31113862991333</t>
+    <t xml:space="preserve">4.31113910675049</t>
   </si>
   <si>
     <t xml:space="preserve">4.2918496131897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40758514404297</t>
+    <t xml:space="preserve">4.40758562088013</t>
   </si>
   <si>
     <t xml:space="preserve">4.50403070449829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53296518325806</t>
+    <t xml:space="preserve">4.5329647064209</t>
   </si>
   <si>
     <t xml:space="preserve">4.43651866912842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36900663375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12789154052734</t>
+    <t xml:space="preserve">4.3690071105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1278920173645</t>
   </si>
   <si>
     <t xml:space="preserve">4.16647005081177</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">4.33042812347412</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51367568969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46545314788818</t>
+    <t xml:space="preserve">4.51367521286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46545267105103</t>
   </si>
   <si>
     <t xml:space="preserve">4.37865161895752</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">4.49438619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44616365432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41722917556763</t>
+    <t xml:space="preserve">4.44616317749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41722965240479</t>
   </si>
   <si>
     <t xml:space="preserve">4.64870023727417</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">4.80301380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72585725784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63905572891235</t>
+    <t xml:space="preserve">4.72585678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6390552520752</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6101222038269</t>
+    <t xml:space="preserve">4.61012172698975</t>
   </si>
   <si>
     <t xml:space="preserve">4.57154273986816</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">4.27256011962891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11824703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15682506561279</t>
+    <t xml:space="preserve">4.11824655532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15682554244995</t>
   </si>
   <si>
     <t xml:space="preserve">4.38829612731934</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">5.59387159347534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49742555618286</t>
+    <t xml:space="preserve">5.4974250793457</t>
   </si>
   <si>
     <t xml:space="preserve">5.28524398803711</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026901245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38169002532959</t>
+    <t xml:space="preserve">5.42026853561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38169050216675</t>
   </si>
   <si>
     <t xml:space="preserve">4.86088180541992</t>
@@ -2130,6 +2130,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.57999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67999982833862</t>
   </si>
 </sst>
 </file>
@@ -11797,7 +11800,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G359" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11823,7 +11826,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G360" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11849,7 +11852,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G361" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11875,7 +11878,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G362" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11901,7 +11904,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G363" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11927,7 +11930,7 @@
         <v>4.5</v>
       </c>
       <c r="G364" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11953,7 +11956,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G365" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11979,7 +11982,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G366" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12005,7 +12008,7 @@
         <v>4.47599983215332</v>
       </c>
       <c r="G367" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12031,7 +12034,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G368" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12057,7 +12060,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12109,7 +12112,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G371" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12135,7 +12138,7 @@
         <v>4.35400009155273</v>
       </c>
       <c r="G372" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12161,7 +12164,7 @@
         <v>4.41800022125244</v>
       </c>
       <c r="G373" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12187,7 +12190,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G374" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12213,7 +12216,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G375" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12239,7 +12242,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G376" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12265,7 +12268,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G377" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12291,7 +12294,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G378" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12317,7 +12320,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G379" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12343,7 +12346,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G380" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12369,7 +12372,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G381" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12395,7 +12398,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G382" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12421,7 +12424,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12447,7 +12450,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G384" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12473,7 +12476,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G385" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12499,7 +12502,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G386" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12525,7 +12528,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G387" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12551,7 +12554,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G388" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12577,7 +12580,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12603,7 +12606,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G390" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12629,7 +12632,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G391" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12655,7 +12658,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12681,7 +12684,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G393" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12707,7 +12710,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G394" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12733,7 +12736,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12759,7 +12762,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G396" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12785,7 +12788,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G397" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12811,7 +12814,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G398" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12837,7 +12840,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12863,7 +12866,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12889,7 +12892,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G401" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12915,7 +12918,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G402" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12941,7 +12944,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G403" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12967,7 +12970,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G404" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12993,7 +12996,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G405" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13019,7 +13022,7 @@
         <v>4.58799982070923</v>
       </c>
       <c r="G406" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13045,7 +13048,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G407" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13071,7 +13074,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G408" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13097,7 +13100,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G409" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13123,7 +13126,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G410" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13149,7 +13152,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G411" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13175,7 +13178,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G412" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13201,7 +13204,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G413" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13227,7 +13230,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G414" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13253,7 +13256,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G415" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13279,7 +13282,7 @@
         <v>4.52400016784668</v>
       </c>
       <c r="G416" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13305,7 +13308,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13331,7 +13334,7 @@
         <v>4.5</v>
       </c>
       <c r="G418" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13357,7 +13360,7 @@
         <v>4.5</v>
       </c>
       <c r="G419" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13383,7 +13386,7 @@
         <v>4.47200012207031</v>
       </c>
       <c r="G420" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13409,7 +13412,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G421" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13435,7 +13438,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G422" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13461,7 +13464,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G423" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13487,7 +13490,7 @@
         <v>4.48199987411499</v>
       </c>
       <c r="G424" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13513,7 +13516,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G425" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13539,7 +13542,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G426" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13565,7 +13568,7 @@
         <v>4.5</v>
       </c>
       <c r="G427" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13591,7 +13594,7 @@
         <v>4.5</v>
       </c>
       <c r="G428" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13617,7 +13620,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G429" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13643,7 +13646,7 @@
         <v>4.54400014877319</v>
       </c>
       <c r="G430" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13669,7 +13672,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G431" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13695,7 +13698,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13721,7 +13724,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G433" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13747,7 +13750,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13773,7 +13776,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13799,7 +13802,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13825,7 +13828,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G437" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13851,7 +13854,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G438" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13877,7 +13880,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G439" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13903,7 +13906,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G440" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13929,7 +13932,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G441" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13955,7 +13958,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G442" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13981,7 +13984,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G443" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14007,7 +14010,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G444" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14033,7 +14036,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G445" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14059,7 +14062,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G446" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14085,7 +14088,7 @@
         <v>4.5</v>
       </c>
       <c r="G447" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14111,7 +14114,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G448" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14137,7 +14140,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G449" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14163,7 +14166,7 @@
         <v>4.5</v>
       </c>
       <c r="G450" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14189,7 +14192,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G451" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14215,7 +14218,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G452" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14241,7 +14244,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G453" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14267,7 +14270,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G454" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14293,7 +14296,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G455" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14319,7 +14322,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G456" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14345,7 +14348,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G457" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14371,7 +14374,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14397,7 +14400,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G459" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14423,7 +14426,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G460" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14449,7 +14452,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14475,7 +14478,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G462" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14501,7 +14504,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G463" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14527,7 +14530,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G464" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14553,7 +14556,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G465" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14579,7 +14582,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G466" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14605,7 +14608,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G467" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14631,7 +14634,7 @@
         <v>4.5</v>
       </c>
       <c r="G468" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14657,7 +14660,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G469" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14683,7 +14686,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14709,7 +14712,7 @@
         <v>4.5</v>
       </c>
       <c r="G471" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14735,7 +14738,7 @@
         <v>4.5</v>
       </c>
       <c r="G472" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14761,7 +14764,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G473" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14787,7 +14790,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G474" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14813,7 +14816,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G475" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14839,7 +14842,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G476" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14865,7 +14868,7 @@
         <v>4.56799983978271</v>
       </c>
       <c r="G477" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14891,7 +14894,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G478" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14917,7 +14920,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G479" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14943,7 +14946,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G480" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14969,7 +14972,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G481" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14995,7 +14998,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G482" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15021,7 +15024,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G483" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15047,7 +15050,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G484" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15073,7 +15076,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G485" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15125,7 +15128,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G487" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15151,7 +15154,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15177,7 +15180,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G489" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15203,7 +15206,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G490" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15229,7 +15232,7 @@
         <v>4.38199996948242</v>
       </c>
       <c r="G491" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15255,7 +15258,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G492" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15281,7 +15284,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15307,7 +15310,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G494" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15333,7 +15336,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G495" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15359,7 +15362,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G496" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15385,7 +15388,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15411,7 +15414,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G498" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15437,7 +15440,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G499" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15463,7 +15466,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G500" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15489,7 +15492,7 @@
         <v>4.41200017929077</v>
       </c>
       <c r="G501" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15515,7 +15518,7 @@
         <v>4.32399988174438</v>
       </c>
       <c r="G502" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15541,7 +15544,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G503" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15567,7 +15570,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G504" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15593,7 +15596,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G505" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15619,7 +15622,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G506" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15645,7 +15648,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G507" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15671,7 +15674,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15697,7 +15700,7 @@
         <v>4.29199981689453</v>
       </c>
       <c r="G509" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15723,7 +15726,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G510" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15749,7 +15752,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G511" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15775,7 +15778,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15801,7 +15804,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G513" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15827,7 +15830,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G514" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15853,7 +15856,7 @@
         <v>4.5</v>
       </c>
       <c r="G515" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15879,7 +15882,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G516" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15905,7 +15908,7 @@
         <v>4.5</v>
       </c>
       <c r="G517" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15931,7 +15934,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G518" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15957,7 +15960,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15983,7 +15986,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G520" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16009,7 +16012,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G521" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16035,7 +16038,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G522" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16061,7 +16064,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G523" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16087,7 +16090,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G524" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16113,7 +16116,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G525" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16139,7 +16142,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G526" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16165,7 +16168,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G527" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16191,7 +16194,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G528" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16217,7 +16220,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G529" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16243,7 +16246,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16269,7 +16272,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G531" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16295,7 +16298,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16373,7 +16376,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G535" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16399,7 +16402,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G536" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16425,7 +16428,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G537" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16451,7 +16454,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16477,7 +16480,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G539" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16503,7 +16506,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16529,7 +16532,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G541" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16555,7 +16558,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G542" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16581,7 +16584,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G543" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16607,7 +16610,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16633,7 +16636,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G545" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16659,7 +16662,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G546" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16685,7 +16688,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G547" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16711,7 +16714,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G548" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16737,7 +16740,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16789,7 +16792,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G551" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16815,7 +16818,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16841,7 +16844,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G553" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16867,7 +16870,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G554" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16893,7 +16896,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G555" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16919,7 +16922,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G556" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16945,7 +16948,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G557" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16971,7 +16974,7 @@
         <v>4.25</v>
       </c>
       <c r="G558" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16997,7 +17000,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G559" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17023,7 +17026,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G560" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17049,7 +17052,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G561" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17075,7 +17078,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G562" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17101,7 +17104,7 @@
         <v>4.25</v>
       </c>
       <c r="G563" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17127,7 +17130,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G564" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17153,7 +17156,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G565" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17179,7 +17182,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17231,7 +17234,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17257,7 +17260,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G569" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17283,7 +17286,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17309,7 +17312,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17335,7 +17338,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17361,7 +17364,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17387,7 +17390,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G574" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17413,7 +17416,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G575" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17439,7 +17442,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G576" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17465,7 +17468,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G577" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17491,7 +17494,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G578" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17517,7 +17520,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G579" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17543,7 +17546,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G580" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17569,7 +17572,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G581" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17595,7 +17598,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G582" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17621,7 +17624,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17647,7 +17650,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17673,7 +17676,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G585" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17699,7 +17702,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G586" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17751,7 +17754,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17777,7 +17780,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17803,7 +17806,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G590" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17829,7 +17832,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G591" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17855,7 +17858,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G592" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17881,7 +17884,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G593" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17907,7 +17910,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G594" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17933,7 +17936,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G595" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17959,7 +17962,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G596" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17985,7 +17988,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18011,7 +18014,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18037,7 +18040,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18063,7 +18066,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G600" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18089,7 +18092,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18115,7 +18118,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G602" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18193,7 +18196,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G605" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18219,7 +18222,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18271,7 +18274,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G608" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18297,7 +18300,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G609" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18323,7 +18326,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18349,7 +18352,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G611" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18375,7 +18378,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G612" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18401,7 +18404,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18427,7 +18430,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G614" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18453,7 +18456,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G615" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18479,7 +18482,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G616" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18505,7 +18508,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G617" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18531,7 +18534,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G618" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18557,7 +18560,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G619" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18583,7 +18586,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18609,7 +18612,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G621" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18635,7 +18638,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G622" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18661,7 +18664,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G623" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18687,7 +18690,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G624" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18713,7 +18716,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G625" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18739,7 +18742,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18765,7 +18768,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18791,7 +18794,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18817,7 +18820,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G629" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18843,7 +18846,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18869,7 +18872,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18947,7 +18950,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G634" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18973,7 +18976,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18999,7 +19002,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19025,7 +19028,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G637" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19051,7 +19054,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19077,7 +19080,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G639" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19103,7 +19106,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G640" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19129,7 +19132,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G641" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19155,7 +19158,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G642" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19181,7 +19184,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19207,7 +19210,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G644" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19233,7 +19236,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G645" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19259,7 +19262,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G646" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19441,7 +19444,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G653" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19467,7 +19470,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19493,7 +19496,7 @@
         <v>4.25</v>
       </c>
       <c r="G655" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19519,7 +19522,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19545,7 +19548,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G657" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19571,7 +19574,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G658" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19597,7 +19600,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G659" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19623,7 +19626,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19649,7 +19652,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G661" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19675,7 +19678,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G662" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19701,7 +19704,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19727,7 +19730,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G664" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19753,7 +19756,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G665" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19779,7 +19782,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19805,7 +19808,7 @@
         <v>4.25</v>
       </c>
       <c r="G667" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19831,7 +19834,7 @@
         <v>4.25</v>
       </c>
       <c r="G668" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19857,7 +19860,7 @@
         <v>4.25</v>
       </c>
       <c r="G669" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19883,7 +19886,7 @@
         <v>4.25</v>
       </c>
       <c r="G670" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19909,7 +19912,7 @@
         <v>4.25</v>
       </c>
       <c r="G671" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19935,7 +19938,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19961,7 +19964,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19987,7 +19990,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20065,7 +20068,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G677" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20091,7 +20094,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G678" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20117,7 +20120,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G679" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20143,7 +20146,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20169,7 +20172,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20195,7 +20198,7 @@
         <v>4.25</v>
       </c>
       <c r="G682" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20221,7 +20224,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G683" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20247,7 +20250,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G684" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20273,7 +20276,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20299,7 +20302,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G686" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20325,7 +20328,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20351,7 +20354,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G688" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20377,7 +20380,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G689" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20403,7 +20406,7 @@
         <v>4.25</v>
       </c>
       <c r="G690" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20429,7 +20432,7 @@
         <v>4.25</v>
       </c>
       <c r="G691" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20455,7 +20458,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20481,7 +20484,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G693" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20507,7 +20510,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G694" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20533,7 +20536,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20559,7 +20562,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G696" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20585,7 +20588,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G697" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20611,7 +20614,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G698" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20637,7 +20640,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20663,7 +20666,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G700" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20689,7 +20692,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G701" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20715,7 +20718,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20741,7 +20744,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20767,7 +20770,7 @@
         <v>4.25</v>
       </c>
       <c r="G704" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20793,7 +20796,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20819,7 +20822,7 @@
         <v>4.25</v>
       </c>
       <c r="G706" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20845,7 +20848,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G707" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20871,7 +20874,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20897,7 +20900,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20923,7 +20926,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G710" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20949,7 +20952,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G711" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20975,7 +20978,7 @@
         <v>4</v>
       </c>
       <c r="G712" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21001,7 +21004,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G713" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21027,7 +21030,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21053,7 +21056,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21079,7 +21082,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G716" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21105,7 +21108,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G717" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21131,7 +21134,7 @@
         <v>3.75</v>
       </c>
       <c r="G718" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21157,7 +21160,7 @@
         <v>3.75</v>
       </c>
       <c r="G719" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21183,7 +21186,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G720" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21209,7 +21212,7 @@
         <v>3.5</v>
       </c>
       <c r="G721" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21235,7 +21238,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G722" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21261,7 +21264,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G723" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21287,7 +21290,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G724" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21313,7 +21316,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G725" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21339,7 +21342,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21365,7 +21368,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G727" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21391,7 +21394,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G728" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21417,7 +21420,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21443,7 +21446,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G730" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21469,7 +21472,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21495,7 +21498,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G732" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21521,7 +21524,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G733" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21547,7 +21550,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21573,7 +21576,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G735" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21599,7 +21602,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G736" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21625,7 +21628,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21651,7 +21654,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21677,7 +21680,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G739" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21703,7 +21706,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G740" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21729,7 +21732,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G741" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21755,7 +21758,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G742" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21781,7 +21784,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G743" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21807,7 +21810,7 @@
         <v>3.75</v>
       </c>
       <c r="G744" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21833,7 +21836,7 @@
         <v>3.75</v>
       </c>
       <c r="G745" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21859,7 +21862,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21885,7 +21888,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G747" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21911,7 +21914,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21937,7 +21940,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G749" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21963,7 +21966,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G750" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21989,7 +21992,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G751" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22015,7 +22018,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G752" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22041,7 +22044,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G753" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22067,7 +22070,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G754" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22093,7 +22096,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G755" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22119,7 +22122,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G756" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22145,7 +22148,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22171,7 +22174,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G758" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22197,7 +22200,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22223,7 +22226,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G760" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22249,7 +22252,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22275,7 +22278,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22301,7 +22304,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G763" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22327,7 +22330,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G764" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22353,7 +22356,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G765" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22379,7 +22382,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G766" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22405,7 +22408,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G767" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22431,7 +22434,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G768" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22457,7 +22460,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22483,7 +22486,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G770" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22509,7 +22512,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G771" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22535,7 +22538,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22561,7 +22564,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22587,7 +22590,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G774" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22613,7 +22616,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G775" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22639,7 +22642,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G776" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22665,7 +22668,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G777" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22691,7 +22694,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G778" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22717,7 +22720,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G779" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22743,7 +22746,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G780" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22769,7 +22772,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G781" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22795,7 +22798,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G782" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22821,7 +22824,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G783" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22847,7 +22850,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G784" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22873,7 +22876,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G785" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22899,7 +22902,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G786" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22925,7 +22928,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G787" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22951,7 +22954,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G788" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22977,7 +22980,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G789" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23003,7 +23006,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23029,7 +23032,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G791" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23055,7 +23058,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G792" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23081,7 +23084,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23107,7 +23110,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G794" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23133,7 +23136,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G795" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23159,7 +23162,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G796" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23185,7 +23188,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23211,7 +23214,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G798" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23237,7 +23240,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G799" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23263,7 +23266,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G800" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23289,7 +23292,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G801" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23315,7 +23318,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G802" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23341,7 +23344,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G803" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23367,7 +23370,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G804" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23393,7 +23396,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G805" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23419,7 +23422,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G806" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23445,7 +23448,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G807" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23471,7 +23474,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G808" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23497,7 +23500,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G809" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23523,7 +23526,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G810" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23549,7 +23552,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G811" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23575,7 +23578,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23601,7 +23604,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G813" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23627,7 +23630,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G814" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23653,7 +23656,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G815" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23679,7 +23682,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23705,7 +23708,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G817" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23731,7 +23734,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G818" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23757,7 +23760,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G819" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23783,7 +23786,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G820" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23809,7 +23812,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G821" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23835,7 +23838,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G822" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23861,7 +23864,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23887,7 +23890,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G824" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23913,7 +23916,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23939,7 +23942,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G826" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23965,7 +23968,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G827" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23991,7 +23994,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G828" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24017,7 +24020,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G829" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24043,7 +24046,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G830" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24069,7 +24072,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24095,7 +24098,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G832" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24121,7 +24124,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G833" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24147,7 +24150,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24173,7 +24176,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G835" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24199,7 +24202,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24225,7 +24228,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24251,7 +24254,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G838" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24277,7 +24280,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G839" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24303,7 +24306,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G840" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24329,7 +24332,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G841" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24355,7 +24358,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24381,7 +24384,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G843" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24407,7 +24410,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24433,7 +24436,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G845" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24459,7 +24462,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G846" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24485,7 +24488,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G847" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24511,7 +24514,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24537,7 +24540,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G849" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24563,7 +24566,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24589,7 +24592,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G851" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24615,7 +24618,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G852" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24641,7 +24644,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G853" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24667,7 +24670,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G854" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24693,7 +24696,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G855" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24719,7 +24722,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G856" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24745,7 +24748,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G857" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24771,7 +24774,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G858" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24797,7 +24800,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G859" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24823,7 +24826,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G860" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24849,7 +24852,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G861" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24875,7 +24878,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G862" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24901,7 +24904,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24927,7 +24930,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G864" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24953,7 +24956,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G865" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24979,7 +24982,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G866" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25005,7 +25008,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G867" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25031,7 +25034,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G868" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25057,7 +25060,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G869" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25083,7 +25086,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G870" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25109,7 +25112,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G871" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25135,7 +25138,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G872" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25161,7 +25164,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25187,7 +25190,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G874" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25213,7 +25216,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G875" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25239,7 +25242,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G876" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25265,7 +25268,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G877" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25291,7 +25294,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25317,7 +25320,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G879" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25343,7 +25346,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G880" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25369,7 +25372,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G881" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25395,7 +25398,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G882" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25421,7 +25424,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G883" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25447,7 +25450,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G884" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25473,7 +25476,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G885" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25499,7 +25502,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G886" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25525,7 +25528,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G887" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25551,7 +25554,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25577,7 +25580,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G889" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25603,7 +25606,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G890" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25629,7 +25632,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G891" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25655,7 +25658,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G892" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25681,7 +25684,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G893" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25707,7 +25710,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G894" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25733,7 +25736,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25759,7 +25762,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25785,7 +25788,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G897" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25811,7 +25814,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25837,7 +25840,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25863,7 +25866,7 @@
         <v>4</v>
       </c>
       <c r="G900" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25889,7 +25892,7 @@
         <v>4</v>
       </c>
       <c r="G901" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25915,7 +25918,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G902" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25941,7 +25944,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G903" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25967,7 +25970,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25993,7 +25996,7 @@
         <v>4</v>
       </c>
       <c r="G905" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26019,7 +26022,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G906" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26045,7 +26048,7 @@
         <v>4</v>
       </c>
       <c r="G907" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26071,7 +26074,7 @@
         <v>4</v>
       </c>
       <c r="G908" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26097,7 +26100,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G909" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26123,7 +26126,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G910" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26149,7 +26152,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26175,7 +26178,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G912" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26201,7 +26204,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G913" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26227,7 +26230,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G914" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26253,7 +26256,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G915" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26279,7 +26282,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G916" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26305,7 +26308,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G917" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26357,7 +26360,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G919" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26383,7 +26386,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G920" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26409,7 +26412,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G921" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26435,7 +26438,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G922" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26461,7 +26464,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G923" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26487,7 +26490,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G924" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26539,7 +26542,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G926" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26565,7 +26568,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G927" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26591,7 +26594,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G928" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26617,7 +26620,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G929" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26643,7 +26646,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G930" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26669,7 +26672,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G931" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26695,7 +26698,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G932" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26721,7 +26724,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G933" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26747,7 +26750,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26773,7 +26776,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G935" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26825,7 +26828,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G937" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26851,7 +26854,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G938" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26877,7 +26880,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G939" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -42165,7 +42168,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1527" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42191,7 +42194,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1528" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42217,7 +42220,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1529" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42295,7 +42298,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1532" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -58917,7 +58920,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6495138889</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>2990</v>
@@ -58938,6 +58941,32 @@
         <v>705</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6211805556</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>3791</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>4.67999982833862</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>4.57000017166138</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>4.65999984741211</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>4.67999982833862</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>706</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="706">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,64 +38,64 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87282085418701</t>
+    <t xml:space="preserve">3.87282109260559</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87105941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86577606201172</t>
+    <t xml:space="preserve">3.8710606098175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458252906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86577582359314</t>
   </si>
   <si>
     <t xml:space="preserve">3.86401510238647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78652358055115</t>
+    <t xml:space="preserve">3.78652381896973</t>
   </si>
   <si>
     <t xml:space="preserve">3.74249458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79532933235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77771806716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62977933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733073234558</t>
+    <t xml:space="preserve">3.79532909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77771735191345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62977910041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.677330493927</t>
   </si>
   <si>
     <t xml:space="preserve">3.65443539619446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66324138641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6438684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4871244430542</t>
+    <t xml:space="preserve">3.66324162483215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64386820793152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48712396621704</t>
   </si>
   <si>
     <t xml:space="preserve">3.61040639877319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68965911865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66676378250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60336184501648</t>
+    <t xml:space="preserve">3.68965935707092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66676354408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6033616065979</t>
   </si>
   <si>
     <t xml:space="preserve">3.68085289001465</t>
@@ -107,19 +107,19 @@
     <t xml:space="preserve">3.53995895385742</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61568975448608</t>
+    <t xml:space="preserve">3.61568927764893</t>
   </si>
   <si>
     <t xml:space="preserve">3.64915227890015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65267443656921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65091323852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64210772514343</t>
+    <t xml:space="preserve">3.65267419815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65091276168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64210724830627</t>
   </si>
   <si>
     <t xml:space="preserve">3.59455513954163</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">3.81294107437134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79356861114502</t>
+    <t xml:space="preserve">3.79356837272644</t>
   </si>
   <si>
     <t xml:space="preserve">3.86225414276123</t>
@@ -143,52 +143,52 @@
     <t xml:space="preserve">3.814701795578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80941867828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73368763923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73721027374268</t>
+    <t xml:space="preserve">3.80941891670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73368835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73721075057983</t>
   </si>
   <si>
     <t xml:space="preserve">3.71255397796631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73192715644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72135996818542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76891231536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76538968086243</t>
+    <t xml:space="preserve">3.73192739486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72135972976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76891207695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76538944244385</t>
   </si>
   <si>
     <t xml:space="preserve">3.74953889846802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74601721763611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73016571998596</t>
+    <t xml:space="preserve">3.74601674079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7301664352417</t>
   </si>
   <si>
     <t xml:space="preserve">3.69846439361572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68613648414612</t>
+    <t xml:space="preserve">3.6861367225647</t>
   </si>
   <si>
     <t xml:space="preserve">3.72488260269165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82350873947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95383501052856</t>
+    <t xml:space="preserve">3.82350850105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95383453369141</t>
   </si>
   <si>
     <t xml:space="preserve">3.91861128807068</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">3.9432680606842</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91508984565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98553586006165</t>
+    <t xml:space="preserve">3.91508913040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9855363368988</t>
   </si>
   <si>
     <t xml:space="preserve">3.91332745552063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89395523071289</t>
+    <t xml:space="preserve">3.89395546913147</t>
   </si>
   <si>
     <t xml:space="preserve">3.96087980270386</t>
@@ -227,88 +227,88 @@
     <t xml:space="preserve">3.92741799354553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88338756561279</t>
+    <t xml:space="preserve">3.88338828086853</t>
   </si>
   <si>
     <t xml:space="preserve">3.99916744232178</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02612829208374</t>
+    <t xml:space="preserve">4.0261287689209</t>
   </si>
   <si>
     <t xml:space="preserve">3.97220754623413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99018096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759938240051</t>
+    <t xml:space="preserve">3.99018144607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759985923767</t>
   </si>
   <si>
     <t xml:space="preserve">4.04410266876221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98299121856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423364639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625903129578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88233852386475</t>
+    <t xml:space="preserve">3.98299217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625950813293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88233828544617</t>
   </si>
   <si>
     <t xml:space="preserve">3.92727255821228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92367792129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8913254737854</t>
+    <t xml:space="preserve">3.92367839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560681343079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89132499694824</t>
   </si>
   <si>
     <t xml:space="preserve">3.86436462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86256718635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8194305896759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799279212952</t>
+    <t xml:space="preserve">3.86256647109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81943011283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7079930305481</t>
   </si>
   <si>
     <t xml:space="preserve">3.76550889015198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59475779533386</t>
+    <t xml:space="preserve">3.59475755691528</t>
   </si>
   <si>
     <t xml:space="preserve">3.61273121833801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67923474311829</t>
+    <t xml:space="preserve">3.67923426628113</t>
   </si>
   <si>
     <t xml:space="preserve">3.63070487976074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62171864509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65766620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63789486885071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68103218078613</t>
+    <t xml:space="preserve">3.62171840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65766596794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63789463043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68103194236755</t>
   </si>
   <si>
     <t xml:space="preserve">3.57318925857544</t>
@@ -317,43 +317,43 @@
     <t xml:space="preserve">3.61632633209229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60374474525452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64688158035278</t>
+    <t xml:space="preserve">3.6037449836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64688181877136</t>
   </si>
   <si>
     <t xml:space="preserve">3.69181609153748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73675084114075</t>
+    <t xml:space="preserve">3.73675060272217</t>
   </si>
   <si>
     <t xml:space="preserve">3.75652122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80325388908386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86616253852844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81763243675232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81044220924377</t>
+    <t xml:space="preserve">3.80325365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86616182327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81763315200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81044292449951</t>
   </si>
   <si>
     <t xml:space="preserve">3.79246926307678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74394011497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77449512481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067182540894</t>
+    <t xml:space="preserve">3.7439398765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77449560165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067230224609</t>
   </si>
   <si>
     <t xml:space="preserve">3.77629327774048</t>
@@ -362,34 +362,34 @@
     <t xml:space="preserve">3.78887438774109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74753499031067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7511293888092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80145597457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73315572738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78348231315613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72416925430298</t>
+    <t xml:space="preserve">3.74753475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75112962722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80145645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7331554889679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78348255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7241690158844</t>
   </si>
   <si>
     <t xml:space="preserve">3.77090096473694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72057414054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371121406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596645355225</t>
+    <t xml:space="preserve">3.72057390213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371145248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596573829651</t>
   </si>
   <si>
     <t xml:space="preserve">3.70978975296021</t>
@@ -401,25 +401,25 @@
     <t xml:space="preserve">3.73854780197144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72956109046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237181663513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72776365280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75292730331421</t>
+    <t xml:space="preserve">3.72956132888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237133979797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72776341438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75292706489563</t>
   </si>
   <si>
     <t xml:space="preserve">3.75831913948059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69541120529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68462681770325</t>
+    <t xml:space="preserve">3.69541072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68462657928467</t>
   </si>
   <si>
     <t xml:space="preserve">3.69361352920532</t>
@@ -428,28 +428,28 @@
     <t xml:space="preserve">3.66485571861267</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68822145462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73135828971863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71338486671448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168511390686</t>
+    <t xml:space="preserve">3.68822121620178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73135805130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338510513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168535232544</t>
   </si>
   <si>
     <t xml:space="preserve">3.83380913734436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81224060058594</t>
+    <t xml:space="preserve">3.81224083900452</t>
   </si>
   <si>
     <t xml:space="preserve">3.81583499908447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82661938667297</t>
+    <t xml:space="preserve">3.82661914825439</t>
   </si>
   <si>
     <t xml:space="preserve">3.82841753959656</t>
@@ -458,49 +458,49 @@
     <t xml:space="preserve">3.92547535896301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9218807220459</t>
+    <t xml:space="preserve">3.92188024520874</t>
   </si>
   <si>
     <t xml:space="preserve">3.90031218528748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87335085868835</t>
+    <t xml:space="preserve">3.87335133552551</t>
   </si>
   <si>
     <t xml:space="preserve">3.84639120101929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83740377426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9416515827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929913520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95243620872498</t>
+    <t xml:space="preserve">3.83740401268005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514853477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94165253639221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929865837097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95243573188782</t>
   </si>
   <si>
     <t xml:space="preserve">3.98119449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97939682006836</t>
+    <t xml:space="preserve">3.9793963432312</t>
   </si>
   <si>
     <t xml:space="preserve">3.88413548469543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94884157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87874364852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01534461975098</t>
+    <t xml:space="preserve">3.9488410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87874293327332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01534414291382</t>
   </si>
   <si>
     <t xml:space="preserve">4.02073669433594</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">4.04050731658936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05308961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01714181900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06207609176636</t>
+    <t xml:space="preserve">4.05309009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01714134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06207656860352</t>
   </si>
   <si>
     <t xml:space="preserve">4.07106351852417</t>
@@ -530,58 +530,58 @@
     <t xml:space="preserve">4.06926584243774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08903694152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40357780456543</t>
+    <t xml:space="preserve">4.08903741836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40357828140259</t>
   </si>
   <si>
     <t xml:space="preserve">4.37661743164062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34606266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34785938262939</t>
+    <t xml:space="preserve">4.34606218338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34785890579224</t>
   </si>
   <si>
     <t xml:space="preserve">4.32808780670166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11599731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03691291809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9847891330719</t>
+    <t xml:space="preserve">4.27237033843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11599826812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03691339492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98478865623474</t>
   </si>
   <si>
     <t xml:space="preserve">4.04230499267578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95603036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92008280754089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91828608512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94704389572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93266487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84099864959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86795902252197</t>
+    <t xml:space="preserve">3.95603084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92008376121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91828560829163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94704484939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93266439437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84099912643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86795878410339</t>
   </si>
   <si>
     <t xml:space="preserve">3.90390682220459</t>
@@ -596,73 +596,73 @@
     <t xml:space="preserve">3.99112153053284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98194694519043</t>
+    <t xml:space="preserve">3.98194646835327</t>
   </si>
   <si>
     <t xml:space="preserve">4.06819152832031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89019632339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184619903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92689681053162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06452131271362</t>
+    <t xml:space="preserve">3.89019656181335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87184643745422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92689728736877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06452178955078</t>
   </si>
   <si>
     <t xml:space="preserve">4.12874603271484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17462110519409</t>
+    <t xml:space="preserve">4.17462158203125</t>
   </si>
   <si>
     <t xml:space="preserve">4.12691164016724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10672664642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05901575088501</t>
+    <t xml:space="preserve">4.10672616958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05901622772217</t>
   </si>
   <si>
     <t xml:space="preserve">4.03699684143066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99479174613953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05351161956787</t>
+    <t xml:space="preserve">3.99479126930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05351209640503</t>
   </si>
   <si>
     <t xml:space="preserve">4.08287143707275</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03332710266113</t>
+    <t xml:space="preserve">4.03332662582397</t>
   </si>
   <si>
     <t xml:space="preserve">4.07369661331177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09204626083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08103656768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05534648895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09021186828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06268644332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15260124206543</t>
+    <t xml:space="preserve">4.09204578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08103609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05534696578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09021139144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0626859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15260171890259</t>
   </si>
   <si>
     <t xml:space="preserve">4.15627145767212</t>
@@ -674,28 +674,28 @@
     <t xml:space="preserve">4.11039638519287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09388160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20948648452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15443658828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13792181015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12507629394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1195707321167</t>
+    <t xml:space="preserve">4.09388113021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20948600769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15443706512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1379222869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12507581710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957120895386</t>
   </si>
   <si>
     <t xml:space="preserve">4.13608646392822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15076684951782</t>
+    <t xml:space="preserve">4.15076637268066</t>
   </si>
   <si>
     <t xml:space="preserve">4.10305643081665</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">4.17278623580933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11223125457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002639770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10122156143188</t>
+    <t xml:space="preserve">4.11223077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002687454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10122108459473</t>
   </si>
   <si>
     <t xml:space="preserve">4.16911697387695</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">4.21132183074951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0975513458252</t>
+    <t xml:space="preserve">4.09755086898804</t>
   </si>
   <si>
     <t xml:space="preserve">4.05167627334595</t>
@@ -731,43 +731,43 @@
     <t xml:space="preserve">4.01864671707153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07920169830322</t>
+    <t xml:space="preserve">4.07920122146606</t>
   </si>
   <si>
     <t xml:space="preserve">4.13425159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21866130828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13241624832153</t>
+    <t xml:space="preserve">4.21866178512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13241672515869</t>
   </si>
   <si>
     <t xml:space="preserve">4.12140703201294</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11590099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11773681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14709568023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14893102645874</t>
+    <t xml:space="preserve">4.11590147018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11773633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14709615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1489315032959</t>
   </si>
   <si>
     <t xml:space="preserve">4.19113636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19297170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99662661552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04433584213257</t>
+    <t xml:space="preserve">4.19297122955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99662613868713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04433631896973</t>
   </si>
   <si>
     <t xml:space="preserve">3.9856162071228</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">4.0204815864563</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92322611808777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03516101837158</t>
+    <t xml:space="preserve">3.92322659492493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03516149520874</t>
   </si>
   <si>
     <t xml:space="preserve">4.08654117584229</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">4.04800701141357</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96726655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92506146430969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91772174835205</t>
+    <t xml:space="preserve">3.96726608276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92506194114685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91772127151489</t>
   </si>
   <si>
     <t xml:space="preserve">4.0002965927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97277188301086</t>
+    <t xml:space="preserve">3.97277140617371</t>
   </si>
   <si>
     <t xml:space="preserve">3.93790650367737</t>
@@ -818,13 +818,13 @@
     <t xml:space="preserve">3.88102173805237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85349655151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95442152023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83514642715454</t>
+    <t xml:space="preserve">3.85349631309509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95442128181458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83514618873596</t>
   </si>
   <si>
     <t xml:space="preserve">3.89937162399292</t>
@@ -833,25 +833,25 @@
     <t xml:space="preserve">3.90854716300964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267161369324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597184181213</t>
+    <t xml:space="preserve">3.93607187271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86267137527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597160339355</t>
   </si>
   <si>
     <t xml:space="preserve">3.78927206993103</t>
   </si>
   <si>
-    <t xml:space="preserve">3.807621717453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02039432525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04857492446899</t>
+    <t xml:space="preserve">3.80762195587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02039480209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04857397079468</t>
   </si>
   <si>
     <t xml:space="preserve">4.03918075561523</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">3.97342705726624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9922137260437</t>
+    <t xml:space="preserve">3.99221420288086</t>
   </si>
   <si>
     <t xml:space="preserve">4.02978754043579</t>
@@ -872,25 +872,25 @@
     <t xml:space="preserve">3.89827942848206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91706657409668</t>
+    <t xml:space="preserve">3.91706609725952</t>
   </si>
   <si>
     <t xml:space="preserve">3.77616453170776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70101690292358</t>
+    <t xml:space="preserve">3.70101714134216</t>
   </si>
   <si>
     <t xml:space="preserve">3.75737762451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73859095573425</t>
+    <t xml:space="preserve">3.73859071731567</t>
   </si>
   <si>
     <t xml:space="preserve">3.71980404853821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71041083335876</t>
+    <t xml:space="preserve">3.71041059494019</t>
   </si>
   <si>
     <t xml:space="preserve">3.63526272773743</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">3.42860722541809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28770542144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35345983505249</t>
+    <t xml:space="preserve">3.28770565986633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35345959663391</t>
   </si>
   <si>
     <t xml:space="preserve">3.33467292785645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37224626541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3816397190094</t>
+    <t xml:space="preserve">3.37224650382996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38163995742798</t>
   </si>
   <si>
     <t xml:space="preserve">3.45678758621216</t>
@@ -926,40 +926,40 @@
     <t xml:space="preserve">3.46618103981018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36285305023193</t>
+    <t xml:space="preserve">3.36285281181335</t>
   </si>
   <si>
     <t xml:space="preserve">3.44739413261414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43800091743469</t>
+    <t xml:space="preserve">3.43800067901611</t>
   </si>
   <si>
     <t xml:space="preserve">3.40042662620544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4755744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49436140060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31588578224182</t>
+    <t xml:space="preserve">3.47557473182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49436116218567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3158860206604</t>
   </si>
   <si>
     <t xml:space="preserve">3.60708260536194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56950879096985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50375461578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65404987335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48496770858765</t>
+    <t xml:space="preserve">3.56950855255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50375485420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65404963493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48496747016907</t>
   </si>
   <si>
     <t xml:space="preserve">3.68223023414612</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">3.58829569816589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5507218837738</t>
+    <t xml:space="preserve">3.55072212219238</t>
   </si>
   <si>
     <t xml:space="preserve">3.53193497657776</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">3.56011533737183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57890224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64465641975403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67283654212952</t>
+    <t xml:space="preserve">3.57890200614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64465665817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6728367805481</t>
   </si>
   <si>
     <t xml:space="preserve">3.51314806938171</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">3.62637186050415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58779358863831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66495037078857</t>
+    <t xml:space="preserve">3.58779335021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66495013237</t>
   </si>
   <si>
     <t xml:space="preserve">3.68423938751221</t>
@@ -1019,16 +1019,16 @@
     <t xml:space="preserve">3.78068566322327</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7999746799469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74210715293884</t>
+    <t xml:space="preserve">3.79997491836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74210739135742</t>
   </si>
   <si>
     <t xml:space="preserve">3.81926417350769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8385534286499</t>
+    <t xml:space="preserve">3.83855319023132</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1040,40 +1040,40 @@
     <t xml:space="preserve">3.72281789779663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64566111564636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56850433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52992606163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47205805778503</t>
+    <t xml:space="preserve">3.64566135406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56850457191467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52992582321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47205829620361</t>
   </si>
   <si>
     <t xml:space="preserve">3.51063656806946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41419076919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43347978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4527690410614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37561202049255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39490127563477</t>
+    <t xml:space="preserve">3.41419053077698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43347954750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45276880264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37561225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39490151405334</t>
   </si>
   <si>
     <t xml:space="preserve">3.33703374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27916622161865</t>
+    <t xml:space="preserve">3.27916598320007</t>
   </si>
   <si>
     <t xml:space="preserve">3.18271994590759</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">3.14414167404175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20200896263123</t>
+    <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
     <t xml:space="preserve">3.10556316375732</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06698489189148</t>
+    <t xml:space="preserve">3.0669846534729</t>
   </si>
   <si>
     <t xml:space="preserve">3.04769563674927</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">3.02840662002563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91267108917236</t>
+    <t xml:space="preserve">2.91267085075378</t>
   </si>
   <si>
     <t xml:space="preserve">2.85480356216431</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">2.71977877616882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83551430702209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97053861618042</t>
+    <t xml:space="preserve">2.83551406860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.970538854599</t>
   </si>
   <si>
     <t xml:space="preserve">2.89338183403015</t>
@@ -1130,16 +1130,16 @@
     <t xml:space="preserve">2.98982763290405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95124936103821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8162248134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79693579673767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75835728645325</t>
+    <t xml:space="preserve">2.95124959945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81622505187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79693603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75835704803467</t>
   </si>
   <si>
     <t xml:space="preserve">2.77764678001404</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">2.5847544670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50759744644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46901917457581</t>
+    <t xml:space="preserve">2.50759768486023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46901893615723</t>
   </si>
   <si>
     <t xml:space="preserve">2.33399486541748</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">2.21825933456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14110279083252</t>
+    <t xml:space="preserve">2.14110255241394</t>
   </si>
   <si>
     <t xml:space="preserve">2.23754858970642</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">2.26648235321045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41115164756775</t>
+    <t xml:space="preserve">2.41115140914917</t>
   </si>
   <si>
     <t xml:space="preserve">2.47866368293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43044066429138</t>
+    <t xml:space="preserve">2.43044090270996</t>
   </si>
   <si>
     <t xml:space="preserve">2.27612709999084</t>
@@ -1229,19 +1229,19 @@
     <t xml:space="preserve">2.30506086349487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2279040813446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24719333648682</t>
+    <t xml:space="preserve">2.22790384292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24719309806824</t>
   </si>
   <si>
     <t xml:space="preserve">2.35328412055969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32434988021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17968082427979</t>
+    <t xml:space="preserve">2.32435011863708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17968106269836</t>
   </si>
   <si>
     <t xml:space="preserve">2.18932557106018</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.17003631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1314582824707</t>
+    <t xml:space="preserve">2.13145804405212</t>
   </si>
   <si>
     <t xml:space="preserve">2.08323502540588</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">1.98678886890411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92409896850586</t>
+    <t xml:space="preserve">1.92409884929657</t>
   </si>
   <si>
     <t xml:space="preserve">1.92892122268677</t>
@@ -1283,34 +1283,34 @@
     <t xml:space="preserve">1.95785510540009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20861458778381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15074729919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37257313728333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38221788406372</t>
+    <t xml:space="preserve">2.20861482620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15074706077576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37257289886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38221764564514</t>
   </si>
   <si>
     <t xml:space="preserve">2.56546521186829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87409257888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66191148757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64262223243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59439897537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6812002658844</t>
+    <t xml:space="preserve">2.87409281730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66191124916077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64262199401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59439921379089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68120050430298</t>
   </si>
   <si>
     <t xml:space="preserve">2.65226674079895</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">2.61368823051453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53653168678284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52688694000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51724195480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70048952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71013402938843</t>
+    <t xml:space="preserve">2.53653144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52688670158386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51724219322205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70048975944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71013426780701</t>
   </si>
   <si>
     <t xml:space="preserve">2.69084501266479</t>
@@ -1349,19 +1349,19 @@
     <t xml:space="preserve">2.99947237968445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98018312454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96089386940002</t>
+    <t xml:space="preserve">2.98018288612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9608941078186</t>
   </si>
   <si>
     <t xml:space="preserve">3.03805112838745</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16343092918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21165347099304</t>
+    <t xml:space="preserve">3.16343069076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21165370941162</t>
   </si>
   <si>
     <t xml:space="preserve">3.23094296455383</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">3.17307543754578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13449716567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15378618240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26952147483826</t>
+    <t xml:space="preserve">3.13449692726135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15378594398499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26952171325684</t>
   </si>
   <si>
     <t xml:space="preserve">3.25987696647644</t>
@@ -1391,28 +1391,28 @@
     <t xml:space="preserve">3.30809998512268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32738924026489</t>
+    <t xml:space="preserve">3.32738900184631</t>
   </si>
   <si>
     <t xml:space="preserve">3.25023221969604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09591841697693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07662916183472</t>
+    <t xml:space="preserve">3.09591865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0766294002533</t>
   </si>
   <si>
     <t xml:space="preserve">3.01876187324524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05734038352966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92231583595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93196034431458</t>
+    <t xml:space="preserve">3.05734014511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92231559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.931960105896</t>
   </si>
   <si>
     <t xml:space="preserve">2.90302634239197</t>
@@ -1430,34 +1430,34 @@
     <t xml:space="preserve">2.80658054351807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11520767211914</t>
+    <t xml:space="preserve">3.11520791053772</t>
   </si>
   <si>
     <t xml:space="preserve">3.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59743785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67459487915039</t>
+    <t xml:space="preserve">3.59743809700012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67459464073181</t>
   </si>
   <si>
     <t xml:space="preserve">3.71317338943481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79033017158508</t>
+    <t xml:space="preserve">3.79033041000366</t>
   </si>
   <si>
     <t xml:space="preserve">3.88677644729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95428848266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9446439743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322248458862</t>
+    <t xml:space="preserve">3.95428824424744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94464421272278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9832227230072</t>
   </si>
   <si>
     <t xml:space="preserve">4.0507345199585</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">4.20504856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26291656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30149459838867</t>
+    <t xml:space="preserve">4.26291608810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30149412155151</t>
   </si>
   <si>
     <t xml:space="preserve">4.23398208618164</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">4.42687463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45580816268921</t>
+    <t xml:space="preserve">4.45580768585205</t>
   </si>
   <si>
     <t xml:space="preserve">4.22433757781982</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">4.2918496131897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40758562088013</t>
+    <t xml:space="preserve">4.40758514404297</t>
   </si>
   <si>
     <t xml:space="preserve">4.50403070449829</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">4.43651866912842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3690071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12789154052734</t>
+    <t xml:space="preserve">4.36900663375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1278920173645</t>
   </si>
   <si>
     <t xml:space="preserve">4.16647005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25327110290527</t>
+    <t xml:space="preserve">4.25327157974243</t>
   </si>
   <si>
     <t xml:space="preserve">4.1857590675354</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">4.14718055725098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02180099487305</t>
+    <t xml:space="preserve">4.02180051803589</t>
   </si>
   <si>
     <t xml:space="preserve">4.0796685218811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17611455917358</t>
+    <t xml:space="preserve">4.17611408233643</t>
   </si>
   <si>
     <t xml:space="preserve">4.33042764663696</t>
@@ -1571,16 +1571,16 @@
     <t xml:space="preserve">4.47509717941284</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49438667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44616317749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41722917556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64869976043701</t>
+    <t xml:space="preserve">4.49438619613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44616365432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41722965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64870023727417</t>
   </si>
   <si>
     <t xml:space="preserve">4.80301380157471</t>
@@ -1601,19 +1601,19 @@
     <t xml:space="preserve">4.57154321670532</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27256011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11824655532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15682554244995</t>
+    <t xml:space="preserve">4.27256059646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11824703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15682458877563</t>
   </si>
   <si>
     <t xml:space="preserve">4.38829612731934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54260921478271</t>
+    <t xml:space="preserve">4.54260969161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.61976623535156</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.67763376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78372478485107</t>
+    <t xml:space="preserve">4.78372430801392</t>
   </si>
   <si>
     <t xml:space="preserve">4.89945983886719</t>
@@ -1631,40 +1631,40 @@
     <t xml:space="preserve">4.97661638259888</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0151948928833</t>
+    <t xml:space="preserve">5.01519536972046</t>
   </si>
   <si>
     <t xml:space="preserve">5.45884704589844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59387159347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49742555618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28524446487427</t>
+    <t xml:space="preserve">5.5938720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4974250793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28524398803711</t>
   </si>
   <si>
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026805877686</t>
+    <t xml:space="preserve">5.42026853561401</t>
   </si>
   <si>
     <t xml:space="preserve">5.38169002532959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088132858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84159183502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93803834915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73550128936768</t>
+    <t xml:space="preserve">4.86088180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84159231185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93803787231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73550176620483</t>
   </si>
   <si>
     <t xml:space="preserve">4.70608854293823</t>
@@ -1673,13 +1673,13 @@
     <t xml:space="preserve">4.86295795440674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87276268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96100187301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13748025894165</t>
+    <t xml:space="preserve">4.87276220321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9610013961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13747978210449</t>
   </si>
   <si>
     <t xml:space="preserve">5.0198278427124</t>
@@ -1697,19 +1697,19 @@
     <t xml:space="preserve">4.90217542648315</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00021886825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81393623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79432725906372</t>
+    <t xml:space="preserve">5.00021934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81393671035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79432773590088</t>
   </si>
   <si>
     <t xml:space="preserve">4.78452348709106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667579650879</t>
+    <t xml:space="preserve">4.67667531967163</t>
   </si>
   <si>
     <t xml:space="preserve">4.61784934997559</t>
@@ -1727,25 +1727,22 @@
     <t xml:space="preserve">4.89237117767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72569704055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80413246154785</t>
+    <t xml:space="preserve">4.72569751739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80413198471069</t>
   </si>
   <si>
     <t xml:space="preserve">4.76491498947144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92178392410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73550176620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83354520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66687107086182</t>
+    <t xml:space="preserve">4.92178440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83354473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66687154769897</t>
   </si>
   <si>
     <t xml:space="preserve">4.69628429412842</t>
@@ -1775,16 +1772,16 @@
     <t xml:space="preserve">4.64726209640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74530649185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51000118255615</t>
+    <t xml:space="preserve">4.74530601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51000165939331</t>
   </si>
   <si>
     <t xml:space="preserve">4.41195821762085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5982403755188</t>
+    <t xml:space="preserve">4.59824085235596</t>
   </si>
   <si>
     <t xml:space="preserve">4.52961015701294</t>
@@ -1793,7 +1790,7 @@
     <t xml:space="preserve">4.53941488265991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54921913146973</t>
+    <t xml:space="preserve">4.54921865463257</t>
   </si>
   <si>
     <t xml:space="preserve">4.58843612670898</t>
@@ -1820,40 +1817,40 @@
     <t xml:space="preserve">4.48058891296387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38254451751709</t>
+    <t xml:space="preserve">4.38254499435425</t>
   </si>
   <si>
     <t xml:space="preserve">4.36293601989746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32371854782104</t>
+    <t xml:space="preserve">4.3237190246582</t>
   </si>
   <si>
     <t xml:space="preserve">4.31391429901123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26489305496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21587133407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25508832931519</t>
+    <t xml:space="preserve">4.264892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25508880615234</t>
   </si>
   <si>
     <t xml:space="preserve">4.23547983169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1374363899231</t>
+    <t xml:space="preserve">4.13743591308594</t>
   </si>
   <si>
     <t xml:space="preserve">4.39234924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33352375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45117521286011</t>
+    <t xml:space="preserve">4.33352327346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45117568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.56882762908936</t>
@@ -1862,7 +1859,7 @@
     <t xml:space="preserve">4.657066822052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37274074554443</t>
+    <t xml:space="preserve">4.37274026870728</t>
   </si>
   <si>
     <t xml:space="preserve">4.82374095916748</t>
@@ -1877,10 +1874,10 @@
     <t xml:space="preserve">4.28450155258179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16684913635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19626235961914</t>
+    <t xml:space="preserve">4.1668496131897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1962628364563</t>
   </si>
   <si>
     <t xml:space="preserve">4.24528408050537</t>
@@ -46172,7 +46169,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1681" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46328,7 +46325,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1687" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46406,7 +46403,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46432,7 +46429,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46458,7 +46455,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1692" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46510,7 +46507,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1694" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46536,7 +46533,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1695" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46588,7 +46585,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1697" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46614,7 +46611,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1698" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46640,7 +46637,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1699" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46666,7 +46663,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1700" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46692,7 +46689,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1701" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46718,7 +46715,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46848,7 +46845,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1707" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46874,7 +46871,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1708" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46900,7 +46897,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1709" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46926,7 +46923,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1710" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46978,7 +46975,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1712" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47004,7 +47001,7 @@
         <v>4.5</v>
       </c>
       <c r="G1713" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47030,7 +47027,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1714" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47056,7 +47053,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1715" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47082,7 +47079,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1716" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47108,7 +47105,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47134,7 +47131,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1718" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47186,7 +47183,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1720" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47212,7 +47209,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47238,7 +47235,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1722" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47316,7 +47313,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1725" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47342,7 +47339,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1726" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47368,7 +47365,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1727" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47394,7 +47391,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1728" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47420,7 +47417,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1729" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47446,7 +47443,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1730" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47472,7 +47469,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1731" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47498,7 +47495,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1732" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47524,7 +47521,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1733" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47602,7 +47599,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47628,7 +47625,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1737" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47654,7 +47651,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1738" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47706,7 +47703,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1740" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47732,7 +47729,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1741" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47758,7 +47755,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1742" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47836,7 +47833,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1745" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47862,7 +47859,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1746" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47914,7 +47911,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1748" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47940,7 +47937,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1749" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47966,7 +47963,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1750" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47992,7 +47989,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1751" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48018,7 +48015,7 @@
         <v>4.5</v>
       </c>
       <c r="G1752" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48044,7 +48041,7 @@
         <v>4.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48070,7 +48067,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1754" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48096,7 +48093,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1755" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48122,7 +48119,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48148,7 +48145,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1757" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48174,7 +48171,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48200,7 +48197,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48226,7 +48223,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1760" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48252,7 +48249,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1761" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48278,7 +48275,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1762" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48304,7 +48301,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1763" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48330,7 +48327,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1764" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48356,7 +48353,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1765" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48382,7 +48379,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1766" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48408,7 +48405,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1767" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48434,7 +48431,7 @@
         <v>4.5</v>
       </c>
       <c r="G1768" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48460,7 +48457,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1769" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48486,7 +48483,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1770" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48512,7 +48509,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1771" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48538,7 +48535,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1772" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48564,7 +48561,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1773" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48590,7 +48587,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1774" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48616,7 +48613,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1775" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48642,7 +48639,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1776" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48668,7 +48665,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1777" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48694,7 +48691,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1778" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48720,7 +48717,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1779" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48746,7 +48743,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1780" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48772,7 +48769,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1781" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48798,7 +48795,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1782" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48824,7 +48821,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48850,7 +48847,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1784" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48876,7 +48873,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1785" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48902,7 +48899,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1786" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48928,7 +48925,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1787" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48954,7 +48951,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1788" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48980,7 +48977,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49006,7 +49003,7 @@
         <v>4.5</v>
       </c>
       <c r="G1790" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49032,7 +49029,7 @@
         <v>4.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49058,7 +49055,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49084,7 +49081,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49110,7 +49107,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49136,7 +49133,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1795" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49162,7 +49159,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1796" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49188,7 +49185,7 @@
         <v>4.75</v>
       </c>
       <c r="G1797" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49214,7 +49211,7 @@
         <v>4.75</v>
       </c>
       <c r="G1798" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49240,7 +49237,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1799" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49266,7 +49263,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49318,7 +49315,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1802" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49344,7 +49341,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1803" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49370,7 +49367,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1804" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49396,7 +49393,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1805" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49422,7 +49419,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1806" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49448,7 +49445,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1807" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49474,7 +49471,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49500,7 +49497,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1809" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49526,7 +49523,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49552,7 +49549,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49578,7 +49575,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1812" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49604,7 +49601,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1813" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49630,7 +49627,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1814" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49656,7 +49653,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1815" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49682,7 +49679,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1816" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49708,7 +49705,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1817" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49734,7 +49731,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49760,7 +49757,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1819" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49786,7 +49783,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1820" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49812,7 +49809,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49838,7 +49835,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49864,7 +49861,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1823" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49890,7 +49887,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1824" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49968,7 +49965,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50124,7 +50121,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50150,7 +50147,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1834" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50176,7 +50173,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1835" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50202,7 +50199,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1836" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50228,7 +50225,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1837" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50306,7 +50303,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1840" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50358,7 +50355,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1842" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50410,7 +50407,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1844" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50462,7 +50459,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1846" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50488,7 +50485,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1847" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50514,7 +50511,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1848" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50540,7 +50537,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1849" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50566,7 +50563,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1850" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50592,7 +50589,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1851" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50618,7 +50615,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50644,7 +50641,7 @@
         <v>4.25</v>
       </c>
       <c r="G1853" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50670,7 +50667,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1854" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50696,7 +50693,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1855" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50722,7 +50719,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1856" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50748,7 +50745,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50774,7 +50771,7 @@
         <v>4.5</v>
       </c>
       <c r="G1858" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50800,7 +50797,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1859" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50826,7 +50823,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1860" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50852,7 +50849,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1861" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50878,7 +50875,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1862" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50904,7 +50901,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1863" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50930,7 +50927,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1864" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50956,7 +50953,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1865" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50982,7 +50979,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1866" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51008,7 +51005,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51034,7 +51031,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1868" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51060,7 +51057,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51086,7 +51083,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51112,7 +51109,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51138,7 +51135,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1872" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51164,7 +51161,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1873" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51190,7 +51187,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51216,7 +51213,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1875" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51242,7 +51239,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1876" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51268,7 +51265,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1877" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51294,7 +51291,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1878" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51320,7 +51317,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51346,7 +51343,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1880" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51372,7 +51369,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1881" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51398,7 +51395,7 @@
         <v>4.5</v>
       </c>
       <c r="G1882" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51424,7 +51421,7 @@
         <v>4.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51450,7 +51447,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51476,7 +51473,7 @@
         <v>4.5</v>
       </c>
       <c r="G1885" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51502,7 +51499,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51528,7 +51525,7 @@
         <v>4.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51554,7 +51551,7 @@
         <v>4.5</v>
       </c>
       <c r="G1888" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51580,7 +51577,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51606,7 +51603,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1890" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51632,7 +51629,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1891" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51658,7 +51655,7 @@
         <v>4.5</v>
       </c>
       <c r="G1892" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51684,7 +51681,7 @@
         <v>4.5</v>
       </c>
       <c r="G1893" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51710,7 +51707,7 @@
         <v>4.5</v>
       </c>
       <c r="G1894" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51736,7 +51733,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1895" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51762,7 +51759,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1896" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51788,7 +51785,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1897" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51814,7 +51811,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1898" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51840,7 +51837,7 @@
         <v>4.5</v>
       </c>
       <c r="G1899" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51866,7 +51863,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1900" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51892,7 +51889,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1901" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51918,7 +51915,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1902" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51944,7 +51941,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1903" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51970,7 +51967,7 @@
         <v>4.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51996,7 +51993,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1905" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52022,7 +52019,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1906" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52048,7 +52045,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1907" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52074,7 +52071,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1908" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52100,7 +52097,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1909" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52126,7 +52123,7 @@
         <v>4.75</v>
       </c>
       <c r="G1910" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52152,7 +52149,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52178,7 +52175,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1912" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52204,7 +52201,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1913" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52230,7 +52227,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1914" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52256,7 +52253,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1915" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52282,7 +52279,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1916" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52308,7 +52305,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G1917" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52334,7 +52331,7 @@
         <v>4.75</v>
       </c>
       <c r="G1918" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52360,7 +52357,7 @@
         <v>4.75</v>
       </c>
       <c r="G1919" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52386,7 +52383,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1920" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52412,7 +52409,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1921" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52438,7 +52435,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1922" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52464,7 +52461,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52490,7 +52487,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1924" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52516,7 +52513,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1925" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52542,7 +52539,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1926" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52568,7 +52565,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52594,7 +52591,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1928" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52620,7 +52617,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1929" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52646,7 +52643,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1930" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52672,7 +52669,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1931" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52698,7 +52695,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1932" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52724,7 +52721,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1933" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52750,7 +52747,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52776,7 +52773,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1935" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52802,7 +52799,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52828,7 +52825,7 @@
         <v>4.5</v>
       </c>
       <c r="G1937" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52854,7 +52851,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52880,7 +52877,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1939" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52906,7 +52903,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1940" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52932,7 +52929,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52958,7 +52955,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1942" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52984,7 +52981,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1943" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53010,7 +53007,7 @@
         <v>4.5</v>
       </c>
       <c r="G1944" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53036,7 +53033,7 @@
         <v>4.5</v>
       </c>
       <c r="G1945" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53062,7 +53059,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1946" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53088,7 +53085,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1947" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53114,7 +53111,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1948" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53140,7 +53137,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1949" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53166,7 +53163,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1950" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53192,7 +53189,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1951" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53218,7 +53215,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1952" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53244,7 +53241,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1953" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53270,7 +53267,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53296,7 +53293,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1955" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53322,7 +53319,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53348,7 +53345,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1957" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53374,7 +53371,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1958" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53400,7 +53397,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53426,7 +53423,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1960" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53452,7 +53449,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53478,7 +53475,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1962" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53504,7 +53501,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53530,7 +53527,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1964" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53556,7 +53553,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1965" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53582,7 +53579,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1966" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53608,7 +53605,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1967" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53634,7 +53631,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1968" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53660,7 +53657,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1969" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53686,7 +53683,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1970" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53712,7 +53709,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53738,7 +53735,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1972" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53764,7 +53761,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53790,7 +53787,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1974" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53816,7 +53813,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53842,7 +53839,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53868,7 +53865,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1977" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53894,7 +53891,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1978" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53920,7 +53917,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1979" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53946,7 +53943,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53972,7 +53969,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53998,7 +53995,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1982" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54024,7 +54021,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1983" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54050,7 +54047,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1984" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54076,7 +54073,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54102,7 +54099,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1986" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54128,7 +54125,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1987" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54154,7 +54151,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1988" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54180,7 +54177,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1989" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54206,7 +54203,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54232,7 +54229,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1991" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54258,7 +54255,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1992" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54284,7 +54281,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1993" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54310,7 +54307,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54336,7 +54333,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1995" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54362,7 +54359,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54388,7 +54385,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54414,7 +54411,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1998" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54440,7 +54437,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54466,7 +54463,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2000" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54492,7 +54489,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2001" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54518,7 +54515,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2002" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54544,7 +54541,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2003" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54570,7 +54567,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2004" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54596,7 +54593,7 @@
         <v>4.75</v>
       </c>
       <c r="G2005" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54622,7 +54619,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2006" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54648,7 +54645,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2007" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54674,7 +54671,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2008" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54700,7 +54697,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2009" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54726,7 +54723,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2010" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54752,7 +54749,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2011" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54778,7 +54775,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2012" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54804,7 +54801,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54830,7 +54827,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54856,7 +54853,7 @@
         <v>4.5</v>
       </c>
       <c r="G2015" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54882,7 +54879,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2016" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54908,7 +54905,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2017" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54934,7 +54931,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2018" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54960,7 +54957,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54986,7 +54983,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2020" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55012,7 +55009,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2021" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55038,7 +55035,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2022" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55064,7 +55061,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2023" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55090,7 +55087,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55116,7 +55113,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2025" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55142,7 +55139,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2026" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55168,7 +55165,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2027" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55194,7 +55191,7 @@
         <v>4.75</v>
       </c>
       <c r="G2028" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55220,7 +55217,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2029" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55246,7 +55243,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2030" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55272,7 +55269,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2031" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55298,7 +55295,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2032" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55324,7 +55321,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2033" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55350,7 +55347,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2034" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55376,7 +55373,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2035" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55402,7 +55399,7 @@
         <v>5</v>
       </c>
       <c r="G2036" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55428,7 +55425,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2037" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55454,7 +55451,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2038" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55480,7 +55477,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2039" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55506,7 +55503,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55532,7 +55529,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2041" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55558,7 +55555,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2042" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55584,7 +55581,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2043" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55610,7 +55607,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2044" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55636,7 +55633,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2045" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55662,7 +55659,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2046" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55688,7 +55685,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2047" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55714,7 +55711,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2048" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55740,7 +55737,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2049" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55766,7 +55763,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2050" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55792,7 +55789,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55818,7 +55815,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2052" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55844,7 +55841,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2053" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55870,7 +55867,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2054" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55896,7 +55893,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2055" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55922,7 +55919,7 @@
         <v>5</v>
       </c>
       <c r="G2056" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55948,7 +55945,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55974,7 +55971,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56000,7 +55997,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2059" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56026,7 +56023,7 @@
         <v>5</v>
       </c>
       <c r="G2060" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56052,7 +56049,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2061" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56078,7 +56075,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2062" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56104,7 +56101,7 @@
         <v>5</v>
       </c>
       <c r="G2063" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56130,7 +56127,7 @@
         <v>5</v>
       </c>
       <c r="G2064" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56156,7 +56153,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2065" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56182,7 +56179,7 @@
         <v>5</v>
       </c>
       <c r="G2066" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56208,7 +56205,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2067" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56234,7 +56231,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2068" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56260,7 +56257,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G2069" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56286,7 +56283,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2070" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56312,7 +56309,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2071" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56338,7 +56335,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56364,7 +56361,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2073" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56390,7 +56387,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2074" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56416,7 +56413,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56442,7 +56439,7 @@
         <v>5.5</v>
       </c>
       <c r="G2076" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56468,7 +56465,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56494,7 +56491,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2078" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56520,7 +56517,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56546,7 +56543,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2080" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56572,7 +56569,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2081" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56598,7 +56595,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2082" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56624,7 +56621,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56650,7 +56647,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2084" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56676,7 +56673,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2085" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56702,7 +56699,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56728,7 +56725,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2087" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56754,7 +56751,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2088" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56780,7 +56777,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2089" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56806,7 +56803,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2090" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56832,7 +56829,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2091" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56858,7 +56855,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56884,7 +56881,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2093" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56910,7 +56907,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2094" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56936,7 +56933,7 @@
         <v>5</v>
       </c>
       <c r="G2095" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56962,7 +56959,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2096" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56988,7 +56985,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2097" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57014,7 +57011,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57040,7 +57037,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2099" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57066,7 +57063,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2100" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57092,7 +57089,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57118,7 +57115,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57144,7 +57141,7 @@
         <v>5</v>
       </c>
       <c r="G2103" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57170,7 +57167,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57196,7 +57193,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2105" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57222,7 +57219,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2106" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57248,7 +57245,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2107" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57274,7 +57271,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2108" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57300,7 +57297,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2109" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57326,7 +57323,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2110" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57352,7 +57349,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2111" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57378,7 +57375,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2112" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57404,7 +57401,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2113" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57430,7 +57427,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2114" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57456,7 +57453,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2115" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57482,7 +57479,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57508,7 +57505,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57534,7 +57531,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2118" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57560,7 +57557,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2119" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57586,7 +57583,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2120" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57612,7 +57609,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2121" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57638,7 +57635,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57664,7 +57661,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2123" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57690,7 +57687,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2124" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57716,7 +57713,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2125" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57742,7 +57739,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57768,7 +57765,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57794,7 +57791,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2128" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57820,7 +57817,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2129" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57846,7 +57843,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57872,7 +57869,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2131" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57898,7 +57895,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57924,7 +57921,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2133" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57950,7 +57947,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2134" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57976,7 +57973,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2135" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58002,7 +57999,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2136" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58028,7 +58025,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58054,7 +58051,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2138" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58080,7 +58077,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2139" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58106,7 +58103,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2140" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58132,7 +58129,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2141" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58158,7 +58155,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2142" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58184,7 +58181,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2143" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58210,7 +58207,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58236,7 +58233,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2145" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58262,7 +58259,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2146" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58288,7 +58285,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58314,7 +58311,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58340,7 +58337,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2149" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58366,7 +58363,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2150" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58392,7 +58389,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58418,7 +58415,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2152" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58444,7 +58441,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2153" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58470,7 +58467,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2154" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58496,7 +58493,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2155" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58522,7 +58519,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2156" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58548,7 +58545,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58574,7 +58571,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2158" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58600,7 +58597,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58626,7 +58623,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2160" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58652,7 +58649,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2161" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58678,7 +58675,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2162" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58704,7 +58701,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2163" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58730,7 +58727,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2164" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58756,7 +58753,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2165" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58782,7 +58779,7 @@
         <v>4.75</v>
       </c>
       <c r="G2166" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58808,7 +58805,7 @@
         <v>4.75</v>
       </c>
       <c r="G2167" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58834,7 +58831,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2168" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58860,7 +58857,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2169" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58886,7 +58883,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2170" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58912,7 +58909,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2171" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58938,7 +58935,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2172" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58964,7 +58961,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2173" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58990,7 +58987,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2174" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -59016,7 +59013,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2175" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -59042,7 +59039,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2176" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -59068,7 +59065,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2177" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -59076,7 +59073,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.5922685185</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>235</v>
@@ -59094,7 +59091,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2178" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,85 +38,85 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87282109260559</t>
+    <t xml:space="preserve">3.87282085418701</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87105989456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458252906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86577606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8640148639679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78652381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74249410629272</t>
+    <t xml:space="preserve">3.87106013298035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86577558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86401510238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78652334213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7424943447113</t>
   </si>
   <si>
     <t xml:space="preserve">3.79532933235168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77771759033203</t>
+    <t xml:space="preserve">3.77771806716919</t>
   </si>
   <si>
     <t xml:space="preserve">3.62977957725525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.677330493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65443563461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66324162483215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6438684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48712420463562</t>
+    <t xml:space="preserve">3.67733097076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65443515777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.663241147995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64386868476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48712396621704</t>
   </si>
   <si>
     <t xml:space="preserve">3.61040616035461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68965935707092</t>
+    <t xml:space="preserve">3.68965888023376</t>
   </si>
   <si>
     <t xml:space="preserve">3.6667640209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6033616065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68085289001465</t>
+    <t xml:space="preserve">3.60336136817932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68085265159607</t>
   </si>
   <si>
     <t xml:space="preserve">3.56637716293335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53995895385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61568927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64915227890015</t>
+    <t xml:space="preserve">3.539959192276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6156895160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64915204048157</t>
   </si>
   <si>
     <t xml:space="preserve">3.65267419815063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65091276168823</t>
+    <t xml:space="preserve">3.65091323852539</t>
   </si>
   <si>
     <t xml:space="preserve">3.64210748672485</t>
@@ -128,28 +128,28 @@
     <t xml:space="preserve">3.71431565284729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75130081176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81294107437134</t>
+    <t xml:space="preserve">3.75130009651184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81294083595276</t>
   </si>
   <si>
     <t xml:space="preserve">3.79356837272644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86225390434265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81470203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80941915512085</t>
+    <t xml:space="preserve">3.86225438117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81470227241516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80941939353943</t>
   </si>
   <si>
     <t xml:space="preserve">3.73368811607361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73721051216125</t>
+    <t xml:space="preserve">3.73721075057983</t>
   </si>
   <si>
     <t xml:space="preserve">3.71255397796631</t>
@@ -158,73 +158,73 @@
     <t xml:space="preserve">3.73192715644836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72136044502258</t>
+    <t xml:space="preserve">3.721360206604</t>
   </si>
   <si>
     <t xml:space="preserve">3.76891231536865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76538991928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74953866004944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74601650238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73016595840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6984646320343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6861367225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72488307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82350754737854</t>
+    <t xml:space="preserve">3.76538968086243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74953842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74601721763611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73016619682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69846510887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68613624572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72488212585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82350873947144</t>
   </si>
   <si>
     <t xml:space="preserve">3.95383501052856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91861152648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446183204651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98377537727356</t>
+    <t xml:space="preserve">3.9186110496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9837749004364</t>
   </si>
   <si>
     <t xml:space="preserve">3.9432680606842</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91508913040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98553538322449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91332840919495</t>
+    <t xml:space="preserve">3.91508936882019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98553586006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91332793235779</t>
   </si>
   <si>
     <t xml:space="preserve">3.89395499229431</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96088027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219427108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622279167175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92741751670837</t>
+    <t xml:space="preserve">3.96087956428528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219403266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92741703987122</t>
   </si>
   <si>
     <t xml:space="preserve">3.88338828086853</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">4.02612924575806</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97220754623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018144607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759985923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04410219192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98299169540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423412322998</t>
+    <t xml:space="preserve">3.97220778465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99018120765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759914398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04410266876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98299217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423340797424</t>
   </si>
   <si>
     <t xml:space="preserve">3.93625950813293</t>
@@ -260,16 +260,16 @@
     <t xml:space="preserve">3.88233828544617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92727255821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92367839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8913254737854</t>
+    <t xml:space="preserve">3.92727279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92367815971375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89132523536682</t>
   </si>
   <si>
     <t xml:space="preserve">3.86436462402344</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">3.86256694793701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81943011283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799279212952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76550912857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475779533386</t>
+    <t xml:space="preserve">3.81942987442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70799255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76550841331482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475755691528</t>
   </si>
   <si>
     <t xml:space="preserve">3.61273121833801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67923426628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63070487976074</t>
+    <t xml:space="preserve">3.67923402786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6307053565979</t>
   </si>
   <si>
     <t xml:space="preserve">3.62171864509583</t>
@@ -311,58 +311,58 @@
     <t xml:space="preserve">3.68103194236755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57318949699402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61632633209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60374474525452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64688205718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69181609153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73675084114075</t>
+    <t xml:space="preserve">3.57318925857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61632657051086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6037449836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64688181877136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6918158531189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73675060272217</t>
   </si>
   <si>
     <t xml:space="preserve">3.75652146339417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80325388908386</t>
+    <t xml:space="preserve">3.8032534122467</t>
   </si>
   <si>
     <t xml:space="preserve">3.86616206169128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81763315200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81044316291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7924690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7439398765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77449584007263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7762930393219</t>
+    <t xml:space="preserve">3.8176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81044292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79246926307678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74394011497498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77449560165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067182540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629351615906</t>
   </si>
   <si>
     <t xml:space="preserve">3.78887462615967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74753499031067</t>
+    <t xml:space="preserve">3.74753475189209</t>
   </si>
   <si>
     <t xml:space="preserve">3.7511293888092</t>
@@ -374,22 +374,22 @@
     <t xml:space="preserve">3.7331554889679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78348255157471</t>
+    <t xml:space="preserve">3.78348278999329</t>
   </si>
   <si>
     <t xml:space="preserve">3.7241690158844</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77090096473694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72057414054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371145248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596597671509</t>
+    <t xml:space="preserve">3.77090072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72057390213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371121406555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596621513367</t>
   </si>
   <si>
     <t xml:space="preserve">3.70978951454163</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">3.7026002407074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73854804039001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956132888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237205505371</t>
+    <t xml:space="preserve">3.73854756355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237157821655</t>
   </si>
   <si>
     <t xml:space="preserve">3.72776365280151</t>
@@ -419,112 +419,112 @@
     <t xml:space="preserve">3.69541096687317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68462657928467</t>
+    <t xml:space="preserve">3.68462634086609</t>
   </si>
   <si>
     <t xml:space="preserve">3.69361352920532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66485571861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68822145462036</t>
+    <t xml:space="preserve">3.66485548019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68822121620178</t>
   </si>
   <si>
     <t xml:space="preserve">3.73135828971863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71338438987732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168559074402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83380913734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81224083900452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81583476066589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82661938667297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82841753959656</t>
+    <t xml:space="preserve">3.7133846282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168511390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8338086605072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81224060058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81583523750305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82661914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82841730117798</t>
   </si>
   <si>
     <t xml:space="preserve">3.92547535896301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93446230888367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188024520874</t>
+    <t xml:space="preserve">3.93446207046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188048362732</t>
   </si>
   <si>
     <t xml:space="preserve">3.90031218528748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87335085868835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84639143943787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83740401268005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514901161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94165205955505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929865837097</t>
+    <t xml:space="preserve">3.87335109710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84639096260071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83740377426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8751482963562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9416515827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929889678955</t>
   </si>
   <si>
     <t xml:space="preserve">3.95243573188782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98119354248047</t>
+    <t xml:space="preserve">3.98119401931763</t>
   </si>
   <si>
     <t xml:space="preserve">3.97939682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88413643836975</t>
+    <t xml:space="preserve">3.88413572311401</t>
   </si>
   <si>
     <t xml:space="preserve">3.9488410949707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87874293327332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01534366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02073669433594</t>
+    <t xml:space="preserve">3.87874364852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01534414291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073621749878</t>
   </si>
   <si>
     <t xml:space="preserve">4.00815486907959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04050827026367</t>
+    <t xml:space="preserve">4.04050731658936</t>
   </si>
   <si>
     <t xml:space="preserve">4.05308961868286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01714181900024</t>
+    <t xml:space="preserve">4.01714134216309</t>
   </si>
   <si>
     <t xml:space="preserve">4.06207656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07106351852417</t>
+    <t xml:space="preserve">4.07106304168701</t>
   </si>
   <si>
     <t xml:space="preserve">4.14295864105225</t>
@@ -539,46 +539,46 @@
     <t xml:space="preserve">4.40357780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37661695480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34606170654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34785938262939</t>
+    <t xml:space="preserve">4.37661743164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34606218338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34785985946655</t>
   </si>
   <si>
     <t xml:space="preserve">4.32808828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27237033843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11599779129028</t>
+    <t xml:space="preserve">4.27236938476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11599826812744</t>
   </si>
   <si>
     <t xml:space="preserve">4.03691339492798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98478865623474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04230499267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95603084564209</t>
+    <t xml:space="preserve">3.98478889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04230546951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95603060722351</t>
   </si>
   <si>
     <t xml:space="preserve">3.92008328437805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91828608512878</t>
+    <t xml:space="preserve">3.91828632354736</t>
   </si>
   <si>
     <t xml:space="preserve">3.94704437255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93266534805298</t>
+    <t xml:space="preserve">3.93266487121582</t>
   </si>
   <si>
     <t xml:space="preserve">3.84099864959717</t>
@@ -587,61 +587,58 @@
     <t xml:space="preserve">3.86795949935913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90390729904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94524598121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9635968208313</t>
+    <t xml:space="preserve">3.90390753746033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94524669647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96359658241272</t>
   </si>
   <si>
     <t xml:space="preserve">3.99112153053284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98194646835327</t>
+    <t xml:space="preserve">3.98194670677185</t>
   </si>
   <si>
     <t xml:space="preserve">4.06819152832031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94524693489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89019656181335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184596061707</t>
+    <t xml:space="preserve">3.89019632339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87184643745422</t>
   </si>
   <si>
     <t xml:space="preserve">3.92689681053162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06452083587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12874603271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17462110519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12691116333008</t>
+    <t xml:space="preserve">4.06452131271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.128746509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17462205886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12691164016724</t>
   </si>
   <si>
     <t xml:space="preserve">4.10672664642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05901622772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03699684143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99479126930237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05351209640503</t>
+    <t xml:space="preserve">4.05901575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03699636459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99479150772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05351161956787</t>
   </si>
   <si>
     <t xml:space="preserve">4.08287143707275</t>
@@ -650,22 +647,22 @@
     <t xml:space="preserve">4.03332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07369709014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09204578399658</t>
+    <t xml:space="preserve">4.07369661331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09204626083374</t>
   </si>
   <si>
     <t xml:space="preserve">4.08103656768799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05534648895264</t>
+    <t xml:space="preserve">4.05534696578979</t>
   </si>
   <si>
     <t xml:space="preserve">4.09021186828613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0626859664917</t>
+    <t xml:space="preserve">4.06268644332886</t>
   </si>
   <si>
     <t xml:space="preserve">4.15260124206543</t>
@@ -677,13 +674,13 @@
     <t xml:space="preserve">4.16544628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11039638519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09388113021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20948600769043</t>
+    <t xml:space="preserve">4.11039686203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09388160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20948648452759</t>
   </si>
   <si>
     <t xml:space="preserve">4.15443658828735</t>
@@ -704,46 +701,46 @@
     <t xml:space="preserve">4.15076637268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10305690765381</t>
+    <t xml:space="preserve">4.10305643081665</t>
   </si>
   <si>
     <t xml:space="preserve">4.17278575897217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11223077774048</t>
+    <t xml:space="preserve">4.11223173141479</t>
   </si>
   <si>
     <t xml:space="preserve">4.07002639770508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10122156143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16911697387695</t>
+    <t xml:space="preserve">4.10122108459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16911649703979</t>
   </si>
   <si>
     <t xml:space="preserve">4.18379640579224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21132135391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05167675018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01864671707153</t>
+    <t xml:space="preserve">4.21132183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09755182266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05167579650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01864624023438</t>
   </si>
   <si>
     <t xml:space="preserve">4.07920122146606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13425207138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21866130828857</t>
+    <t xml:space="preserve">4.13425159454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21866178512573</t>
   </si>
   <si>
     <t xml:space="preserve">4.13241624832153</t>
@@ -755,10 +752,10 @@
     <t xml:space="preserve">4.11590099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11773681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14709615707397</t>
+    <t xml:space="preserve">4.11773633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14709663391113</t>
   </si>
   <si>
     <t xml:space="preserve">4.1489315032959</t>
@@ -770,61 +767,61 @@
     <t xml:space="preserve">4.19297170639038</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99662661552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04433584213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561668395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94341158866882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02048110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92322659492493</t>
+    <t xml:space="preserve">3.99662613868713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04433631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561716079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94341135025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0204815864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92322635650635</t>
   </si>
   <si>
     <t xml:space="preserve">4.03516101837158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08654165267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04800653457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96726608276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92506146430969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91772127151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0002965927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97277188301086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93790650367737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99846124649048</t>
+    <t xml:space="preserve">4.08654117584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04800701141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96726655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92506122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91772150993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00029706954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97277164459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93790626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846148490906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04617118835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88102173805237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85349678993225</t>
+    <t xml:space="preserve">3.88102149963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85349655151367</t>
   </si>
   <si>
     <t xml:space="preserve">3.95442128181458</t>
@@ -833,40 +830,40 @@
     <t xml:space="preserve">3.83514642715454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89937114715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90854716300964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267161369324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597208023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78927206993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.807621717453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02039480209351</t>
+    <t xml:space="preserve">3.89937138557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90854692459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93607187271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86267185211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78927183151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80762147903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02039432525635</t>
   </si>
   <si>
     <t xml:space="preserve">4.04857397079468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03918075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97342705726624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99221420288086</t>
+    <t xml:space="preserve">4.03918123245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97342681884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99221348762512</t>
   </si>
   <si>
     <t xml:space="preserve">4.02978754043579</t>
@@ -875,13 +872,13 @@
     <t xml:space="preserve">3.96403336524963</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89827942848206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91706609725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77616453170776</t>
+    <t xml:space="preserve">3.89827919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9170663356781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77616429328918</t>
   </si>
   <si>
     <t xml:space="preserve">3.70101714134216</t>
@@ -890,13 +887,13 @@
     <t xml:space="preserve">3.75737762451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73859071731567</t>
+    <t xml:space="preserve">3.73859119415283</t>
   </si>
   <si>
     <t xml:space="preserve">3.71980404853821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71041059494019</t>
+    <t xml:space="preserve">3.71041035652161</t>
   </si>
   <si>
     <t xml:space="preserve">3.63526272773743</t>
@@ -911,28 +908,28 @@
     <t xml:space="preserve">3.42860722541809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28770565986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35345959663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33467292785645</t>
+    <t xml:space="preserve">3.28770542144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35345983505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33467268943787</t>
   </si>
   <si>
     <t xml:space="preserve">3.37224650382996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38163995742798</t>
+    <t xml:space="preserve">3.3816397190094</t>
   </si>
   <si>
     <t xml:space="preserve">3.45678758621216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46618103981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36285281181335</t>
+    <t xml:space="preserve">3.4661808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36285305023193</t>
   </si>
   <si>
     <t xml:space="preserve">3.44739413261414</t>
@@ -944,112 +941,115 @@
     <t xml:space="preserve">3.40042662620544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47557473182678</t>
+    <t xml:space="preserve">3.4755744934082</t>
   </si>
   <si>
     <t xml:space="preserve">3.49436116218567</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3158860206604</t>
+    <t xml:space="preserve">3.31588578224182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60708236694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56950879096985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50375485420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65405011177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48496794700623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68223023414612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59768915176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61647605895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66344332695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58829593658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5507218837738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53193497657776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56011557579041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57890200614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64465641975403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6728367805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314806938171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70352864265442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54921531677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62637209892273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58779358863831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66495037078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68423938751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78068566322327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7999746799469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74210715293884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81926393508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83855319023132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85784244537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76139640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72281765937805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64566111564636</t>
   </si>
   <si>
     <t xml:space="preserve">3.60708260536194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56950855255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50375485420227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65404963493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48496747016907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68223023414612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59768915176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61647605895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66344332695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58829569816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55072212219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53193497657776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56011533737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57890200614929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64465665817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6728367805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314806938171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70352864265442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54921507835388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62637186050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58779335021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66495013237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68423938751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78068566322327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79997491836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74210739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81926417350769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83855319023132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85784244537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76139640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72281789779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64566135406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56850457191467</t>
+    <t xml:space="preserve">3.56850433349609</t>
   </si>
   <si>
     <t xml:space="preserve">3.52992582321167</t>
@@ -1058,19 +1058,19 @@
     <t xml:space="preserve">3.47205829620361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51063656806946</t>
+    <t xml:space="preserve">3.51063680648804</t>
   </si>
   <si>
     <t xml:space="preserve">3.41419053077698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43347954750061</t>
+    <t xml:space="preserve">3.43347978591919</t>
   </si>
   <si>
     <t xml:space="preserve">3.45276880264282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37561225891113</t>
+    <t xml:space="preserve">3.37561202049255</t>
   </si>
   <si>
     <t xml:space="preserve">3.39490151405334</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">3.27916598320007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18271994590759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22129845619202</t>
+    <t xml:space="preserve">3.18272018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22129821777344</t>
   </si>
   <si>
     <t xml:space="preserve">3.14414167404175</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10556316375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0669846534729</t>
+    <t xml:space="preserve">3.1055634021759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06698489189148</t>
   </si>
   <si>
     <t xml:space="preserve">3.04769563674927</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">3.02840662002563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91267085075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85480356216431</t>
+    <t xml:space="preserve">2.91267108917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85480332374573</t>
   </si>
   <si>
     <t xml:space="preserve">2.71977877616882</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.83551406860352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.970538854599</t>
+    <t xml:space="preserve">2.97053861618042</t>
   </si>
   <si>
     <t xml:space="preserve">2.89338183403015</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">3.12485241889954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98982763290405</t>
+    <t xml:space="preserve">2.98982787132263</t>
   </si>
   <si>
     <t xml:space="preserve">2.95124959945679</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">2.81622505187988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79693603515625</t>
+    <t xml:space="preserve">2.79693579673767</t>
   </si>
   <si>
     <t xml:space="preserve">2.75835704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77764678001404</t>
+    <t xml:space="preserve">2.77764654159546</t>
   </si>
   <si>
     <t xml:space="preserve">2.73906803131104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54617595672607</t>
+    <t xml:space="preserve">2.54617619514465</t>
   </si>
   <si>
     <t xml:space="preserve">2.62333297729492</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">2.60404372215271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5847544670105</t>
+    <t xml:space="preserve">2.58475470542908</t>
   </si>
   <si>
     <t xml:space="preserve">2.50759768486023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46901893615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33399486541748</t>
+    <t xml:space="preserve">2.46901917457581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3339946269989</t>
   </si>
   <si>
     <t xml:space="preserve">2.16039180755615</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">2.21825933456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14110255241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23754858970642</t>
+    <t xml:space="preserve">2.14110279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23754835128784</t>
   </si>
   <si>
     <t xml:space="preserve">2.02536725997925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.198970079422</t>
+    <t xml:space="preserve">2.19897031784058</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683784484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29541611671448</t>
+    <t xml:space="preserve">2.25683760643005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29541635513306</t>
   </si>
   <si>
     <t xml:space="preserve">2.31470537185669</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">2.43044090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27612709999084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28577160835266</t>
+    <t xml:space="preserve">2.27612686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28577136993408</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436393737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36292862892151</t>
+    <t xml:space="preserve">2.36292839050293</t>
   </si>
   <si>
     <t xml:space="preserve">2.30506086349487</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">2.24719309806824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35328412055969</t>
+    <t xml:space="preserve">2.35328388214111</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435011863708</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">2.17968106269836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18932557106018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17003631591797</t>
+    <t xml:space="preserve">2.18932580947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17003655433655</t>
   </si>
   <si>
     <t xml:space="preserve">2.13145804405212</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">2.03501176834106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98678886890411</t>
+    <t xml:space="preserve">1.9867889881134</t>
   </si>
   <si>
     <t xml:space="preserve">1.92409884929657</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">1.92892122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93856573104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95785510540009</t>
+    <t xml:space="preserve">1.93856585025787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9578549861908</t>
   </si>
   <si>
     <t xml:space="preserve">2.20861482620239</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.15074706077576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37257289886475</t>
+    <t xml:space="preserve">2.37257313728333</t>
   </si>
   <si>
     <t xml:space="preserve">2.38221764564514</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">2.56546521186829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87409281730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66191124916077</t>
+    <t xml:space="preserve">2.87409257888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66191148757935</t>
   </si>
   <si>
     <t xml:space="preserve">2.64262199401855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59439921379089</t>
+    <t xml:space="preserve">2.59439897537231</t>
   </si>
   <si>
     <t xml:space="preserve">2.68120050430298</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">2.65226674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61368823051453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53653144836426</t>
+    <t xml:space="preserve">2.61368846893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53653168678284</t>
   </si>
   <si>
     <t xml:space="preserve">2.52688670158386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51724219322205</t>
+    <t xml:space="preserve">2.51724195480347</t>
   </si>
   <si>
     <t xml:space="preserve">2.70048975944519</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">2.71013426780701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69084501266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72942352294922</t>
+    <t xml:space="preserve">2.69084525108337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72942328453064</t>
   </si>
   <si>
     <t xml:space="preserve">2.78729128837585</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">2.99947237968445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98018288612366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9608941078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03805112838745</t>
+    <t xml:space="preserve">2.98018336296082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96089386940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03805088996887</t>
   </si>
   <si>
     <t xml:space="preserve">3.16343069076538</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">3.17307543754578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13449692726135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15378594398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26952171325684</t>
+    <t xml:space="preserve">3.13449716567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15378642082214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26952147483826</t>
   </si>
   <si>
     <t xml:space="preserve">3.25987696647644</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">3.32738900184631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25023221969604</t>
+    <t xml:space="preserve">3.25023198127747</t>
   </si>
   <si>
     <t xml:space="preserve">3.09591865539551</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">3.01876187324524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05734014511108</t>
+    <t xml:space="preserve">3.05734038352966</t>
   </si>
   <si>
     <t xml:space="preserve">2.92231559753418</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.90302634239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88373732566833</t>
+    <t xml:space="preserve">2.88373708724976</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">2.84515881538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80658054351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11520791053772</t>
+    <t xml:space="preserve">2.80658030509949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11520767211914</t>
   </si>
   <si>
     <t xml:space="preserve">3.28881072998047</t>
@@ -1445,31 +1445,31 @@
     <t xml:space="preserve">3.59743809700012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67459464073181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71317338943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79033041000366</t>
+    <t xml:space="preserve">3.67459511756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71317315101624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79033017158508</t>
   </si>
   <si>
     <t xml:space="preserve">3.88677644729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95428824424744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94464421272278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9832227230072</t>
+    <t xml:space="preserve">3.95428848266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9446439743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98322248458862</t>
   </si>
   <si>
     <t xml:space="preserve">4.0507345199585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97357773780823</t>
+    <t xml:space="preserve">3.97357797622681</t>
   </si>
   <si>
     <t xml:space="preserve">4.07002353668213</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">4.34971761703491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34007263183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794015884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42687463760376</t>
+    <t xml:space="preserve">4.3400731086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794063568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4268741607666</t>
   </si>
   <si>
     <t xml:space="preserve">4.45580768585205</t>
@@ -1508,19 +1508,19 @@
     <t xml:space="preserve">4.08931255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03144502639771</t>
+    <t xml:space="preserve">4.03144550323486</t>
   </si>
   <si>
     <t xml:space="preserve">4.24362659454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31113862991333</t>
+    <t xml:space="preserve">4.31113910675049</t>
   </si>
   <si>
     <t xml:space="preserve">4.2918496131897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40758514404297</t>
+    <t xml:space="preserve">4.40758562088013</t>
   </si>
   <si>
     <t xml:space="preserve">4.50403070449829</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">4.43651866912842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36900663375854</t>
+    <t xml:space="preserve">4.3690071105957</t>
   </si>
   <si>
     <t xml:space="preserve">4.1278920173645</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">4.25327157974243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1857590675354</t>
+    <t xml:space="preserve">4.18575954437256</t>
   </si>
   <si>
     <t xml:space="preserve">4.14718055725098</t>
@@ -1556,31 +1556,31 @@
     <t xml:space="preserve">4.0796685218811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17611408233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33042764663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51367568969727</t>
+    <t xml:space="preserve">4.17611455917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33042812347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51367521286011</t>
   </si>
   <si>
     <t xml:space="preserve">4.46545267105103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37865114212036</t>
+    <t xml:space="preserve">4.37865161895752</t>
   </si>
   <si>
     <t xml:space="preserve">4.48474168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47509717941284</t>
+    <t xml:space="preserve">4.47509670257568</t>
   </si>
   <si>
     <t xml:space="preserve">4.49438619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44616365432739</t>
+    <t xml:space="preserve">4.44616317749023</t>
   </si>
   <si>
     <t xml:space="preserve">4.41722965240479</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">4.80301380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72585725784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63905572891235</t>
+    <t xml:space="preserve">4.72585678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6390552520752</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
@@ -1604,22 +1604,22 @@
     <t xml:space="preserve">4.61012172698975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57154321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27256059646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11824703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15682458877563</t>
+    <t xml:space="preserve">4.57154273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27256011962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11824655532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15682554244995</t>
   </si>
   <si>
     <t xml:space="preserve">4.38829612731934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54260969161987</t>
+    <t xml:space="preserve">4.54260921478271</t>
   </si>
   <si>
     <t xml:space="preserve">4.61976623535156</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">5.01519536972046</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45884704589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5938720703125</t>
+    <t xml:space="preserve">5.45884656906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59387159347534</t>
   </si>
   <si>
     <t xml:space="preserve">5.4974250793457</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">5.42026853561401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38169002532959</t>
+    <t xml:space="preserve">5.38169050216675</t>
   </si>
   <si>
     <t xml:space="preserve">4.86088180541992</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">4.84159231185913</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93803787231445</t>
+    <t xml:space="preserve">4.93803834915161</t>
   </si>
   <si>
     <t xml:space="preserve">4.73550176620483</t>
@@ -11809,7 +11809,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G359" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11835,7 +11835,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G360" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11861,7 +11861,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G361" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11887,7 +11887,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G362" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11913,7 +11913,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G363" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11939,7 +11939,7 @@
         <v>4.5</v>
       </c>
       <c r="G364" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11965,7 +11965,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G365" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11991,7 +11991,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G366" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12017,7 +12017,7 @@
         <v>4.47599983215332</v>
       </c>
       <c r="G367" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12043,7 +12043,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G368" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12069,7 +12069,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12121,7 +12121,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G371" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12147,7 +12147,7 @@
         <v>4.35400009155273</v>
       </c>
       <c r="G372" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12173,7 +12173,7 @@
         <v>4.41800022125244</v>
       </c>
       <c r="G373" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12199,7 +12199,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G374" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12225,7 +12225,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G375" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12251,7 +12251,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G376" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12277,7 +12277,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G377" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12303,7 +12303,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G378" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12329,7 +12329,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G379" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12355,7 +12355,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G380" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12381,7 +12381,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G381" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12407,7 +12407,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G382" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12433,7 +12433,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12459,7 +12459,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G384" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12485,7 +12485,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G385" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12511,7 +12511,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G386" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12537,7 +12537,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G387" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12563,7 +12563,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G388" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12589,7 +12589,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12615,7 +12615,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G390" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12641,7 +12641,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G391" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12667,7 +12667,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12693,7 +12693,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G393" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12719,7 +12719,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G394" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12745,7 +12745,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12771,7 +12771,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G396" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12797,7 +12797,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G397" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12823,7 +12823,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G398" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12849,7 +12849,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12875,7 +12875,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12901,7 +12901,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G401" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12927,7 +12927,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G402" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12953,7 +12953,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G403" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12979,7 +12979,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G404" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13005,7 +13005,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G405" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13031,7 +13031,7 @@
         <v>4.58799982070923</v>
       </c>
       <c r="G406" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13057,7 +13057,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G407" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13083,7 +13083,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G408" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13109,7 +13109,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G409" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13135,7 +13135,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G410" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13161,7 +13161,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G411" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13187,7 +13187,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G412" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13213,7 +13213,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G413" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13239,7 +13239,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G414" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13265,7 +13265,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G415" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13291,7 +13291,7 @@
         <v>4.52400016784668</v>
       </c>
       <c r="G416" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13317,7 +13317,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13343,7 +13343,7 @@
         <v>4.5</v>
       </c>
       <c r="G418" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13369,7 +13369,7 @@
         <v>4.5</v>
       </c>
       <c r="G419" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13395,7 +13395,7 @@
         <v>4.47200012207031</v>
       </c>
       <c r="G420" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13421,7 +13421,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G421" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13447,7 +13447,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G422" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13473,7 +13473,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G423" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13499,7 +13499,7 @@
         <v>4.48199987411499</v>
       </c>
       <c r="G424" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13525,7 +13525,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G425" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13551,7 +13551,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G426" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13577,7 +13577,7 @@
         <v>4.5</v>
       </c>
       <c r="G427" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13603,7 +13603,7 @@
         <v>4.5</v>
       </c>
       <c r="G428" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13629,7 +13629,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G429" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13655,7 +13655,7 @@
         <v>4.54400014877319</v>
       </c>
       <c r="G430" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13681,7 +13681,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G431" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13707,7 +13707,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13733,7 +13733,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G433" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13759,7 +13759,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13785,7 +13785,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13811,7 +13811,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13837,7 +13837,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G437" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13863,7 +13863,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G438" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13889,7 +13889,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G439" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13915,7 +13915,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G440" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13941,7 +13941,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G441" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13967,7 +13967,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G442" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13993,7 +13993,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G443" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14019,7 +14019,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G444" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14045,7 +14045,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G445" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14071,7 +14071,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G446" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14097,7 +14097,7 @@
         <v>4.5</v>
       </c>
       <c r="G447" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14123,7 +14123,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G448" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14149,7 +14149,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G449" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14175,7 +14175,7 @@
         <v>4.5</v>
       </c>
       <c r="G450" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14201,7 +14201,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G451" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14227,7 +14227,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G452" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14253,7 +14253,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G453" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14279,7 +14279,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G454" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14305,7 +14305,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G455" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14331,7 +14331,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G456" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14357,7 +14357,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G457" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14383,7 +14383,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14409,7 +14409,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G459" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14435,7 +14435,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G460" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14461,7 +14461,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14487,7 +14487,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G462" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14513,7 +14513,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G463" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14539,7 +14539,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G464" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14565,7 +14565,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G465" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14591,7 +14591,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G466" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14617,7 +14617,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G467" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14643,7 +14643,7 @@
         <v>4.5</v>
       </c>
       <c r="G468" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14669,7 +14669,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G469" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14695,7 +14695,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14721,7 +14721,7 @@
         <v>4.5</v>
       </c>
       <c r="G471" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14747,7 +14747,7 @@
         <v>4.5</v>
       </c>
       <c r="G472" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14773,7 +14773,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G473" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14799,7 +14799,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G474" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14825,7 +14825,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G475" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14851,7 +14851,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G476" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14877,7 +14877,7 @@
         <v>4.56799983978271</v>
       </c>
       <c r="G477" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14903,7 +14903,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G478" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14929,7 +14929,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G479" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14955,7 +14955,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G480" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14981,7 +14981,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G481" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15007,7 +15007,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G482" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15033,7 +15033,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G483" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15059,7 +15059,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G484" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15085,7 +15085,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G485" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15137,7 +15137,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G487" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15163,7 +15163,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15189,7 +15189,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G489" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15215,7 +15215,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G490" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15241,7 +15241,7 @@
         <v>4.38199996948242</v>
       </c>
       <c r="G491" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15267,7 +15267,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G492" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15293,7 +15293,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15319,7 +15319,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G494" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15345,7 +15345,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G495" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15371,7 +15371,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G496" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15397,7 +15397,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15423,7 +15423,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G498" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15449,7 +15449,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G499" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15475,7 +15475,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G500" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15501,7 +15501,7 @@
         <v>4.41200017929077</v>
       </c>
       <c r="G501" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15527,7 +15527,7 @@
         <v>4.32399988174438</v>
       </c>
       <c r="G502" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15553,7 +15553,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G503" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15579,7 +15579,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G504" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15605,7 +15605,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G505" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15631,7 +15631,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G506" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15657,7 +15657,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G507" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15683,7 +15683,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15709,7 +15709,7 @@
         <v>4.29199981689453</v>
       </c>
       <c r="G509" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15735,7 +15735,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G510" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15761,7 +15761,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G511" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15787,7 +15787,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15813,7 +15813,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G513" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15839,7 +15839,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G514" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15865,7 +15865,7 @@
         <v>4.5</v>
       </c>
       <c r="G515" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15891,7 +15891,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G516" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15917,7 +15917,7 @@
         <v>4.5</v>
       </c>
       <c r="G517" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15943,7 +15943,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G518" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15969,7 +15969,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15995,7 +15995,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G520" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16021,7 +16021,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G521" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16047,7 +16047,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G522" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16073,7 +16073,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G523" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16099,7 +16099,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G524" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16125,7 +16125,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G525" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16151,7 +16151,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G526" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16177,7 +16177,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G527" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16203,7 +16203,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G528" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16229,7 +16229,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G529" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16255,7 +16255,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16281,7 +16281,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G531" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16307,7 +16307,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16385,7 +16385,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G535" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16411,7 +16411,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G536" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16437,7 +16437,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G537" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16463,7 +16463,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16489,7 +16489,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G539" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16515,7 +16515,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16541,7 +16541,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G541" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16567,7 +16567,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G542" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16593,7 +16593,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G543" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16619,7 +16619,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16645,7 +16645,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G545" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16671,7 +16671,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G546" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16697,7 +16697,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G547" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16723,7 +16723,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G548" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16749,7 +16749,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16801,7 +16801,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G551" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16827,7 +16827,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16853,7 +16853,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G553" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16879,7 +16879,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G554" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16905,7 +16905,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G555" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16931,7 +16931,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G556" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16957,7 +16957,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G557" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16983,7 +16983,7 @@
         <v>4.25</v>
       </c>
       <c r="G558" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17009,7 +17009,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G559" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17035,7 +17035,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G560" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17061,7 +17061,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G561" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17087,7 +17087,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G562" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17113,7 +17113,7 @@
         <v>4.25</v>
       </c>
       <c r="G563" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17139,7 +17139,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G564" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17165,7 +17165,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G565" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17191,7 +17191,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17243,7 +17243,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17269,7 +17269,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G569" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17295,7 +17295,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17321,7 +17321,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17347,7 +17347,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17373,7 +17373,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17399,7 +17399,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G574" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17425,7 +17425,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G575" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17451,7 +17451,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G576" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17477,7 +17477,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G577" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17503,7 +17503,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G578" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17529,7 +17529,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G579" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17555,7 +17555,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G580" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17581,7 +17581,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G581" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17607,7 +17607,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G582" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17633,7 +17633,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17659,7 +17659,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17685,7 +17685,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G585" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17711,7 +17711,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G586" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17763,7 +17763,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17789,7 +17789,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17815,7 +17815,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G590" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17841,7 +17841,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G591" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17867,7 +17867,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G592" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17893,7 +17893,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G593" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17919,7 +17919,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G594" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17945,7 +17945,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G595" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17971,7 +17971,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G596" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17997,7 +17997,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18023,7 +18023,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18049,7 +18049,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18075,7 +18075,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G600" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18101,7 +18101,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18127,7 +18127,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G602" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18205,7 +18205,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G605" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18231,7 +18231,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18283,7 +18283,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G608" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18309,7 +18309,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G609" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18335,7 +18335,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18361,7 +18361,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G611" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18387,7 +18387,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G612" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18413,7 +18413,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18439,7 +18439,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G614" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18465,7 +18465,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G615" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18491,7 +18491,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G616" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18517,7 +18517,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G617" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18543,7 +18543,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G618" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18569,7 +18569,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G619" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18595,7 +18595,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18621,7 +18621,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G621" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18647,7 +18647,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G622" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18673,7 +18673,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G623" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18699,7 +18699,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G624" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18725,7 +18725,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G625" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18751,7 +18751,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18777,7 +18777,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18803,7 +18803,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18829,7 +18829,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G629" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18855,7 +18855,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18881,7 +18881,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18959,7 +18959,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G634" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18985,7 +18985,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19011,7 +19011,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19037,7 +19037,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G637" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19063,7 +19063,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19089,7 +19089,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G639" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19115,7 +19115,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G640" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19141,7 +19141,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G641" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19167,7 +19167,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G642" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19193,7 +19193,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19219,7 +19219,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G644" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19245,7 +19245,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G645" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19271,7 +19271,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G646" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19453,7 +19453,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G653" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19479,7 +19479,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19505,7 +19505,7 @@
         <v>4.25</v>
       </c>
       <c r="G655" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19531,7 +19531,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19557,7 +19557,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G657" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19583,7 +19583,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G658" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19609,7 +19609,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G659" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19635,7 +19635,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19661,7 +19661,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G661" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19687,7 +19687,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G662" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19713,7 +19713,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19739,7 +19739,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G664" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19765,7 +19765,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G665" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19791,7 +19791,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19817,7 +19817,7 @@
         <v>4.25</v>
       </c>
       <c r="G667" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19843,7 +19843,7 @@
         <v>4.25</v>
       </c>
       <c r="G668" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19869,7 +19869,7 @@
         <v>4.25</v>
       </c>
       <c r="G669" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19895,7 +19895,7 @@
         <v>4.25</v>
       </c>
       <c r="G670" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19921,7 +19921,7 @@
         <v>4.25</v>
       </c>
       <c r="G671" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19947,7 +19947,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19973,7 +19973,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19999,7 +19999,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20077,7 +20077,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G677" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20103,7 +20103,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G678" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20129,7 +20129,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G679" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20155,7 +20155,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20181,7 +20181,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20207,7 +20207,7 @@
         <v>4.25</v>
       </c>
       <c r="G682" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20233,7 +20233,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G683" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20259,7 +20259,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G684" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20285,7 +20285,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20311,7 +20311,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G686" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20337,7 +20337,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20363,7 +20363,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G688" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20389,7 +20389,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G689" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20415,7 +20415,7 @@
         <v>4.25</v>
       </c>
       <c r="G690" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20441,7 +20441,7 @@
         <v>4.25</v>
       </c>
       <c r="G691" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20467,7 +20467,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20493,7 +20493,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G693" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20519,7 +20519,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G694" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20545,7 +20545,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20571,7 +20571,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G696" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20597,7 +20597,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G697" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20623,7 +20623,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G698" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20649,7 +20649,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20675,7 +20675,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G700" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20701,7 +20701,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G701" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20727,7 +20727,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20753,7 +20753,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20779,7 +20779,7 @@
         <v>4.25</v>
       </c>
       <c r="G704" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20805,7 +20805,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20831,7 +20831,7 @@
         <v>4.25</v>
       </c>
       <c r="G706" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20857,7 +20857,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G707" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20883,7 +20883,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20909,7 +20909,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20935,7 +20935,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G710" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20961,7 +20961,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G711" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20987,7 +20987,7 @@
         <v>4</v>
       </c>
       <c r="G712" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21013,7 +21013,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G713" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21039,7 +21039,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21065,7 +21065,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21091,7 +21091,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G716" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21117,7 +21117,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G717" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21143,7 +21143,7 @@
         <v>3.75</v>
       </c>
       <c r="G718" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21169,7 +21169,7 @@
         <v>3.75</v>
       </c>
       <c r="G719" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21195,7 +21195,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G720" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21221,7 +21221,7 @@
         <v>3.5</v>
       </c>
       <c r="G721" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21247,7 +21247,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G722" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21273,7 +21273,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G723" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21299,7 +21299,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G724" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21325,7 +21325,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G725" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21351,7 +21351,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21377,7 +21377,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G727" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21403,7 +21403,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G728" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21429,7 +21429,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21455,7 +21455,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G730" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21481,7 +21481,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21507,7 +21507,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G732" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21533,7 +21533,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G733" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21559,7 +21559,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21585,7 +21585,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G735" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21611,7 +21611,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G736" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21637,7 +21637,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21663,7 +21663,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21689,7 +21689,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G739" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21715,7 +21715,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G740" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21741,7 +21741,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G741" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21767,7 +21767,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G742" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21793,7 +21793,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G743" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21819,7 +21819,7 @@
         <v>3.75</v>
       </c>
       <c r="G744" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21845,7 +21845,7 @@
         <v>3.75</v>
       </c>
       <c r="G745" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21871,7 +21871,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21897,7 +21897,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G747" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21923,7 +21923,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21949,7 +21949,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G749" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21975,7 +21975,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G750" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22001,7 +22001,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G751" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22027,7 +22027,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G752" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22053,7 +22053,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G753" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22079,7 +22079,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G754" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22105,7 +22105,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G755" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22131,7 +22131,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G756" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22157,7 +22157,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22183,7 +22183,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G758" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22209,7 +22209,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22235,7 +22235,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G760" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22261,7 +22261,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22287,7 +22287,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22313,7 +22313,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G763" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22339,7 +22339,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G764" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22365,7 +22365,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G765" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22391,7 +22391,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G766" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22417,7 +22417,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G767" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22443,7 +22443,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G768" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22469,7 +22469,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22495,7 +22495,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G770" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22521,7 +22521,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G771" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22547,7 +22547,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22573,7 +22573,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22599,7 +22599,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G774" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22625,7 +22625,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G775" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22651,7 +22651,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G776" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22677,7 +22677,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G777" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22703,7 +22703,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G778" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22729,7 +22729,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G779" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22755,7 +22755,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G780" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22781,7 +22781,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G781" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22807,7 +22807,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G782" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22833,7 +22833,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G783" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22859,7 +22859,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G784" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22885,7 +22885,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G785" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22911,7 +22911,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G786" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22937,7 +22937,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G787" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22963,7 +22963,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G788" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22989,7 +22989,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G789" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23015,7 +23015,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23041,7 +23041,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G791" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23067,7 +23067,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G792" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23093,7 +23093,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23119,7 +23119,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G794" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23145,7 +23145,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G795" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23171,7 +23171,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G796" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23197,7 +23197,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23223,7 +23223,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G798" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23249,7 +23249,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G799" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23275,7 +23275,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G800" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23301,7 +23301,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G801" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23327,7 +23327,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G802" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23353,7 +23353,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G803" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23379,7 +23379,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G804" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23405,7 +23405,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G805" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23431,7 +23431,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G806" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23457,7 +23457,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G807" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23483,7 +23483,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G808" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23509,7 +23509,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G809" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23535,7 +23535,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G810" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23561,7 +23561,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G811" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23587,7 +23587,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23613,7 +23613,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G813" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23639,7 +23639,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G814" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23665,7 +23665,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G815" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23691,7 +23691,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23717,7 +23717,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G817" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23743,7 +23743,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G818" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23769,7 +23769,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G819" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23795,7 +23795,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G820" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23821,7 +23821,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G821" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23847,7 +23847,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G822" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23873,7 +23873,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23899,7 +23899,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G824" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23925,7 +23925,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23951,7 +23951,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G826" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23977,7 +23977,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G827" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24003,7 +24003,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G828" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24029,7 +24029,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G829" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24055,7 +24055,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G830" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24081,7 +24081,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24107,7 +24107,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G832" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24133,7 +24133,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G833" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24159,7 +24159,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24185,7 +24185,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G835" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24211,7 +24211,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24237,7 +24237,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24263,7 +24263,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G838" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24289,7 +24289,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G839" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24315,7 +24315,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G840" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24341,7 +24341,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G841" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24367,7 +24367,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24393,7 +24393,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G843" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24419,7 +24419,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24445,7 +24445,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G845" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24471,7 +24471,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G846" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24497,7 +24497,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G847" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24523,7 +24523,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24549,7 +24549,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G849" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24575,7 +24575,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24601,7 +24601,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G851" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24627,7 +24627,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G852" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24653,7 +24653,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G853" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24679,7 +24679,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G854" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24705,7 +24705,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G855" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24731,7 +24731,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G856" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24757,7 +24757,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G857" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24783,7 +24783,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G858" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24809,7 +24809,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G859" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24835,7 +24835,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G860" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24861,7 +24861,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G861" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24887,7 +24887,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G862" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24913,7 +24913,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24939,7 +24939,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G864" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24965,7 +24965,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G865" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24991,7 +24991,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G866" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25017,7 +25017,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G867" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25043,7 +25043,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G868" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25069,7 +25069,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G869" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25095,7 +25095,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G870" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25121,7 +25121,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G871" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25147,7 +25147,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G872" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25173,7 +25173,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25199,7 +25199,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G874" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25225,7 +25225,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G875" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25251,7 +25251,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G876" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25277,7 +25277,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G877" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25303,7 +25303,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25329,7 +25329,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G879" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25355,7 +25355,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G880" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25381,7 +25381,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G881" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25407,7 +25407,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G882" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25433,7 +25433,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G883" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25459,7 +25459,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G884" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25485,7 +25485,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G885" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25511,7 +25511,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G886" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25537,7 +25537,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G887" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25563,7 +25563,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25589,7 +25589,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G889" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25615,7 +25615,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G890" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25641,7 +25641,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G891" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25667,7 +25667,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G892" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25693,7 +25693,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G893" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25719,7 +25719,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G894" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25745,7 +25745,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25771,7 +25771,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25797,7 +25797,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G897" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25823,7 +25823,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25849,7 +25849,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25875,7 +25875,7 @@
         <v>4</v>
       </c>
       <c r="G900" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25901,7 +25901,7 @@
         <v>4</v>
       </c>
       <c r="G901" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25927,7 +25927,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G902" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25953,7 +25953,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G903" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25979,7 +25979,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26005,7 +26005,7 @@
         <v>4</v>
       </c>
       <c r="G905" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26031,7 +26031,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G906" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26057,7 +26057,7 @@
         <v>4</v>
       </c>
       <c r="G907" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26083,7 +26083,7 @@
         <v>4</v>
       </c>
       <c r="G908" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26109,7 +26109,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G909" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26135,7 +26135,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G910" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26161,7 +26161,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26187,7 +26187,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G912" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26213,7 +26213,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G913" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26239,7 +26239,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G914" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26265,7 +26265,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G915" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26291,7 +26291,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G916" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26317,7 +26317,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G917" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26369,7 +26369,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G919" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26395,7 +26395,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G920" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26421,7 +26421,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G921" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26447,7 +26447,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G922" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26473,7 +26473,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G923" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26499,7 +26499,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G924" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26551,7 +26551,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G926" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26577,7 +26577,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G927" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26603,7 +26603,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G928" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26629,7 +26629,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G929" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26655,7 +26655,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G930" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26681,7 +26681,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G931" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26707,7 +26707,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G932" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26733,7 +26733,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G933" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26759,7 +26759,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26785,7 +26785,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G935" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26837,7 +26837,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G937" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26863,7 +26863,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G938" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26889,7 +26889,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G939" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -42177,7 +42177,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1527" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42203,7 +42203,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1528" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42229,7 +42229,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1529" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42307,7 +42307,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1532" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -59215,7 +59215,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6127430556</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>272</v>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87282085418701</t>
+    <t xml:space="preserve">3.87282133102417</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
@@ -47,40 +47,40 @@
     <t xml:space="preserve">3.87106013298035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87458229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86577558517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86401510238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78652334213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7424943447113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532933235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77771806716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62977957725525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733097076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65443515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.663241147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64386868476868</t>
+    <t xml:space="preserve">3.87458276748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86577653884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86401534080505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78652381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74249458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532885551453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77771711349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62977910041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67733073234558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65443563461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66324162483215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6438684463501</t>
   </si>
   <si>
     <t xml:space="preserve">3.48712396621704</t>
@@ -89,142 +89,142 @@
     <t xml:space="preserve">3.61040616035461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68965888023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6667640209198</t>
+    <t xml:space="preserve">3.6896595954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66676378250122</t>
   </si>
   <si>
     <t xml:space="preserve">3.60336136817932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68085265159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56637716293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.539959192276</t>
+    <t xml:space="preserve">3.68085289001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56637692451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53995895385742</t>
   </si>
   <si>
     <t xml:space="preserve">3.6156895160675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64915204048157</t>
+    <t xml:space="preserve">3.64915227890015</t>
   </si>
   <si>
     <t xml:space="preserve">3.65267419815063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65091323852539</t>
+    <t xml:space="preserve">3.65091276168823</t>
   </si>
   <si>
     <t xml:space="preserve">3.64210748672485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59455513954163</t>
+    <t xml:space="preserve">3.59455561637878</t>
   </si>
   <si>
     <t xml:space="preserve">3.71431565284729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75130009651184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81294083595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356837272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225438117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81470227241516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80941939353943</t>
+    <t xml:space="preserve">3.751300573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81294131278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.814701795578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80941867828369</t>
   </si>
   <si>
     <t xml:space="preserve">3.73368811607361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73721075057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71255397796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73192715644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.721360206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76891231536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76538968086243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74953842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74601721763611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73016619682312</t>
+    <t xml:space="preserve">3.73721051216125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71255421638489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73192739486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72136044502258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76891207695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76538944244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74953889846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74601674079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73016595840454</t>
   </si>
   <si>
     <t xml:space="preserve">3.69846510887146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68613624572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72488212585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82350873947144</t>
+    <t xml:space="preserve">3.68613696098328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72488284111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82350778579712</t>
   </si>
   <si>
     <t xml:space="preserve">3.95383501052856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9186110496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9837749004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9432680606842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508936882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98553586006165</t>
+    <t xml:space="preserve">3.91861152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446135520935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98377561569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326758384705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508913040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9855363368988</t>
   </si>
   <si>
     <t xml:space="preserve">3.91332793235779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89395499229431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96087956428528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219403266907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622350692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92741703987122</t>
+    <t xml:space="preserve">3.89395546913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96087980270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219427108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622326850891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92741751670837</t>
   </si>
   <si>
     <t xml:space="preserve">3.88338828086853</t>
@@ -233,43 +233,43 @@
     <t xml:space="preserve">3.99916791915894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02612924575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220778465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018120765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759914398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04410266876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98299217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423340797424</t>
+    <t xml:space="preserve">4.0261287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99018144607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759985923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04410219192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98299169540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423412322998</t>
   </si>
   <si>
     <t xml:space="preserve">3.93625950813293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88233828544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92727279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92367815971375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89132523536682</t>
+    <t xml:space="preserve">3.88233780860901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92727255821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92367887496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8913254737854</t>
   </si>
   <si>
     <t xml:space="preserve">3.86436462402344</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">3.86256694793701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81942987442017</t>
+    <t xml:space="preserve">3.81943011283875</t>
   </si>
   <si>
     <t xml:space="preserve">3.70799255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76550841331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475755691528</t>
+    <t xml:space="preserve">3.76550912857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475779533386</t>
   </si>
   <si>
     <t xml:space="preserve">3.61273121833801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67923402786255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6307053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62171864509583</t>
+    <t xml:space="preserve">3.67923426628113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63070487976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62171840667725</t>
   </si>
   <si>
     <t xml:space="preserve">3.65766596794128</t>
@@ -311,34 +311,34 @@
     <t xml:space="preserve">3.68103194236755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57318925857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61632657051086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6037449836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64688181877136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6918158531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73675060272217</t>
+    <t xml:space="preserve">3.57318949699402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61632633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60374474525452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64688205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69181609153748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73675084114075</t>
   </si>
   <si>
     <t xml:space="preserve">3.75652146339417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8032534122467</t>
+    <t xml:space="preserve">3.80325365066528</t>
   </si>
   <si>
     <t xml:space="preserve">3.86616206169128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8176326751709</t>
+    <t xml:space="preserve">3.81763291358948</t>
   </si>
   <si>
     <t xml:space="preserve">3.81044292449951</t>
@@ -350,25 +350,25 @@
     <t xml:space="preserve">3.74394011497498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77449560165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067182540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77629351615906</t>
+    <t xml:space="preserve">3.77449584007263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629327774048</t>
   </si>
   <si>
     <t xml:space="preserve">3.78887462615967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74753475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7511293888092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80145621299744</t>
+    <t xml:space="preserve">3.74753499031067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75112962722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80145645141602</t>
   </si>
   <si>
     <t xml:space="preserve">3.7331554889679</t>
@@ -377,19 +377,19 @@
     <t xml:space="preserve">3.78348278999329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7241690158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77090072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72057390213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371121406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596621513367</t>
+    <t xml:space="preserve">3.72416925430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77090120315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72057437896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371169090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596597671509</t>
   </si>
   <si>
     <t xml:space="preserve">3.70978951454163</t>
@@ -398,19 +398,19 @@
     <t xml:space="preserve">3.7026002407074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73854756355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237157821655</t>
+    <t xml:space="preserve">3.73854827880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956132888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237205505371</t>
   </si>
   <si>
     <t xml:space="preserve">3.72776365280151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75292730331421</t>
+    <t xml:space="preserve">3.75292706489563</t>
   </si>
   <si>
     <t xml:space="preserve">3.75831937789917</t>
@@ -419,112 +419,112 @@
     <t xml:space="preserve">3.69541096687317</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68462634086609</t>
+    <t xml:space="preserve">3.68462657928467</t>
   </si>
   <si>
     <t xml:space="preserve">3.69361352920532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66485548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68822121620178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73135828971863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7133846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168511390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8338086605072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81224060058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81583523750305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82661914825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82841730117798</t>
+    <t xml:space="preserve">3.66485571861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68822145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73135852813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338438987732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168559074402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83380913734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81224083900452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81583499908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82661938667297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82841753959656</t>
   </si>
   <si>
     <t xml:space="preserve">3.92547535896301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93446207046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188048362732</t>
+    <t xml:space="preserve">3.93446230888367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188024520874</t>
   </si>
   <si>
     <t xml:space="preserve">3.90031218528748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87335109710693</t>
+    <t xml:space="preserve">3.87335085868835</t>
   </si>
   <si>
     <t xml:space="preserve">3.84639096260071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83740377426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8751482963562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9416515827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929889678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95243573188782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98119401931763</t>
+    <t xml:space="preserve">3.83740401268005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514853477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94165205955505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929913520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95243620872498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98119354248047</t>
   </si>
   <si>
     <t xml:space="preserve">3.97939682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88413572311401</t>
+    <t xml:space="preserve">3.88413596153259</t>
   </si>
   <si>
     <t xml:space="preserve">3.9488410949707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87874364852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01534414291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02073621749878</t>
+    <t xml:space="preserve">3.87874293327332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01534366607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073669433594</t>
   </si>
   <si>
     <t xml:space="preserve">4.00815486907959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04050731658936</t>
+    <t xml:space="preserve">4.04050779342651</t>
   </si>
   <si>
     <t xml:space="preserve">4.05308961868286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01714134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06207656860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07106304168701</t>
+    <t xml:space="preserve">4.01714181900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06207609176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07106351852417</t>
   </si>
   <si>
     <t xml:space="preserve">4.14295864105225</t>
@@ -533,112 +533,115 @@
     <t xml:space="preserve">4.06926584243774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08903741836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40357780456543</t>
+    <t xml:space="preserve">4.08903789520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40357828140259</t>
   </si>
   <si>
     <t xml:space="preserve">4.37661743164062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34606218338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34785985946655</t>
+    <t xml:space="preserve">4.34606170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34785938262939</t>
   </si>
   <si>
     <t xml:space="preserve">4.32808828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27236938476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11599826812744</t>
+    <t xml:space="preserve">4.27237033843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11599779129028</t>
   </si>
   <si>
     <t xml:space="preserve">4.03691339492798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98478889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04230546951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95603060722351</t>
+    <t xml:space="preserve">3.98478865623474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04230499267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95603084564209</t>
   </si>
   <si>
     <t xml:space="preserve">3.92008328437805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91828632354736</t>
+    <t xml:space="preserve">3.91828608512878</t>
   </si>
   <si>
     <t xml:space="preserve">3.94704437255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93266487121582</t>
+    <t xml:space="preserve">3.93266534805298</t>
   </si>
   <si>
     <t xml:space="preserve">3.84099864959717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86795949935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90390753746033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94524669647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96359658241272</t>
+    <t xml:space="preserve">3.86795902252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90390682220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94524645805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9635968208313</t>
   </si>
   <si>
     <t xml:space="preserve">3.99112153053284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98194670677185</t>
+    <t xml:space="preserve">3.98194646835327</t>
   </si>
   <si>
     <t xml:space="preserve">4.06819152832031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89019632339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184643745422</t>
+    <t xml:space="preserve">3.94524693489075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89019656181335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87184596061707</t>
   </si>
   <si>
     <t xml:space="preserve">3.92689681053162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06452131271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.128746509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17462205886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12691164016724</t>
+    <t xml:space="preserve">4.06452083587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12874603271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17462110519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12691116333008</t>
   </si>
   <si>
     <t xml:space="preserve">4.10672664642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05901575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03699636459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99479150772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05351161956787</t>
+    <t xml:space="preserve">4.05901622772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03699684143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99479126930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05351209640503</t>
   </si>
   <si>
     <t xml:space="preserve">4.08287143707275</t>
@@ -647,22 +650,22 @@
     <t xml:space="preserve">4.03332662582397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07369661331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09204626083374</t>
+    <t xml:space="preserve">4.07369709014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09204578399658</t>
   </si>
   <si>
     <t xml:space="preserve">4.08103656768799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05534696578979</t>
+    <t xml:space="preserve">4.05534648895264</t>
   </si>
   <si>
     <t xml:space="preserve">4.09021186828613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06268644332886</t>
+    <t xml:space="preserve">4.0626859664917</t>
   </si>
   <si>
     <t xml:space="preserve">4.15260124206543</t>
@@ -674,13 +677,13 @@
     <t xml:space="preserve">4.16544628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11039686203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09388160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20948648452759</t>
+    <t xml:space="preserve">4.11039638519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09388113021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20948600769043</t>
   </si>
   <si>
     <t xml:space="preserve">4.15443658828735</t>
@@ -701,46 +704,46 @@
     <t xml:space="preserve">4.15076637268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10305643081665</t>
+    <t xml:space="preserve">4.10305690765381</t>
   </si>
   <si>
     <t xml:space="preserve">4.17278575897217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11223173141479</t>
+    <t xml:space="preserve">4.11223077774048</t>
   </si>
   <si>
     <t xml:space="preserve">4.07002639770508</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10122108459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16911649703979</t>
+    <t xml:space="preserve">4.10122156143188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16911697387695</t>
   </si>
   <si>
     <t xml:space="preserve">4.18379640579224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21132183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09755182266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05167579650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01864624023438</t>
+    <t xml:space="preserve">4.21132135391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0975513458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05167675018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01864671707153</t>
   </si>
   <si>
     <t xml:space="preserve">4.07920122146606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13425159454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21866178512573</t>
+    <t xml:space="preserve">4.13425207138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21866130828857</t>
   </si>
   <si>
     <t xml:space="preserve">4.13241624832153</t>
@@ -752,10 +755,10 @@
     <t xml:space="preserve">4.11590099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11773633956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14709663391113</t>
+    <t xml:space="preserve">4.11773681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14709615707397</t>
   </si>
   <si>
     <t xml:space="preserve">4.1489315032959</t>
@@ -767,61 +770,61 @@
     <t xml:space="preserve">4.19297170639038</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99662613868713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04433631896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561716079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94341135025024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0204815864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92322635650635</t>
+    <t xml:space="preserve">3.99662661552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04433584213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94341158866882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02048110961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92322659492493</t>
   </si>
   <si>
     <t xml:space="preserve">4.03516101837158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08654117584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04800701141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96726655960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92506122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91772150993347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00029706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97277164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93790626525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99846148490906</t>
+    <t xml:space="preserve">4.08654165267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04800653457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96726608276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92506146430969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91772127151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0002965927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97277188301086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93790650367737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846124649048</t>
   </si>
   <si>
     <t xml:space="preserve">4.04617118835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88102149963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85349655151367</t>
+    <t xml:space="preserve">3.88102173805237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85349678993225</t>
   </si>
   <si>
     <t xml:space="preserve">3.95442128181458</t>
@@ -830,40 +833,40 @@
     <t xml:space="preserve">3.83514642715454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89937138557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90854692459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93607187271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267185211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597160339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78927183151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80762147903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02039432525635</t>
+    <t xml:space="preserve">3.89937114715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90854716300964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93607139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86267161369324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597208023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78927206993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.807621717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02039480209351</t>
   </si>
   <si>
     <t xml:space="preserve">4.04857397079468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03918123245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97342681884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99221348762512</t>
+    <t xml:space="preserve">4.03918075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97342705726624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99221420288086</t>
   </si>
   <si>
     <t xml:space="preserve">4.02978754043579</t>
@@ -872,13 +875,13 @@
     <t xml:space="preserve">3.96403336524963</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89827919006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9170663356781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77616429328918</t>
+    <t xml:space="preserve">3.89827942848206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91706609725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77616453170776</t>
   </si>
   <si>
     <t xml:space="preserve">3.70101714134216</t>
@@ -887,13 +890,13 @@
     <t xml:space="preserve">3.75737762451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73859119415283</t>
+    <t xml:space="preserve">3.73859071731567</t>
   </si>
   <si>
     <t xml:space="preserve">3.71980404853821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71041035652161</t>
+    <t xml:space="preserve">3.71041059494019</t>
   </si>
   <si>
     <t xml:space="preserve">3.63526272773743</t>
@@ -908,28 +911,28 @@
     <t xml:space="preserve">3.42860722541809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28770542144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35345983505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33467268943787</t>
+    <t xml:space="preserve">3.28770565986633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35345959663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33467292785645</t>
   </si>
   <si>
     <t xml:space="preserve">3.37224650382996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3816397190094</t>
+    <t xml:space="preserve">3.38163995742798</t>
   </si>
   <si>
     <t xml:space="preserve">3.45678758621216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4661808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36285305023193</t>
+    <t xml:space="preserve">3.46618103981018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36285281181335</t>
   </si>
   <si>
     <t xml:space="preserve">3.44739413261414</t>
@@ -941,28 +944,28 @@
     <t xml:space="preserve">3.40042662620544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4755744934082</t>
+    <t xml:space="preserve">3.47557473182678</t>
   </si>
   <si>
     <t xml:space="preserve">3.49436116218567</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31588578224182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60708236694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56950879096985</t>
+    <t xml:space="preserve">3.3158860206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60708260536194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56950855255127</t>
   </si>
   <si>
     <t xml:space="preserve">3.50375485420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65405011177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48496794700623</t>
+    <t xml:space="preserve">3.65404963493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48496747016907</t>
   </si>
   <si>
     <t xml:space="preserve">3.68223023414612</t>
@@ -977,22 +980,22 @@
     <t xml:space="preserve">3.66344332695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58829593658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5507218837738</t>
+    <t xml:space="preserve">3.58829569816589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55072212219238</t>
   </si>
   <si>
     <t xml:space="preserve">3.53193497657776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56011557579041</t>
+    <t xml:space="preserve">3.56011533737183</t>
   </si>
   <si>
     <t xml:space="preserve">3.57890200614929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64465641975403</t>
+    <t xml:space="preserve">3.64465665817261</t>
   </si>
   <si>
     <t xml:space="preserve">3.6728367805481</t>
@@ -1004,16 +1007,16 @@
     <t xml:space="preserve">3.70352864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54921531677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62637209892273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58779358863831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66495037078857</t>
+    <t xml:space="preserve">3.54921507835388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62637186050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58779335021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66495013237</t>
   </si>
   <si>
     <t xml:space="preserve">3.68423938751221</t>
@@ -1022,13 +1025,13 @@
     <t xml:space="preserve">3.78068566322327</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7999746799469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74210715293884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81926393508911</t>
+    <t xml:space="preserve">3.79997491836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74210739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81926417350769</t>
   </si>
   <si>
     <t xml:space="preserve">3.83855319023132</t>
@@ -1040,16 +1043,13 @@
     <t xml:space="preserve">3.76139640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72281765937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64566111564636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60708260536194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56850433349609</t>
+    <t xml:space="preserve">3.72281789779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64566135406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56850457191467</t>
   </si>
   <si>
     <t xml:space="preserve">3.52992582321167</t>
@@ -1058,19 +1058,19 @@
     <t xml:space="preserve">3.47205829620361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51063680648804</t>
+    <t xml:space="preserve">3.51063656806946</t>
   </si>
   <si>
     <t xml:space="preserve">3.41419053077698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43347978591919</t>
+    <t xml:space="preserve">3.43347954750061</t>
   </si>
   <si>
     <t xml:space="preserve">3.45276880264282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37561202049255</t>
+    <t xml:space="preserve">3.37561225891113</t>
   </si>
   <si>
     <t xml:space="preserve">3.39490151405334</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">3.27916598320007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18272018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22129821777344</t>
+    <t xml:space="preserve">3.18271994590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22129845619202</t>
   </si>
   <si>
     <t xml:space="preserve">3.14414167404175</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1055634021759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06698489189148</t>
+    <t xml:space="preserve">3.10556316375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0669846534729</t>
   </si>
   <si>
     <t xml:space="preserve">3.04769563674927</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">3.02840662002563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91267108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85480332374573</t>
+    <t xml:space="preserve">2.91267085075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85480356216431</t>
   </si>
   <si>
     <t xml:space="preserve">2.71977877616882</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.83551406860352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97053861618042</t>
+    <t xml:space="preserve">2.970538854599</t>
   </si>
   <si>
     <t xml:space="preserve">2.89338183403015</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">3.12485241889954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98982787132263</t>
+    <t xml:space="preserve">2.98982763290405</t>
   </si>
   <si>
     <t xml:space="preserve">2.95124959945679</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">2.81622505187988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79693579673767</t>
+    <t xml:space="preserve">2.79693603515625</t>
   </si>
   <si>
     <t xml:space="preserve">2.75835704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77764654159546</t>
+    <t xml:space="preserve">2.77764678001404</t>
   </si>
   <si>
     <t xml:space="preserve">2.73906803131104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54617619514465</t>
+    <t xml:space="preserve">2.54617595672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.62333297729492</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">2.60404372215271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58475470542908</t>
+    <t xml:space="preserve">2.5847544670105</t>
   </si>
   <si>
     <t xml:space="preserve">2.50759768486023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46901917457581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3339946269989</t>
+    <t xml:space="preserve">2.46901893615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33399486541748</t>
   </si>
   <si>
     <t xml:space="preserve">2.16039180755615</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">2.21825933456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14110279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23754835128784</t>
+    <t xml:space="preserve">2.14110255241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23754858970642</t>
   </si>
   <si>
     <t xml:space="preserve">2.02536725997925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19897031784058</t>
+    <t xml:space="preserve">2.198970079422</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683760643005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29541635513306</t>
+    <t xml:space="preserve">2.25683784484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29541611671448</t>
   </si>
   <si>
     <t xml:space="preserve">2.31470537185669</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">2.43044090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27612686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28577136993408</t>
+    <t xml:space="preserve">2.27612709999084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28577160835266</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436393737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36292839050293</t>
+    <t xml:space="preserve">2.36292862892151</t>
   </si>
   <si>
     <t xml:space="preserve">2.30506086349487</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">2.24719309806824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35328388214111</t>
+    <t xml:space="preserve">2.35328412055969</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435011863708</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">2.17968106269836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18932580947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17003655433655</t>
+    <t xml:space="preserve">2.18932557106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17003631591797</t>
   </si>
   <si>
     <t xml:space="preserve">2.13145804405212</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">2.03501176834106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9867889881134</t>
+    <t xml:space="preserve">1.98678886890411</t>
   </si>
   <si>
     <t xml:space="preserve">1.92409884929657</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">1.92892122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93856585025787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9578549861908</t>
+    <t xml:space="preserve">1.93856573104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95785510540009</t>
   </si>
   <si>
     <t xml:space="preserve">2.20861482620239</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.15074706077576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37257313728333</t>
+    <t xml:space="preserve">2.37257289886475</t>
   </si>
   <si>
     <t xml:space="preserve">2.38221764564514</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">2.56546521186829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87409257888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66191148757935</t>
+    <t xml:space="preserve">2.87409281730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66191124916077</t>
   </si>
   <si>
     <t xml:space="preserve">2.64262199401855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59439897537231</t>
+    <t xml:space="preserve">2.59439921379089</t>
   </si>
   <si>
     <t xml:space="preserve">2.68120050430298</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">2.65226674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61368846893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53653168678284</t>
+    <t xml:space="preserve">2.61368823051453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53653144836426</t>
   </si>
   <si>
     <t xml:space="preserve">2.52688670158386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51724195480347</t>
+    <t xml:space="preserve">2.51724219322205</t>
   </si>
   <si>
     <t xml:space="preserve">2.70048975944519</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">2.71013426780701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69084525108337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72942328453064</t>
+    <t xml:space="preserve">2.69084501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72942352294922</t>
   </si>
   <si>
     <t xml:space="preserve">2.78729128837585</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">2.99947237968445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98018336296082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96089386940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03805088996887</t>
+    <t xml:space="preserve">2.98018288612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9608941078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03805112838745</t>
   </si>
   <si>
     <t xml:space="preserve">3.16343069076538</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">3.17307543754578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13449716567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15378642082214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26952147483826</t>
+    <t xml:space="preserve">3.13449692726135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15378594398499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26952171325684</t>
   </si>
   <si>
     <t xml:space="preserve">3.25987696647644</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">3.32738900184631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25023198127747</t>
+    <t xml:space="preserve">3.25023221969604</t>
   </si>
   <si>
     <t xml:space="preserve">3.09591865539551</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">3.01876187324524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05734038352966</t>
+    <t xml:space="preserve">3.05734014511108</t>
   </si>
   <si>
     <t xml:space="preserve">2.92231559753418</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.90302634239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88373708724976</t>
+    <t xml:space="preserve">2.88373732566833</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">2.84515881538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80658030509949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11520767211914</t>
+    <t xml:space="preserve">2.80658054351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11520791053772</t>
   </si>
   <si>
     <t xml:space="preserve">3.28881072998047</t>
@@ -1445,31 +1445,31 @@
     <t xml:space="preserve">3.59743809700012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67459511756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71317315101624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79033017158508</t>
+    <t xml:space="preserve">3.67459464073181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71317338943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79033041000366</t>
   </si>
   <si>
     <t xml:space="preserve">3.88677644729614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95428848266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9446439743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322248458862</t>
+    <t xml:space="preserve">3.95428824424744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94464421272278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9832227230072</t>
   </si>
   <si>
     <t xml:space="preserve">4.0507345199585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97357797622681</t>
+    <t xml:space="preserve">3.97357773780823</t>
   </si>
   <si>
     <t xml:space="preserve">4.07002353668213</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">4.34971761703491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3400731086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4268741607666</t>
+    <t xml:space="preserve">4.34007263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42687463760376</t>
   </si>
   <si>
     <t xml:space="preserve">4.45580768585205</t>
@@ -1508,19 +1508,19 @@
     <t xml:space="preserve">4.08931255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03144550323486</t>
+    <t xml:space="preserve">4.03144502639771</t>
   </si>
   <si>
     <t xml:space="preserve">4.24362659454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31113910675049</t>
+    <t xml:space="preserve">4.31113862991333</t>
   </si>
   <si>
     <t xml:space="preserve">4.2918496131897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40758562088013</t>
+    <t xml:space="preserve">4.40758514404297</t>
   </si>
   <si>
     <t xml:space="preserve">4.50403070449829</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">4.43651866912842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3690071105957</t>
+    <t xml:space="preserve">4.36900663375854</t>
   </si>
   <si>
     <t xml:space="preserve">4.1278920173645</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">4.25327157974243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18575954437256</t>
+    <t xml:space="preserve">4.1857590675354</t>
   </si>
   <si>
     <t xml:space="preserve">4.14718055725098</t>
@@ -1556,31 +1556,31 @@
     <t xml:space="preserve">4.0796685218811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17611455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33042812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51367521286011</t>
+    <t xml:space="preserve">4.17611408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33042764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.46545267105103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37865161895752</t>
+    <t xml:space="preserve">4.37865114212036</t>
   </si>
   <si>
     <t xml:space="preserve">4.48474168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47509670257568</t>
+    <t xml:space="preserve">4.47509717941284</t>
   </si>
   <si>
     <t xml:space="preserve">4.49438619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44616317749023</t>
+    <t xml:space="preserve">4.44616365432739</t>
   </si>
   <si>
     <t xml:space="preserve">4.41722965240479</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">4.80301380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72585678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6390552520752</t>
+    <t xml:space="preserve">4.72585725784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63905572891235</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
@@ -1604,22 +1604,22 @@
     <t xml:space="preserve">4.61012172698975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57154273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27256011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11824655532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15682554244995</t>
+    <t xml:space="preserve">4.57154321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27256059646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11824703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15682458877563</t>
   </si>
   <si>
     <t xml:space="preserve">4.38829612731934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54260921478271</t>
+    <t xml:space="preserve">4.54260969161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.61976623535156</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">5.01519536972046</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45884656906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59387159347534</t>
+    <t xml:space="preserve">5.45884704589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5938720703125</t>
   </si>
   <si>
     <t xml:space="preserve">5.4974250793457</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">5.42026853561401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38169050216675</t>
+    <t xml:space="preserve">5.38169002532959</t>
   </si>
   <si>
     <t xml:space="preserve">4.86088180541992</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">4.84159231185913</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93803834915161</t>
+    <t xml:space="preserve">4.93803787231445</t>
   </si>
   <si>
     <t xml:space="preserve">4.73550176620483</t>
@@ -11809,7 +11809,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G359" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11835,7 +11835,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G360" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11861,7 +11861,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G361" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11887,7 +11887,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G362" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11913,7 +11913,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G363" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11939,7 +11939,7 @@
         <v>4.5</v>
       </c>
       <c r="G364" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11965,7 +11965,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G365" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11991,7 +11991,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G366" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12017,7 +12017,7 @@
         <v>4.47599983215332</v>
       </c>
       <c r="G367" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12043,7 +12043,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G368" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12069,7 +12069,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12121,7 +12121,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G371" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12147,7 +12147,7 @@
         <v>4.35400009155273</v>
       </c>
       <c r="G372" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12173,7 +12173,7 @@
         <v>4.41800022125244</v>
       </c>
       <c r="G373" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12199,7 +12199,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G374" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12225,7 +12225,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G375" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12251,7 +12251,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G376" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12277,7 +12277,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G377" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12303,7 +12303,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G378" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12329,7 +12329,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G379" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12355,7 +12355,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G380" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12381,7 +12381,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G381" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12407,7 +12407,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G382" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12433,7 +12433,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12459,7 +12459,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G384" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12485,7 +12485,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G385" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12511,7 +12511,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G386" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12537,7 +12537,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G387" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12563,7 +12563,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G388" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12589,7 +12589,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12615,7 +12615,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G390" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12641,7 +12641,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G391" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12667,7 +12667,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12693,7 +12693,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G393" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12719,7 +12719,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G394" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12745,7 +12745,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12771,7 +12771,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G396" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12797,7 +12797,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G397" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12823,7 +12823,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G398" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12849,7 +12849,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12875,7 +12875,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12901,7 +12901,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G401" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12927,7 +12927,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G402" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12953,7 +12953,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G403" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12979,7 +12979,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G404" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13005,7 +13005,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G405" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13031,7 +13031,7 @@
         <v>4.58799982070923</v>
       </c>
       <c r="G406" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13057,7 +13057,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G407" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13083,7 +13083,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G408" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13109,7 +13109,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G409" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13135,7 +13135,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G410" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13161,7 +13161,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G411" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13187,7 +13187,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G412" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13213,7 +13213,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G413" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13239,7 +13239,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G414" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13265,7 +13265,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G415" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13291,7 +13291,7 @@
         <v>4.52400016784668</v>
       </c>
       <c r="G416" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13317,7 +13317,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13343,7 +13343,7 @@
         <v>4.5</v>
       </c>
       <c r="G418" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13369,7 +13369,7 @@
         <v>4.5</v>
       </c>
       <c r="G419" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13395,7 +13395,7 @@
         <v>4.47200012207031</v>
       </c>
       <c r="G420" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13421,7 +13421,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G421" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13447,7 +13447,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G422" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13473,7 +13473,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G423" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13499,7 +13499,7 @@
         <v>4.48199987411499</v>
       </c>
       <c r="G424" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13525,7 +13525,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G425" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13551,7 +13551,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G426" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13577,7 +13577,7 @@
         <v>4.5</v>
       </c>
       <c r="G427" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13603,7 +13603,7 @@
         <v>4.5</v>
       </c>
       <c r="G428" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13629,7 +13629,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G429" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13655,7 +13655,7 @@
         <v>4.54400014877319</v>
       </c>
       <c r="G430" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13681,7 +13681,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G431" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13707,7 +13707,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13733,7 +13733,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G433" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13759,7 +13759,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13785,7 +13785,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13811,7 +13811,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13837,7 +13837,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G437" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13863,7 +13863,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G438" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13889,7 +13889,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G439" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13915,7 +13915,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G440" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13941,7 +13941,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G441" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13967,7 +13967,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G442" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13993,7 +13993,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G443" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14019,7 +14019,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G444" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14045,7 +14045,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G445" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14071,7 +14071,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G446" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14097,7 +14097,7 @@
         <v>4.5</v>
       </c>
       <c r="G447" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14123,7 +14123,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G448" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14149,7 +14149,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G449" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14175,7 +14175,7 @@
         <v>4.5</v>
       </c>
       <c r="G450" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14201,7 +14201,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G451" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14227,7 +14227,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G452" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14253,7 +14253,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G453" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14279,7 +14279,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G454" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14305,7 +14305,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G455" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14331,7 +14331,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G456" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14357,7 +14357,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G457" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14383,7 +14383,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14409,7 +14409,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G459" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14435,7 +14435,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G460" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14461,7 +14461,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14487,7 +14487,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G462" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14513,7 +14513,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G463" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14539,7 +14539,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G464" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14565,7 +14565,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G465" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14591,7 +14591,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G466" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14617,7 +14617,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G467" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14643,7 +14643,7 @@
         <v>4.5</v>
       </c>
       <c r="G468" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14669,7 +14669,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G469" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14695,7 +14695,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14721,7 +14721,7 @@
         <v>4.5</v>
       </c>
       <c r="G471" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14747,7 +14747,7 @@
         <v>4.5</v>
       </c>
       <c r="G472" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14773,7 +14773,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G473" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14799,7 +14799,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G474" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14825,7 +14825,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G475" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14851,7 +14851,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G476" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14877,7 +14877,7 @@
         <v>4.56799983978271</v>
       </c>
       <c r="G477" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14903,7 +14903,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G478" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14929,7 +14929,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G479" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14955,7 +14955,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G480" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14981,7 +14981,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G481" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15007,7 +15007,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G482" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15033,7 +15033,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G483" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15059,7 +15059,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G484" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15085,7 +15085,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G485" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15137,7 +15137,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G487" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15163,7 +15163,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15189,7 +15189,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G489" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15215,7 +15215,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G490" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15241,7 +15241,7 @@
         <v>4.38199996948242</v>
       </c>
       <c r="G491" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15267,7 +15267,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G492" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15293,7 +15293,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15319,7 +15319,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G494" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15345,7 +15345,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G495" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15371,7 +15371,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G496" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15397,7 +15397,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15423,7 +15423,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G498" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15449,7 +15449,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G499" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15475,7 +15475,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G500" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15501,7 +15501,7 @@
         <v>4.41200017929077</v>
       </c>
       <c r="G501" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15527,7 +15527,7 @@
         <v>4.32399988174438</v>
       </c>
       <c r="G502" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15553,7 +15553,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G503" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15579,7 +15579,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G504" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15605,7 +15605,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G505" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15631,7 +15631,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G506" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15657,7 +15657,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G507" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15683,7 +15683,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15709,7 +15709,7 @@
         <v>4.29199981689453</v>
       </c>
       <c r="G509" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15735,7 +15735,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G510" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15761,7 +15761,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G511" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15787,7 +15787,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15813,7 +15813,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G513" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15839,7 +15839,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G514" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15865,7 +15865,7 @@
         <v>4.5</v>
       </c>
       <c r="G515" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15891,7 +15891,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G516" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15917,7 +15917,7 @@
         <v>4.5</v>
       </c>
       <c r="G517" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15943,7 +15943,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G518" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15969,7 +15969,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15995,7 +15995,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G520" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16021,7 +16021,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G521" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16047,7 +16047,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G522" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16073,7 +16073,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G523" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16099,7 +16099,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G524" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16125,7 +16125,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G525" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16151,7 +16151,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G526" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16177,7 +16177,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G527" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16203,7 +16203,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G528" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16229,7 +16229,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G529" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16255,7 +16255,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16281,7 +16281,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G531" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16307,7 +16307,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16385,7 +16385,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G535" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16411,7 +16411,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G536" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16437,7 +16437,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G537" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16463,7 +16463,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16489,7 +16489,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G539" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16515,7 +16515,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16541,7 +16541,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G541" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16567,7 +16567,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G542" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16593,7 +16593,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G543" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16619,7 +16619,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16645,7 +16645,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G545" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16671,7 +16671,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G546" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16697,7 +16697,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G547" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16723,7 +16723,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G548" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16749,7 +16749,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16801,7 +16801,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G551" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16827,7 +16827,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16853,7 +16853,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G553" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16879,7 +16879,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G554" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16905,7 +16905,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G555" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16931,7 +16931,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G556" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16957,7 +16957,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G557" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16983,7 +16983,7 @@
         <v>4.25</v>
       </c>
       <c r="G558" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17009,7 +17009,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G559" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17035,7 +17035,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G560" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17061,7 +17061,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G561" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17087,7 +17087,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G562" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17113,7 +17113,7 @@
         <v>4.25</v>
       </c>
       <c r="G563" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17139,7 +17139,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G564" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17165,7 +17165,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G565" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17191,7 +17191,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17243,7 +17243,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17269,7 +17269,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G569" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17295,7 +17295,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17321,7 +17321,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17347,7 +17347,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17373,7 +17373,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17399,7 +17399,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G574" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17425,7 +17425,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G575" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17451,7 +17451,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G576" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17477,7 +17477,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G577" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17503,7 +17503,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G578" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17529,7 +17529,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G579" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17555,7 +17555,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G580" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17581,7 +17581,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G581" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17607,7 +17607,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G582" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17633,7 +17633,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17659,7 +17659,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17685,7 +17685,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G585" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17711,7 +17711,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G586" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17763,7 +17763,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17789,7 +17789,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17815,7 +17815,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G590" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17841,7 +17841,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G591" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17867,7 +17867,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G592" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17893,7 +17893,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G593" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17919,7 +17919,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G594" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17945,7 +17945,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G595" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17971,7 +17971,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G596" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17997,7 +17997,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18023,7 +18023,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18049,7 +18049,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18075,7 +18075,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G600" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18101,7 +18101,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18127,7 +18127,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G602" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18205,7 +18205,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G605" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18231,7 +18231,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18283,7 +18283,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G608" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18309,7 +18309,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G609" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18335,7 +18335,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18361,7 +18361,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G611" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18387,7 +18387,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G612" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18413,7 +18413,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18439,7 +18439,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G614" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18465,7 +18465,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G615" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18491,7 +18491,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G616" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18517,7 +18517,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G617" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18543,7 +18543,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G618" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18569,7 +18569,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G619" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18595,7 +18595,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18621,7 +18621,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G621" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18647,7 +18647,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G622" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18673,7 +18673,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G623" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18699,7 +18699,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G624" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18725,7 +18725,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G625" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18751,7 +18751,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18777,7 +18777,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18803,7 +18803,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18829,7 +18829,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G629" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18855,7 +18855,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18881,7 +18881,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18959,7 +18959,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G634" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18985,7 +18985,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19011,7 +19011,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19037,7 +19037,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G637" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19063,7 +19063,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19089,7 +19089,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G639" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19115,7 +19115,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G640" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19141,7 +19141,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G641" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19167,7 +19167,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G642" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19193,7 +19193,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19219,7 +19219,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G644" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19245,7 +19245,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G645" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19271,7 +19271,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G646" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19453,7 +19453,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G653" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19479,7 +19479,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19505,7 +19505,7 @@
         <v>4.25</v>
       </c>
       <c r="G655" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19531,7 +19531,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19557,7 +19557,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G657" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19583,7 +19583,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G658" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19609,7 +19609,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G659" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19635,7 +19635,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19661,7 +19661,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G661" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19687,7 +19687,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G662" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19713,7 +19713,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19739,7 +19739,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G664" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19765,7 +19765,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G665" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19791,7 +19791,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19817,7 +19817,7 @@
         <v>4.25</v>
       </c>
       <c r="G667" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19843,7 +19843,7 @@
         <v>4.25</v>
       </c>
       <c r="G668" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19869,7 +19869,7 @@
         <v>4.25</v>
       </c>
       <c r="G669" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19895,7 +19895,7 @@
         <v>4.25</v>
       </c>
       <c r="G670" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19921,7 +19921,7 @@
         <v>4.25</v>
       </c>
       <c r="G671" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19947,7 +19947,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19973,7 +19973,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19999,7 +19999,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20077,7 +20077,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G677" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20103,7 +20103,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G678" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20129,7 +20129,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G679" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20155,7 +20155,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20181,7 +20181,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20207,7 +20207,7 @@
         <v>4.25</v>
       </c>
       <c r="G682" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20233,7 +20233,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G683" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20259,7 +20259,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G684" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20285,7 +20285,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20311,7 +20311,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G686" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20337,7 +20337,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20363,7 +20363,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G688" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20389,7 +20389,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G689" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20415,7 +20415,7 @@
         <v>4.25</v>
       </c>
       <c r="G690" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20441,7 +20441,7 @@
         <v>4.25</v>
       </c>
       <c r="G691" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20467,7 +20467,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20493,7 +20493,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G693" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20519,7 +20519,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G694" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20545,7 +20545,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20571,7 +20571,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G696" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20597,7 +20597,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G697" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20623,7 +20623,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G698" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20649,7 +20649,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20675,7 +20675,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G700" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20701,7 +20701,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G701" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20727,7 +20727,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20753,7 +20753,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20779,7 +20779,7 @@
         <v>4.25</v>
       </c>
       <c r="G704" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20805,7 +20805,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20831,7 +20831,7 @@
         <v>4.25</v>
       </c>
       <c r="G706" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20857,7 +20857,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G707" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20883,7 +20883,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20909,7 +20909,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20935,7 +20935,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G710" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20961,7 +20961,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G711" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20987,7 +20987,7 @@
         <v>4</v>
       </c>
       <c r="G712" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21013,7 +21013,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G713" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21039,7 +21039,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21065,7 +21065,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21091,7 +21091,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G716" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21117,7 +21117,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G717" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21143,7 +21143,7 @@
         <v>3.75</v>
       </c>
       <c r="G718" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21169,7 +21169,7 @@
         <v>3.75</v>
       </c>
       <c r="G719" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21195,7 +21195,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G720" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21221,7 +21221,7 @@
         <v>3.5</v>
       </c>
       <c r="G721" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21247,7 +21247,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G722" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21273,7 +21273,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G723" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21299,7 +21299,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G724" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21325,7 +21325,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G725" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21351,7 +21351,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21377,7 +21377,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G727" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21403,7 +21403,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G728" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21429,7 +21429,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21455,7 +21455,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G730" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21481,7 +21481,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21507,7 +21507,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G732" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21533,7 +21533,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G733" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21559,7 +21559,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21585,7 +21585,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G735" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21611,7 +21611,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G736" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21637,7 +21637,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21663,7 +21663,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21689,7 +21689,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G739" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21715,7 +21715,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G740" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21741,7 +21741,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G741" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21767,7 +21767,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G742" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21793,7 +21793,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G743" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21819,7 +21819,7 @@
         <v>3.75</v>
       </c>
       <c r="G744" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21845,7 +21845,7 @@
         <v>3.75</v>
       </c>
       <c r="G745" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21871,7 +21871,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21897,7 +21897,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G747" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21923,7 +21923,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21949,7 +21949,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G749" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21975,7 +21975,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G750" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22001,7 +22001,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G751" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22027,7 +22027,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G752" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22053,7 +22053,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G753" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22079,7 +22079,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G754" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22105,7 +22105,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G755" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22131,7 +22131,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G756" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22157,7 +22157,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22183,7 +22183,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G758" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22209,7 +22209,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22235,7 +22235,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G760" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22261,7 +22261,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22287,7 +22287,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22313,7 +22313,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G763" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22339,7 +22339,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G764" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22365,7 +22365,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G765" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22391,7 +22391,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G766" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22417,7 +22417,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G767" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22443,7 +22443,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G768" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22469,7 +22469,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22495,7 +22495,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G770" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22521,7 +22521,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G771" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22547,7 +22547,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22573,7 +22573,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22599,7 +22599,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G774" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22625,7 +22625,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G775" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22651,7 +22651,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G776" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22677,7 +22677,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G777" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22703,7 +22703,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G778" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22729,7 +22729,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G779" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22755,7 +22755,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G780" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22781,7 +22781,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G781" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22807,7 +22807,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G782" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22833,7 +22833,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G783" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22859,7 +22859,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G784" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22885,7 +22885,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G785" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22911,7 +22911,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G786" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22937,7 +22937,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G787" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22963,7 +22963,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G788" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22989,7 +22989,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G789" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23015,7 +23015,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23041,7 +23041,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G791" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23067,7 +23067,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G792" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23093,7 +23093,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23119,7 +23119,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G794" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23145,7 +23145,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G795" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23171,7 +23171,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G796" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23197,7 +23197,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23223,7 +23223,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G798" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23249,7 +23249,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G799" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23275,7 +23275,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G800" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23301,7 +23301,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G801" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23327,7 +23327,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G802" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23353,7 +23353,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G803" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23379,7 +23379,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G804" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23405,7 +23405,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G805" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23431,7 +23431,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G806" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23457,7 +23457,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G807" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23483,7 +23483,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G808" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23509,7 +23509,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G809" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23535,7 +23535,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G810" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23561,7 +23561,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G811" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23587,7 +23587,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23613,7 +23613,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G813" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23639,7 +23639,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G814" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23665,7 +23665,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G815" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23691,7 +23691,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23717,7 +23717,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G817" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23743,7 +23743,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G818" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23769,7 +23769,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G819" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23795,7 +23795,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G820" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23821,7 +23821,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G821" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23847,7 +23847,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G822" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23873,7 +23873,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23899,7 +23899,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G824" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23925,7 +23925,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23951,7 +23951,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G826" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23977,7 +23977,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G827" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24003,7 +24003,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G828" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24029,7 +24029,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G829" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24055,7 +24055,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G830" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24081,7 +24081,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24107,7 +24107,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G832" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24133,7 +24133,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G833" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24159,7 +24159,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24185,7 +24185,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G835" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24211,7 +24211,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24237,7 +24237,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24263,7 +24263,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G838" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24289,7 +24289,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G839" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24315,7 +24315,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G840" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24341,7 +24341,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G841" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24367,7 +24367,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24393,7 +24393,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G843" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24419,7 +24419,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24445,7 +24445,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G845" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24471,7 +24471,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G846" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24497,7 +24497,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G847" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24523,7 +24523,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24549,7 +24549,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G849" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24575,7 +24575,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24601,7 +24601,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G851" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24627,7 +24627,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G852" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24653,7 +24653,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G853" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24679,7 +24679,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G854" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24705,7 +24705,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G855" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24731,7 +24731,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G856" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24757,7 +24757,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G857" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24783,7 +24783,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G858" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24809,7 +24809,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G859" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24835,7 +24835,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G860" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24861,7 +24861,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G861" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24887,7 +24887,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G862" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24913,7 +24913,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24939,7 +24939,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G864" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24965,7 +24965,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G865" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24991,7 +24991,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G866" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25017,7 +25017,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G867" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25043,7 +25043,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G868" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25069,7 +25069,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G869" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25095,7 +25095,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G870" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25121,7 +25121,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G871" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25147,7 +25147,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G872" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25173,7 +25173,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25199,7 +25199,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G874" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25225,7 +25225,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G875" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25251,7 +25251,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G876" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25277,7 +25277,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G877" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25303,7 +25303,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25329,7 +25329,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G879" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25355,7 +25355,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G880" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25381,7 +25381,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G881" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25407,7 +25407,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G882" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25433,7 +25433,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G883" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25459,7 +25459,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G884" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25485,7 +25485,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G885" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25511,7 +25511,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G886" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25537,7 +25537,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G887" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25563,7 +25563,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25589,7 +25589,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G889" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25615,7 +25615,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G890" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25641,7 +25641,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G891" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25667,7 +25667,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G892" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25693,7 +25693,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G893" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25719,7 +25719,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G894" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25745,7 +25745,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25771,7 +25771,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25797,7 +25797,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G897" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25823,7 +25823,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25849,7 +25849,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25875,7 +25875,7 @@
         <v>4</v>
       </c>
       <c r="G900" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25901,7 +25901,7 @@
         <v>4</v>
       </c>
       <c r="G901" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25927,7 +25927,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G902" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25953,7 +25953,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G903" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25979,7 +25979,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26005,7 +26005,7 @@
         <v>4</v>
       </c>
       <c r="G905" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26031,7 +26031,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G906" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26057,7 +26057,7 @@
         <v>4</v>
       </c>
       <c r="G907" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26083,7 +26083,7 @@
         <v>4</v>
       </c>
       <c r="G908" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26109,7 +26109,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G909" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26135,7 +26135,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G910" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26161,7 +26161,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26187,7 +26187,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G912" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26213,7 +26213,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G913" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26239,7 +26239,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G914" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26265,7 +26265,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G915" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26291,7 +26291,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G916" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26317,7 +26317,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G917" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26369,7 +26369,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G919" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26395,7 +26395,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G920" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26421,7 +26421,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G921" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26447,7 +26447,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G922" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26473,7 +26473,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G923" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26499,7 +26499,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G924" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26551,7 +26551,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G926" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26577,7 +26577,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G927" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26603,7 +26603,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G928" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26629,7 +26629,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G929" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26655,7 +26655,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G930" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26681,7 +26681,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G931" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26707,7 +26707,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G932" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26733,7 +26733,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G933" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26759,7 +26759,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26785,7 +26785,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G935" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26837,7 +26837,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G937" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26863,7 +26863,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G938" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26889,7 +26889,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G939" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -42177,7 +42177,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1527" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42203,7 +42203,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1528" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42229,7 +42229,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1529" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42307,7 +42307,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1532" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -59236,6 +59236,58 @@
         <v>709</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.2916666667</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>4.55000019073486</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>4.55000019073486</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>4.55000019073486</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>4.55000019073486</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>709</v>
+      </c>
+      <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.4396759259</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>4.61999988555908</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>4.61999988555908</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>4.65000009536743</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -44,40 +44,40 @@
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87105965614319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458229064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8657763004303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86401534080505</t>
+    <t xml:space="preserve">3.87105989456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458252906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86577606201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8640148639679</t>
   </si>
   <si>
     <t xml:space="preserve">3.78652358055115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74249410629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532933235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77771759033203</t>
+    <t xml:space="preserve">3.74249458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77771806716919</t>
   </si>
   <si>
     <t xml:space="preserve">3.62977957725525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67733073234558</t>
+    <t xml:space="preserve">3.677330493927</t>
   </si>
   <si>
     <t xml:space="preserve">3.65443587303162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.663241147995</t>
+    <t xml:space="preserve">3.66324138641357</t>
   </si>
   <si>
     <t xml:space="preserve">3.64386868476868</t>
@@ -89,37 +89,37 @@
     <t xml:space="preserve">3.61040616035461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68965911865234</t>
+    <t xml:space="preserve">3.68965888023376</t>
   </si>
   <si>
     <t xml:space="preserve">3.6667640209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60336136817932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68085265159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56637668609619</t>
+    <t xml:space="preserve">3.6033616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68085289001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56637716293335</t>
   </si>
   <si>
     <t xml:space="preserve">3.539959192276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61568999290466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64915180206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65267372131348</t>
+    <t xml:space="preserve">3.6156895160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64915227890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65267419815063</t>
   </si>
   <si>
     <t xml:space="preserve">3.65091323852539</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64210796356201</t>
+    <t xml:space="preserve">3.64210772514343</t>
   </si>
   <si>
     <t xml:space="preserve">3.59455537796021</t>
@@ -128,22 +128,22 @@
     <t xml:space="preserve">3.71431541442871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75130033493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8129415512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356813430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225390434265</t>
+    <t xml:space="preserve">3.751300573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81294131278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225414276123</t>
   </si>
   <si>
     <t xml:space="preserve">3.81470227241516</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80941939353943</t>
+    <t xml:space="preserve">3.80941915512085</t>
   </si>
   <si>
     <t xml:space="preserve">3.73368835449219</t>
@@ -152,64 +152,64 @@
     <t xml:space="preserve">3.73721051216125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71255445480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73192667961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72135996818542</t>
+    <t xml:space="preserve">3.71255397796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73192715644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72135949134827</t>
   </si>
   <si>
     <t xml:space="preserve">3.76891231536865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76538944244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74953866004944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74601697921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73016667366028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69846487045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6861367225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72488260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8235080242157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95383429527283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9186110496521</t>
+    <t xml:space="preserve">3.76538991928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74953889846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74601721763611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73016619682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69846439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68613624572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72488212585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82350850105286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95383477210999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91861152648926</t>
   </si>
   <si>
     <t xml:space="preserve">3.93446254730225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98377561569214</t>
+    <t xml:space="preserve">3.98377513885498</t>
   </si>
   <si>
     <t xml:space="preserve">3.94326829910278</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91508913040161</t>
+    <t xml:space="preserve">3.91509008407593</t>
   </si>
   <si>
     <t xml:space="preserve">3.98553609848022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91332769393921</t>
+    <t xml:space="preserve">3.91332840919495</t>
   </si>
   <si>
     <t xml:space="preserve">3.89395523071289</t>
@@ -218,103 +218,103 @@
     <t xml:space="preserve">3.96087980270386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89219427108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622303009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92741751670837</t>
+    <t xml:space="preserve">3.89219450950623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92741799354553</t>
   </si>
   <si>
     <t xml:space="preserve">3.88338780403137</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99916744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0261287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220754623413</t>
+    <t xml:space="preserve">3.99916791915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02612924575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220778465271</t>
   </si>
   <si>
     <t xml:space="preserve">3.99018096923828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97759938240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04410266876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98299145698547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423340797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625950813293</t>
+    <t xml:space="preserve">3.97759985923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98299169540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423364639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625926971436</t>
   </si>
   <si>
     <t xml:space="preserve">3.88233876228333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92727303504944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92367839813232</t>
+    <t xml:space="preserve">3.9272723197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92367768287659</t>
   </si>
   <si>
     <t xml:space="preserve">3.83560705184937</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8913254737854</t>
+    <t xml:space="preserve">3.89132523536682</t>
   </si>
   <si>
     <t xml:space="preserve">3.86436462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86256694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81942987442017</t>
+    <t xml:space="preserve">3.86256742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81943035125732</t>
   </si>
   <si>
     <t xml:space="preserve">3.70799255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76550889015198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475755691528</t>
+    <t xml:space="preserve">3.7655086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475779533386</t>
   </si>
   <si>
     <t xml:space="preserve">3.61273145675659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67923426628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6307053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62171864509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65766572952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63789486885071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68103218078613</t>
+    <t xml:space="preserve">3.67923474311829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63070511817932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62171840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65766620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63789463043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68103194236755</t>
   </si>
   <si>
     <t xml:space="preserve">3.57318925857544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61632657051086</t>
+    <t xml:space="preserve">3.61632633209229</t>
   </si>
   <si>
     <t xml:space="preserve">3.60374474525452</t>
@@ -326,94 +326,94 @@
     <t xml:space="preserve">3.6918158531189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73675060272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75652122497559</t>
+    <t xml:space="preserve">3.73675084114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75652146339417</t>
   </si>
   <si>
     <t xml:space="preserve">3.80325388908386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86616158485413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81763315200806</t>
+    <t xml:space="preserve">3.86616206169128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8176326751709</t>
   </si>
   <si>
     <t xml:space="preserve">3.81044316291809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7924690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7439398765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77449560165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067206382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7762930393219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887486457825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74753499031067</t>
+    <t xml:space="preserve">3.79246878623962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74394011497498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77449512481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067182540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887438774109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74753475189209</t>
   </si>
   <si>
     <t xml:space="preserve">3.7511293888092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80145645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73315596580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78348207473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72416877746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77090096473694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72057390213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371097564697</t>
+    <t xml:space="preserve">3.80145597457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73315572738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78348231315613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72416925430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77090072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72057414054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371145248413</t>
   </si>
   <si>
     <t xml:space="preserve">3.72596645355225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70978975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7026002407074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73854780197144</t>
+    <t xml:space="preserve">3.70978999137878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70260071754456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73854804039001</t>
   </si>
   <si>
     <t xml:space="preserve">3.72956132888794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72237229347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72776317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75292706489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831937789917</t>
+    <t xml:space="preserve">3.72237181663513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72776365280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75292682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831913948059</t>
   </si>
   <si>
     <t xml:space="preserve">3.69541072845459</t>
@@ -422,61 +422,64 @@
     <t xml:space="preserve">3.68462657928467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69361424446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485571861267</t>
+    <t xml:space="preserve">3.69361352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485548019409</t>
   </si>
   <si>
     <t xml:space="preserve">3.68822145462036</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73135828971863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7133846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168559074402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83380889892578</t>
+    <t xml:space="preserve">3.73135852813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338486671448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168511390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83380913734436</t>
   </si>
   <si>
     <t xml:space="preserve">3.81224036216736</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81583476066589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82661938667297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8284170627594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547488212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188048362732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90031218528748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87335133552551</t>
+    <t xml:space="preserve">3.81583499908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82661962509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82841753959656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547512054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90031242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87335157394409</t>
   </si>
   <si>
     <t xml:space="preserve">3.84639120101929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8374035358429</t>
+    <t xml:space="preserve">3.83740401268005</t>
   </si>
   <si>
     <t xml:space="preserve">3.87514901161194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9416515827179</t>
+    <t xml:space="preserve">3.94165182113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.90929865837097</t>
@@ -485,16 +488,16 @@
     <t xml:space="preserve">3.95243573188782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98119425773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97939705848694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88413596153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94884181022644</t>
+    <t xml:space="preserve">3.98119473457336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97939729690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88413572311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94884157180786</t>
   </si>
   <si>
     <t xml:space="preserve">3.87874364852905</t>
@@ -506,34 +509,34 @@
     <t xml:space="preserve">4.02073669433594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00815486907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04050779342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05308961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01714134216309</t>
+    <t xml:space="preserve">4.00815534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04050731658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0530891418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01714181900024</t>
   </si>
   <si>
     <t xml:space="preserve">4.0620756149292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07106351852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06926584243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08903741836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40357828140259</t>
+    <t xml:space="preserve">4.07106304168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295864105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06926488876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08903646469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40357875823975</t>
   </si>
   <si>
     <t xml:space="preserve">4.37661743164062</t>
@@ -542,19 +545,19 @@
     <t xml:space="preserve">4.34606218338013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34785938262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32808828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27236986160278</t>
+    <t xml:space="preserve">4.34785890579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32808780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27237033843994</t>
   </si>
   <si>
     <t xml:space="preserve">4.11599731445312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03691291809082</t>
+    <t xml:space="preserve">4.03691244125366</t>
   </si>
   <si>
     <t xml:space="preserve">3.9847891330719</t>
@@ -566,52 +569,49 @@
     <t xml:space="preserve">3.95603108406067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92008376121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91828584671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94704413414001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93266487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84099841117859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86795926094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90390706062317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94524645805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96359634399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112129211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98194646835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06819152832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94524669647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89019656181335</t>
+    <t xml:space="preserve">3.92008280754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91828560829163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94704365730286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93266439437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84099912643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86795949935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90390658378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94524621963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96359658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112153053284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98194670677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06819200515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89019632339478</t>
   </si>
   <si>
     <t xml:space="preserve">3.87184643745422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92689681053162</t>
+    <t xml:space="preserve">3.92689657211304</t>
   </si>
   <si>
     <t xml:space="preserve">4.06452131271362</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">4.128746509552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17462205886841</t>
+    <t xml:space="preserve">4.17462158203125</t>
   </si>
   <si>
     <t xml:space="preserve">4.12691164016724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10672616958618</t>
+    <t xml:space="preserve">4.10672664642334</t>
   </si>
   <si>
     <t xml:space="preserve">4.05901622772217</t>
@@ -641,49 +641,49 @@
     <t xml:space="preserve">4.05351161956787</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0828709602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03332614898682</t>
+    <t xml:space="preserve">4.08287143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03332662582397</t>
   </si>
   <si>
     <t xml:space="preserve">4.07369661331177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0920467376709</t>
+    <t xml:space="preserve">4.09204626083374</t>
   </si>
   <si>
     <t xml:space="preserve">4.08103656768799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05534648895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09021139144897</t>
+    <t xml:space="preserve">4.05534696578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09021186828613</t>
   </si>
   <si>
     <t xml:space="preserve">4.06268644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15260171890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15627193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16544628143311</t>
+    <t xml:space="preserve">4.15260124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15627145767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16544580459595</t>
   </si>
   <si>
     <t xml:space="preserve">4.11039638519287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09388160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20948600769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1544361114502</t>
+    <t xml:space="preserve">4.09388113021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20948648452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15443658828735</t>
   </si>
   <si>
     <t xml:space="preserve">4.13792133331299</t>
@@ -695,10 +695,10 @@
     <t xml:space="preserve">4.11957120895386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13608646392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15076684951782</t>
+    <t xml:space="preserve">4.13608598709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15076589584351</t>
   </si>
   <si>
     <t xml:space="preserve">4.10305643081665</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">4.11223125457764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07002639770508</t>
+    <t xml:space="preserve">4.07002687454224</t>
   </si>
   <si>
     <t xml:space="preserve">4.10122108459473</t>
@@ -722,28 +722,28 @@
     <t xml:space="preserve">4.18379640579224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21132183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05167675018311</t>
+    <t xml:space="preserve">4.21132135391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09755182266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05167627334595</t>
   </si>
   <si>
     <t xml:space="preserve">4.01864624023438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07920122146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1342511177063</t>
+    <t xml:space="preserve">4.07920169830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13425159454346</t>
   </si>
   <si>
     <t xml:space="preserve">4.21866178512573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13241672515869</t>
+    <t xml:space="preserve">4.13241720199585</t>
   </si>
   <si>
     <t xml:space="preserve">4.12140655517578</t>
@@ -752,34 +752,34 @@
     <t xml:space="preserve">4.11590147018433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11773633956909</t>
+    <t xml:space="preserve">4.11773681640625</t>
   </si>
   <si>
     <t xml:space="preserve">4.14709663391113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14893102645874</t>
+    <t xml:space="preserve">4.14893054962158</t>
   </si>
   <si>
     <t xml:space="preserve">4.19113636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19297170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99662637710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04433631896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9856162071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94341111183167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02048206329346</t>
+    <t xml:space="preserve">4.19297122955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99662661552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04433679580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94341135025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02048110961914</t>
   </si>
   <si>
     <t xml:space="preserve">3.92322683334351</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">4.03516101837158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08654117584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04800748825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96726608276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92506146430969</t>
+    <t xml:space="preserve">4.08654165267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04800653457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96726703643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92506170272827</t>
   </si>
   <si>
     <t xml:space="preserve">3.91772150993347</t>
@@ -806,82 +806,82 @@
     <t xml:space="preserve">4.0002965927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97277164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93790674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99846124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04617118835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88102126121521</t>
+    <t xml:space="preserve">3.97277116775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93790626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846148490906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04617071151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88102173805237</t>
   </si>
   <si>
     <t xml:space="preserve">3.85349631309509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95442152023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83514618873596</t>
+    <t xml:space="preserve">3.95442175865173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83514642715454</t>
   </si>
   <si>
     <t xml:space="preserve">3.89937138557434</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90854668617249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93607115745544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267161369324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597184181213</t>
+    <t xml:space="preserve">3.90854692459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93607187271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86267185211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597136497498</t>
   </si>
   <si>
     <t xml:space="preserve">3.78927183151245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.807621717453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02039480209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04857492446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03918123245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97342658042908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9922137260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02978706359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96403360366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89827966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91706657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77616453170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70101690292358</t>
+    <t xml:space="preserve">3.80762147903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02039432525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04857444763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03918075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97342681884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99221348762512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02978754043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96403336524963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89827919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91706609725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77616429328918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70101714134216</t>
   </si>
   <si>
     <t xml:space="preserve">3.75737762451172</t>
@@ -890,31 +890,31 @@
     <t xml:space="preserve">3.73859095573425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71980428695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71041059494019</t>
+    <t xml:space="preserve">3.71980381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71041035652161</t>
   </si>
   <si>
     <t xml:space="preserve">3.63526272773743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62586975097656</t>
+    <t xml:space="preserve">3.62586951255798</t>
   </si>
   <si>
     <t xml:space="preserve">3.52254176139832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42860722541809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28770565986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35345959663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33467292785645</t>
+    <t xml:space="preserve">3.42860746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28770542144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35345983505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33467268943787</t>
   </si>
   <si>
     <t xml:space="preserve">3.37224650382996</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">3.38163995742798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45678758621216</t>
+    <t xml:space="preserve">3.45678782463074</t>
   </si>
   <si>
     <t xml:space="preserve">3.46618103981018</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">3.36285305023193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44739437103271</t>
+    <t xml:space="preserve">3.44739413261414</t>
   </si>
   <si>
     <t xml:space="preserve">3.43800067901611</t>
@@ -941,46 +941,46 @@
     <t xml:space="preserve">3.40042662620544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47557425498962</t>
+    <t xml:space="preserve">3.47557473182678</t>
   </si>
   <si>
     <t xml:space="preserve">3.49436140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31588554382324</t>
+    <t xml:space="preserve">3.3158860206604</t>
   </si>
   <si>
     <t xml:space="preserve">3.60708236694336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56950879096985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50375461578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65404963493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48496770858765</t>
+    <t xml:space="preserve">3.56950855255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50375485420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65404987335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48496794700623</t>
   </si>
   <si>
     <t xml:space="preserve">3.68222999572754</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59768915176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61647605895996</t>
+    <t xml:space="preserve">3.59768891334534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61647582054138</t>
   </si>
   <si>
     <t xml:space="preserve">3.66344332695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58829545974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55072212219238</t>
+    <t xml:space="preserve">3.58829569816589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5507218837738</t>
   </si>
   <si>
     <t xml:space="preserve">3.53193497657776</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">3.56011533737183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57890224456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64465665817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67283701896667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314806938171</t>
+    <t xml:space="preserve">3.57890200614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64465618133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6728367805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314830780029</t>
   </si>
   <si>
     <t xml:space="preserve">3.70352864265442</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">3.54921507835388</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62637186050415</t>
+    <t xml:space="preserve">3.62637209892273</t>
   </si>
   <si>
     <t xml:space="preserve">3.58779358863831</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">3.66495037078857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68423938751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78068566322327</t>
+    <t xml:space="preserve">3.68423962593079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78068542480469</t>
   </si>
   <si>
     <t xml:space="preserve">3.7999746799469</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">3.81926417350769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8385534286499</t>
+    <t xml:space="preserve">3.83855319023132</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">3.51063656806946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41419076919556</t>
+    <t xml:space="preserve">3.41419053077698</t>
   </si>
   <si>
     <t xml:space="preserve">3.43347978591919</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">3.33703374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27916622161865</t>
+    <t xml:space="preserve">3.27916598320007</t>
   </si>
   <si>
     <t xml:space="preserve">3.18271994590759</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">3.14414167404175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20200896263123</t>
+    <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
     <t xml:space="preserve">3.10556316375732</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">3.02840662002563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91267108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85480356216431</t>
+    <t xml:space="preserve">2.91267085075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85480332374573</t>
   </si>
   <si>
     <t xml:space="preserve">2.71977877616882</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">3.08627390861511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12485241889954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98982763290405</t>
+    <t xml:space="preserve">3.12485265731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98982787132263</t>
   </si>
   <si>
     <t xml:space="preserve">2.95124936103821</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">2.75835728645325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77764678001404</t>
+    <t xml:space="preserve">2.77764654159546</t>
   </si>
   <si>
     <t xml:space="preserve">2.73906803131104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54617595672607</t>
+    <t xml:space="preserve">2.54617619514465</t>
   </si>
   <si>
     <t xml:space="preserve">2.62333297729492</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">2.16039180755615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04465627670288</t>
+    <t xml:space="preserve">2.04465651512146</t>
   </si>
   <si>
     <t xml:space="preserve">2.21825933456421</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">2.23754858970642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02536725997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.198970079422</t>
+    <t xml:space="preserve">2.02536702156067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19897031784058</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683784484863</t>
+    <t xml:space="preserve">2.25683760643005</t>
   </si>
   <si>
     <t xml:space="preserve">2.29541611671448</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">2.26648235321045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41115164756775</t>
+    <t xml:space="preserve">2.41115140914917</t>
   </si>
   <si>
     <t xml:space="preserve">2.47866368293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43044066429138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27612709999084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28577160835266</t>
+    <t xml:space="preserve">2.43044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27612686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28577136993408</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436393737793</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">2.30506086349487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2279040813446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24719333648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35328412055969</t>
+    <t xml:space="preserve">2.22790384292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24719309806824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35328388214111</t>
   </si>
   <si>
     <t xml:space="preserve">2.32434988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17968082427979</t>
+    <t xml:space="preserve">2.17968106269836</t>
   </si>
   <si>
     <t xml:space="preserve">2.18932557106018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17003631591797</t>
+    <t xml:space="preserve">2.17003655433655</t>
   </si>
   <si>
     <t xml:space="preserve">2.1314582824707</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">2.11216878890991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07359027862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03501176834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98678886890411</t>
+    <t xml:space="preserve">2.07359051704407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03501200675964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98678874969482</t>
   </si>
   <si>
     <t xml:space="preserve">1.92409896850586</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">1.95785510540009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20861458778381</t>
+    <t xml:space="preserve">2.20861482620239</t>
   </si>
   <si>
     <t xml:space="preserve">2.15074729919434</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">2.37257313728333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38221788406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56546521186829</t>
+    <t xml:space="preserve">2.38221764564514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56546545028687</t>
   </si>
   <si>
     <t xml:space="preserve">2.87409257888794</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">2.64262223243713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59439897537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6812002658844</t>
+    <t xml:space="preserve">2.59439921379089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68120050430298</t>
   </si>
   <si>
     <t xml:space="preserve">2.65226674079895</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">2.51724195480347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70048952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71013402938843</t>
+    <t xml:space="preserve">2.70048975944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71013426780701</t>
   </si>
   <si>
     <t xml:space="preserve">2.69084501266479</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">2.72942352294922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78729128837585</t>
+    <t xml:space="preserve">2.78729104995728</t>
   </si>
   <si>
     <t xml:space="preserve">2.94160485267639</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">2.98018312454224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96089386940002</t>
+    <t xml:space="preserve">2.9608941078186</t>
   </si>
   <si>
     <t xml:space="preserve">3.03805112838745</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">3.16343092918396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21165347099304</t>
+    <t xml:space="preserve">3.21165370941162</t>
   </si>
   <si>
     <t xml:space="preserve">3.23094296455383</t>
@@ -1394,19 +1394,19 @@
     <t xml:space="preserve">3.25987696647644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30809998512268</t>
+    <t xml:space="preserve">3.3080997467041</t>
   </si>
   <si>
     <t xml:space="preserve">3.32738924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25023221969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09591841697693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07662916183472</t>
+    <t xml:space="preserve">3.25023198127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09591865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0766294002533</t>
   </si>
   <si>
     <t xml:space="preserve">3.01876187324524</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">3.05734038352966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92231583595276</t>
+    <t xml:space="preserve">2.92231559753418</t>
   </si>
   <si>
     <t xml:space="preserve">2.93196034431458</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.90302634239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88373732566833</t>
+    <t xml:space="preserve">2.88373708724976</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.84515881538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80658054351807</t>
+    <t xml:space="preserve">2.80658030509949</t>
   </si>
   <si>
     <t xml:space="preserve">3.11520767211914</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">3.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59743785858154</t>
+    <t xml:space="preserve">3.59743809700012</t>
   </si>
   <si>
     <t xml:space="preserve">3.67459487915039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71317338943481</t>
+    <t xml:space="preserve">3.71317315101624</t>
   </si>
   <si>
     <t xml:space="preserve">3.79033017158508</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">3.98322248458862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0507345199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97357773780823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002353668213</t>
+    <t xml:space="preserve">4.05073404312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97357749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002401351929</t>
   </si>
   <si>
     <t xml:space="preserve">4.20504856109619</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">4.34971761703491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34007263183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794015884399</t>
+    <t xml:space="preserve">4.3400731086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794063568115</t>
   </si>
   <si>
     <t xml:space="preserve">4.42687463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45580816268921</t>
+    <t xml:space="preserve">4.45580768585205</t>
   </si>
   <si>
     <t xml:space="preserve">4.22433757781982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08931255340576</t>
+    <t xml:space="preserve">4.08931303024292</t>
   </si>
   <si>
     <t xml:space="preserve">4.03144502639771</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">4.1857590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14718055725098</t>
+    <t xml:space="preserve">4.14718103408813</t>
   </si>
   <si>
     <t xml:space="preserve">4.02180099487305</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">4.17611455917358</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33042764663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51367568969727</t>
+    <t xml:space="preserve">4.33042812347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51367521286011</t>
   </si>
   <si>
     <t xml:space="preserve">4.46545267105103</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">4.47509717941284</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49438667297363</t>
+    <t xml:space="preserve">4.49438619613647</t>
   </si>
   <si>
     <t xml:space="preserve">4.44616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41722917556763</t>
+    <t xml:space="preserve">4.41722965240479</t>
   </si>
   <si>
     <t xml:space="preserve">4.64869976043701</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">4.72585725784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63905572891235</t>
+    <t xml:space="preserve">4.6390552520752</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
@@ -1604,10 +1604,10 @@
     <t xml:space="preserve">4.61012172698975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57154321670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27256011962891</t>
+    <t xml:space="preserve">4.57154273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27256059646606</t>
   </si>
   <si>
     <t xml:space="preserve">4.11824655532837</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">4.67763376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78372478485107</t>
+    <t xml:space="preserve">4.78372430801392</t>
   </si>
   <si>
     <t xml:space="preserve">4.89945983886719</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">5.59387159347534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49742555618286</t>
+    <t xml:space="preserve">5.4974250793457</t>
   </si>
   <si>
     <t xml:space="preserve">5.28524446487427</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026805877686</t>
+    <t xml:space="preserve">5.42026853561401</t>
   </si>
   <si>
     <t xml:space="preserve">5.38169002532959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088132858276</t>
+    <t xml:space="preserve">4.86088180541992</t>
   </si>
   <si>
     <t xml:space="preserve">4.84159183502197</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">4.46999979019165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17000007629395</t>
+    <t xml:space="preserve">4.23000001907349</t>
   </si>
 </sst>
 </file>
@@ -9169,7 +9169,7 @@
         <v>4.37799978256226</v>
       </c>
       <c r="G257" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9221,7 +9221,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G259" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9247,7 +9247,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G260" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9273,7 +9273,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G261" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9299,7 +9299,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G262" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9325,7 +9325,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G263" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9351,7 +9351,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G264" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9377,7 +9377,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G265" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9403,7 +9403,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G266" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9481,7 +9481,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G269" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9507,7 +9507,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G270" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9585,7 +9585,7 @@
         <v>4.31199979782104</v>
       </c>
       <c r="G273" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9611,7 +9611,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G274" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9663,7 +9663,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G276" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9689,7 +9689,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G277" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9715,7 +9715,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G278" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9741,7 +9741,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G279" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9767,7 +9767,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G280" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9845,7 +9845,7 @@
         <v>4.32200002670288</v>
       </c>
       <c r="G283" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9871,7 +9871,7 @@
         <v>4.32200002670288</v>
       </c>
       <c r="G284" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9923,7 +9923,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G286" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9949,7 +9949,7 @@
         <v>4.39400005340576</v>
       </c>
       <c r="G287" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10001,7 +10001,7 @@
         <v>4.31599998474121</v>
       </c>
       <c r="G289" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10079,7 +10079,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G292" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10105,7 +10105,7 @@
         <v>4.47399997711182</v>
       </c>
       <c r="G293" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10157,7 +10157,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G295" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10209,7 +10209,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G297" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10235,7 +10235,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G298" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10287,7 +10287,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G300" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10339,7 +10339,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G302" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10391,7 +10391,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G304" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10417,7 +10417,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G305" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10495,7 +10495,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G308" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10599,7 +10599,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G312" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10625,7 +10625,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G313" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10651,7 +10651,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G314" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10677,7 +10677,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G315" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10703,7 +10703,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G316" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10729,7 +10729,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G317" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10755,7 +10755,7 @@
         <v>4.83599996566772</v>
       </c>
       <c r="G318" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10781,7 +10781,7 @@
         <v>4.83799982070923</v>
       </c>
       <c r="G319" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10807,7 +10807,7 @@
         <v>4.81599998474121</v>
       </c>
       <c r="G320" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10833,7 +10833,7 @@
         <v>4.75400018692017</v>
       </c>
       <c r="G321" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10859,7 +10859,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10885,7 +10885,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G323" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10937,7 +10937,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G325" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10963,7 +10963,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G326" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10989,7 +10989,7 @@
         <v>4.43400001525879</v>
       </c>
       <c r="G327" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11015,7 +11015,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G328" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11145,7 +11145,7 @@
         <v>4.40199995040894</v>
       </c>
       <c r="G333" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11171,7 +11171,7 @@
         <v>4.36199998855591</v>
       </c>
       <c r="G334" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11197,7 +11197,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G335" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11301,7 +11301,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G339" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11327,7 +11327,7 @@
         <v>4.37599992752075</v>
       </c>
       <c r="G340" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11353,7 +11353,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G341" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11379,7 +11379,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G342" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11457,7 +11457,7 @@
         <v>4.30399990081787</v>
       </c>
       <c r="G345" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11639,7 +11639,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G352" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11665,7 +11665,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G353" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11691,7 +11691,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G354" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11717,7 +11717,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G355" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11743,7 +11743,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G356" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11769,7 +11769,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G357" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11795,7 +11795,7 @@
         <v>4.43400001525879</v>
       </c>
       <c r="G358" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11821,7 +11821,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G359" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12107,7 +12107,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15123,7 +15123,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G486" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15175,7 +15175,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16345,7 +16345,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G533" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16371,7 +16371,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G534" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16475,7 +16475,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16657,7 +16657,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G545" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16683,7 +16683,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G546" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16709,7 +16709,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G547" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16787,7 +16787,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G550" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16813,7 +16813,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G551" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16839,7 +16839,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17099,7 +17099,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G562" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17177,7 +17177,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G565" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17203,7 +17203,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17229,7 +17229,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G567" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17749,7 +17749,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G587" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18165,7 +18165,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G603" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18191,7 +18191,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G604" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18269,7 +18269,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G607" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18581,7 +18581,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G619" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18815,7 +18815,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18841,7 +18841,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G629" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18919,7 +18919,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18945,7 +18945,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19309,7 +19309,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19335,7 +19335,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19361,7 +19361,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G649" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19387,7 +19387,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G650" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19413,7 +19413,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G651" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19439,7 +19439,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19465,7 +19465,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G653" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19491,7 +19491,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19543,7 +19543,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19673,7 +19673,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G661" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19699,7 +19699,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G662" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19725,7 +19725,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19751,7 +19751,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G664" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19777,7 +19777,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G665" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19803,7 +19803,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20037,7 +20037,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G675" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20063,7 +20063,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G676" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20557,7 +20557,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20583,7 +20583,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G696" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -59357,10 +59357,10 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.5714467593</v>
+        <v>45509.6423842593</v>
       </c>
       <c r="B2188" t="n">
-        <v>7109</v>
+        <v>7474</v>
       </c>
       <c r="C2188" t="n">
         <v>4.55000019073486</v>
@@ -59372,7 +59372,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="F2188" t="n">
-        <v>4.17000007629395</v>
+        <v>4.23000001907349</v>
       </c>
       <c r="G2188" t="s">
         <v>713</v>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="716">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,259 +44,259 @@
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87106013298035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458181381226</t>
+    <t xml:space="preserve">3.87106037139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458276748657</t>
   </si>
   <si>
     <t xml:space="preserve">3.86577606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86401510238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78652334213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74249458312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532980918884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77771759033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62977981567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733144760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65443587303162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66324138641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6438684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48712396621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61040616035461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68965935707092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66676378250122</t>
+    <t xml:space="preserve">3.86401557922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78652405738831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74249410629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532933235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77771735191345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62977910041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.677330493927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65443563461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66324162483215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64386868476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48712420463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61040592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6896595954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6667640209198</t>
   </si>
   <si>
     <t xml:space="preserve">3.60336136817932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68085312843323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56637740135193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.539959192276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61568975448608</t>
+    <t xml:space="preserve">3.68085289001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56637692451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53995895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6156895160675</t>
   </si>
   <si>
     <t xml:space="preserve">3.64915204048157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65267419815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65091347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64210772514343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59455537796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71431541442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75130033493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81294107437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356908798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225438117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81470251083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80941891670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73368787765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73721027374268</t>
+    <t xml:space="preserve">3.65267443656921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65091276168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64210748672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59455561637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71431565284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.751300573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81294131278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356837272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.814701795578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80941915512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73368835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73721075057983</t>
   </si>
   <si>
     <t xml:space="preserve">3.71255421638489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73192763328552</t>
+    <t xml:space="preserve">3.73192739486694</t>
   </si>
   <si>
     <t xml:space="preserve">3.721360206604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76891255378723</t>
+    <t xml:space="preserve">3.76891207695007</t>
   </si>
   <si>
     <t xml:space="preserve">3.76538944244385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74953889846802</t>
+    <t xml:space="preserve">3.74953866004944</t>
   </si>
   <si>
     <t xml:space="preserve">3.74601674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73016619682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69846510887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68613648414612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72488260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82350826263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95383501052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91861128807068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446278572083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9837749004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94326853752136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508936882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98553681373596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91332793235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89395475387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96087980270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219427108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622279167175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92741703987122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88338851928711</t>
+    <t xml:space="preserve">3.73016595840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6984646320343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68613719940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72488284111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8235080242157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95383453369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9186110496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446207046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98377585411072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326782226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98553586006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91332817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89395523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9608793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219403266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622350692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92741727828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88338804244995</t>
   </si>
   <si>
     <t xml:space="preserve">3.99916744232178</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02612829208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220754623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759938240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04410266876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98299121856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423364639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625950813293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88233780860901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92727303504944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92367839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560681343079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89132499694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86436438560486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86256647109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8194305896759</t>
+    <t xml:space="preserve">4.0261287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220706939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99018144607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759985923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04410219192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98299145698547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9542338848114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625974655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88233828544617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92727279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9236786365509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8913254737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86436486244202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86256670951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81943035125732</t>
   </si>
   <si>
     <t xml:space="preserve">3.70799255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76550912857056</t>
+    <t xml:space="preserve">3.76550936698914</t>
   </si>
   <si>
     <t xml:space="preserve">3.59475779533386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61273145675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67923426628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63070487976074</t>
+    <t xml:space="preserve">3.61273121833801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67923450469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63070511817932</t>
   </si>
   <si>
     <t xml:space="preserve">3.62171864509583</t>
@@ -308,52 +308,52 @@
     <t xml:space="preserve">3.63789463043213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68103194236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57318949699402</t>
+    <t xml:space="preserve">3.68103218078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57318925857544</t>
   </si>
   <si>
     <t xml:space="preserve">3.61632633209229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60374450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64688158035278</t>
+    <t xml:space="preserve">3.6037449836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64688181877136</t>
   </si>
   <si>
     <t xml:space="preserve">3.69181609153748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73675060272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75652194023132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80325365066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86616134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81763243675232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81044268608093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7924690246582</t>
+    <t xml:space="preserve">3.73675084114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75652122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80325388908386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86616182327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81763291358948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81044292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79246926307678</t>
   </si>
   <si>
     <t xml:space="preserve">3.7439398765564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77449536323547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067206382751</t>
+    <t xml:space="preserve">3.77449560165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067230224609</t>
   </si>
   <si>
     <t xml:space="preserve">3.77629327774048</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">3.78887438774109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74753451347351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75112962722778</t>
+    <t xml:space="preserve">3.74753522872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7511293888092</t>
   </si>
   <si>
     <t xml:space="preserve">3.80145645141602</t>
@@ -374,55 +374,55 @@
     <t xml:space="preserve">3.73315572738647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78348278999329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72416877746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77090072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72057390213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371121406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70978975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70260071754456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73854780197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956156730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237157821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72776389122009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75292730331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831913948059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69541072845459</t>
+    <t xml:space="preserve">3.78348231315613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72416925430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77090120315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72057414054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371169090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596597671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70978951454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70260000228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73854804039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237205505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72776341438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75292706489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831890106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69541096687317</t>
   </si>
   <si>
     <t xml:space="preserve">3.68462657928467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69361329078674</t>
+    <t xml:space="preserve">3.69361352920532</t>
   </si>
   <si>
     <t xml:space="preserve">3.66485548019409</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">3.68822169303894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73135805130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7133846282959</t>
+    <t xml:space="preserve">3.73135876655579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338438987732</t>
   </si>
   <si>
     <t xml:space="preserve">3.78168559074402</t>
@@ -443,31 +443,31 @@
     <t xml:space="preserve">3.83380913734436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81224060058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81583523750305</t>
+    <t xml:space="preserve">3.81224036216736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81583499908447</t>
   </si>
   <si>
     <t xml:space="preserve">3.82661938667297</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82841730117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547583580017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446230888367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9218807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90031266212463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87335181236267</t>
+    <t xml:space="preserve">3.82841753959656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547535896301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446254730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188048362732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90031218528748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87335109710693</t>
   </si>
   <si>
     <t xml:space="preserve">3.84639096260071</t>
@@ -476,40 +476,40 @@
     <t xml:space="preserve">3.83740377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87514877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94165253639221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929913520813</t>
+    <t xml:space="preserve">3.8751482963562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9416515827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929889678955</t>
   </si>
   <si>
     <t xml:space="preserve">3.95243620872498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98119401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97939682006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88413572311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94884157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87874341011047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01534461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02073621749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00815391540527</t>
+    <t xml:space="preserve">3.98119378089905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97939658164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88413524627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94884181022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87874293327332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01534414291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073669433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00815439224243</t>
   </si>
   <si>
     <t xml:space="preserve">4.04050731658936</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">4.0530891418457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01714134216309</t>
+    <t xml:space="preserve">4.01714181900024</t>
   </si>
   <si>
     <t xml:space="preserve">4.06207609176636</t>
@@ -527,28 +527,28 @@
     <t xml:space="preserve">4.07106351852417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14295816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06926584243774</t>
+    <t xml:space="preserve">4.14295864105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0692663192749</t>
   </si>
   <si>
     <t xml:space="preserve">4.08903694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40357828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37661695480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34606266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34785938262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32808780670166</t>
+    <t xml:space="preserve">4.40357875823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37661743164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34606170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34785890579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32808828353882</t>
   </si>
   <si>
     <t xml:space="preserve">4.27236986160278</t>
@@ -566,28 +566,28 @@
     <t xml:space="preserve">4.04230499267578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95603036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92008328437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91828656196594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94704437255859</t>
+    <t xml:space="preserve">3.95603060722351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92008352279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91828632354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94704461097717</t>
   </si>
   <si>
     <t xml:space="preserve">3.93266487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84099888801575</t>
+    <t xml:space="preserve">3.84099864959717</t>
   </si>
   <si>
     <t xml:space="preserve">3.86795902252197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90390682220459</t>
+    <t xml:space="preserve">3.90390658378601</t>
   </si>
   <si>
     <t xml:space="preserve">3.94524645805359</t>
@@ -596,16 +596,16 @@
     <t xml:space="preserve">3.96359634399414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99112153053284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98194694519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06819105148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8901960849762</t>
+    <t xml:space="preserve">3.99112129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98194646835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06819152832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89019656181335</t>
   </si>
   <si>
     <t xml:space="preserve">3.87184619903564</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">4.12691164016724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10672616958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05901575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03699636459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99479174613953</t>
+    <t xml:space="preserve">4.10672664642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05901622772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03699684143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99479150772095</t>
   </si>
   <si>
     <t xml:space="preserve">4.05351161956787</t>
@@ -650,10 +650,10 @@
     <t xml:space="preserve">4.07369661331177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09204578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08103609085083</t>
+    <t xml:space="preserve">4.09204626083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08103656768799</t>
   </si>
   <si>
     <t xml:space="preserve">4.05534648895264</t>
@@ -662,13 +662,13 @@
     <t xml:space="preserve">4.09021186828613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0626859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15260171890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15627193450928</t>
+    <t xml:space="preserve">4.06268644332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15260124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15627145767212</t>
   </si>
   <si>
     <t xml:space="preserve">4.16544675827026</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">4.11039638519287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09388113021851</t>
+    <t xml:space="preserve">4.09388160705566</t>
   </si>
   <si>
     <t xml:space="preserve">4.20948648452759</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">4.15443658828735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13792133331299</t>
+    <t xml:space="preserve">4.13792181015015</t>
   </si>
   <si>
     <t xml:space="preserve">4.12507629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11957168579102</t>
+    <t xml:space="preserve">4.1195707321167</t>
   </si>
   <si>
     <t xml:space="preserve">4.13608646392822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15076637268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10305690765381</t>
+    <t xml:space="preserve">4.15076684951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10305643081665</t>
   </si>
   <si>
     <t xml:space="preserve">4.17278623580933</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">4.11223125457764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07002687454224</t>
+    <t xml:space="preserve">4.07002639770508</t>
   </si>
   <si>
     <t xml:space="preserve">4.10122156143188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16911697387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18379592895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21132135391235</t>
+    <t xml:space="preserve">4.16911649703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18379640579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21132183074951</t>
   </si>
   <si>
     <t xml:space="preserve">4.0975513458252</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">4.05167627334595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01864624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07920122146606</t>
+    <t xml:space="preserve">4.01864671707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07920169830322</t>
   </si>
   <si>
     <t xml:space="preserve">4.13425159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21866130828857</t>
+    <t xml:space="preserve">4.21866178512573</t>
   </si>
   <si>
     <t xml:space="preserve">4.13241624832153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12140655517578</t>
+    <t xml:space="preserve">4.12140703201294</t>
   </si>
   <si>
     <t xml:space="preserve">4.11590147018433</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">4.14709615707397</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14893102645874</t>
+    <t xml:space="preserve">4.1489315032959</t>
   </si>
   <si>
     <t xml:space="preserve">4.19113636016846</t>
@@ -767,49 +767,49 @@
     <t xml:space="preserve">4.19297170639038</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99662661552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04433679580688</t>
+    <t xml:space="preserve">3.99662637710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04433631896973</t>
   </si>
   <si>
     <t xml:space="preserve">3.9856162071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94341063499451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02048206329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92322611808777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03516149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08654165267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04800701141357</t>
+    <t xml:space="preserve">3.94341135025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0204815864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92322635650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03516101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08654117584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04800653457642</t>
   </si>
   <si>
     <t xml:space="preserve">3.96726655960083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92506194114685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91772127151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00029706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97277140617371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93790650367737</t>
+    <t xml:space="preserve">3.92506170272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91772174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0002965927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97277164459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93790674209595</t>
   </si>
   <si>
     <t xml:space="preserve">3.99846124649048</t>
@@ -821,64 +821,64 @@
     <t xml:space="preserve">3.88102173805237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85349631309509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95442199707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8351469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89937210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90854668617249</t>
+    <t xml:space="preserve">3.85349655151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95442152023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83514642715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89937162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90854716300964</t>
   </si>
   <si>
     <t xml:space="preserve">3.93607139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86267185211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597136497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78927183151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80762219429016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02039480209351</t>
+    <t xml:space="preserve">3.86267161369324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597184181213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78927206993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80762147903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02039432525635</t>
   </si>
   <si>
     <t xml:space="preserve">4.04857492446899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03918075561523</t>
+    <t xml:space="preserve">4.03918123245239</t>
   </si>
   <si>
     <t xml:space="preserve">3.97342705726624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99221420288086</t>
+    <t xml:space="preserve">3.9922137260437</t>
   </si>
   <si>
     <t xml:space="preserve">4.02978754043579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96403336524963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89827990531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91706609725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77616477012634</t>
+    <t xml:space="preserve">3.96403360366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89827966690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9170663356781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77616453170776</t>
   </si>
   <si>
     <t xml:space="preserve">3.70101690292358</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">3.75737762451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73859071731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71980381011963</t>
+    <t xml:space="preserve">3.73859095573425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71980428695679</t>
   </si>
   <si>
     <t xml:space="preserve">3.71041059494019</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">3.63526272773743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6258692741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52254176139832</t>
+    <t xml:space="preserve">3.62586951255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52254152297974</t>
   </si>
   <si>
     <t xml:space="preserve">3.42860722541809</t>
@@ -911,28 +911,28 @@
     <t xml:space="preserve">3.28770542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35345959663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33467268943787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37224650382996</t>
+    <t xml:space="preserve">3.35345983505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33467292785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37224626541138</t>
   </si>
   <si>
     <t xml:space="preserve">3.38163995742798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45678782463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4661808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36285281181335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44739413261414</t>
+    <t xml:space="preserve">3.45678758621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46618103981018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36285305023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44739437103271</t>
   </si>
   <si>
     <t xml:space="preserve">3.43800067901611</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">3.49436140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31588578224182</t>
+    <t xml:space="preserve">3.31588554382324</t>
   </si>
   <si>
     <t xml:space="preserve">3.60708260536194</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">3.56950879096985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50375485420227</t>
+    <t xml:space="preserve">3.50375461578369</t>
   </si>
   <si>
     <t xml:space="preserve">3.65404987335205</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">3.59768915176392</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61647582054138</t>
+    <t xml:space="preserve">3.61647605895996</t>
   </si>
   <si>
     <t xml:space="preserve">3.66344332695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58829569816589</t>
+    <t xml:space="preserve">3.58829545974731</t>
   </si>
   <si>
     <t xml:space="preserve">3.5507218837738</t>
@@ -986,16 +986,16 @@
     <t xml:space="preserve">3.53193521499634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56011557579041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57890248298645</t>
+    <t xml:space="preserve">3.56011533737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57890224456787</t>
   </si>
   <si>
     <t xml:space="preserve">3.64465641975403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67283654212952</t>
+    <t xml:space="preserve">3.6728367805481</t>
   </si>
   <si>
     <t xml:space="preserve">3.51314806938171</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">3.70352864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54921531677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62637209892273</t>
+    <t xml:space="preserve">3.54921507835388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62637186050415</t>
   </si>
   <si>
     <t xml:space="preserve">3.58779358863831</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">3.74210715293884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81926393508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83855319023132</t>
+    <t xml:space="preserve">3.81926417350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8385534286499</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">3.76139640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72281765937805</t>
+    <t xml:space="preserve">3.72281789779663</t>
   </si>
   <si>
     <t xml:space="preserve">3.64566111564636</t>
@@ -1049,49 +1049,49 @@
     <t xml:space="preserve">3.56850433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52992582321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47205829620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51063680648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41419053077698</t>
+    <t xml:space="preserve">3.52992606163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47205805778503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51063656806946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41419076919556</t>
   </si>
   <si>
     <t xml:space="preserve">3.43347978591919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45276880264282</t>
+    <t xml:space="preserve">3.4527690410614</t>
   </si>
   <si>
     <t xml:space="preserve">3.37561202049255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39490151405334</t>
+    <t xml:space="preserve">3.39490127563477</t>
   </si>
   <si>
     <t xml:space="preserve">3.33703374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27916598320007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18272018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22129821777344</t>
+    <t xml:space="preserve">3.27916622161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18271994590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22129845619202</t>
   </si>
   <si>
     <t xml:space="preserve">3.14414167404175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2020092010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1055634021759</t>
+    <t xml:space="preserve">3.20200896263123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10556316375732</t>
   </si>
   <si>
     <t xml:space="preserve">3.06698489189148</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">2.91267108917236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85480332374573</t>
+    <t xml:space="preserve">2.85480356216431</t>
   </si>
   <si>
     <t xml:space="preserve">2.71977877616882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83551406860352</t>
+    <t xml:space="preserve">2.83551430702209</t>
   </si>
   <si>
     <t xml:space="preserve">2.97053861618042</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">3.12485241889954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98982787132263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95124959945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81622505187988</t>
+    <t xml:space="preserve">2.98982763290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95124936103821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8162248134613</t>
   </si>
   <si>
     <t xml:space="preserve">2.79693579673767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75835704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77764654159546</t>
+    <t xml:space="preserve">2.75835728645325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77764678001404</t>
   </si>
   <si>
     <t xml:space="preserve">2.73906803131104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54617619514465</t>
+    <t xml:space="preserve">2.54617595672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.62333297729492</t>
@@ -1160,16 +1160,16 @@
     <t xml:space="preserve">2.60404372215271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58475470542908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50759768486023</t>
+    <t xml:space="preserve">2.5847544670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50759744644165</t>
   </si>
   <si>
     <t xml:space="preserve">2.46901917457581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3339946269989</t>
+    <t xml:space="preserve">2.33399486541748</t>
   </si>
   <si>
     <t xml:space="preserve">2.16039180755615</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">2.14110279083252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23754835128784</t>
+    <t xml:space="preserve">2.23754858970642</t>
   </si>
   <si>
     <t xml:space="preserve">2.02536725997925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19897031784058</t>
+    <t xml:space="preserve">2.198970079422</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683760643005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29541635513306</t>
+    <t xml:space="preserve">2.25683784484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29541611671448</t>
   </si>
   <si>
     <t xml:space="preserve">2.31470537185669</t>
@@ -1208,52 +1208,52 @@
     <t xml:space="preserve">2.26648235321045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41115140914917</t>
+    <t xml:space="preserve">2.41115164756775</t>
   </si>
   <si>
     <t xml:space="preserve">2.47866368293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43044090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27612686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28577136993408</t>
+    <t xml:space="preserve">2.43044066429138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27612709999084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28577160835266</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436393737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36292839050293</t>
+    <t xml:space="preserve">2.36292862892151</t>
   </si>
   <si>
     <t xml:space="preserve">2.30506086349487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22790384292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24719309806824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35328388214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32435011863708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17968106269836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18932580947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17003655433655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13145804405212</t>
+    <t xml:space="preserve">2.2279040813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24719333648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35328412055969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32434988021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17968082427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18932557106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17003631591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1314582824707</t>
   </si>
   <si>
     <t xml:space="preserve">2.08323502540588</t>
@@ -1271,31 +1271,31 @@
     <t xml:space="preserve">2.03501176834106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9867889881134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92409884929657</t>
+    <t xml:space="preserve">1.98678886890411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92409896850586</t>
   </si>
   <si>
     <t xml:space="preserve">1.92892122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93856585025787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9578549861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20861482620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15074706077576</t>
+    <t xml:space="preserve">1.93856573104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95785510540009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20861458778381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15074729919434</t>
   </si>
   <si>
     <t xml:space="preserve">2.37257313728333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38221764564514</t>
+    <t xml:space="preserve">2.38221788406372</t>
   </si>
   <si>
     <t xml:space="preserve">2.56546521186829</t>
@@ -1307,40 +1307,40 @@
     <t xml:space="preserve">2.66191148757935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64262199401855</t>
+    <t xml:space="preserve">2.64262223243713</t>
   </si>
   <si>
     <t xml:space="preserve">2.59439897537231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68120050430298</t>
+    <t xml:space="preserve">2.6812002658844</t>
   </si>
   <si>
     <t xml:space="preserve">2.65226674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61368846893311</t>
+    <t xml:space="preserve">2.61368823051453</t>
   </si>
   <si>
     <t xml:space="preserve">2.53653168678284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52688670158386</t>
+    <t xml:space="preserve">2.52688694000244</t>
   </si>
   <si>
     <t xml:space="preserve">2.51724195480347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70048975944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71013426780701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69084525108337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72942328453064</t>
+    <t xml:space="preserve">2.70048952102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71013402938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69084501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72942352294922</t>
   </si>
   <si>
     <t xml:space="preserve">2.78729128837585</t>
@@ -1352,19 +1352,19 @@
     <t xml:space="preserve">2.99947237968445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98018336296082</t>
+    <t xml:space="preserve">2.98018312454224</t>
   </si>
   <si>
     <t xml:space="preserve">2.96089386940002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03805088996887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16343069076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21165370941162</t>
+    <t xml:space="preserve">3.03805112838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16343092918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21165347099304</t>
   </si>
   <si>
     <t xml:space="preserve">3.23094296455383</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">3.13449716567993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378642082214</t>
+    <t xml:space="preserve">3.15378618240356</t>
   </si>
   <si>
     <t xml:space="preserve">3.26952147483826</t>
@@ -1394,16 +1394,16 @@
     <t xml:space="preserve">3.30809998512268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32738900184631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25023198127747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09591865539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0766294002533</t>
+    <t xml:space="preserve">3.32738924026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25023221969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09591841697693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07662916183472</t>
   </si>
   <si>
     <t xml:space="preserve">3.01876187324524</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">3.05734038352966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92231559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.931960105896</t>
+    <t xml:space="preserve">2.92231583595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93196034431458</t>
   </si>
   <si>
     <t xml:space="preserve">2.90302634239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88373708724976</t>
+    <t xml:space="preserve">2.88373732566833</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">2.84515881538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80658030509949</t>
+    <t xml:space="preserve">2.80658054351807</t>
   </si>
   <si>
     <t xml:space="preserve">3.11520767211914</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">3.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59743809700012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67459511756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71317315101624</t>
+    <t xml:space="preserve">3.59743785858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67459487915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71317338943481</t>
   </si>
   <si>
     <t xml:space="preserve">3.79033017158508</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">4.0507345199585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97357797622681</t>
+    <t xml:space="preserve">3.97357773780823</t>
   </si>
   <si>
     <t xml:space="preserve">4.07002353668213</t>
@@ -1475,10 +1475,10 @@
     <t xml:space="preserve">4.20504856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26291608810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30149412155151</t>
+    <t xml:space="preserve">4.26291656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30149459838867</t>
   </si>
   <si>
     <t xml:space="preserve">4.23398208618164</t>
@@ -1487,16 +1487,16 @@
     <t xml:space="preserve">4.34971761703491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3400731086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4268741607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45580768585205</t>
+    <t xml:space="preserve">4.34007263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794015884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42687463760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45580816268921</t>
   </si>
   <si>
     <t xml:space="preserve">4.22433757781982</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">4.08931255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03144550323486</t>
+    <t xml:space="preserve">4.03144502639771</t>
   </si>
   <si>
     <t xml:space="preserve">4.24362659454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31113910675049</t>
+    <t xml:space="preserve">4.31113862991333</t>
   </si>
   <si>
     <t xml:space="preserve">4.2918496131897</t>
@@ -1532,22 +1532,22 @@
     <t xml:space="preserve">4.3690071105957</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1278920173645</t>
+    <t xml:space="preserve">4.12789154052734</t>
   </si>
   <si>
     <t xml:space="preserve">4.16647005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25327157974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18575954437256</t>
+    <t xml:space="preserve">4.25327110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1857590675354</t>
   </si>
   <si>
     <t xml:space="preserve">4.14718055725098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02180051803589</t>
+    <t xml:space="preserve">4.02180099487305</t>
   </si>
   <si>
     <t xml:space="preserve">4.0796685218811</t>
@@ -1556,43 +1556,43 @@
     <t xml:space="preserve">4.17611455917358</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33042812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51367521286011</t>
+    <t xml:space="preserve">4.33042764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.46545267105103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37865161895752</t>
+    <t xml:space="preserve">4.37865114212036</t>
   </si>
   <si>
     <t xml:space="preserve">4.48474168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47509670257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49438619613647</t>
+    <t xml:space="preserve">4.47509717941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49438667297363</t>
   </si>
   <si>
     <t xml:space="preserve">4.44616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41722965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64870023727417</t>
+    <t xml:space="preserve">4.41722917556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64869976043701</t>
   </si>
   <si>
     <t xml:space="preserve">4.80301380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72585678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6390552520752</t>
+    <t xml:space="preserve">4.72585725784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63905572891235</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">4.61012172698975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57154273986816</t>
+    <t xml:space="preserve">4.57154321670532</t>
   </si>
   <si>
     <t xml:space="preserve">4.27256011962891</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.67763376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78372430801392</t>
+    <t xml:space="preserve">4.78372478485107</t>
   </si>
   <si>
     <t xml:space="preserve">4.89945983886719</t>
@@ -1634,118 +1634,121 @@
     <t xml:space="preserve">4.97661638259888</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01519536972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45884656906128</t>
+    <t xml:space="preserve">5.0151948928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45884704589844</t>
   </si>
   <si>
     <t xml:space="preserve">5.59387159347534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4974250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28524398803711</t>
+    <t xml:space="preserve">5.49742555618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28524446487427</t>
   </si>
   <si>
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026853561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38169050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86088180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84159231185913</t>
+    <t xml:space="preserve">5.42026805877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38169002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86088132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84159183502197</t>
   </si>
   <si>
     <t xml:space="preserve">4.93803834915161</t>
   </si>
   <si>
+    <t xml:space="preserve">4.73550128936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70608854293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86295795440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87276268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96100187301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13748025894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0198278427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1963062286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07865381240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94139337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90217542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00021886825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79432725906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78452348709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67667579650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61784934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6276535987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75511026382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84334945678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89237117767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72569704055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80413246154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76491498947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92178392410278</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.73550176620483</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70608854293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86295795440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87276220321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9610013961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13747978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0198278427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1963062286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07865381240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94139337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90217542648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00021934509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81393671035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79432773590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78452348709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67667531967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61784934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6276535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75511026382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84334945678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89237117767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72569751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80413198471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76491498947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92178440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83354473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66687154769897</t>
+    <t xml:space="preserve">4.83354520797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66687107086182</t>
   </si>
   <si>
     <t xml:space="preserve">4.69628429412842</t>
@@ -1775,16 +1778,16 @@
     <t xml:space="preserve">4.64726209640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74530601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51000165939331</t>
+    <t xml:space="preserve">4.74530649185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51000118255615</t>
   </si>
   <si>
     <t xml:space="preserve">4.41195821762085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59824085235596</t>
+    <t xml:space="preserve">4.5982403755188</t>
   </si>
   <si>
     <t xml:space="preserve">4.52961015701294</t>
@@ -1793,7 +1796,7 @@
     <t xml:space="preserve">4.53941488265991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54921865463257</t>
+    <t xml:space="preserve">4.54921913146973</t>
   </si>
   <si>
     <t xml:space="preserve">4.58843612670898</t>
@@ -1820,40 +1823,40 @@
     <t xml:space="preserve">4.48058891296387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38254499435425</t>
+    <t xml:space="preserve">4.38254451751709</t>
   </si>
   <si>
     <t xml:space="preserve">4.36293601989746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3237190246582</t>
+    <t xml:space="preserve">4.32371854782104</t>
   </si>
   <si>
     <t xml:space="preserve">4.31391429901123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.264892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25508880615234</t>
+    <t xml:space="preserve">4.26489305496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21587133407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25508832931519</t>
   </si>
   <si>
     <t xml:space="preserve">4.23547983169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13743591308594</t>
+    <t xml:space="preserve">4.1374363899231</t>
   </si>
   <si>
     <t xml:space="preserve">4.39234924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33352327346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45117568969727</t>
+    <t xml:space="preserve">4.33352375030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45117521286011</t>
   </si>
   <si>
     <t xml:space="preserve">4.56882762908936</t>
@@ -1862,7 +1865,7 @@
     <t xml:space="preserve">4.657066822052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37274026870728</t>
+    <t xml:space="preserve">4.37274074554443</t>
   </si>
   <si>
     <t xml:space="preserve">4.82374095916748</t>
@@ -1877,10 +1880,10 @@
     <t xml:space="preserve">4.28450155258179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1668496131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1962628364563</t>
+    <t xml:space="preserve">4.16684913635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19626235961914</t>
   </si>
   <si>
     <t xml:space="preserve">4.24528408050537</t>
@@ -2154,6 +2157,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.30000019073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1100001335144</t>
   </si>
 </sst>
 </file>
@@ -46193,7 +46199,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1681" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46349,7 +46355,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1687" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46427,7 +46433,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46453,7 +46459,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46479,7 +46485,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1692" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46531,7 +46537,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1694" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46557,7 +46563,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1695" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46609,7 +46615,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1697" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46635,7 +46641,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1698" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46661,7 +46667,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1699" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46687,7 +46693,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1700" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46713,7 +46719,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1701" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46739,7 +46745,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46869,7 +46875,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1707" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46895,7 +46901,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1708" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46921,7 +46927,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1709" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46947,7 +46953,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1710" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46999,7 +47005,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1712" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47025,7 +47031,7 @@
         <v>4.5</v>
       </c>
       <c r="G1713" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47051,7 +47057,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1714" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47077,7 +47083,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1715" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47103,7 +47109,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1716" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47129,7 +47135,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47155,7 +47161,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1718" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47207,7 +47213,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1720" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47233,7 +47239,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47259,7 +47265,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1722" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47337,7 +47343,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1725" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47363,7 +47369,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1726" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47389,7 +47395,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1727" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47415,7 +47421,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1728" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47441,7 +47447,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1729" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47467,7 +47473,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1730" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47493,7 +47499,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1731" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47519,7 +47525,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1732" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47545,7 +47551,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1733" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47623,7 +47629,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47649,7 +47655,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1737" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47675,7 +47681,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1738" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47727,7 +47733,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1740" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47753,7 +47759,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1741" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47779,7 +47785,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1742" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47857,7 +47863,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1745" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47883,7 +47889,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1746" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47935,7 +47941,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1748" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47961,7 +47967,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1749" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47987,7 +47993,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1750" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48013,7 +48019,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1751" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48039,7 +48045,7 @@
         <v>4.5</v>
       </c>
       <c r="G1752" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48065,7 +48071,7 @@
         <v>4.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48091,7 +48097,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1754" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48117,7 +48123,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1755" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48143,7 +48149,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48169,7 +48175,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1757" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48195,7 +48201,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48221,7 +48227,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48247,7 +48253,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1760" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48273,7 +48279,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1761" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48299,7 +48305,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1762" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48325,7 +48331,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1763" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48351,7 +48357,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1764" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48377,7 +48383,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1765" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48403,7 +48409,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1766" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48429,7 +48435,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1767" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48455,7 +48461,7 @@
         <v>4.5</v>
       </c>
       <c r="G1768" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48481,7 +48487,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1769" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48507,7 +48513,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1770" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48533,7 +48539,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1771" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48559,7 +48565,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1772" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48585,7 +48591,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1773" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48611,7 +48617,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1774" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48637,7 +48643,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1775" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48663,7 +48669,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1776" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48689,7 +48695,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1777" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48715,7 +48721,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1778" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48741,7 +48747,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1779" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48767,7 +48773,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1780" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48793,7 +48799,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1781" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48819,7 +48825,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1782" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48845,7 +48851,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48871,7 +48877,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1784" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48897,7 +48903,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1785" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48923,7 +48929,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1786" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48949,7 +48955,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1787" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48975,7 +48981,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1788" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49001,7 +49007,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49027,7 +49033,7 @@
         <v>4.5</v>
       </c>
       <c r="G1790" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49053,7 +49059,7 @@
         <v>4.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49079,7 +49085,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49105,7 +49111,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49131,7 +49137,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49157,7 +49163,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1795" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49183,7 +49189,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1796" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49209,7 +49215,7 @@
         <v>4.75</v>
       </c>
       <c r="G1797" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49235,7 +49241,7 @@
         <v>4.75</v>
       </c>
       <c r="G1798" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49261,7 +49267,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1799" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49287,7 +49293,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49339,7 +49345,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1802" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49365,7 +49371,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1803" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49391,7 +49397,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1804" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49417,7 +49423,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1805" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49443,7 +49449,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1806" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49469,7 +49475,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1807" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49495,7 +49501,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49521,7 +49527,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1809" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49547,7 +49553,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49573,7 +49579,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49599,7 +49605,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1812" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49625,7 +49631,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1813" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49651,7 +49657,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1814" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49677,7 +49683,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1815" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49703,7 +49709,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1816" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49729,7 +49735,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1817" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49755,7 +49761,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49781,7 +49787,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1819" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49807,7 +49813,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1820" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49833,7 +49839,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49859,7 +49865,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49885,7 +49891,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1823" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49911,7 +49917,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1824" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49989,7 +49995,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50145,7 +50151,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50171,7 +50177,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1834" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50197,7 +50203,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1835" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50223,7 +50229,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1836" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50249,7 +50255,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1837" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50327,7 +50333,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1840" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50379,7 +50385,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1842" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50431,7 +50437,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1844" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50483,7 +50489,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1846" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50509,7 +50515,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1847" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50535,7 +50541,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1848" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50561,7 +50567,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1849" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50587,7 +50593,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1850" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50613,7 +50619,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1851" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50639,7 +50645,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50665,7 +50671,7 @@
         <v>4.25</v>
       </c>
       <c r="G1853" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50691,7 +50697,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1854" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50717,7 +50723,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1855" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50743,7 +50749,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1856" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50769,7 +50775,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50795,7 +50801,7 @@
         <v>4.5</v>
       </c>
       <c r="G1858" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50821,7 +50827,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1859" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50847,7 +50853,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1860" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50873,7 +50879,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1861" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50899,7 +50905,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1862" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50925,7 +50931,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1863" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50951,7 +50957,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1864" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50977,7 +50983,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1865" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51003,7 +51009,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1866" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51029,7 +51035,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51055,7 +51061,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1868" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51081,7 +51087,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51107,7 +51113,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51133,7 +51139,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51159,7 +51165,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1872" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51185,7 +51191,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1873" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51211,7 +51217,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51237,7 +51243,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1875" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51263,7 +51269,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1876" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51289,7 +51295,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1877" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51315,7 +51321,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1878" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51341,7 +51347,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51367,7 +51373,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1880" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51393,7 +51399,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1881" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51419,7 +51425,7 @@
         <v>4.5</v>
       </c>
       <c r="G1882" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51445,7 +51451,7 @@
         <v>4.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51471,7 +51477,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51497,7 +51503,7 @@
         <v>4.5</v>
       </c>
       <c r="G1885" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51523,7 +51529,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51549,7 +51555,7 @@
         <v>4.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51575,7 +51581,7 @@
         <v>4.5</v>
       </c>
       <c r="G1888" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51601,7 +51607,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51627,7 +51633,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1890" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51653,7 +51659,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1891" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51679,7 +51685,7 @@
         <v>4.5</v>
       </c>
       <c r="G1892" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51705,7 +51711,7 @@
         <v>4.5</v>
       </c>
       <c r="G1893" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51731,7 +51737,7 @@
         <v>4.5</v>
       </c>
       <c r="G1894" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51757,7 +51763,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1895" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51783,7 +51789,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1896" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51809,7 +51815,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1897" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51835,7 +51841,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1898" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51861,7 +51867,7 @@
         <v>4.5</v>
       </c>
       <c r="G1899" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51887,7 +51893,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1900" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51913,7 +51919,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1901" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51939,7 +51945,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1902" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51965,7 +51971,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1903" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51991,7 +51997,7 @@
         <v>4.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52017,7 +52023,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1905" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52043,7 +52049,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1906" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52069,7 +52075,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1907" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52095,7 +52101,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1908" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52121,7 +52127,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1909" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52147,7 +52153,7 @@
         <v>4.75</v>
       </c>
       <c r="G1910" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52173,7 +52179,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52199,7 +52205,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1912" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52225,7 +52231,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1913" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52251,7 +52257,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1914" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52277,7 +52283,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1915" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52303,7 +52309,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1916" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52329,7 +52335,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G1917" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52355,7 +52361,7 @@
         <v>4.75</v>
       </c>
       <c r="G1918" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52381,7 +52387,7 @@
         <v>4.75</v>
       </c>
       <c r="G1919" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52407,7 +52413,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1920" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52433,7 +52439,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1921" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52459,7 +52465,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1922" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52485,7 +52491,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52511,7 +52517,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1924" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52537,7 +52543,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1925" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52563,7 +52569,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1926" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52589,7 +52595,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52615,7 +52621,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1928" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52641,7 +52647,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1929" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52667,7 +52673,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1930" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52693,7 +52699,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1931" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52719,7 +52725,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1932" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52745,7 +52751,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1933" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52771,7 +52777,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52797,7 +52803,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1935" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52823,7 +52829,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52849,7 +52855,7 @@
         <v>4.5</v>
       </c>
       <c r="G1937" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52875,7 +52881,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52901,7 +52907,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1939" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52927,7 +52933,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1940" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52953,7 +52959,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52979,7 +52985,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1942" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53005,7 +53011,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1943" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53031,7 +53037,7 @@
         <v>4.5</v>
       </c>
       <c r="G1944" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53057,7 +53063,7 @@
         <v>4.5</v>
       </c>
       <c r="G1945" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53083,7 +53089,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1946" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53109,7 +53115,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1947" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53135,7 +53141,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1948" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53161,7 +53167,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1949" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53187,7 +53193,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1950" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53213,7 +53219,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1951" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53239,7 +53245,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1952" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53265,7 +53271,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1953" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53291,7 +53297,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53317,7 +53323,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1955" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53343,7 +53349,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53369,7 +53375,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1957" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53395,7 +53401,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1958" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53421,7 +53427,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53447,7 +53453,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1960" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53473,7 +53479,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53499,7 +53505,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1962" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53525,7 +53531,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53551,7 +53557,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1964" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53577,7 +53583,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1965" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53603,7 +53609,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1966" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53629,7 +53635,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1967" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53655,7 +53661,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1968" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53681,7 +53687,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1969" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53707,7 +53713,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1970" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53733,7 +53739,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53759,7 +53765,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1972" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53785,7 +53791,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53811,7 +53817,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1974" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53837,7 +53843,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53863,7 +53869,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53889,7 +53895,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1977" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53915,7 +53921,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1978" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53941,7 +53947,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1979" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53967,7 +53973,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53993,7 +53999,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54019,7 +54025,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1982" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54045,7 +54051,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1983" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54071,7 +54077,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1984" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54097,7 +54103,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54123,7 +54129,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1986" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54149,7 +54155,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1987" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54175,7 +54181,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1988" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54201,7 +54207,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1989" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54227,7 +54233,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54253,7 +54259,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1991" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54279,7 +54285,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1992" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54305,7 +54311,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1993" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54331,7 +54337,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54357,7 +54363,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1995" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54383,7 +54389,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54409,7 +54415,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54435,7 +54441,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1998" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54461,7 +54467,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54487,7 +54493,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2000" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54513,7 +54519,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2001" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54539,7 +54545,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2002" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54565,7 +54571,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2003" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54591,7 +54597,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2004" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54617,7 +54623,7 @@
         <v>4.75</v>
       </c>
       <c r="G2005" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54643,7 +54649,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2006" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54669,7 +54675,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2007" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54695,7 +54701,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2008" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54721,7 +54727,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2009" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54747,7 +54753,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2010" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54773,7 +54779,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2011" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54799,7 +54805,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2012" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54825,7 +54831,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54851,7 +54857,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54877,7 +54883,7 @@
         <v>4.5</v>
       </c>
       <c r="G2015" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54903,7 +54909,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2016" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54929,7 +54935,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2017" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54955,7 +54961,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2018" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54981,7 +54987,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55007,7 +55013,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2020" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55033,7 +55039,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2021" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55059,7 +55065,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2022" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55085,7 +55091,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2023" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55111,7 +55117,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55137,7 +55143,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2025" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55163,7 +55169,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2026" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55189,7 +55195,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2027" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55215,7 +55221,7 @@
         <v>4.75</v>
       </c>
       <c r="G2028" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55241,7 +55247,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2029" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55267,7 +55273,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2030" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55293,7 +55299,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2031" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55319,7 +55325,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2032" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55345,7 +55351,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2033" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55371,7 +55377,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2034" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55397,7 +55403,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2035" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55423,7 +55429,7 @@
         <v>5</v>
       </c>
       <c r="G2036" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55449,7 +55455,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2037" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55475,7 +55481,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2038" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55501,7 +55507,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2039" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55527,7 +55533,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55553,7 +55559,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2041" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55579,7 +55585,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2042" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55605,7 +55611,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2043" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55631,7 +55637,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2044" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55657,7 +55663,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2045" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55683,7 +55689,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2046" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55709,7 +55715,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2047" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55735,7 +55741,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2048" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55761,7 +55767,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2049" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55787,7 +55793,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2050" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55813,7 +55819,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55839,7 +55845,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2052" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55865,7 +55871,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2053" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55891,7 +55897,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2054" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55917,7 +55923,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2055" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55943,7 +55949,7 @@
         <v>5</v>
       </c>
       <c r="G2056" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55969,7 +55975,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55995,7 +56001,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56021,7 +56027,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2059" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56047,7 +56053,7 @@
         <v>5</v>
       </c>
       <c r="G2060" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56073,7 +56079,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2061" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56099,7 +56105,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2062" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56125,7 +56131,7 @@
         <v>5</v>
       </c>
       <c r="G2063" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56151,7 +56157,7 @@
         <v>5</v>
       </c>
       <c r="G2064" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56177,7 +56183,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2065" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56203,7 +56209,7 @@
         <v>5</v>
       </c>
       <c r="G2066" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56229,7 +56235,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2067" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56255,7 +56261,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2068" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56281,7 +56287,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G2069" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56307,7 +56313,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2070" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56333,7 +56339,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2071" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56359,7 +56365,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56385,7 +56391,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2073" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56411,7 +56417,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2074" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56437,7 +56443,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56463,7 +56469,7 @@
         <v>5.5</v>
       </c>
       <c r="G2076" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56489,7 +56495,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56515,7 +56521,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2078" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56541,7 +56547,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56567,7 +56573,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2080" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56593,7 +56599,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2081" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56619,7 +56625,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2082" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56645,7 +56651,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56671,7 +56677,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2084" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56697,7 +56703,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2085" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56723,7 +56729,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56749,7 +56755,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2087" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56775,7 +56781,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2088" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56801,7 +56807,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2089" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56827,7 +56833,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2090" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56853,7 +56859,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2091" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56879,7 +56885,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56905,7 +56911,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2093" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56931,7 +56937,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2094" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56957,7 +56963,7 @@
         <v>5</v>
       </c>
       <c r="G2095" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56983,7 +56989,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2096" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57009,7 +57015,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2097" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57035,7 +57041,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57061,7 +57067,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2099" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57087,7 +57093,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2100" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57113,7 +57119,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57139,7 +57145,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57165,7 +57171,7 @@
         <v>5</v>
       </c>
       <c r="G2103" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57191,7 +57197,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57217,7 +57223,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2105" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57243,7 +57249,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2106" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57269,7 +57275,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2107" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57295,7 +57301,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2108" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57321,7 +57327,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2109" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57347,7 +57353,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2110" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57373,7 +57379,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2111" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57399,7 +57405,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2112" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57425,7 +57431,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2113" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57451,7 +57457,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2114" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57477,7 +57483,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2115" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57503,7 +57509,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57529,7 +57535,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57555,7 +57561,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2118" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57581,7 +57587,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2119" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57607,7 +57613,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2120" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57633,7 +57639,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2121" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57659,7 +57665,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57685,7 +57691,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2123" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57711,7 +57717,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2124" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57737,7 +57743,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2125" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57763,7 +57769,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57789,7 +57795,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57815,7 +57821,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2128" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57841,7 +57847,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2129" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57867,7 +57873,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57893,7 +57899,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2131" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57919,7 +57925,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57945,7 +57951,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2133" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57971,7 +57977,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2134" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57997,7 +58003,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2135" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58023,7 +58029,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2136" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58049,7 +58055,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58075,7 +58081,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2138" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58101,7 +58107,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2139" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58127,7 +58133,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2140" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58153,7 +58159,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2141" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58179,7 +58185,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2142" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58205,7 +58211,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2143" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58231,7 +58237,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58257,7 +58263,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2145" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58283,7 +58289,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2146" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58309,7 +58315,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58335,7 +58341,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58361,7 +58367,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2149" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58387,7 +58393,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2150" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58413,7 +58419,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58439,7 +58445,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2152" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58465,7 +58471,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2153" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58491,7 +58497,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2154" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58517,7 +58523,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2155" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58543,7 +58549,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2156" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58569,7 +58575,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58595,7 +58601,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2158" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58621,7 +58627,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58647,7 +58653,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2160" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58673,7 +58679,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2161" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58699,7 +58705,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2162" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58725,7 +58731,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2163" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58751,7 +58757,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2164" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58777,7 +58783,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2165" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58803,7 +58809,7 @@
         <v>4.75</v>
       </c>
       <c r="G2166" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58829,7 +58835,7 @@
         <v>4.75</v>
       </c>
       <c r="G2167" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58855,7 +58861,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2168" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58881,7 +58887,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2169" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58907,7 +58913,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2170" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58933,7 +58939,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2171" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58959,7 +58965,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2172" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58985,7 +58991,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2173" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -59011,7 +59017,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2174" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -59037,7 +59043,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2175" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -59063,7 +59069,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2176" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -59089,7 +59095,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2177" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -59115,7 +59121,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2178" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -59141,7 +59147,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2179" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -59167,7 +59173,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2180" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -59193,7 +59199,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2181" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -59219,7 +59225,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2182" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -59245,7 +59251,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2183" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -59271,7 +59277,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2184" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -59297,7 +59303,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2185" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -59323,7 +59329,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2186" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -59349,7 +59355,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G2187" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -59375,7 +59381,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2188" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -59401,7 +59407,7 @@
         <v>4.25</v>
       </c>
       <c r="G2189" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -59409,7 +59415,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.6495717593</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>4676</v>
@@ -59427,9 +59433,35 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2190" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.6495717593</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>12851</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>4.32000017166138</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>4.1399998664856</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>4.32000017166138</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>4.1100001335144</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="719">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87282037734985</t>
+    <t xml:space="preserve">3.87282085418701</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">3.87105989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87458229064941</t>
+    <t xml:space="preserve">3.87458252906799</t>
   </si>
   <si>
     <t xml:space="preserve">3.86577606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86401557922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78652358055115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74249410629272</t>
+    <t xml:space="preserve">3.86401605606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78652405738831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7424943447113</t>
   </si>
   <si>
     <t xml:space="preserve">3.79532933235168</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">3.62977910041809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67733073234558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65443563461304</t>
+    <t xml:space="preserve">3.67733097076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65443539619446</t>
   </si>
   <si>
     <t xml:space="preserve">3.663241147995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6438684463501</t>
+    <t xml:space="preserve">3.64386868476868</t>
   </si>
   <si>
     <t xml:space="preserve">3.48712396621704</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">3.61040616035461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68965888023376</t>
+    <t xml:space="preserve">3.68965935707092</t>
   </si>
   <si>
     <t xml:space="preserve">3.66676378250122</t>
@@ -98,28 +98,28 @@
     <t xml:space="preserve">3.6033616065979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68085336685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56637716293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.539959192276</t>
+    <t xml:space="preserve">3.68085289001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56637740135193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53995943069458</t>
   </si>
   <si>
     <t xml:space="preserve">3.6156895160675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64915227890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65267443656921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65091276168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64210772514343</t>
+    <t xml:space="preserve">3.64915204048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65267395973206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65091300010681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64210724830627</t>
   </si>
   <si>
     <t xml:space="preserve">3.59455537796021</t>
@@ -128,46 +128,46 @@
     <t xml:space="preserve">3.71431517601013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75130009651184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8129415512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356813430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225438117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81470203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80941939353943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73368835449219</t>
+    <t xml:space="preserve">3.751300573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81294131278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225461959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81470227241516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80941915512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73368787765503</t>
   </si>
   <si>
     <t xml:space="preserve">3.73721098899841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71255373954773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73192691802979</t>
+    <t xml:space="preserve">3.71255445480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73192715644836</t>
   </si>
   <si>
     <t xml:space="preserve">3.72135996818542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76891231536865</t>
+    <t xml:space="preserve">3.76891207695007</t>
   </si>
   <si>
     <t xml:space="preserve">3.76538968086243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74953842163086</t>
+    <t xml:space="preserve">3.74953866004944</t>
   </si>
   <si>
     <t xml:space="preserve">3.74601674079895</t>
@@ -179,46 +179,46 @@
     <t xml:space="preserve">3.6984646320343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6861367225647</t>
+    <t xml:space="preserve">3.68613648414612</t>
   </si>
   <si>
     <t xml:space="preserve">3.72488260269165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82350826263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95383524894714</t>
+    <t xml:space="preserve">3.8235080242157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95383477210999</t>
   </si>
   <si>
     <t xml:space="preserve">3.91861152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93446230888367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9837749004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94326829910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508960723877</t>
+    <t xml:space="preserve">3.93446159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98377513885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326782226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508936882019</t>
   </si>
   <si>
     <t xml:space="preserve">3.9855363368988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91332817077637</t>
+    <t xml:space="preserve">3.91332769393921</t>
   </si>
   <si>
     <t xml:space="preserve">3.89395499229431</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96088004112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219427108765</t>
+    <t xml:space="preserve">3.96088027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219379425049</t>
   </si>
   <si>
     <t xml:space="preserve">3.93622326850891</t>
@@ -227,73 +227,73 @@
     <t xml:space="preserve">3.92741751670837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88338875770569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99916768074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02612829208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220802307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018120765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759938240051</t>
+    <t xml:space="preserve">3.88338851928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99916791915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02612924575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220730781555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99018144607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759985923767</t>
   </si>
   <si>
     <t xml:space="preserve">4.04410219192505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98299145698547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423340797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625974655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88233828544617</t>
+    <t xml:space="preserve">3.98299169540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423364639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625926971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88233852386475</t>
   </si>
   <si>
     <t xml:space="preserve">3.92727255821228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92367839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560633659363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89132523536682</t>
+    <t xml:space="preserve">3.92367815971375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560681343079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89132499694824</t>
   </si>
   <si>
     <t xml:space="preserve">3.86436462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86256647109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81942987442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799231529236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76550889015198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475803375244</t>
+    <t xml:space="preserve">3.86256742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8194305896759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70799279212952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7655086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475755691528</t>
   </si>
   <si>
     <t xml:space="preserve">3.61273121833801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67923426628113</t>
+    <t xml:space="preserve">3.67923450469971</t>
   </si>
   <si>
     <t xml:space="preserve">3.6307053565979</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">3.65766620635986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63789486885071</t>
+    <t xml:space="preserve">3.63789463043213</t>
   </si>
   <si>
     <t xml:space="preserve">3.68103194236755</t>
@@ -314,37 +314,37 @@
     <t xml:space="preserve">3.57318925857544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61632633209229</t>
+    <t xml:space="preserve">3.61632657051086</t>
   </si>
   <si>
     <t xml:space="preserve">3.60374474525452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64688181877136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69181609153748</t>
+    <t xml:space="preserve">3.64688205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6918158531189</t>
   </si>
   <si>
     <t xml:space="preserve">3.73675084114075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75652146339417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8032534122467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86616158485413</t>
+    <t xml:space="preserve">3.75652170181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80325365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86616182327271</t>
   </si>
   <si>
     <t xml:space="preserve">3.81763291358948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81044316291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79246973991394</t>
+    <t xml:space="preserve">3.81044292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79246878623962</t>
   </si>
   <si>
     <t xml:space="preserve">3.74394011497498</t>
@@ -353,40 +353,40 @@
     <t xml:space="preserve">3.77449512481689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79067206382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77629327774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887510299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74753522872925</t>
+    <t xml:space="preserve">3.79067182540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887414932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74753475189209</t>
   </si>
   <si>
     <t xml:space="preserve">3.75112962722778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80145621299744</t>
+    <t xml:space="preserve">3.80145573616028</t>
   </si>
   <si>
     <t xml:space="preserve">3.73315572738647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78348231315613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72416877746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77090048789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72057390213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371121406555</t>
+    <t xml:space="preserve">3.78348207473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7241690158844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77090072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72057414054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371145248413</t>
   </si>
   <si>
     <t xml:space="preserve">3.72596645355225</t>
@@ -395,154 +395,154 @@
     <t xml:space="preserve">3.70978999137878</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7026002407074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73854780197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956156730652</t>
+    <t xml:space="preserve">3.70260047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73854804039001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956109046936</t>
   </si>
   <si>
     <t xml:space="preserve">3.72237181663513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72776341438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75292682647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831937789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69541072845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68462657928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6936137676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485524177551</t>
+    <t xml:space="preserve">3.72776365280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75292706489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831913948059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69541096687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68462681770325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69361352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485571861267</t>
   </si>
   <si>
     <t xml:space="preserve">3.68822169303894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73135805130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71338486671448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168535232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83380889892578</t>
+    <t xml:space="preserve">3.73135852813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338510513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168511390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83380913734436</t>
   </si>
   <si>
     <t xml:space="preserve">3.81224060058594</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81583476066589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82661938667297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8284170627594</t>
+    <t xml:space="preserve">3.81583499908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82661986351013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82841730117798</t>
   </si>
   <si>
     <t xml:space="preserve">3.92547488212585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9218807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9003119468689</t>
+    <t xml:space="preserve">3.92188000679016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90031218528748</t>
   </si>
   <si>
     <t xml:space="preserve">3.87335181236267</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84639072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83740329742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9416515827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929937362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95243644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98119401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97939682006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88413596153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94884133338928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87874341011047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01534509658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02073621749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00815534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04050779342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0530891418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01714086532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06207609176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07106399536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06926584243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08903694152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40357875823975</t>
+    <t xml:space="preserve">3.84639120101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83740425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514853477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94165134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929865837097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95243573188782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98119425773621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97939729690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88413548469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94884157180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87874364852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01534461975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02073669433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00815486907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04050731658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05308961868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01714181900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06207656860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07106304168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295864105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06926488876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.089035987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40357828140259</t>
   </si>
   <si>
     <t xml:space="preserve">4.37661695480347</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34606218338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34785938262939</t>
+    <t xml:space="preserve">4.34606170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34785890579224</t>
   </si>
   <si>
     <t xml:space="preserve">4.32808828353882</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">4.03691291809082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9847891330719</t>
+    <t xml:space="preserve">3.98478960990906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04230499267578</t>
@@ -566,46 +566,46 @@
     <t xml:space="preserve">3.95603060722351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92008328437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91828560829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94704413414001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93266463279724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84099864959717</t>
+    <t xml:space="preserve">3.92008280754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91828608512878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94704365730286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93266439437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84099888801575</t>
   </si>
   <si>
     <t xml:space="preserve">3.86795949935913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90390682220459</t>
+    <t xml:space="preserve">3.90390658378601</t>
   </si>
   <si>
     <t xml:space="preserve">3.94524669647217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9635968208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112200737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98194622993469</t>
+    <t xml:space="preserve">3.96359658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112153053284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98194670677185</t>
   </si>
   <si>
     <t xml:space="preserve">4.06819152832031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89019680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184691429138</t>
+    <t xml:space="preserve">3.89019656181335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87184643745422</t>
   </si>
   <si>
     <t xml:space="preserve">3.92689681053162</t>
@@ -617,10 +617,10 @@
     <t xml:space="preserve">4.128746509552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17462158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12691116333008</t>
+    <t xml:space="preserve">4.17462205886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12691164016724</t>
   </si>
   <si>
     <t xml:space="preserve">4.10672664642334</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">4.05351161956787</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0828709602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03332614898682</t>
+    <t xml:space="preserve">4.08287143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03332662582397</t>
   </si>
   <si>
     <t xml:space="preserve">4.07369661331177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0920467376709</t>
+    <t xml:space="preserve">4.09204626083374</t>
   </si>
   <si>
     <t xml:space="preserve">4.08103656768799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05534744262695</t>
+    <t xml:space="preserve">4.05534696578979</t>
   </si>
   <si>
     <t xml:space="preserve">4.09021186828613</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">4.15260124206543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15627193450928</t>
+    <t xml:space="preserve">4.15627145767212</t>
   </si>
   <si>
     <t xml:space="preserve">4.16544580459595</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">4.11039638519287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09388113021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20948600769043</t>
+    <t xml:space="preserve">4.09388160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20948648452759</t>
   </si>
   <si>
     <t xml:space="preserve">4.15443658828735</t>
@@ -689,43 +689,43 @@
     <t xml:space="preserve">4.12507629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11957168579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13608598709106</t>
+    <t xml:space="preserve">4.11957120895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13608646392822</t>
   </si>
   <si>
     <t xml:space="preserve">4.15076637268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10305643081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17278623580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11223125457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002687454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10122060775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16911649703979</t>
+    <t xml:space="preserve">4.10305595397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17278575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11223173141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002639770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10122108459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16911697387695</t>
   </si>
   <si>
     <t xml:space="preserve">4.18379640579224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21132135391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05167675018311</t>
+    <t xml:space="preserve">4.21132183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09755182266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05167579650879</t>
   </si>
   <si>
     <t xml:space="preserve">4.01864624023438</t>
@@ -740,76 +740,76 @@
     <t xml:space="preserve">4.21866178512573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13241672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12140655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11590147018433</t>
+    <t xml:space="preserve">4.13241624832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12140703201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11590099334717</t>
   </si>
   <si>
     <t xml:space="preserve">4.11773633956909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14709615707397</t>
+    <t xml:space="preserve">4.14709663391113</t>
   </si>
   <si>
     <t xml:space="preserve">4.1489315032959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1911358833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19297170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99662661552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04433584213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98561644554138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94341087341309</t>
+    <t xml:space="preserve">4.19113636016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19297122955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99662613868713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04433631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98561668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94341135025024</t>
   </si>
   <si>
     <t xml:space="preserve">4.02048110961914</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92322659492493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03516149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08654117584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04800701141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96726632118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92506122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91772103309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00029611587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97277140617371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93790602684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99846124649048</t>
+    <t xml:space="preserve">3.92322635650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03516101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08654165267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04800653457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96726655960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92506170272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91772150993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00029706954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97277164459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93790578842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846148490906</t>
   </si>
   <si>
     <t xml:space="preserve">4.04617118835449</t>
@@ -818,40 +818,40 @@
     <t xml:space="preserve">3.88102149963379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85349631309509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95442199707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83514618873596</t>
+    <t xml:space="preserve">3.85349655151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95442128181458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83514666557312</t>
   </si>
   <si>
     <t xml:space="preserve">3.89937138557434</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90854668617249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267161369324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597184181213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78927183151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80762219429016</t>
+    <t xml:space="preserve">3.90854692459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93607187271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8626720905304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78927206993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80762147903442</t>
   </si>
   <si>
     <t xml:space="preserve">4.02039432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04857492446899</t>
+    <t xml:space="preserve">4.04857397079468</t>
   </si>
   <si>
     <t xml:space="preserve">4.03918123245239</t>
@@ -866,49 +866,49 @@
     <t xml:space="preserve">4.02978754043579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96403384208679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89827990531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91706657409668</t>
+    <t xml:space="preserve">3.96403336524963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89827919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9170663356781</t>
   </si>
   <si>
     <t xml:space="preserve">3.77616429328918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70101690292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7573778629303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73859095573425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71980428695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71041059494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63526296615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62586975097656</t>
+    <t xml:space="preserve">3.70101714134216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75737762451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73859119415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71980404853821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71041035652161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63526272773743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62586951255798</t>
   </si>
   <si>
     <t xml:space="preserve">3.52254176139832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42860746383667</t>
+    <t xml:space="preserve">3.42860722541809</t>
   </si>
   <si>
     <t xml:space="preserve">3.28770542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35345959663391</t>
+    <t xml:space="preserve">3.35345983505249</t>
   </si>
   <si>
     <t xml:space="preserve">3.33467268943787</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">3.45678758621216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46618103981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36285328865051</t>
+    <t xml:space="preserve">3.4661808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36285305023193</t>
   </si>
   <si>
     <t xml:space="preserve">3.44739413261414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43800091743469</t>
+    <t xml:space="preserve">3.43800067901611</t>
   </si>
   <si>
     <t xml:space="preserve">3.40042662620544</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">3.4755744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49436140060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31588554382324</t>
+    <t xml:space="preserve">3.49436116218567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31588578224182</t>
   </si>
   <si>
     <t xml:space="preserve">3.60708236694336</t>
@@ -953,19 +953,19 @@
     <t xml:space="preserve">3.56950879096985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50375461578369</t>
+    <t xml:space="preserve">3.50375485420227</t>
   </si>
   <si>
     <t xml:space="preserve">3.65405011177063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48496770858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68222999572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59768891334534</t>
+    <t xml:space="preserve">3.48496794700623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68223023414612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59768915176392</t>
   </si>
   <si>
     <t xml:space="preserve">3.61647605895996</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">3.66344332695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58829569816589</t>
+    <t xml:space="preserve">3.58829593658447</t>
   </si>
   <si>
     <t xml:space="preserve">3.5507218837738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53193521499634</t>
+    <t xml:space="preserve">3.53193497657776</t>
   </si>
   <si>
     <t xml:space="preserve">3.56011557579041</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">3.6728367805481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51314783096313</t>
+    <t xml:space="preserve">3.51314806938171</t>
   </si>
   <si>
     <t xml:space="preserve">3.70352864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54921507835388</t>
+    <t xml:space="preserve">3.54921531677246</t>
   </si>
   <si>
     <t xml:space="preserve">3.62637209892273</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">3.66495037078857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68423962593079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78068542480469</t>
+    <t xml:space="preserve">3.68423938751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78068566322327</t>
   </si>
   <si>
     <t xml:space="preserve">3.7999746799469</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">3.74210715293884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81926417350769</t>
+    <t xml:space="preserve">3.81926393508911</t>
   </si>
   <si>
     <t xml:space="preserve">3.83855319023132</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">3.76139640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72281789779663</t>
+    <t xml:space="preserve">3.72281765937805</t>
   </si>
   <si>
     <t xml:space="preserve">3.64566111564636</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">3.56850433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52992606163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47205805778503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51063656806946</t>
+    <t xml:space="preserve">3.52992582321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47205829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51063680648804</t>
   </si>
   <si>
     <t xml:space="preserve">3.41419053077698</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">3.43347978591919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4527690410614</t>
+    <t xml:space="preserve">3.45276880264282</t>
   </si>
   <si>
     <t xml:space="preserve">3.37561202049255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39490127563477</t>
+    <t xml:space="preserve">3.39490151405334</t>
   </si>
   <si>
     <t xml:space="preserve">3.33703374862671</t>
@@ -1079,10 +1079,10 @@
     <t xml:space="preserve">3.27916598320007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18271994590759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22129845619202</t>
+    <t xml:space="preserve">3.18272018432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22129821777344</t>
   </si>
   <si>
     <t xml:space="preserve">3.14414167404175</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10556316375732</t>
+    <t xml:space="preserve">3.1055634021759</t>
   </si>
   <si>
     <t xml:space="preserve">3.06698489189148</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">3.02840662002563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91267085075378</t>
+    <t xml:space="preserve">2.91267108917236</t>
   </si>
   <si>
     <t xml:space="preserve">2.85480332374573</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">2.71977877616882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83551430702209</t>
+    <t xml:space="preserve">2.83551406860352</t>
   </si>
   <si>
     <t xml:space="preserve">2.97053861618042</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">3.08627390861511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12485265731812</t>
+    <t xml:space="preserve">3.12485241889954</t>
   </si>
   <si>
     <t xml:space="preserve">2.98982787132263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95124936103821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8162248134613</t>
+    <t xml:space="preserve">2.95124959945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81622505187988</t>
   </si>
   <si>
     <t xml:space="preserve">2.79693579673767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75835728645325</t>
+    <t xml:space="preserve">2.75835704803467</t>
   </si>
   <si>
     <t xml:space="preserve">2.77764654159546</t>
@@ -1160,22 +1160,22 @@
     <t xml:space="preserve">2.60404372215271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5847544670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50759744644165</t>
+    <t xml:space="preserve">2.58475470542908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50759768486023</t>
   </si>
   <si>
     <t xml:space="preserve">2.46901917457581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33399486541748</t>
+    <t xml:space="preserve">2.3339946269989</t>
   </si>
   <si>
     <t xml:space="preserve">2.16039180755615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04465651512146</t>
+    <t xml:space="preserve">2.04465627670288</t>
   </si>
   <si>
     <t xml:space="preserve">2.21825933456421</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">2.14110279083252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23754858970642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02536702156067</t>
+    <t xml:space="preserve">2.23754835128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02536725997925</t>
   </si>
   <si>
     <t xml:space="preserve">2.19897031784058</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">2.25683760643005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29541611671448</t>
+    <t xml:space="preserve">2.29541635513306</t>
   </si>
   <si>
     <t xml:space="preserve">2.31470537185669</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">2.3436393737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36292862892151</t>
+    <t xml:space="preserve">2.36292839050293</t>
   </si>
   <si>
     <t xml:space="preserve">2.30506086349487</t>
@@ -1241,19 +1241,19 @@
     <t xml:space="preserve">2.35328388214111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32434988021851</t>
+    <t xml:space="preserve">2.32435011863708</t>
   </si>
   <si>
     <t xml:space="preserve">2.17968106269836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18932557106018</t>
+    <t xml:space="preserve">2.18932580947876</t>
   </si>
   <si>
     <t xml:space="preserve">2.17003655433655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1314582824707</t>
+    <t xml:space="preserve">2.13145804405212</t>
   </si>
   <si>
     <t xml:space="preserve">2.08323502540588</t>
@@ -1265,31 +1265,31 @@
     <t xml:space="preserve">2.11216878890991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07359051704407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03501200675964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98678874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92409896850586</t>
+    <t xml:space="preserve">2.07359027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03501176834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9867889881134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92409884929657</t>
   </si>
   <si>
     <t xml:space="preserve">1.92892122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93856573104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95785510540009</t>
+    <t xml:space="preserve">1.93856585025787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9578549861908</t>
   </si>
   <si>
     <t xml:space="preserve">2.20861482620239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15074729919434</t>
+    <t xml:space="preserve">2.15074706077576</t>
   </si>
   <si>
     <t xml:space="preserve">2.37257313728333</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">2.38221764564514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56546545028687</t>
+    <t xml:space="preserve">2.56546521186829</t>
   </si>
   <si>
     <t xml:space="preserve">2.87409257888794</t>
@@ -1307,10 +1307,10 @@
     <t xml:space="preserve">2.66191148757935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64262223243713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59439921379089</t>
+    <t xml:space="preserve">2.64262199401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59439897537231</t>
   </si>
   <si>
     <t xml:space="preserve">2.68120050430298</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">2.65226674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61368823051453</t>
+    <t xml:space="preserve">2.61368846893311</t>
   </si>
   <si>
     <t xml:space="preserve">2.53653168678284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52688694000244</t>
+    <t xml:space="preserve">2.52688670158386</t>
   </si>
   <si>
     <t xml:space="preserve">2.51724195480347</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">2.71013426780701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69084501266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72942352294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78729104995728</t>
+    <t xml:space="preserve">2.69084525108337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72942328453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78729128837585</t>
   </si>
   <si>
     <t xml:space="preserve">2.94160485267639</t>
@@ -1352,16 +1352,16 @@
     <t xml:space="preserve">2.99947237968445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98018312454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9608941078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03805112838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16343092918396</t>
+    <t xml:space="preserve">2.98018336296082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96089386940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03805088996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16343069076538</t>
   </si>
   <si>
     <t xml:space="preserve">3.21165370941162</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">3.13449716567993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378618240356</t>
+    <t xml:space="preserve">3.15378642082214</t>
   </si>
   <si>
     <t xml:space="preserve">3.26952147483826</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">3.25987696647644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3080997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32738924026489</t>
+    <t xml:space="preserve">3.30809998512268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32738900184631</t>
   </si>
   <si>
     <t xml:space="preserve">3.25023198127747</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">2.92231559753418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93196034431458</t>
+    <t xml:space="preserve">2.931960105896</t>
   </si>
   <si>
     <t xml:space="preserve">2.90302634239197</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">3.59743809700012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67459487915039</t>
+    <t xml:space="preserve">3.67459511756897</t>
   </si>
   <si>
     <t xml:space="preserve">3.71317315101624</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">3.98322248458862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05073404312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97357749938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002401351929</t>
+    <t xml:space="preserve">4.0507345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97357797622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002353668213</t>
   </si>
   <si>
     <t xml:space="preserve">4.20504856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26291656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30149459838867</t>
+    <t xml:space="preserve">4.26291608810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30149412155151</t>
   </si>
   <si>
     <t xml:space="preserve">4.23398208618164</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">4.39794063568115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42687463760376</t>
+    <t xml:space="preserve">4.4268741607666</t>
   </si>
   <si>
     <t xml:space="preserve">4.45580768585205</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">4.22433757781982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08931303024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03144502639771</t>
+    <t xml:space="preserve">4.08931255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03144550323486</t>
   </si>
   <si>
     <t xml:space="preserve">4.24362659454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31113862991333</t>
+    <t xml:space="preserve">4.31113910675049</t>
   </si>
   <si>
     <t xml:space="preserve">4.2918496131897</t>
@@ -1532,22 +1532,22 @@
     <t xml:space="preserve">4.3690071105957</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12789154052734</t>
+    <t xml:space="preserve">4.1278920173645</t>
   </si>
   <si>
     <t xml:space="preserve">4.16647005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25327110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1857590675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14718103408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02180099487305</t>
+    <t xml:space="preserve">4.25327157974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18575954437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14718055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02180051803589</t>
   </si>
   <si>
     <t xml:space="preserve">4.0796685218811</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">4.46545267105103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37865114212036</t>
+    <t xml:space="preserve">4.37865161895752</t>
   </si>
   <si>
     <t xml:space="preserve">4.48474168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47509717941284</t>
+    <t xml:space="preserve">4.47509670257568</t>
   </si>
   <si>
     <t xml:space="preserve">4.49438619613647</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">4.41722965240479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64869976043701</t>
+    <t xml:space="preserve">4.64870023727417</t>
   </si>
   <si>
     <t xml:space="preserve">4.80301380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72585725784302</t>
+    <t xml:space="preserve">4.72585678100586</t>
   </si>
   <si>
     <t xml:space="preserve">4.6390552520752</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">4.57154273986816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27256059646606</t>
+    <t xml:space="preserve">4.27256011962891</t>
   </si>
   <si>
     <t xml:space="preserve">4.11824655532837</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">4.97661638259888</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0151948928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45884704589844</t>
+    <t xml:space="preserve">5.01519536972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45884656906128</t>
   </si>
   <si>
     <t xml:space="preserve">5.59387159347534</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">5.4974250793457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28524446487427</t>
+    <t xml:space="preserve">5.28524398803711</t>
   </si>
   <si>
     <t xml:space="preserve">5.3045334815979</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">5.42026853561401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38169002532959</t>
+    <t xml:space="preserve">5.38169050216675</t>
   </si>
   <si>
     <t xml:space="preserve">4.86088180541992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84159183502197</t>
+    <t xml:space="preserve">4.84159231185913</t>
   </si>
   <si>
     <t xml:space="preserve">4.93803834915161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73550128936768</t>
+    <t xml:space="preserve">4.73550176620483</t>
   </si>
   <si>
     <t xml:space="preserve">4.70608854293823</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">4.86295795440674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87276268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96100187301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13748025894165</t>
+    <t xml:space="preserve">4.87276220321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9610013961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13747978210449</t>
   </si>
   <si>
     <t xml:space="preserve">5.0198278427124</t>
@@ -1700,19 +1700,19 @@
     <t xml:space="preserve">4.90217542648315</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00021886825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81393623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79432725906372</t>
+    <t xml:space="preserve">5.00021934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81393671035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79432773590088</t>
   </si>
   <si>
     <t xml:space="preserve">4.78452348709106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667579650879</t>
+    <t xml:space="preserve">4.67667531967163</t>
   </si>
   <si>
     <t xml:space="preserve">4.61784934997559</t>
@@ -1730,25 +1730,22 @@
     <t xml:space="preserve">4.89237117767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72569704055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80413246154785</t>
+    <t xml:space="preserve">4.72569751739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80413198471069</t>
   </si>
   <si>
     <t xml:space="preserve">4.76491498947144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92178392410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73550176620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83354520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66687107086182</t>
+    <t xml:space="preserve">4.92178440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83354473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66687154769897</t>
   </si>
   <si>
     <t xml:space="preserve">4.69628429412842</t>
@@ -1778,16 +1775,16 @@
     <t xml:space="preserve">4.64726209640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74530649185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51000118255615</t>
+    <t xml:space="preserve">4.74530601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51000165939331</t>
   </si>
   <si>
     <t xml:space="preserve">4.41195821762085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5982403755188</t>
+    <t xml:space="preserve">4.59824085235596</t>
   </si>
   <si>
     <t xml:space="preserve">4.52961015701294</t>
@@ -1796,7 +1793,7 @@
     <t xml:space="preserve">4.53941488265991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54921913146973</t>
+    <t xml:space="preserve">4.54921865463257</t>
   </si>
   <si>
     <t xml:space="preserve">4.58843612670898</t>
@@ -1823,40 +1820,40 @@
     <t xml:space="preserve">4.48058891296387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38254451751709</t>
+    <t xml:space="preserve">4.38254499435425</t>
   </si>
   <si>
     <t xml:space="preserve">4.36293601989746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32371854782104</t>
+    <t xml:space="preserve">4.3237190246582</t>
   </si>
   <si>
     <t xml:space="preserve">4.31391429901123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26489305496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21587133407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25508832931519</t>
+    <t xml:space="preserve">4.264892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25508880615234</t>
   </si>
   <si>
     <t xml:space="preserve">4.23547983169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1374363899231</t>
+    <t xml:space="preserve">4.13743591308594</t>
   </si>
   <si>
     <t xml:space="preserve">4.39234924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33352375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45117521286011</t>
+    <t xml:space="preserve">4.33352327346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45117568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.56882762908936</t>
@@ -1865,7 +1862,7 @@
     <t xml:space="preserve">4.657066822052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37274074554443</t>
+    <t xml:space="preserve">4.37274026870728</t>
   </si>
   <si>
     <t xml:space="preserve">4.82374095916748</t>
@@ -1880,10 +1877,10 @@
     <t xml:space="preserve">4.28450155258179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16684913635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19626235961914</t>
+    <t xml:space="preserve">4.1668496131897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1962628364563</t>
   </si>
   <si>
     <t xml:space="preserve">4.24528408050537</t>
@@ -46211,7 +46208,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1681" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46367,7 +46364,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1687" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46445,7 +46442,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46471,7 +46468,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46497,7 +46494,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1692" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46549,7 +46546,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1694" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46575,7 +46572,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1695" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46627,7 +46624,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1697" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46653,7 +46650,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1698" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46679,7 +46676,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1699" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46705,7 +46702,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1700" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46731,7 +46728,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1701" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46757,7 +46754,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46887,7 +46884,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1707" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46913,7 +46910,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1708" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46939,7 +46936,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1709" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46965,7 +46962,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1710" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47017,7 +47014,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1712" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47043,7 +47040,7 @@
         <v>4.5</v>
       </c>
       <c r="G1713" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47069,7 +47066,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1714" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47095,7 +47092,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1715" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47121,7 +47118,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1716" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47147,7 +47144,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47173,7 +47170,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1718" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47225,7 +47222,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1720" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47251,7 +47248,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47277,7 +47274,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1722" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47355,7 +47352,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1725" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47381,7 +47378,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1726" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47407,7 +47404,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1727" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47433,7 +47430,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1728" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47459,7 +47456,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1729" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47485,7 +47482,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1730" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47511,7 +47508,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1731" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47537,7 +47534,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1732" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47563,7 +47560,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1733" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47641,7 +47638,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47667,7 +47664,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1737" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47693,7 +47690,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1738" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47745,7 +47742,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1740" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47771,7 +47768,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1741" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47797,7 +47794,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1742" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47875,7 +47872,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1745" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47901,7 +47898,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1746" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47953,7 +47950,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1748" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47979,7 +47976,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1749" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48005,7 +48002,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1750" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48031,7 +48028,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1751" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48057,7 +48054,7 @@
         <v>4.5</v>
       </c>
       <c r="G1752" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48083,7 +48080,7 @@
         <v>4.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48109,7 +48106,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1754" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48135,7 +48132,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1755" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48161,7 +48158,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48187,7 +48184,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1757" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48213,7 +48210,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48239,7 +48236,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48265,7 +48262,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1760" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48291,7 +48288,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1761" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48317,7 +48314,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1762" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48343,7 +48340,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1763" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48369,7 +48366,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1764" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48395,7 +48392,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1765" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48421,7 +48418,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1766" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48447,7 +48444,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1767" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48473,7 +48470,7 @@
         <v>4.5</v>
       </c>
       <c r="G1768" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48499,7 +48496,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1769" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48525,7 +48522,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1770" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48551,7 +48548,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1771" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48577,7 +48574,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1772" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48603,7 +48600,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1773" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48629,7 +48626,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1774" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48655,7 +48652,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1775" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48681,7 +48678,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1776" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48707,7 +48704,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1777" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48733,7 +48730,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1778" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48759,7 +48756,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1779" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48785,7 +48782,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1780" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48811,7 +48808,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1781" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48837,7 +48834,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1782" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48863,7 +48860,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48889,7 +48886,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1784" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48915,7 +48912,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1785" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48941,7 +48938,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1786" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48967,7 +48964,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1787" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48993,7 +48990,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1788" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49019,7 +49016,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49045,7 +49042,7 @@
         <v>4.5</v>
       </c>
       <c r="G1790" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49071,7 +49068,7 @@
         <v>4.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49097,7 +49094,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49123,7 +49120,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49149,7 +49146,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49175,7 +49172,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1795" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49201,7 +49198,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1796" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49227,7 +49224,7 @@
         <v>4.75</v>
       </c>
       <c r="G1797" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49253,7 +49250,7 @@
         <v>4.75</v>
       </c>
       <c r="G1798" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49279,7 +49276,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1799" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49305,7 +49302,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49357,7 +49354,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1802" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49383,7 +49380,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1803" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49409,7 +49406,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1804" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49435,7 +49432,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1805" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49461,7 +49458,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1806" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49487,7 +49484,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1807" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49513,7 +49510,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49539,7 +49536,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1809" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49565,7 +49562,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49591,7 +49588,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49617,7 +49614,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1812" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49643,7 +49640,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1813" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49669,7 +49666,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1814" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49695,7 +49692,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1815" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49721,7 +49718,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1816" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49747,7 +49744,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1817" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49773,7 +49770,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49799,7 +49796,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1819" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49825,7 +49822,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1820" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49851,7 +49848,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49877,7 +49874,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49903,7 +49900,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1823" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49929,7 +49926,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1824" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50007,7 +50004,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50163,7 +50160,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50189,7 +50186,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1834" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50215,7 +50212,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1835" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50241,7 +50238,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1836" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50267,7 +50264,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1837" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50345,7 +50342,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1840" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50397,7 +50394,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1842" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50449,7 +50446,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1844" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50501,7 +50498,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1846" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50527,7 +50524,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1847" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50553,7 +50550,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1848" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50579,7 +50576,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1849" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50605,7 +50602,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1850" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50631,7 +50628,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1851" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50657,7 +50654,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50683,7 +50680,7 @@
         <v>4.25</v>
       </c>
       <c r="G1853" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50709,7 +50706,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1854" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50735,7 +50732,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1855" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50761,7 +50758,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1856" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50787,7 +50784,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50813,7 +50810,7 @@
         <v>4.5</v>
       </c>
       <c r="G1858" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50839,7 +50836,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1859" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50865,7 +50862,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1860" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50891,7 +50888,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1861" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50917,7 +50914,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1862" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50943,7 +50940,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1863" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50969,7 +50966,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1864" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50995,7 +50992,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1865" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51021,7 +51018,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1866" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51047,7 +51044,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51073,7 +51070,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1868" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51099,7 +51096,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51125,7 +51122,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51151,7 +51148,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51177,7 +51174,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1872" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51203,7 +51200,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1873" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51229,7 +51226,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51255,7 +51252,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1875" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51281,7 +51278,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1876" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51307,7 +51304,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1877" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51333,7 +51330,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1878" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51359,7 +51356,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51385,7 +51382,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1880" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51411,7 +51408,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1881" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51437,7 +51434,7 @@
         <v>4.5</v>
       </c>
       <c r="G1882" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51463,7 +51460,7 @@
         <v>4.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51489,7 +51486,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51515,7 +51512,7 @@
         <v>4.5</v>
       </c>
       <c r="G1885" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51541,7 +51538,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51567,7 +51564,7 @@
         <v>4.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51593,7 +51590,7 @@
         <v>4.5</v>
       </c>
       <c r="G1888" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51619,7 +51616,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51645,7 +51642,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1890" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51671,7 +51668,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1891" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51697,7 +51694,7 @@
         <v>4.5</v>
       </c>
       <c r="G1892" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51723,7 +51720,7 @@
         <v>4.5</v>
       </c>
       <c r="G1893" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51749,7 +51746,7 @@
         <v>4.5</v>
       </c>
       <c r="G1894" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51775,7 +51772,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1895" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51801,7 +51798,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1896" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51827,7 +51824,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1897" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51853,7 +51850,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1898" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51879,7 +51876,7 @@
         <v>4.5</v>
       </c>
       <c r="G1899" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51905,7 +51902,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1900" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51931,7 +51928,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1901" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51957,7 +51954,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1902" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51983,7 +51980,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1903" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52009,7 +52006,7 @@
         <v>4.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52035,7 +52032,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1905" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52061,7 +52058,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1906" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52087,7 +52084,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1907" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52113,7 +52110,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1908" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52139,7 +52136,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1909" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52165,7 +52162,7 @@
         <v>4.75</v>
       </c>
       <c r="G1910" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52191,7 +52188,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52217,7 +52214,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1912" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52243,7 +52240,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1913" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52269,7 +52266,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1914" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52295,7 +52292,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1915" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52321,7 +52318,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1916" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52347,7 +52344,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G1917" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52373,7 +52370,7 @@
         <v>4.75</v>
       </c>
       <c r="G1918" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52399,7 +52396,7 @@
         <v>4.75</v>
       </c>
       <c r="G1919" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52425,7 +52422,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1920" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52451,7 +52448,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1921" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52477,7 +52474,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1922" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52503,7 +52500,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52529,7 +52526,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1924" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52555,7 +52552,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1925" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52581,7 +52578,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1926" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52607,7 +52604,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52633,7 +52630,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1928" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52659,7 +52656,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1929" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52685,7 +52682,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1930" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52711,7 +52708,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1931" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52737,7 +52734,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1932" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52763,7 +52760,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1933" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52789,7 +52786,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52815,7 +52812,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1935" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52841,7 +52838,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52867,7 +52864,7 @@
         <v>4.5</v>
       </c>
       <c r="G1937" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52893,7 +52890,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52919,7 +52916,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1939" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52945,7 +52942,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1940" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52971,7 +52968,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52997,7 +52994,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1942" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53023,7 +53020,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1943" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53049,7 +53046,7 @@
         <v>4.5</v>
       </c>
       <c r="G1944" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53075,7 +53072,7 @@
         <v>4.5</v>
       </c>
       <c r="G1945" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53101,7 +53098,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1946" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53127,7 +53124,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1947" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53153,7 +53150,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1948" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53179,7 +53176,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1949" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53205,7 +53202,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1950" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53231,7 +53228,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1951" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53257,7 +53254,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1952" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53283,7 +53280,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1953" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53309,7 +53306,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53335,7 +53332,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1955" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53361,7 +53358,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53387,7 +53384,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1957" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53413,7 +53410,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1958" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53439,7 +53436,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53465,7 +53462,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1960" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53491,7 +53488,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53517,7 +53514,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1962" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53543,7 +53540,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53569,7 +53566,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1964" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53595,7 +53592,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1965" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53621,7 +53618,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1966" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53647,7 +53644,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1967" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53673,7 +53670,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1968" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53699,7 +53696,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1969" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53725,7 +53722,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1970" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53751,7 +53748,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53777,7 +53774,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1972" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53803,7 +53800,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53829,7 +53826,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1974" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53855,7 +53852,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53881,7 +53878,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53907,7 +53904,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1977" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53933,7 +53930,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1978" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53959,7 +53956,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1979" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53985,7 +53982,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54011,7 +54008,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54037,7 +54034,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1982" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54063,7 +54060,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1983" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54089,7 +54086,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1984" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54115,7 +54112,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54141,7 +54138,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1986" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54167,7 +54164,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1987" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54193,7 +54190,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1988" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54219,7 +54216,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1989" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54245,7 +54242,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54271,7 +54268,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1991" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54297,7 +54294,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1992" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54323,7 +54320,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1993" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54349,7 +54346,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54375,7 +54372,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1995" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54401,7 +54398,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54427,7 +54424,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54453,7 +54450,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1998" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54479,7 +54476,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54505,7 +54502,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2000" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54531,7 +54528,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2001" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54557,7 +54554,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2002" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54583,7 +54580,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2003" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54609,7 +54606,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2004" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54635,7 +54632,7 @@
         <v>4.75</v>
       </c>
       <c r="G2005" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54661,7 +54658,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2006" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54687,7 +54684,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2007" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54713,7 +54710,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2008" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54739,7 +54736,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2009" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54765,7 +54762,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2010" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54791,7 +54788,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2011" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54817,7 +54814,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2012" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54843,7 +54840,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54869,7 +54866,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54895,7 +54892,7 @@
         <v>4.5</v>
       </c>
       <c r="G2015" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54921,7 +54918,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2016" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54947,7 +54944,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2017" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54973,7 +54970,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2018" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54999,7 +54996,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55025,7 +55022,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2020" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55051,7 +55048,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2021" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55077,7 +55074,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2022" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55103,7 +55100,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2023" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55129,7 +55126,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55155,7 +55152,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2025" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55181,7 +55178,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2026" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55207,7 +55204,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2027" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55233,7 +55230,7 @@
         <v>4.75</v>
       </c>
       <c r="G2028" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55259,7 +55256,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2029" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55285,7 +55282,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2030" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55311,7 +55308,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2031" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55337,7 +55334,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2032" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55363,7 +55360,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2033" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55389,7 +55386,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2034" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55415,7 +55412,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2035" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55441,7 +55438,7 @@
         <v>5</v>
       </c>
       <c r="G2036" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55467,7 +55464,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2037" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55493,7 +55490,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2038" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55519,7 +55516,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2039" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55545,7 +55542,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55571,7 +55568,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2041" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55597,7 +55594,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2042" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55623,7 +55620,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2043" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55649,7 +55646,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2044" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55675,7 +55672,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2045" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55701,7 +55698,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2046" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55727,7 +55724,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2047" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55753,7 +55750,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2048" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55779,7 +55776,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2049" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55805,7 +55802,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2050" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55831,7 +55828,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55857,7 +55854,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2052" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55883,7 +55880,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2053" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55909,7 +55906,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2054" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55935,7 +55932,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2055" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55961,7 +55958,7 @@
         <v>5</v>
       </c>
       <c r="G2056" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55987,7 +55984,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56013,7 +56010,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56039,7 +56036,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2059" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56065,7 +56062,7 @@
         <v>5</v>
       </c>
       <c r="G2060" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56091,7 +56088,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2061" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56117,7 +56114,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2062" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56143,7 +56140,7 @@
         <v>5</v>
       </c>
       <c r="G2063" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56169,7 +56166,7 @@
         <v>5</v>
       </c>
       <c r="G2064" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56195,7 +56192,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2065" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56221,7 +56218,7 @@
         <v>5</v>
       </c>
       <c r="G2066" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56247,7 +56244,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2067" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56273,7 +56270,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2068" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56299,7 +56296,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G2069" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56325,7 +56322,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2070" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56351,7 +56348,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2071" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56377,7 +56374,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56403,7 +56400,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2073" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56429,7 +56426,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2074" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56455,7 +56452,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56481,7 +56478,7 @@
         <v>5.5</v>
       </c>
       <c r="G2076" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56507,7 +56504,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56533,7 +56530,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2078" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56559,7 +56556,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56585,7 +56582,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2080" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56611,7 +56608,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2081" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56637,7 +56634,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2082" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56663,7 +56660,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56689,7 +56686,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2084" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56715,7 +56712,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2085" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56741,7 +56738,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56767,7 +56764,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2087" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56793,7 +56790,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2088" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56819,7 +56816,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2089" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56845,7 +56842,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2090" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56871,7 +56868,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2091" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56897,7 +56894,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56923,7 +56920,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2093" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56949,7 +56946,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2094" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56975,7 +56972,7 @@
         <v>5</v>
       </c>
       <c r="G2095" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57001,7 +56998,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2096" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57027,7 +57024,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2097" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57053,7 +57050,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57079,7 +57076,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2099" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57105,7 +57102,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2100" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57131,7 +57128,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57157,7 +57154,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57183,7 +57180,7 @@
         <v>5</v>
       </c>
       <c r="G2103" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57209,7 +57206,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57235,7 +57232,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2105" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57261,7 +57258,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2106" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57287,7 +57284,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2107" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57313,7 +57310,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2108" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57339,7 +57336,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2109" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57365,7 +57362,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2110" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57391,7 +57388,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2111" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57417,7 +57414,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2112" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57443,7 +57440,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57469,7 +57466,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57495,7 +57492,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2115" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57521,7 +57518,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57547,7 +57544,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57573,7 +57570,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2118" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57599,7 +57596,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2119" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57625,7 +57622,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2120" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57651,7 +57648,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2121" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57677,7 +57674,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57703,7 +57700,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2123" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57729,7 +57726,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2124" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57755,7 +57752,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2125" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57781,7 +57778,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57807,7 +57804,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57833,7 +57830,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2128" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57859,7 +57856,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2129" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57885,7 +57882,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57911,7 +57908,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2131" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57937,7 +57934,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57963,7 +57960,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2133" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57989,7 +57986,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2134" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58015,7 +58012,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2135" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58041,7 +58038,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2136" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58067,7 +58064,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58093,7 +58090,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2138" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58119,7 +58116,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2139" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58145,7 +58142,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2140" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58171,7 +58168,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2141" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58197,7 +58194,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2142" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58223,7 +58220,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2143" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58249,7 +58246,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58275,7 +58272,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2145" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58301,7 +58298,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2146" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58327,7 +58324,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58353,7 +58350,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58379,7 +58376,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2149" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58405,7 +58402,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2150" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58431,7 +58428,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58457,7 +58454,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2152" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58483,7 +58480,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2153" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58509,7 +58506,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2154" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58535,7 +58532,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2155" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58561,7 +58558,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2156" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58587,7 +58584,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58613,7 +58610,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2158" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58639,7 +58636,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58665,7 +58662,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2160" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58691,7 +58688,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2161" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58717,7 +58714,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2162" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58743,7 +58740,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2163" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58769,7 +58766,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2164" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58795,7 +58792,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2165" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58821,7 +58818,7 @@
         <v>4.75</v>
       </c>
       <c r="G2166" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58847,7 +58844,7 @@
         <v>4.75</v>
       </c>
       <c r="G2167" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58873,7 +58870,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2168" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58899,7 +58896,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2169" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58925,7 +58922,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2170" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58951,7 +58948,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2171" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58977,7 +58974,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2172" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -59003,7 +59000,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2173" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -59029,7 +59026,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2174" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -59055,7 +59052,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2175" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -59081,7 +59078,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2176" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -59107,7 +59104,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2177" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -59133,7 +59130,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2178" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -59159,7 +59156,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2179" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -59185,7 +59182,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2180" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -59211,7 +59208,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2181" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -59237,7 +59234,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2182" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -59263,7 +59260,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2183" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -59289,7 +59286,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2184" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -59315,7 +59312,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2185" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -59341,7 +59338,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2186" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -59367,7 +59364,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G2187" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -59393,7 +59390,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2188" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -59419,7 +59416,7 @@
         <v>4.25</v>
       </c>
       <c r="G2189" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -59445,7 +59442,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2190" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -59471,7 +59468,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2191" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -59497,7 +59494,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2192" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -59523,7 +59520,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2193" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -59549,7 +59546,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2194" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -59557,13 +59554,13 @@
     </row>
     <row r="2195">
       <c r="A2195" s="1" t="n">
-        <v>45518.6494675926</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B2195" t="n">
         <v>12295</v>
       </c>
       <c r="C2195" t="n">
-        <v>4.5</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="D2195" t="n">
         <v>4.15000009536743</v>
@@ -59575,7 +59572,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G2195" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -47,49 +47,49 @@
     <t xml:space="preserve">3.87105989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87458252906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86577606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86401605606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78652405738831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7424943447113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532933235168</t>
+    <t xml:space="preserve">3.87458205223083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86577653884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86401534080505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78652358055115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74249458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532980918884</t>
   </si>
   <si>
     <t xml:space="preserve">3.77771782875061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62977910041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733097076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65443539619446</t>
+    <t xml:space="preserve">3.62977957725525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67733073234558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65443563461304</t>
   </si>
   <si>
     <t xml:space="preserve">3.663241147995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64386868476868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48712396621704</t>
+    <t xml:space="preserve">3.6438684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48712420463562</t>
   </si>
   <si>
     <t xml:space="preserve">3.61040616035461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68965935707092</t>
+    <t xml:space="preserve">3.68965911865234</t>
   </si>
   <si>
     <t xml:space="preserve">3.66676378250122</t>
@@ -98,61 +98,61 @@
     <t xml:space="preserve">3.6033616065979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68085289001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56637740135193</t>
+    <t xml:space="preserve">3.68085312843323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56637692451477</t>
   </si>
   <si>
     <t xml:space="preserve">3.53995943069458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6156895160675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64915204048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65267395973206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65091300010681</t>
+    <t xml:space="preserve">3.61568975448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64915180206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65267419815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65091371536255</t>
   </si>
   <si>
     <t xml:space="preserve">3.64210724830627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59455537796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71431517601013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.751300573349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81294131278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356861114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225461959839</t>
+    <t xml:space="preserve">3.59455513954163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71431541442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75130033493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81294083595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356837272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225414276123</t>
   </si>
   <si>
     <t xml:space="preserve">3.81470227241516</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80941915512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73368787765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73721098899841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71255445480347</t>
+    <t xml:space="preserve">3.80941867828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73368811607361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73721075057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71255397796631</t>
   </si>
   <si>
     <t xml:space="preserve">3.73192715644836</t>
@@ -164,109 +164,109 @@
     <t xml:space="preserve">3.76891207695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76538968086243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74953866004944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74601674079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73016619682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6984646320343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68613648414612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72488260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8235080242157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95383477210999</t>
+    <t xml:space="preserve">3.76538920402527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74953889846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74601697921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73016571998596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69846487045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68613600730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72488307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82350778579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95383501052856</t>
   </si>
   <si>
     <t xml:space="preserve">3.91861152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93446159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98377513885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94326782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508936882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9855363368988</t>
+    <t xml:space="preserve">3.93446254730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98377537727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326853752136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98553586006165</t>
   </si>
   <si>
     <t xml:space="preserve">3.91332769393921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89395499229431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96088027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622326850891</t>
+    <t xml:space="preserve">3.89395451545715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96088004112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219427108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622303009033</t>
   </si>
   <si>
     <t xml:space="preserve">3.92741751670837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88338851928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99916791915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02612924575806</t>
+    <t xml:space="preserve">3.88338780403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99916744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0261287689209</t>
   </si>
   <si>
     <t xml:space="preserve">3.97220730781555</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99018144607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759985923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04410219192505</t>
+    <t xml:space="preserve">3.99018120765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759938240051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04410266876221</t>
   </si>
   <si>
     <t xml:space="preserve">3.98299169540405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95423364639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625926971436</t>
+    <t xml:space="preserve">3.95423340797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625998497009</t>
   </si>
   <si>
     <t xml:space="preserve">3.88233852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92727255821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92367815971375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560681343079</t>
+    <t xml:space="preserve">3.92727279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92367768287659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560633659363</t>
   </si>
   <si>
     <t xml:space="preserve">3.89132499694824</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">3.86436462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86256742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8194305896759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799279212952</t>
+    <t xml:space="preserve">3.86256670951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81943011283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70799255371094</t>
   </si>
   <si>
     <t xml:space="preserve">3.7655086517334</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">3.59475755691528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61273121833801</t>
+    <t xml:space="preserve">3.61273145675659</t>
   </si>
   <si>
     <t xml:space="preserve">3.67923450469971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6307053565979</t>
+    <t xml:space="preserve">3.63070559501648</t>
   </si>
   <si>
     <t xml:space="preserve">3.62171840667725</t>
@@ -314,19 +314,19 @@
     <t xml:space="preserve">3.57318925857544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61632657051086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60374474525452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64688205718994</t>
+    <t xml:space="preserve">3.61632633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6037449836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64688181877136</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918158531189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73675084114075</t>
+    <t xml:space="preserve">3.73675060272217</t>
   </si>
   <si>
     <t xml:space="preserve">3.75652170181274</t>
@@ -335,31 +335,31 @@
     <t xml:space="preserve">3.80325365066528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86616182327271</t>
+    <t xml:space="preserve">3.86616158485413</t>
   </si>
   <si>
     <t xml:space="preserve">3.81763291358948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81044292449951</t>
+    <t xml:space="preserve">3.81044340133667</t>
   </si>
   <si>
     <t xml:space="preserve">3.79246878623962</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74394011497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77449512481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067182540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77629280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887414932251</t>
+    <t xml:space="preserve">3.7439398765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77449560165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067158699036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7762930393219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887462615967</t>
   </si>
   <si>
     <t xml:space="preserve">3.74753475189209</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.75112962722778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80145573616028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73315572738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78348207473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7241690158844</t>
+    <t xml:space="preserve">3.80145668983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73315596580505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78348255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72416925430298</t>
   </si>
   <si>
     <t xml:space="preserve">3.77090072631836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72057414054871</t>
+    <t xml:space="preserve">3.72057390213013</t>
   </si>
   <si>
     <t xml:space="preserve">3.76371145248413</t>
@@ -392,103 +392,106 @@
     <t xml:space="preserve">3.72596645355225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70978999137878</t>
+    <t xml:space="preserve">3.70978975296021</t>
   </si>
   <si>
     <t xml:space="preserve">3.70260047912598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73854804039001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956109046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237181663513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72776365280151</t>
+    <t xml:space="preserve">3.73854780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956132888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237157821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72776341438293</t>
   </si>
   <si>
     <t xml:space="preserve">3.75292706489563</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75831913948059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69541096687317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68462681770325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69361352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485571861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68822169303894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73135852813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71338510513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168511390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83380913734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81224060058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81583499908447</t>
+    <t xml:space="preserve">3.75831937789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69541072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68462634086609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6936137676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485548019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68822145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73135828971863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7133846282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168535232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83380889892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81224036216736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81583476066589</t>
   </si>
   <si>
     <t xml:space="preserve">3.82661986351013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82841730117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547488212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188000679016</t>
+    <t xml:space="preserve">3.8284170627594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547535896301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446207046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188048362732</t>
   </si>
   <si>
     <t xml:space="preserve">3.90031218528748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87335181236267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84639120101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83740425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514853477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94165134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929865837097</t>
+    <t xml:space="preserve">3.87335133552551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84639096260071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83740377426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8751482963562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94165253639221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929841995239</t>
   </si>
   <si>
     <t xml:space="preserve">3.95243573188782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98119425773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97939729690552</t>
+    <t xml:space="preserve">3.98119401931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9793963432312</t>
   </si>
   <si>
     <t xml:space="preserve">3.88413548469543</t>
@@ -497,7 +500,7 @@
     <t xml:space="preserve">3.94884157180786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87874364852905</t>
+    <t xml:space="preserve">3.87874317169189</t>
   </si>
   <si>
     <t xml:space="preserve">4.01534461975098</t>
@@ -512,10 +515,10 @@
     <t xml:space="preserve">4.04050731658936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05308961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01714181900024</t>
+    <t xml:space="preserve">4.0530891418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01714134216309</t>
   </si>
   <si>
     <t xml:space="preserve">4.06207656860352</t>
@@ -524,25 +527,25 @@
     <t xml:space="preserve">4.07106304168701</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14295864105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06926488876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.089035987854</t>
+    <t xml:space="preserve">4.14295816421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06926584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08903646469116</t>
   </si>
   <si>
     <t xml:space="preserve">4.40357828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37661695480347</t>
+    <t xml:space="preserve">4.37661743164062</t>
   </si>
   <si>
     <t xml:space="preserve">4.34606170654297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34785890579224</t>
+    <t xml:space="preserve">4.34785938262939</t>
   </si>
   <si>
     <t xml:space="preserve">4.32808828353882</t>
@@ -551,61 +554,61 @@
     <t xml:space="preserve">4.27236986160278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11599731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03691291809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98478960990906</t>
+    <t xml:space="preserve">4.11599779129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03691339492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98478841781616</t>
   </si>
   <si>
     <t xml:space="preserve">4.04230499267578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95603060722351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92008280754089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91828608512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94704365730286</t>
+    <t xml:space="preserve">3.95603013038635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92008376121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91828584671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94704437255859</t>
   </si>
   <si>
     <t xml:space="preserve">3.93266439437866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84099888801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86795949935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90390658378601</t>
+    <t xml:space="preserve">3.84099841117859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86795926094055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90390729904175</t>
   </si>
   <si>
     <t xml:space="preserve">3.94524669647217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96359658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112153053284</t>
+    <t xml:space="preserve">3.9635968208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112105369568</t>
   </si>
   <si>
     <t xml:space="preserve">3.98194670677185</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06819152832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89019656181335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184643745422</t>
+    <t xml:space="preserve">4.06819105148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89019680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87184596061707</t>
   </si>
   <si>
     <t xml:space="preserve">3.92689681053162</t>
@@ -617,13 +620,13 @@
     <t xml:space="preserve">4.128746509552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17462205886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12691164016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10672664642334</t>
+    <t xml:space="preserve">4.17462110519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12691116333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10672616958618</t>
   </si>
   <si>
     <t xml:space="preserve">4.05901622772217</t>
@@ -632,13 +635,13 @@
     <t xml:space="preserve">4.03699636459351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99479150772095</t>
+    <t xml:space="preserve">3.99479103088379</t>
   </si>
   <si>
     <t xml:space="preserve">4.05351161956787</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08287143707275</t>
+    <t xml:space="preserve">4.0828709602356</t>
   </si>
   <si>
     <t xml:space="preserve">4.03332662582397</t>
@@ -653,28 +656,28 @@
     <t xml:space="preserve">4.08103656768799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05534696578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09021186828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06268644332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15260124206543</t>
+    <t xml:space="preserve">4.05534648895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09021139144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0626859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15260171890259</t>
   </si>
   <si>
     <t xml:space="preserve">4.15627145767212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16544580459595</t>
+    <t xml:space="preserve">4.16544675827026</t>
   </si>
   <si>
     <t xml:space="preserve">4.11039638519287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09388160705566</t>
+    <t xml:space="preserve">4.09388113021851</t>
   </si>
   <si>
     <t xml:space="preserve">4.20948648452759</t>
@@ -689,7 +692,7 @@
     <t xml:space="preserve">4.12507629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11957120895386</t>
+    <t xml:space="preserve">4.11957168579102</t>
   </si>
   <si>
     <t xml:space="preserve">4.13608646392822</t>
@@ -698,46 +701,46 @@
     <t xml:space="preserve">4.15076637268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10305595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17278575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11223173141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002639770508</t>
+    <t xml:space="preserve">4.10305643081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17278623580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11223125457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002687454224</t>
   </si>
   <si>
     <t xml:space="preserve">4.10122108459473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16911697387695</t>
+    <t xml:space="preserve">4.16911649703979</t>
   </si>
   <si>
     <t xml:space="preserve">4.18379640579224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21132183074951</t>
+    <t xml:space="preserve">4.2113208770752</t>
   </si>
   <si>
     <t xml:space="preserve">4.09755182266235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05167579650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01864624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07920122146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13425159454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21866178512573</t>
+    <t xml:space="preserve">4.05167627334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01864671707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07920074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1342511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21866130828857</t>
   </si>
   <si>
     <t xml:space="preserve">4.13241624832153</t>
@@ -746,7 +749,7 @@
     <t xml:space="preserve">4.12140703201294</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11590099334717</t>
+    <t xml:space="preserve">4.11590147018433</t>
   </si>
   <si>
     <t xml:space="preserve">4.11773633956909</t>
@@ -758,40 +761,40 @@
     <t xml:space="preserve">4.1489315032959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19113636016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19297122955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99662613868713</t>
+    <t xml:space="preserve">4.1911358833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19297218322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99662661552429</t>
   </si>
   <si>
     <t xml:space="preserve">4.04433631896973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98561668395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94341135025024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02048110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92322635650635</t>
+    <t xml:space="preserve">3.98561692237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94341111183167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0204815864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92322659492493</t>
   </si>
   <si>
     <t xml:space="preserve">4.03516101837158</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08654165267944</t>
+    <t xml:space="preserve">4.08654117584229</t>
   </si>
   <si>
     <t xml:space="preserve">4.04800653457642</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96726655960083</t>
+    <t xml:space="preserve">3.96726584434509</t>
   </si>
   <si>
     <t xml:space="preserve">3.92506170272827</t>
@@ -800,82 +803,82 @@
     <t xml:space="preserve">3.91772150993347</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00029706954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97277164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93790578842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99846148490906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04617118835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88102149963379</t>
+    <t xml:space="preserve">4.0002965927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97277140617371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93790650367737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846124649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04617166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88102197647095</t>
   </si>
   <si>
     <t xml:space="preserve">3.85349655151367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95442128181458</t>
+    <t xml:space="preserve">3.95442152023315</t>
   </si>
   <si>
     <t xml:space="preserve">3.83514666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89937138557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90854692459106</t>
+    <t xml:space="preserve">3.89937162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90854668617249</t>
   </si>
   <si>
     <t xml:space="preserve">3.93607187271118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8626720905304</t>
+    <t xml:space="preserve">3.86267161369324</t>
   </si>
   <si>
     <t xml:space="preserve">3.82597160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78927206993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80762147903442</t>
+    <t xml:space="preserve">3.78927183151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80762195587158</t>
   </si>
   <si>
     <t xml:space="preserve">4.02039432525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04857397079468</t>
+    <t xml:space="preserve">4.04857444763184</t>
   </si>
   <si>
     <t xml:space="preserve">4.03918123245239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97342681884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99221348762512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02978754043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96403336524963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89827919006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9170663356781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77616429328918</t>
+    <t xml:space="preserve">3.97342729568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99221396446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02978801727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96403288841248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89827966690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91706609725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77616477012634</t>
   </si>
   <si>
     <t xml:space="preserve">3.70101714134216</t>
@@ -884,22 +887,22 @@
     <t xml:space="preserve">3.75737762451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73859119415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71980404853821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71041035652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63526272773743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62586951255798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52254176139832</t>
+    <t xml:space="preserve">3.73859071731567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71980381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71041059494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63526296615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6258692741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52254152297974</t>
   </si>
   <si>
     <t xml:space="preserve">3.42860722541809</t>
@@ -908,7 +911,7 @@
     <t xml:space="preserve">3.28770542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35345983505249</t>
+    <t xml:space="preserve">3.35345935821533</t>
   </si>
   <si>
     <t xml:space="preserve">3.33467268943787</t>
@@ -917,7 +920,7 @@
     <t xml:space="preserve">3.37224650382996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3816397190094</t>
+    <t xml:space="preserve">3.38163995742798</t>
   </si>
   <si>
     <t xml:space="preserve">3.45678758621216</t>
@@ -941,22 +944,22 @@
     <t xml:space="preserve">3.4755744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49436116218567</t>
+    <t xml:space="preserve">3.49436140060425</t>
   </si>
   <si>
     <t xml:space="preserve">3.31588578224182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60708236694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56950879096985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50375485420227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65405011177063</t>
+    <t xml:space="preserve">3.60708260536194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56950902938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50375461578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65404987335205</t>
   </si>
   <si>
     <t xml:space="preserve">3.48496794700623</t>
@@ -974,7 +977,7 @@
     <t xml:space="preserve">3.66344332695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58829593658447</t>
+    <t xml:space="preserve">3.58829545974731</t>
   </si>
   <si>
     <t xml:space="preserve">3.5507218837738</t>
@@ -983,10 +986,10 @@
     <t xml:space="preserve">3.53193497657776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56011557579041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57890200614929</t>
+    <t xml:space="preserve">3.56011533737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57890224456787</t>
   </si>
   <si>
     <t xml:space="preserve">3.64465641975403</t>
@@ -1004,13 +1007,13 @@
     <t xml:space="preserve">3.54921531677246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62637209892273</t>
+    <t xml:space="preserve">3.62637186050415</t>
   </si>
   <si>
     <t xml:space="preserve">3.58779358863831</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66495037078857</t>
+    <t xml:space="preserve">3.66495013237</t>
   </si>
   <si>
     <t xml:space="preserve">3.68423938751221</t>
@@ -1022,13 +1025,13 @@
     <t xml:space="preserve">3.7999746799469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74210715293884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81926393508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83855319023132</t>
+    <t xml:space="preserve">3.74210739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81926417350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83855295181274</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1037,15 +1040,12 @@
     <t xml:space="preserve">3.76139640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72281765937805</t>
+    <t xml:space="preserve">3.72281789779663</t>
   </si>
   <si>
     <t xml:space="preserve">3.64566111564636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60708260536194</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.56850433349609</t>
   </si>
   <si>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">3.45276880264282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37561202049255</t>
+    <t xml:space="preserve">3.37561225891113</t>
   </si>
   <si>
     <t xml:space="preserve">3.39490151405334</t>
@@ -1079,10 +1079,10 @@
     <t xml:space="preserve">3.27916598320007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18272018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22129821777344</t>
+    <t xml:space="preserve">3.18271994590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22129845619202</t>
   </si>
   <si>
     <t xml:space="preserve">3.14414167404175</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1055634021759</t>
+    <t xml:space="preserve">3.10556316375732</t>
   </si>
   <si>
     <t xml:space="preserve">3.06698489189148</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">2.91267108917236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85480332374573</t>
+    <t xml:space="preserve">2.85480356216431</t>
   </si>
   <si>
     <t xml:space="preserve">2.71977877616882</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">2.75835704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77764654159546</t>
+    <t xml:space="preserve">2.77764678001404</t>
   </si>
   <si>
     <t xml:space="preserve">2.73906803131104</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">2.60404372215271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58475470542908</t>
+    <t xml:space="preserve">2.5847544670105</t>
   </si>
   <si>
     <t xml:space="preserve">2.50759768486023</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">2.46901917457581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3339946269989</t>
+    <t xml:space="preserve">2.33399486541748</t>
   </si>
   <si>
     <t xml:space="preserve">2.16039180755615</t>
@@ -1181,22 +1181,22 @@
     <t xml:space="preserve">2.21825933456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14110279083252</t>
+    <t xml:space="preserve">2.14110255241394</t>
   </si>
   <si>
     <t xml:space="preserve">2.23754835128784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02536725997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19897031784058</t>
+    <t xml:space="preserve">2.02536749839783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.198970079422</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683760643005</t>
+    <t xml:space="preserve">2.25683784484863</t>
   </si>
   <si>
     <t xml:space="preserve">2.29541635513306</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">2.31470537185669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26648235321045</t>
+    <t xml:space="preserve">2.26648259162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.41115140914917</t>
@@ -1226,13 +1226,13 @@
     <t xml:space="preserve">2.3436393737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36292839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30506086349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22790384292603</t>
+    <t xml:space="preserve">2.36292862892151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30506110191345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2279040813446</t>
   </si>
   <si>
     <t xml:space="preserve">2.24719309806824</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.18932580947876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17003655433655</t>
+    <t xml:space="preserve">2.17003631591797</t>
   </si>
   <si>
     <t xml:space="preserve">2.13145804405212</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">2.1025242805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11216878890991</t>
+    <t xml:space="preserve">2.11216855049133</t>
   </si>
   <si>
     <t xml:space="preserve">2.07359027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03501176834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9867889881134</t>
+    <t xml:space="preserve">2.03501152992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98678886890411</t>
   </si>
   <si>
     <t xml:space="preserve">1.92409884929657</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">1.9578549861908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20861482620239</t>
+    <t xml:space="preserve">2.20861458778381</t>
   </si>
   <si>
     <t xml:space="preserve">2.15074706077576</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">2.87409257888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66191148757935</t>
+    <t xml:space="preserve">2.66191124916077</t>
   </si>
   <si>
     <t xml:space="preserve">2.64262199401855</t>
@@ -1334,16 +1334,16 @@
     <t xml:space="preserve">2.70048975944519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71013426780701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69084525108337</t>
+    <t xml:space="preserve">2.71013450622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69084501266479</t>
   </si>
   <si>
     <t xml:space="preserve">2.72942328453064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78729128837585</t>
+    <t xml:space="preserve">2.78729152679443</t>
   </si>
   <si>
     <t xml:space="preserve">2.94160485267639</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">2.99947237968445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98018336296082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96089386940002</t>
+    <t xml:space="preserve">2.98018312454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9608941078186</t>
   </si>
   <si>
     <t xml:space="preserve">3.03805088996887</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">3.21165370941162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23094296455383</t>
+    <t xml:space="preserve">3.23094320297241</t>
   </si>
   <si>
     <t xml:space="preserve">3.24058747291565</t>
@@ -1376,22 +1376,22 @@
     <t xml:space="preserve">3.19236469268799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17307543754578</t>
+    <t xml:space="preserve">3.1730751991272</t>
   </si>
   <si>
     <t xml:space="preserve">3.13449716567993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15378642082214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26952147483826</t>
+    <t xml:space="preserve">3.15378618240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26952171325684</t>
   </si>
   <si>
     <t xml:space="preserve">3.25987696647644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30809998512268</t>
+    <t xml:space="preserve">3.30810022354126</t>
   </si>
   <si>
     <t xml:space="preserve">3.32738900184631</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">3.09591865539551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0766294002533</t>
+    <t xml:space="preserve">3.07662916183472</t>
   </si>
   <si>
     <t xml:space="preserve">3.01876187324524</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">2.90302634239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88373708724976</t>
+    <t xml:space="preserve">2.88373732566833</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">3.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59743809700012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67459511756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71317315101624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79033017158508</t>
+    <t xml:space="preserve">3.59743785858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67459487915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71317338943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79033041000366</t>
   </si>
   <si>
     <t xml:space="preserve">3.88677644729614</t>
@@ -1457,19 +1457,19 @@
     <t xml:space="preserve">3.95428848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9446439743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0507345199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97357797622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002353668213</t>
+    <t xml:space="preserve">3.94464373588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9832227230072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05073499679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97357773780823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002305984497</t>
   </si>
   <si>
     <t xml:space="preserve">4.20504856109619</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">4.23398208618164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34971761703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3400731086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794063568115</t>
+    <t xml:space="preserve">4.34971714019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34007263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794015884399</t>
   </si>
   <si>
     <t xml:space="preserve">4.4268741607666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45580768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22433757781982</t>
+    <t xml:space="preserve">4.45580816268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22433710098267</t>
   </si>
   <si>
     <t xml:space="preserve">4.08931255340576</t>
@@ -1511,28 +1511,28 @@
     <t xml:space="preserve">4.24362659454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31113910675049</t>
+    <t xml:space="preserve">4.31113862991333</t>
   </si>
   <si>
     <t xml:space="preserve">4.2918496131897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40758562088013</t>
+    <t xml:space="preserve">4.40758514404297</t>
   </si>
   <si>
     <t xml:space="preserve">4.50403070449829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5329647064209</t>
+    <t xml:space="preserve">4.53296518325806</t>
   </si>
   <si>
     <t xml:space="preserve">4.43651866912842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3690071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1278920173645</t>
+    <t xml:space="preserve">4.36900663375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12789154052734</t>
   </si>
   <si>
     <t xml:space="preserve">4.16647005081177</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">4.33042812347412</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51367521286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46545267105103</t>
+    <t xml:space="preserve">4.51367568969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46545314788818</t>
   </si>
   <si>
     <t xml:space="preserve">4.37865161895752</t>
@@ -1577,10 +1577,10 @@
     <t xml:space="preserve">4.49438619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44616317749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41722965240479</t>
+    <t xml:space="preserve">4.44616365432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41722917556763</t>
   </si>
   <si>
     <t xml:space="preserve">4.64870023727417</t>
@@ -1589,16 +1589,16 @@
     <t xml:space="preserve">4.80301380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72585678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6390552520752</t>
+    <t xml:space="preserve">4.72585725784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63905572891235</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61012172698975</t>
+    <t xml:space="preserve">4.6101222038269</t>
   </si>
   <si>
     <t xml:space="preserve">4.57154273986816</t>
@@ -1607,10 +1607,10 @@
     <t xml:space="preserve">4.27256011962891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11824655532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15682554244995</t>
+    <t xml:space="preserve">4.11824703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15682506561279</t>
   </si>
   <si>
     <t xml:space="preserve">4.38829612731934</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">5.59387159347534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4974250793457</t>
+    <t xml:space="preserve">5.49742555618286</t>
   </si>
   <si>
     <t xml:space="preserve">5.28524398803711</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026853561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38169050216675</t>
+    <t xml:space="preserve">5.42026901245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38169002532959</t>
   </si>
   <si>
     <t xml:space="preserve">4.86088180541992</t>
@@ -9184,7 +9184,7 @@
         <v>4.37799978256226</v>
       </c>
       <c r="G257" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9236,7 +9236,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G259" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9262,7 +9262,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G260" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9288,7 +9288,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G261" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9314,7 +9314,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G262" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9340,7 +9340,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G263" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9366,7 +9366,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G264" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9392,7 +9392,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G265" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9418,7 +9418,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G266" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9496,7 +9496,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G269" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9522,7 +9522,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G270" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9600,7 +9600,7 @@
         <v>4.31199979782104</v>
       </c>
       <c r="G273" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9626,7 +9626,7 @@
         <v>4.38600015640259</v>
       </c>
       <c r="G274" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9678,7 +9678,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G276" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9704,7 +9704,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G277" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9730,7 +9730,7 @@
         <v>4.36399984359741</v>
       </c>
       <c r="G278" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9756,7 +9756,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G279" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9782,7 +9782,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G280" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9860,7 +9860,7 @@
         <v>4.32200002670288</v>
       </c>
       <c r="G283" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9886,7 +9886,7 @@
         <v>4.32200002670288</v>
       </c>
       <c r="G284" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9938,7 +9938,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G286" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9964,7 +9964,7 @@
         <v>4.39400005340576</v>
       </c>
       <c r="G287" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10016,7 +10016,7 @@
         <v>4.31599998474121</v>
       </c>
       <c r="G289" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10094,7 +10094,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G292" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10120,7 +10120,7 @@
         <v>4.47399997711182</v>
       </c>
       <c r="G293" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10172,7 +10172,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G295" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10224,7 +10224,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G297" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10250,7 +10250,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G298" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10302,7 +10302,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G300" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10354,7 +10354,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G302" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10406,7 +10406,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G304" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10432,7 +10432,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G305" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10510,7 +10510,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G308" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10614,7 +10614,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G312" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10640,7 +10640,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G313" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10666,7 +10666,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G314" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10692,7 +10692,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G315" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10718,7 +10718,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G316" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10744,7 +10744,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G317" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10770,7 +10770,7 @@
         <v>4.83599996566772</v>
       </c>
       <c r="G318" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10796,7 +10796,7 @@
         <v>4.83799982070923</v>
       </c>
       <c r="G319" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10822,7 +10822,7 @@
         <v>4.81599998474121</v>
       </c>
       <c r="G320" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10848,7 +10848,7 @@
         <v>4.75400018692017</v>
       </c>
       <c r="G321" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10874,7 +10874,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10900,7 +10900,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G323" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10952,7 +10952,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G325" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10978,7 +10978,7 @@
         <v>4.46799993515015</v>
       </c>
       <c r="G326" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11004,7 +11004,7 @@
         <v>4.43400001525879</v>
       </c>
       <c r="G327" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11030,7 +11030,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G328" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11160,7 +11160,7 @@
         <v>4.40199995040894</v>
       </c>
       <c r="G333" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11186,7 +11186,7 @@
         <v>4.36199998855591</v>
       </c>
       <c r="G334" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11212,7 +11212,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G335" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11316,7 +11316,7 @@
         <v>4.39200019836426</v>
       </c>
       <c r="G339" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11342,7 +11342,7 @@
         <v>4.37599992752075</v>
       </c>
       <c r="G340" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11368,7 +11368,7 @@
         <v>4.27400016784668</v>
       </c>
       <c r="G341" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11394,7 +11394,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G342" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11472,7 +11472,7 @@
         <v>4.30399990081787</v>
       </c>
       <c r="G345" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11654,7 +11654,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G352" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11680,7 +11680,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G353" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11706,7 +11706,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G354" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11732,7 +11732,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G355" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11758,7 +11758,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G356" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11784,7 +11784,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G357" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11810,7 +11810,7 @@
         <v>4.43400001525879</v>
       </c>
       <c r="G358" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11836,7 +11836,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G359" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11862,7 +11862,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G360" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11888,7 +11888,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G361" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11914,7 +11914,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G362" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11940,7 +11940,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G363" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11966,7 +11966,7 @@
         <v>4.5</v>
       </c>
       <c r="G364" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11992,7 +11992,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G365" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12018,7 +12018,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G366" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12044,7 +12044,7 @@
         <v>4.47599983215332</v>
       </c>
       <c r="G367" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12070,7 +12070,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G368" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12096,7 +12096,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12122,7 +12122,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12148,7 +12148,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G371" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12174,7 +12174,7 @@
         <v>4.35400009155273</v>
       </c>
       <c r="G372" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12200,7 +12200,7 @@
         <v>4.41800022125244</v>
       </c>
       <c r="G373" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12226,7 +12226,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G374" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12252,7 +12252,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G375" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12278,7 +12278,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G376" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12304,7 +12304,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G377" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12330,7 +12330,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G378" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12356,7 +12356,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G379" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12382,7 +12382,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G380" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12408,7 +12408,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G381" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12434,7 +12434,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G382" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12460,7 +12460,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12486,7 +12486,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G384" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12512,7 +12512,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G385" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12538,7 +12538,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G386" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12564,7 +12564,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G387" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12590,7 +12590,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G388" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12616,7 +12616,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12642,7 +12642,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G390" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12668,7 +12668,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G391" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12694,7 +12694,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12720,7 +12720,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G393" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12746,7 +12746,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G394" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12772,7 +12772,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12798,7 +12798,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G396" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12824,7 +12824,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G397" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12850,7 +12850,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G398" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12876,7 +12876,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12902,7 +12902,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12928,7 +12928,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G401" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12954,7 +12954,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G402" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12980,7 +12980,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G403" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13006,7 +13006,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G404" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13032,7 +13032,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G405" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13058,7 +13058,7 @@
         <v>4.58799982070923</v>
       </c>
       <c r="G406" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13084,7 +13084,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G407" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13110,7 +13110,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G408" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13136,7 +13136,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G409" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13162,7 +13162,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G410" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13188,7 +13188,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G411" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13214,7 +13214,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G412" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13240,7 +13240,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G413" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13266,7 +13266,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G414" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13292,7 +13292,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G415" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13318,7 +13318,7 @@
         <v>4.52400016784668</v>
       </c>
       <c r="G416" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13344,7 +13344,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13370,7 +13370,7 @@
         <v>4.5</v>
       </c>
       <c r="G418" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13396,7 +13396,7 @@
         <v>4.5</v>
       </c>
       <c r="G419" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13422,7 +13422,7 @@
         <v>4.47200012207031</v>
       </c>
       <c r="G420" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13448,7 +13448,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G421" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13474,7 +13474,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G422" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13500,7 +13500,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G423" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13526,7 +13526,7 @@
         <v>4.48199987411499</v>
       </c>
       <c r="G424" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13552,7 +13552,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G425" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13578,7 +13578,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G426" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13604,7 +13604,7 @@
         <v>4.5</v>
       </c>
       <c r="G427" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13630,7 +13630,7 @@
         <v>4.5</v>
       </c>
       <c r="G428" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13656,7 +13656,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G429" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13682,7 +13682,7 @@
         <v>4.54400014877319</v>
       </c>
       <c r="G430" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13708,7 +13708,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G431" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13734,7 +13734,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13760,7 +13760,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G433" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13786,7 +13786,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13812,7 +13812,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13838,7 +13838,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13864,7 +13864,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G437" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13890,7 +13890,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G438" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13916,7 +13916,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G439" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13942,7 +13942,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G440" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13968,7 +13968,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G441" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13994,7 +13994,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G442" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14020,7 +14020,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G443" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14046,7 +14046,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G444" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14072,7 +14072,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G445" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14098,7 +14098,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G446" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14124,7 +14124,7 @@
         <v>4.5</v>
       </c>
       <c r="G447" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14150,7 +14150,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G448" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14176,7 +14176,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G449" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14202,7 +14202,7 @@
         <v>4.5</v>
       </c>
       <c r="G450" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14228,7 +14228,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G451" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14254,7 +14254,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G452" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14280,7 +14280,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G453" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14306,7 +14306,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G454" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14332,7 +14332,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G455" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14358,7 +14358,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G456" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14384,7 +14384,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G457" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14410,7 +14410,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14436,7 +14436,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G459" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14462,7 +14462,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G460" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14488,7 +14488,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14514,7 +14514,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G462" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14540,7 +14540,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G463" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14566,7 +14566,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G464" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14592,7 +14592,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G465" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14618,7 +14618,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G466" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14644,7 +14644,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G467" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14670,7 +14670,7 @@
         <v>4.5</v>
       </c>
       <c r="G468" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14696,7 +14696,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G469" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14722,7 +14722,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14748,7 +14748,7 @@
         <v>4.5</v>
       </c>
       <c r="G471" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14774,7 +14774,7 @@
         <v>4.5</v>
       </c>
       <c r="G472" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14800,7 +14800,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G473" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14826,7 +14826,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G474" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14852,7 +14852,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G475" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14878,7 +14878,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G476" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14904,7 +14904,7 @@
         <v>4.56799983978271</v>
       </c>
       <c r="G477" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14930,7 +14930,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G478" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14956,7 +14956,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G479" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14982,7 +14982,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G480" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15008,7 +15008,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G481" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15034,7 +15034,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G482" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15060,7 +15060,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G483" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15086,7 +15086,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G484" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15112,7 +15112,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G485" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15138,7 +15138,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G486" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15164,7 +15164,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G487" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15190,7 +15190,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15216,7 +15216,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G489" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15242,7 +15242,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G490" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15268,7 +15268,7 @@
         <v>4.38199996948242</v>
       </c>
       <c r="G491" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15294,7 +15294,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G492" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15320,7 +15320,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15346,7 +15346,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G494" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15372,7 +15372,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G495" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15398,7 +15398,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G496" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15424,7 +15424,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15450,7 +15450,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G498" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15476,7 +15476,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G499" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15502,7 +15502,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G500" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15528,7 +15528,7 @@
         <v>4.41200017929077</v>
       </c>
       <c r="G501" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15554,7 +15554,7 @@
         <v>4.32399988174438</v>
       </c>
       <c r="G502" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15580,7 +15580,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G503" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15606,7 +15606,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G504" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15632,7 +15632,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G505" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15658,7 +15658,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G506" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15684,7 +15684,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G507" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15710,7 +15710,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15736,7 +15736,7 @@
         <v>4.29199981689453</v>
       </c>
       <c r="G509" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15762,7 +15762,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G510" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15788,7 +15788,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G511" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15814,7 +15814,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15840,7 +15840,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G513" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15866,7 +15866,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G514" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15892,7 +15892,7 @@
         <v>4.5</v>
       </c>
       <c r="G515" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15918,7 +15918,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G516" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15944,7 +15944,7 @@
         <v>4.5</v>
       </c>
       <c r="G517" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15970,7 +15970,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G518" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15996,7 +15996,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16022,7 +16022,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G520" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16048,7 +16048,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G521" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16074,7 +16074,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G522" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16100,7 +16100,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G523" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16126,7 +16126,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G524" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16152,7 +16152,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G525" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16178,7 +16178,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G526" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16204,7 +16204,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G527" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16230,7 +16230,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G528" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16256,7 +16256,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G529" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16282,7 +16282,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16308,7 +16308,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G531" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16334,7 +16334,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16360,7 +16360,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G533" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16386,7 +16386,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G534" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16412,7 +16412,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G535" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16438,7 +16438,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G536" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16464,7 +16464,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G537" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16490,7 +16490,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16516,7 +16516,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G539" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16542,7 +16542,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16568,7 +16568,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G541" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16594,7 +16594,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G542" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16620,7 +16620,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G543" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16646,7 +16646,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16672,7 +16672,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G545" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16698,7 +16698,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G546" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16724,7 +16724,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G547" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16750,7 +16750,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G548" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16776,7 +16776,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16802,7 +16802,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G550" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16828,7 +16828,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G551" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16854,7 +16854,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16880,7 +16880,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G553" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16906,7 +16906,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G554" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16932,7 +16932,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G555" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16958,7 +16958,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G556" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16984,7 +16984,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G557" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17010,7 +17010,7 @@
         <v>4.25</v>
       </c>
       <c r="G558" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17036,7 +17036,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G559" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17062,7 +17062,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G560" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17088,7 +17088,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G561" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17114,7 +17114,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G562" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17140,7 +17140,7 @@
         <v>4.25</v>
       </c>
       <c r="G563" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17166,7 +17166,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G564" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17192,7 +17192,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G565" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17218,7 +17218,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17244,7 +17244,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G567" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17270,7 +17270,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17296,7 +17296,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G569" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17322,7 +17322,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17348,7 +17348,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17374,7 +17374,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17400,7 +17400,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17426,7 +17426,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G574" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17452,7 +17452,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G575" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17478,7 +17478,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G576" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17504,7 +17504,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G577" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17530,7 +17530,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G578" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17556,7 +17556,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G579" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17582,7 +17582,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G580" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17608,7 +17608,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G581" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17634,7 +17634,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G582" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17660,7 +17660,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17686,7 +17686,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17712,7 +17712,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G585" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17738,7 +17738,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G586" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17764,7 +17764,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G587" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17790,7 +17790,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17816,7 +17816,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17842,7 +17842,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G590" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17868,7 +17868,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G591" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17894,7 +17894,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G592" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17920,7 +17920,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G593" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17946,7 +17946,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G594" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17972,7 +17972,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G595" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17998,7 +17998,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G596" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18024,7 +18024,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18050,7 +18050,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18076,7 +18076,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18102,7 +18102,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G600" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18128,7 +18128,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18154,7 +18154,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G602" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18180,7 +18180,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G603" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18206,7 +18206,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G604" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18232,7 +18232,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G605" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18258,7 +18258,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18284,7 +18284,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G607" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18310,7 +18310,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G608" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18336,7 +18336,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G609" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18362,7 +18362,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18388,7 +18388,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G611" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18414,7 +18414,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G612" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18440,7 +18440,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18466,7 +18466,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G614" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18492,7 +18492,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G615" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18518,7 +18518,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G616" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18544,7 +18544,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G617" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18570,7 +18570,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G618" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18596,7 +18596,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G619" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18622,7 +18622,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18648,7 +18648,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G621" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18674,7 +18674,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G622" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18700,7 +18700,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G623" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18726,7 +18726,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G624" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18752,7 +18752,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G625" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18778,7 +18778,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18804,7 +18804,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18830,7 +18830,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18856,7 +18856,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G629" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18882,7 +18882,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18908,7 +18908,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18934,7 +18934,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G632" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18960,7 +18960,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18986,7 +18986,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G634" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19012,7 +19012,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19038,7 +19038,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19064,7 +19064,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G637" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19090,7 +19090,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19116,7 +19116,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G639" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19142,7 +19142,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G640" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19168,7 +19168,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G641" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19194,7 +19194,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G642" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19220,7 +19220,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19246,7 +19246,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G644" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19272,7 +19272,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G645" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19298,7 +19298,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G646" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19324,7 +19324,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19350,7 +19350,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19376,7 +19376,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G649" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19402,7 +19402,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G650" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19428,7 +19428,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G651" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19454,7 +19454,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19480,7 +19480,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G653" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19506,7 +19506,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19532,7 +19532,7 @@
         <v>4.25</v>
       </c>
       <c r="G655" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19558,7 +19558,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19584,7 +19584,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G657" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19610,7 +19610,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G658" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19636,7 +19636,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G659" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19662,7 +19662,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19688,7 +19688,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G661" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19714,7 +19714,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G662" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19740,7 +19740,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19766,7 +19766,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G664" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19792,7 +19792,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G665" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19818,7 +19818,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19844,7 +19844,7 @@
         <v>4.25</v>
       </c>
       <c r="G667" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19870,7 +19870,7 @@
         <v>4.25</v>
       </c>
       <c r="G668" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19896,7 +19896,7 @@
         <v>4.25</v>
       </c>
       <c r="G669" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19922,7 +19922,7 @@
         <v>4.25</v>
       </c>
       <c r="G670" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19948,7 +19948,7 @@
         <v>4.25</v>
       </c>
       <c r="G671" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19974,7 +19974,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20000,7 +20000,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20026,7 +20026,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20052,7 +20052,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G675" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20078,7 +20078,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G676" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20104,7 +20104,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G677" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20130,7 +20130,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G678" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20156,7 +20156,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G679" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20182,7 +20182,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20208,7 +20208,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20234,7 +20234,7 @@
         <v>4.25</v>
       </c>
       <c r="G682" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20260,7 +20260,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G683" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20286,7 +20286,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G684" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20312,7 +20312,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20338,7 +20338,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G686" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20364,7 +20364,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20390,7 +20390,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G688" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20416,7 +20416,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G689" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20442,7 +20442,7 @@
         <v>4.25</v>
       </c>
       <c r="G690" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20468,7 +20468,7 @@
         <v>4.25</v>
       </c>
       <c r="G691" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20494,7 +20494,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20520,7 +20520,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G693" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20546,7 +20546,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G694" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20572,7 +20572,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20598,7 +20598,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G696" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20624,7 +20624,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G697" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20650,7 +20650,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G698" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20676,7 +20676,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20702,7 +20702,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G700" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20728,7 +20728,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G701" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20754,7 +20754,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20780,7 +20780,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20806,7 +20806,7 @@
         <v>4.25</v>
       </c>
       <c r="G704" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20832,7 +20832,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20858,7 +20858,7 @@
         <v>4.25</v>
       </c>
       <c r="G706" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20884,7 +20884,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G707" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20910,7 +20910,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20936,7 +20936,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20962,7 +20962,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G710" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20988,7 +20988,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G711" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21014,7 +21014,7 @@
         <v>4</v>
       </c>
       <c r="G712" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21040,7 +21040,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G713" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21066,7 +21066,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21092,7 +21092,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21118,7 +21118,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G716" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21144,7 +21144,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G717" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21170,7 +21170,7 @@
         <v>3.75</v>
       </c>
       <c r="G718" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21196,7 +21196,7 @@
         <v>3.75</v>
       </c>
       <c r="G719" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21222,7 +21222,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G720" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21248,7 +21248,7 @@
         <v>3.5</v>
       </c>
       <c r="G721" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21274,7 +21274,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G722" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21300,7 +21300,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G723" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21326,7 +21326,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G724" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21352,7 +21352,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G725" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21378,7 +21378,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21404,7 +21404,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G727" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21430,7 +21430,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G728" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21456,7 +21456,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21482,7 +21482,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G730" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21508,7 +21508,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21534,7 +21534,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G732" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21560,7 +21560,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G733" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21586,7 +21586,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21612,7 +21612,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G735" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21638,7 +21638,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G736" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21664,7 +21664,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21690,7 +21690,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21716,7 +21716,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G739" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21742,7 +21742,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G740" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21768,7 +21768,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G741" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21794,7 +21794,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G742" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21820,7 +21820,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G743" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21846,7 +21846,7 @@
         <v>3.75</v>
       </c>
       <c r="G744" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21872,7 +21872,7 @@
         <v>3.75</v>
       </c>
       <c r="G745" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21898,7 +21898,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21924,7 +21924,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G747" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21950,7 +21950,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21976,7 +21976,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G749" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22002,7 +22002,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G750" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22028,7 +22028,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G751" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22054,7 +22054,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G752" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22080,7 +22080,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G753" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22106,7 +22106,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G754" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22132,7 +22132,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G755" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22158,7 +22158,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G756" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22184,7 +22184,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22210,7 +22210,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G758" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22236,7 +22236,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22262,7 +22262,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G760" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22288,7 +22288,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22314,7 +22314,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22340,7 +22340,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G763" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22366,7 +22366,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G764" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22392,7 +22392,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G765" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22418,7 +22418,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G766" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22444,7 +22444,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G767" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22470,7 +22470,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G768" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22496,7 +22496,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22522,7 +22522,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G770" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22548,7 +22548,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G771" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22574,7 +22574,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22600,7 +22600,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22626,7 +22626,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G774" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22652,7 +22652,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G775" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22678,7 +22678,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G776" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22704,7 +22704,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G777" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22730,7 +22730,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G778" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22756,7 +22756,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G779" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22782,7 +22782,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G780" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22808,7 +22808,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G781" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22834,7 +22834,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G782" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G783" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22886,7 +22886,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G784" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22912,7 +22912,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G785" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22938,7 +22938,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G786" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22964,7 +22964,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G787" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22990,7 +22990,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G788" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23016,7 +23016,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G789" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23042,7 +23042,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23068,7 +23068,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G791" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23094,7 +23094,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G792" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23120,7 +23120,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23146,7 +23146,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G794" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23172,7 +23172,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G795" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23198,7 +23198,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G796" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23224,7 +23224,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23250,7 +23250,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G798" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23276,7 +23276,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G799" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23302,7 +23302,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G800" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23328,7 +23328,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G801" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23354,7 +23354,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G802" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23380,7 +23380,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G803" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23406,7 +23406,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G804" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23432,7 +23432,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G805" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23458,7 +23458,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G806" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23484,7 +23484,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G807" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23510,7 +23510,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G808" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23536,7 +23536,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G809" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23562,7 +23562,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G810" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23588,7 +23588,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G811" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23614,7 +23614,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23640,7 +23640,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G813" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23666,7 +23666,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G814" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23692,7 +23692,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G815" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23718,7 +23718,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23744,7 +23744,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G817" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23770,7 +23770,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G818" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23796,7 +23796,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G819" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23822,7 +23822,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G820" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23848,7 +23848,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G821" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23874,7 +23874,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G822" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23900,7 +23900,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23926,7 +23926,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G824" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23952,7 +23952,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23978,7 +23978,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G826" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24004,7 +24004,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G827" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24030,7 +24030,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G828" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24056,7 +24056,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G829" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24082,7 +24082,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G830" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24108,7 +24108,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24134,7 +24134,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G832" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24160,7 +24160,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G833" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24186,7 +24186,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24212,7 +24212,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G835" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24238,7 +24238,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24264,7 +24264,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24290,7 +24290,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G838" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24316,7 +24316,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G839" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24342,7 +24342,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G840" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24368,7 +24368,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G841" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24394,7 +24394,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24420,7 +24420,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G843" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24446,7 +24446,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24472,7 +24472,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G845" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24498,7 +24498,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G846" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24524,7 +24524,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G847" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24550,7 +24550,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24576,7 +24576,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G849" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24602,7 +24602,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24628,7 +24628,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G851" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24654,7 +24654,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G852" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24680,7 +24680,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G853" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24706,7 +24706,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G854" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24732,7 +24732,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G855" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24758,7 +24758,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G856" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24784,7 +24784,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G857" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24810,7 +24810,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G858" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24836,7 +24836,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G859" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24862,7 +24862,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G860" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24888,7 +24888,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G861" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24914,7 +24914,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G862" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24940,7 +24940,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24966,7 +24966,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G864" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24992,7 +24992,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G865" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25018,7 +25018,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G866" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25044,7 +25044,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G867" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25070,7 +25070,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G868" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25096,7 +25096,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G869" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25122,7 +25122,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G870" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25148,7 +25148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G871" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25174,7 +25174,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G872" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25200,7 +25200,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25226,7 +25226,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G874" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25252,7 +25252,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G875" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25278,7 +25278,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G876" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25304,7 +25304,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G877" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25330,7 +25330,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25356,7 +25356,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G879" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25382,7 +25382,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G880" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25408,7 +25408,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G881" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25434,7 +25434,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G882" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25460,7 +25460,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G883" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25486,7 +25486,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G884" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25512,7 +25512,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G885" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25538,7 +25538,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G886" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25564,7 +25564,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G887" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25590,7 +25590,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25616,7 +25616,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G889" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25642,7 +25642,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G890" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25668,7 +25668,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G891" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25694,7 +25694,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G892" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25720,7 +25720,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G893" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25746,7 +25746,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G894" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25772,7 +25772,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25798,7 +25798,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25824,7 +25824,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G897" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25850,7 +25850,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25876,7 +25876,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25902,7 +25902,7 @@
         <v>4</v>
       </c>
       <c r="G900" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25928,7 +25928,7 @@
         <v>4</v>
       </c>
       <c r="G901" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25954,7 +25954,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G902" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25980,7 +25980,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G903" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26006,7 +26006,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26032,7 +26032,7 @@
         <v>4</v>
       </c>
       <c r="G905" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26058,7 +26058,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G906" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26084,7 +26084,7 @@
         <v>4</v>
       </c>
       <c r="G907" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26110,7 +26110,7 @@
         <v>4</v>
       </c>
       <c r="G908" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26136,7 +26136,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G909" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26162,7 +26162,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G910" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26188,7 +26188,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26214,7 +26214,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G912" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26240,7 +26240,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G913" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26266,7 +26266,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G914" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26292,7 +26292,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G915" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26318,7 +26318,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G916" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26344,7 +26344,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G917" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26396,7 +26396,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G919" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26422,7 +26422,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G920" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26448,7 +26448,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G921" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26474,7 +26474,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G922" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26500,7 +26500,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G923" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26526,7 +26526,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G924" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26578,7 +26578,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G926" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26604,7 +26604,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G927" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26630,7 +26630,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G928" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26656,7 +26656,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G929" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26682,7 +26682,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G930" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26708,7 +26708,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G931" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26734,7 +26734,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G932" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26760,7 +26760,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G933" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26786,7 +26786,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26812,7 +26812,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G935" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26864,7 +26864,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G937" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26890,7 +26890,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G938" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26916,7 +26916,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G939" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -42204,7 +42204,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1527" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42230,7 +42230,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1528" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42256,7 +42256,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1529" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42334,7 +42334,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1532" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -47,46 +47,46 @@
     <t xml:space="preserve">3.87105989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87458181381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86577606201172</t>
+    <t xml:space="preserve">3.87458229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86577653884888</t>
   </si>
   <si>
     <t xml:space="preserve">3.86401557922363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78652358055115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74249458312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532933235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77771782875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62977957725525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733073234558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65443563461304</t>
+    <t xml:space="preserve">3.78652381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74249386787415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77771806716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62977910041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67733120918274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65443539619446</t>
   </si>
   <si>
     <t xml:space="preserve">3.663241147995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6438684463501</t>
+    <t xml:space="preserve">3.64386868476868</t>
   </si>
   <si>
     <t xml:space="preserve">3.48712396621704</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61040616035461</t>
+    <t xml:space="preserve">3.61040592193604</t>
   </si>
   <si>
     <t xml:space="preserve">3.68965911865234</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">3.60336136817932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68085312843323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56637716293335</t>
+    <t xml:space="preserve">3.68085336685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56637692451477</t>
   </si>
   <si>
     <t xml:space="preserve">3.539959192276</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">3.6156895160675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64915204048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65267443656921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65091323852539</t>
+    <t xml:space="preserve">3.64915227890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65267419815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65091300010681</t>
   </si>
   <si>
     <t xml:space="preserve">3.64210748672485</t>
@@ -131,25 +131,25 @@
     <t xml:space="preserve">3.75130033493042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81294083595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356789588928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81470251083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80941939353943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73368811607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73721051216125</t>
+    <t xml:space="preserve">3.81294131278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225438117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81470227241516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80941915512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73368835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73721075057983</t>
   </si>
   <si>
     <t xml:space="preserve">3.71255421638489</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">3.73192715644836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72135996818542</t>
+    <t xml:space="preserve">3.721360206604</t>
   </si>
   <si>
     <t xml:space="preserve">3.76891207695007</t>
@@ -167,22 +167,22 @@
     <t xml:space="preserve">3.76538968086243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74953818321228</t>
+    <t xml:space="preserve">3.74953866004944</t>
   </si>
   <si>
     <t xml:space="preserve">3.74601674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73016619682312</t>
+    <t xml:space="preserve">3.7301664352417</t>
   </si>
   <si>
     <t xml:space="preserve">3.69846487045288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68613624572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72488212585449</t>
+    <t xml:space="preserve">3.68613648414612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72488236427307</t>
   </si>
   <si>
     <t xml:space="preserve">3.82350850105286</t>
@@ -191,289 +191,289 @@
     <t xml:space="preserve">3.95383524894714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9186110496521</t>
+    <t xml:space="preserve">3.91861152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446135520935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9837749004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326877593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98553681373596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91332817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89395499229431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96087956428528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219427108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622279167175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92741751670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88338828086853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99916768074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02612829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99018120765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759938240051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04410219192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98299193382263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423340797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93626022338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88233828544617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92727255821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92367792129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560633659363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89132523536682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86436462402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86256718635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81942987442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70799231529236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76550889015198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475779533386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61273145675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67923426628113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63070559501648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62171816825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65766620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63789486885071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68103194236755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57318925857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61632633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6037449836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64688181877136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6918158531189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73675084114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75652194023132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80325293540955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86616158485413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81044316291809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79246926307678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74394035339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77449536323547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067206382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629327774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887462615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74753475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75112962722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80145621299744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73315572738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78348278999329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7241690158844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77090072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72057414054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371145248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596621513367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70978975296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70260047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73854780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956109046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237157821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72776341438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75292754173279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831937789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69541096687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68462634086609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6936137676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485524177551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68822145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73135805130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338510513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168535232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83380889892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81224060058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81583547592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82661938667297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8284170627594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547583580017</t>
   </si>
   <si>
     <t xml:space="preserve">3.93446183204651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98377537727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94326877593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508913040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9855363368988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91332769393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89395499229431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96088051795959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219403266907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622279167175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92741703987122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88338851928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99916768074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02612829208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220706939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018120765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759938240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04410219192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98299193382263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423293113708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625974655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88233828544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92727303504944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92367839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89132499694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8643639087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86256718635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81942987442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799231529236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7655086517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475779533386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61273121833801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67923426628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6307053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62171816825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65766572952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63789463043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68103218078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57318925857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61632657051086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60374474525452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64688158035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6918158531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73675084114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75652146339417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80325317382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86616182327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8176326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81044268608093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79246926307678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74394035339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77449536323547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067206382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77629327774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74753475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75113010406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80145597457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73315596580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78348255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7241690158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77090072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72057414054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371169090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70978999137878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7026002407074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73854780197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237157821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72776365280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75292730331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831937789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69541096687317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68462657928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69361352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68822121620178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73135805130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71338486671448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168535232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83380889892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81224060058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81583523750305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82661938667297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8284170627594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547583580017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446230888367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188024520874</t>
+    <t xml:space="preserve">3.9218807220459</t>
   </si>
   <si>
     <t xml:space="preserve">3.90031242370605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87335109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84639120101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83740377426147</t>
+    <t xml:space="preserve">3.87335085868835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84639072418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83740425109863</t>
   </si>
   <si>
     <t xml:space="preserve">3.87514853477478</t>
@@ -491,10 +491,10 @@
     <t xml:space="preserve">3.98119401931763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9793963432312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88413572311401</t>
+    <t xml:space="preserve">3.97939682006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88413548469543</t>
   </si>
   <si>
     <t xml:space="preserve">3.94884181022644</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">4.01714134216309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06207609176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07106304168701</t>
+    <t xml:space="preserve">4.06207656860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07106351852417</t>
   </si>
   <si>
     <t xml:space="preserve">4.14295816421509</t>
@@ -533,49 +533,49 @@
     <t xml:space="preserve">4.06926584243774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08903694152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40357875823975</t>
+    <t xml:space="preserve">4.08903646469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40357828140259</t>
   </si>
   <si>
     <t xml:space="preserve">4.37661743164062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34606266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34785938262939</t>
+    <t xml:space="preserve">4.34606170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34785985946655</t>
   </si>
   <si>
     <t xml:space="preserve">4.32808828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11599779129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03691244125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9847891330719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04230546951294</t>
+    <t xml:space="preserve">4.27236938476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11599731445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03691339492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98478865623474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04230499267578</t>
   </si>
   <si>
     <t xml:space="preserve">3.95603060722351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92008280754089</t>
+    <t xml:space="preserve">3.92008328437805</t>
   </si>
   <si>
     <t xml:space="preserve">3.91828608512878</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94704365730286</t>
+    <t xml:space="preserve">3.94704461097717</t>
   </si>
   <si>
     <t xml:space="preserve">3.9326651096344</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">3.84099864959717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86795926094055</t>
+    <t xml:space="preserve">3.86795902252197</t>
   </si>
   <si>
     <t xml:space="preserve">3.90390729904175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94524621963501</t>
+    <t xml:space="preserve">3.94524669647217</t>
   </si>
   <si>
     <t xml:space="preserve">3.9635968208313</t>
@@ -599,34 +599,34 @@
     <t xml:space="preserve">3.99112153053284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98194622993469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06819152832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8901960849762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8718466758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92689728736877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06452083587646</t>
+    <t xml:space="preserve">3.98194670677185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06819105148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89019680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87184643745422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92689681053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06452131271362</t>
   </si>
   <si>
     <t xml:space="preserve">4.128746509552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17462158203125</t>
+    <t xml:space="preserve">4.17462110519409</t>
   </si>
   <si>
     <t xml:space="preserve">4.12691116333008</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10672664642334</t>
+    <t xml:space="preserve">4.10672616958618</t>
   </si>
   <si>
     <t xml:space="preserve">4.05901622772217</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">4.03699636459351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99479150772095</t>
+    <t xml:space="preserve">3.99479103088379</t>
   </si>
   <si>
     <t xml:space="preserve">4.05351161956787</t>
@@ -644,10 +644,10 @@
     <t xml:space="preserve">4.0828709602356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03332710266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07369613647461</t>
+    <t xml:space="preserve">4.03332662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07369661331177</t>
   </si>
   <si>
     <t xml:space="preserve">4.09204626083374</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">4.15260171890259</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15627098083496</t>
+    <t xml:space="preserve">4.15627145767212</t>
   </si>
   <si>
     <t xml:space="preserve">4.16544628143311</t>
@@ -680,19 +680,19 @@
     <t xml:space="preserve">4.09388113021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20948600769043</t>
+    <t xml:space="preserve">4.20948648452759</t>
   </si>
   <si>
     <t xml:space="preserve">4.15443658828735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13792181015015</t>
+    <t xml:space="preserve">4.13792133331299</t>
   </si>
   <si>
     <t xml:space="preserve">4.12507629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11957120895386</t>
+    <t xml:space="preserve">4.11957168579102</t>
   </si>
   <si>
     <t xml:space="preserve">4.13608646392822</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">4.15076637268066</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10305595397949</t>
+    <t xml:space="preserve">4.10305643081665</t>
   </si>
   <si>
     <t xml:space="preserve">4.17278623580933</t>
@@ -731,37 +731,37 @@
     <t xml:space="preserve">4.05167627334595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01864624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07920122146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13425159454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21866178512573</t>
+    <t xml:space="preserve">4.01864671707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07920074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1342511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21866130828857</t>
   </si>
   <si>
     <t xml:space="preserve">4.13241624832153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12140655517578</t>
+    <t xml:space="preserve">4.12140703201294</t>
   </si>
   <si>
     <t xml:space="preserve">4.11590147018433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11773586273193</t>
+    <t xml:space="preserve">4.11773633956909</t>
   </si>
   <si>
     <t xml:space="preserve">4.14709663391113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14893102645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19113636016846</t>
+    <t xml:space="preserve">4.1489315032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1911358833313</t>
   </si>
   <si>
     <t xml:space="preserve">4.19297170639038</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">3.99662613868713</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04433631896973</t>
+    <t xml:space="preserve">4.04433584213257</t>
   </si>
   <si>
     <t xml:space="preserve">3.98561692237854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94341111183167</t>
+    <t xml:space="preserve">3.94341158866882</t>
   </si>
   <si>
     <t xml:space="preserve">4.02048110961914</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">3.92322659492493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03516054153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0865421295166</t>
+    <t xml:space="preserve">4.03516101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08654165267944</t>
   </si>
   <si>
     <t xml:space="preserve">4.04800653457642</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96726679801941</t>
+    <t xml:space="preserve">3.96726632118225</t>
   </si>
   <si>
     <t xml:space="preserve">3.92506170272827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91772150993347</t>
+    <t xml:space="preserve">3.91772198677063</t>
   </si>
   <si>
     <t xml:space="preserve">4.0002965927124</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">4.04617166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88102126121521</t>
+    <t xml:space="preserve">3.88102149963379</t>
   </si>
   <si>
     <t xml:space="preserve">3.85349655151367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95442152023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83514618873596</t>
+    <t xml:space="preserve">3.954421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83514666557312</t>
   </si>
   <si>
     <t xml:space="preserve">3.89937138557434</t>
@@ -836,52 +836,52 @@
     <t xml:space="preserve">3.90854668617249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267161369324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597184181213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78927183151245</t>
+    <t xml:space="preserve">3.93607187271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86267185211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78927206993103</t>
   </si>
   <si>
     <t xml:space="preserve">3.80762147903442</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02039480209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04857444763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03918075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97342658042908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9922137260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02978754043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96403360366821</t>
+    <t xml:space="preserve">4.02039432525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04857397079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03918123245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97342681884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99221348762512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02978801727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96403336524963</t>
   </si>
   <si>
     <t xml:space="preserve">3.89827919006348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9170663356781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77616429328918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70101690292358</t>
+    <t xml:space="preserve">3.91706609725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77616453170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70101714134216</t>
   </si>
   <si>
     <t xml:space="preserve">3.75737762451172</t>
@@ -890,61 +890,61 @@
     <t xml:space="preserve">3.73859095573425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71980404853821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71041035652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63526248931885</t>
+    <t xml:space="preserve">3.71980381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71041059494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63526272773743</t>
   </si>
   <si>
     <t xml:space="preserve">3.62586951255798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52254176139832</t>
+    <t xml:space="preserve">3.52254152297974</t>
   </si>
   <si>
     <t xml:space="preserve">3.42860722541809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28770565986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35345983505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33467292785645</t>
+    <t xml:space="preserve">3.28770518302917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35345959663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33467268943787</t>
   </si>
   <si>
     <t xml:space="preserve">3.37224650382996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38164019584656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45678782463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46618103981018</t>
+    <t xml:space="preserve">3.3816397190094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45678758621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4661808013916</t>
   </si>
   <si>
     <t xml:space="preserve">3.36285305023193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44739437103271</t>
+    <t xml:space="preserve">3.44739413261414</t>
   </si>
   <si>
     <t xml:space="preserve">3.43800067901611</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40042686462402</t>
+    <t xml:space="preserve">3.40042662620544</t>
   </si>
   <si>
     <t xml:space="preserve">3.4755744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49436140060425</t>
+    <t xml:space="preserve">3.49436116218567</t>
   </si>
   <si>
     <t xml:space="preserve">3.31588578224182</t>
@@ -953,31 +953,31 @@
     <t xml:space="preserve">3.60708236694336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56950855255127</t>
+    <t xml:space="preserve">3.56950879096985</t>
   </si>
   <si>
     <t xml:space="preserve">3.50375485420227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65404963493347</t>
+    <t xml:space="preserve">3.65404987335205</t>
   </si>
   <si>
     <t xml:space="preserve">3.48496794700623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68222999572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59768915176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61647582054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66344332695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58829545974731</t>
+    <t xml:space="preserve">3.68223023414612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5976893901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61647605895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66344356536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58829569816589</t>
   </si>
   <si>
     <t xml:space="preserve">3.5507218837738</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">3.53193497657776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56011533737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57890224456787</t>
+    <t xml:space="preserve">3.56011557579041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57890200614929</t>
   </si>
   <si>
     <t xml:space="preserve">3.64465641975403</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">3.6728367805481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51314830780029</t>
+    <t xml:space="preserve">3.51314806938171</t>
   </si>
   <si>
     <t xml:space="preserve">3.70352864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54921507835388</t>
+    <t xml:space="preserve">3.54921531677246</t>
   </si>
   <si>
     <t xml:space="preserve">3.62637186050415</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">3.58779358863831</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66495037078857</t>
+    <t xml:space="preserve">3.66495013237</t>
   </si>
   <si>
     <t xml:space="preserve">3.68423938751221</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">3.7999746799469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74210715293884</t>
+    <t xml:space="preserve">3.74210739135742</t>
   </si>
   <si>
     <t xml:space="preserve">3.81926417350769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8385534286499</t>
+    <t xml:space="preserve">3.83855295181274</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1052,34 +1052,34 @@
     <t xml:space="preserve">3.56850433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52992606163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47205805778503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51063656806946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41419076919556</t>
+    <t xml:space="preserve">3.52992582321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47205829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51063680648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41419053077698</t>
   </si>
   <si>
     <t xml:space="preserve">3.43347978591919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4527690410614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37561202049255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39490127563477</t>
+    <t xml:space="preserve">3.45276880264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37561225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39490151405334</t>
   </si>
   <si>
     <t xml:space="preserve">3.33703374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27916622161865</t>
+    <t xml:space="preserve">3.27916598320007</t>
   </si>
   <si>
     <t xml:space="preserve">3.18271994590759</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">3.14414167404175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20200896263123</t>
+    <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
     <t xml:space="preserve">3.10556316375732</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">2.71977877616882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83551430702209</t>
+    <t xml:space="preserve">2.83551406860352</t>
   </si>
   <si>
     <t xml:space="preserve">2.97053861618042</t>
@@ -1133,19 +1133,19 @@
     <t xml:space="preserve">3.12485241889954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98982763290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95124936103821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8162248134613</t>
+    <t xml:space="preserve">2.98982787132263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95124959945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81622505187988</t>
   </si>
   <si>
     <t xml:space="preserve">2.79693579673767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75835728645325</t>
+    <t xml:space="preserve">2.75835704803467</t>
   </si>
   <si>
     <t xml:space="preserve">2.77764678001404</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">2.73906803131104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54617595672607</t>
+    <t xml:space="preserve">2.54617619514465</t>
   </si>
   <si>
     <t xml:space="preserve">2.62333297729492</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">2.5847544670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50759744644165</t>
+    <t xml:space="preserve">2.50759768486023</t>
   </si>
   <si>
     <t xml:space="preserve">2.46901917457581</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">2.21825933456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14110279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23754858970642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02536725997925</t>
+    <t xml:space="preserve">2.14110255241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23754835128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02536749839783</t>
   </si>
   <si>
     <t xml:space="preserve">2.198970079422</t>
@@ -1202,28 +1202,28 @@
     <t xml:space="preserve">2.25683784484863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29541611671448</t>
+    <t xml:space="preserve">2.29541635513306</t>
   </si>
   <si>
     <t xml:space="preserve">2.31470537185669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26648235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41115164756775</t>
+    <t xml:space="preserve">2.26648259162903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41115140914917</t>
   </si>
   <si>
     <t xml:space="preserve">2.47866368293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43044066429138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27612709999084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28577160835266</t>
+    <t xml:space="preserve">2.43044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27612686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28577136993408</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436393737793</t>
@@ -1232,31 +1232,31 @@
     <t xml:space="preserve">2.36292862892151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30506086349487</t>
+    <t xml:space="preserve">2.30506110191345</t>
   </si>
   <si>
     <t xml:space="preserve">2.2279040813446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24719333648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35328412055969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32434988021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17968082427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18932557106018</t>
+    <t xml:space="preserve">2.24719309806824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35328388214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32435011863708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17968106269836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18932580947876</t>
   </si>
   <si>
     <t xml:space="preserve">2.17003631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1314582824707</t>
+    <t xml:space="preserve">2.13145804405212</t>
   </si>
   <si>
     <t xml:space="preserve">2.08323502540588</t>
@@ -1265,40 +1265,40 @@
     <t xml:space="preserve">2.1025242805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11216878890991</t>
+    <t xml:space="preserve">2.11216855049133</t>
   </si>
   <si>
     <t xml:space="preserve">2.07359027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03501176834106</t>
+    <t xml:space="preserve">2.03501152992249</t>
   </si>
   <si>
     <t xml:space="preserve">1.98678886890411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92409896850586</t>
+    <t xml:space="preserve">1.92409884929657</t>
   </si>
   <si>
     <t xml:space="preserve">1.92892122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93856573104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95785510540009</t>
+    <t xml:space="preserve">1.93856585025787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9578549861908</t>
   </si>
   <si>
     <t xml:space="preserve">2.20861458778381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15074729919434</t>
+    <t xml:space="preserve">2.15074706077576</t>
   </si>
   <si>
     <t xml:space="preserve">2.37257313728333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38221788406372</t>
+    <t xml:space="preserve">2.38221764564514</t>
   </si>
   <si>
     <t xml:space="preserve">2.56546521186829</t>
@@ -1307,46 +1307,46 @@
     <t xml:space="preserve">2.87409257888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66191148757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64262223243713</t>
+    <t xml:space="preserve">2.66191124916077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64262199401855</t>
   </si>
   <si>
     <t xml:space="preserve">2.59439897537231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6812002658844</t>
+    <t xml:space="preserve">2.68120050430298</t>
   </si>
   <si>
     <t xml:space="preserve">2.65226674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61368823051453</t>
+    <t xml:space="preserve">2.61368846893311</t>
   </si>
   <si>
     <t xml:space="preserve">2.53653168678284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52688694000244</t>
+    <t xml:space="preserve">2.52688670158386</t>
   </si>
   <si>
     <t xml:space="preserve">2.51724195480347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70048952102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71013402938843</t>
+    <t xml:space="preserve">2.70048975944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71013450622559</t>
   </si>
   <si>
     <t xml:space="preserve">2.69084501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72942352294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78729128837585</t>
+    <t xml:space="preserve">2.72942328453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78729152679443</t>
   </si>
   <si>
     <t xml:space="preserve">2.94160485267639</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">2.98018312454224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96089386940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03805112838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16343092918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21165347099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23094296455383</t>
+    <t xml:space="preserve">2.9608941078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03805088996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16343069076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21165370941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23094320297241</t>
   </si>
   <si>
     <t xml:space="preserve">3.24058747291565</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">3.19236469268799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17307543754578</t>
+    <t xml:space="preserve">3.1730751991272</t>
   </si>
   <si>
     <t xml:space="preserve">3.13449716567993</t>
@@ -1388,22 +1388,22 @@
     <t xml:space="preserve">3.15378618240356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26952147483826</t>
+    <t xml:space="preserve">3.26952171325684</t>
   </si>
   <si>
     <t xml:space="preserve">3.25987696647644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30809998512268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32738924026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25023221969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09591841697693</t>
+    <t xml:space="preserve">3.30810022354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32738900184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25023198127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09591865539551</t>
   </si>
   <si>
     <t xml:space="preserve">3.07662916183472</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">3.05734038352966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92231583595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93196034431458</t>
+    <t xml:space="preserve">2.92231559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.931960105896</t>
   </si>
   <si>
     <t xml:space="preserve">2.90302634239197</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.84515881538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80658054351807</t>
+    <t xml:space="preserve">2.80658030509949</t>
   </si>
   <si>
     <t xml:space="preserve">3.11520767211914</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">3.71317338943481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79033017158508</t>
+    <t xml:space="preserve">3.79033041000366</t>
   </si>
   <si>
     <t xml:space="preserve">3.88677644729614</t>
@@ -1460,34 +1460,34 @@
     <t xml:space="preserve">3.95428848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9446439743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98322248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0507345199585</t>
+    <t xml:space="preserve">3.94464373588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9832227230072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05073499679565</t>
   </si>
   <si>
     <t xml:space="preserve">3.97357773780823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07002353668213</t>
+    <t xml:space="preserve">4.07002305984497</t>
   </si>
   <si>
     <t xml:space="preserve">4.20504856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26291656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30149459838867</t>
+    <t xml:space="preserve">4.26291608810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30149412155151</t>
   </si>
   <si>
     <t xml:space="preserve">4.23398208618164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34971761703491</t>
+    <t xml:space="preserve">4.34971714019775</t>
   </si>
   <si>
     <t xml:space="preserve">4.34007263183594</t>
@@ -1496,19 +1496,19 @@
     <t xml:space="preserve">4.39794015884399</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42687463760376</t>
+    <t xml:space="preserve">4.4268741607666</t>
   </si>
   <si>
     <t xml:space="preserve">4.45580816268921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22433757781982</t>
+    <t xml:space="preserve">4.22433710098267</t>
   </si>
   <si>
     <t xml:space="preserve">4.08931255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03144502639771</t>
+    <t xml:space="preserve">4.03144550323486</t>
   </si>
   <si>
     <t xml:space="preserve">4.24362659454346</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">4.2918496131897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40758562088013</t>
+    <t xml:space="preserve">4.40758514404297</t>
   </si>
   <si>
     <t xml:space="preserve">4.50403070449829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5329647064209</t>
+    <t xml:space="preserve">4.53296518325806</t>
   </si>
   <si>
     <t xml:space="preserve">4.43651866912842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3690071105957</t>
+    <t xml:space="preserve">4.36900663375854</t>
   </si>
   <si>
     <t xml:space="preserve">4.12789154052734</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">4.16647005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25327110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1857590675354</t>
+    <t xml:space="preserve">4.25327157974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18575954437256</t>
   </si>
   <si>
     <t xml:space="preserve">4.14718055725098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02180099487305</t>
+    <t xml:space="preserve">4.02180051803589</t>
   </si>
   <si>
     <t xml:space="preserve">4.0796685218811</t>
@@ -1559,34 +1559,34 @@
     <t xml:space="preserve">4.17611455917358</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33042764663696</t>
+    <t xml:space="preserve">4.33042812347412</t>
   </si>
   <si>
     <t xml:space="preserve">4.51367568969727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46545267105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37865114212036</t>
+    <t xml:space="preserve">4.46545314788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37865161895752</t>
   </si>
   <si>
     <t xml:space="preserve">4.48474168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47509717941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49438667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44616317749023</t>
+    <t xml:space="preserve">4.47509670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49438619613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44616365432739</t>
   </si>
   <si>
     <t xml:space="preserve">4.41722917556763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64869976043701</t>
+    <t xml:space="preserve">4.64870023727417</t>
   </si>
   <si>
     <t xml:space="preserve">4.80301380157471</t>
@@ -1601,19 +1601,19 @@
     <t xml:space="preserve">4.62941074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61012172698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57154321670532</t>
+    <t xml:space="preserve">4.6101222038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57154273986816</t>
   </si>
   <si>
     <t xml:space="preserve">4.27256011962891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11824655532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15682554244995</t>
+    <t xml:space="preserve">4.11824703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15682506561279</t>
   </si>
   <si>
     <t xml:space="preserve">4.38829612731934</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">4.67763376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78372478485107</t>
+    <t xml:space="preserve">4.78372430801392</t>
   </si>
   <si>
     <t xml:space="preserve">4.89945983886719</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">4.97661638259888</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0151948928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45884704589844</t>
+    <t xml:space="preserve">5.01519536972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45884656906128</t>
   </si>
   <si>
     <t xml:space="preserve">5.59387159347534</t>
@@ -1649,28 +1649,28 @@
     <t xml:space="preserve">5.49742555618286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28524446487427</t>
+    <t xml:space="preserve">5.28524398803711</t>
   </si>
   <si>
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026805877686</t>
+    <t xml:space="preserve">5.42026901245117</t>
   </si>
   <si>
     <t xml:space="preserve">5.38169002532959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088132858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84159183502197</t>
+    <t xml:space="preserve">4.86088180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84159231185913</t>
   </si>
   <si>
     <t xml:space="preserve">4.93803834915161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73550128936768</t>
+    <t xml:space="preserve">4.73550176620483</t>
   </si>
   <si>
     <t xml:space="preserve">4.70608854293823</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">4.86295795440674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87276268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96100187301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13748025894165</t>
+    <t xml:space="preserve">4.87276220321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9610013961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13747978210449</t>
   </si>
   <si>
     <t xml:space="preserve">5.0198278427124</t>
@@ -1703,19 +1703,19 @@
     <t xml:space="preserve">4.90217542648315</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00021886825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81393623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79432725906372</t>
+    <t xml:space="preserve">5.00021934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81393671035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79432773590088</t>
   </si>
   <si>
     <t xml:space="preserve">4.78452348709106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667579650879</t>
+    <t xml:space="preserve">4.67667531967163</t>
   </si>
   <si>
     <t xml:space="preserve">4.61784934997559</t>
@@ -1733,25 +1733,22 @@
     <t xml:space="preserve">4.89237117767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72569704055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80413246154785</t>
+    <t xml:space="preserve">4.72569751739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80413198471069</t>
   </si>
   <si>
     <t xml:space="preserve">4.76491498947144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92178392410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73550176620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83354520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66687107086182</t>
+    <t xml:space="preserve">4.92178440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83354473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66687154769897</t>
   </si>
   <si>
     <t xml:space="preserve">4.69628429412842</t>
@@ -1781,16 +1778,16 @@
     <t xml:space="preserve">4.64726209640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74530649185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51000118255615</t>
+    <t xml:space="preserve">4.74530601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51000165939331</t>
   </si>
   <si>
     <t xml:space="preserve">4.41195821762085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5982403755188</t>
+    <t xml:space="preserve">4.59824085235596</t>
   </si>
   <si>
     <t xml:space="preserve">4.52961015701294</t>
@@ -1799,7 +1796,7 @@
     <t xml:space="preserve">4.53941488265991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54921913146973</t>
+    <t xml:space="preserve">4.54921865463257</t>
   </si>
   <si>
     <t xml:space="preserve">4.58843612670898</t>
@@ -1826,40 +1823,40 @@
     <t xml:space="preserve">4.48058891296387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38254451751709</t>
+    <t xml:space="preserve">4.38254499435425</t>
   </si>
   <si>
     <t xml:space="preserve">4.36293601989746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32371854782104</t>
+    <t xml:space="preserve">4.3237190246582</t>
   </si>
   <si>
     <t xml:space="preserve">4.31391429901123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26489305496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21587133407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25508832931519</t>
+    <t xml:space="preserve">4.264892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25508880615234</t>
   </si>
   <si>
     <t xml:space="preserve">4.23547983169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1374363899231</t>
+    <t xml:space="preserve">4.13743591308594</t>
   </si>
   <si>
     <t xml:space="preserve">4.39234924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33352375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45117521286011</t>
+    <t xml:space="preserve">4.33352327346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45117568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.56882762908936</t>
@@ -1868,7 +1865,7 @@
     <t xml:space="preserve">4.657066822052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37274074554443</t>
+    <t xml:space="preserve">4.37274026870728</t>
   </si>
   <si>
     <t xml:space="preserve">4.82374095916748</t>
@@ -1883,10 +1880,10 @@
     <t xml:space="preserve">4.28450155258179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16684913635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19626235961914</t>
+    <t xml:space="preserve">4.1668496131897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1962628364563</t>
   </si>
   <si>
     <t xml:space="preserve">4.24528408050537</t>
@@ -2178,6 +2175,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.51999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51000022888184</t>
   </si>
 </sst>
 </file>
@@ -46217,7 +46217,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1681" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46373,7 +46373,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1687" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46451,7 +46451,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1690" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46477,7 +46477,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1691" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46503,7 +46503,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1692" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46555,7 +46555,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1694" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46581,7 +46581,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1695" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46633,7 +46633,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1697" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46659,7 +46659,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1698" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46685,7 +46685,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1699" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46711,7 +46711,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1700" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46737,7 +46737,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1701" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46763,7 +46763,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1702" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46893,7 +46893,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1707" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46919,7 +46919,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1708" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46945,7 +46945,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1709" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46971,7 +46971,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1710" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47023,7 +47023,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1712" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47049,7 +47049,7 @@
         <v>4.5</v>
       </c>
       <c r="G1713" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47075,7 +47075,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1714" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47101,7 +47101,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1715" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47127,7 +47127,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1716" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47153,7 +47153,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1717" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47179,7 +47179,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1718" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47231,7 +47231,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1720" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47257,7 +47257,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47283,7 +47283,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1722" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47361,7 +47361,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1725" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47387,7 +47387,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1726" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47413,7 +47413,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1727" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47439,7 +47439,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1728" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47465,7 +47465,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1729" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47491,7 +47491,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1730" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47517,7 +47517,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1731" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47543,7 +47543,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G1732" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47569,7 +47569,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1733" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47647,7 +47647,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47673,7 +47673,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1737" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47699,7 +47699,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1738" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47751,7 +47751,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1740" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47777,7 +47777,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1741" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47803,7 +47803,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1742" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47881,7 +47881,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1745" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47907,7 +47907,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1746" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47959,7 +47959,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1748" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47985,7 +47985,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1749" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48011,7 +48011,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1750" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48037,7 +48037,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1751" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48063,7 +48063,7 @@
         <v>4.5</v>
       </c>
       <c r="G1752" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48089,7 +48089,7 @@
         <v>4.5</v>
       </c>
       <c r="G1753" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48115,7 +48115,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1754" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48141,7 +48141,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1755" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48167,7 +48167,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48193,7 +48193,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1757" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48219,7 +48219,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48245,7 +48245,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1759" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48271,7 +48271,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1760" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48297,7 +48297,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1761" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48323,7 +48323,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1762" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48349,7 +48349,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1763" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48375,7 +48375,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1764" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48401,7 +48401,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1765" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48427,7 +48427,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1766" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48453,7 +48453,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1767" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48479,7 +48479,7 @@
         <v>4.5</v>
       </c>
       <c r="G1768" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48505,7 +48505,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1769" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48531,7 +48531,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1770" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48557,7 +48557,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1771" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48583,7 +48583,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1772" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48609,7 +48609,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1773" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48635,7 +48635,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1774" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48661,7 +48661,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1775" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48687,7 +48687,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1776" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48713,7 +48713,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1777" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48739,7 +48739,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1778" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48765,7 +48765,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1779" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48791,7 +48791,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1780" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48817,7 +48817,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G1781" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48843,7 +48843,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1782" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48869,7 +48869,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48895,7 +48895,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1784" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48921,7 +48921,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1785" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48947,7 +48947,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1786" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48973,7 +48973,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1787" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48999,7 +48999,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1788" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49025,7 +49025,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49051,7 +49051,7 @@
         <v>4.5</v>
       </c>
       <c r="G1790" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49077,7 +49077,7 @@
         <v>4.5</v>
       </c>
       <c r="G1791" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49103,7 +49103,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1792" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49129,7 +49129,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49155,7 +49155,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49181,7 +49181,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1795" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49207,7 +49207,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1796" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49233,7 +49233,7 @@
         <v>4.75</v>
       </c>
       <c r="G1797" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49259,7 +49259,7 @@
         <v>4.75</v>
       </c>
       <c r="G1798" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49285,7 +49285,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1799" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49311,7 +49311,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1800" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49363,7 +49363,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1802" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49389,7 +49389,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1803" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49415,7 +49415,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1804" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49441,7 +49441,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1805" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49467,7 +49467,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1806" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49493,7 +49493,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1807" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49519,7 +49519,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49545,7 +49545,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1809" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49571,7 +49571,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49597,7 +49597,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49623,7 +49623,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1812" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49649,7 +49649,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1813" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49675,7 +49675,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1814" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49701,7 +49701,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1815" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49727,7 +49727,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1816" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49753,7 +49753,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1817" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49779,7 +49779,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1818" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49805,7 +49805,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1819" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49831,7 +49831,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1820" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49857,7 +49857,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49883,7 +49883,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49909,7 +49909,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1823" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49935,7 +49935,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1824" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50013,7 +50013,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50169,7 +50169,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50195,7 +50195,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1834" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50221,7 +50221,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1835" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50247,7 +50247,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1836" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50273,7 +50273,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1837" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50351,7 +50351,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1840" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50403,7 +50403,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1842" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50455,7 +50455,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1844" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50507,7 +50507,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1846" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50533,7 +50533,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1847" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50559,7 +50559,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1848" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50585,7 +50585,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1849" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50611,7 +50611,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1850" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50637,7 +50637,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1851" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50663,7 +50663,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50689,7 +50689,7 @@
         <v>4.25</v>
       </c>
       <c r="G1853" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50715,7 +50715,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1854" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50741,7 +50741,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1855" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50767,7 +50767,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1856" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50793,7 +50793,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1857" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50819,7 +50819,7 @@
         <v>4.5</v>
       </c>
       <c r="G1858" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50845,7 +50845,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1859" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50871,7 +50871,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1860" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50897,7 +50897,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1861" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50923,7 +50923,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1862" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50949,7 +50949,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1863" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50975,7 +50975,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1864" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51001,7 +51001,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1865" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51027,7 +51027,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1866" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51053,7 +51053,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1867" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51079,7 +51079,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1868" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51105,7 +51105,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1869" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51131,7 +51131,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1870" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51157,7 +51157,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1871" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51183,7 +51183,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1872" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51209,7 +51209,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1873" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51235,7 +51235,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1874" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51261,7 +51261,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1875" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51287,7 +51287,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1876" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51313,7 +51313,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1877" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51339,7 +51339,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1878" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51365,7 +51365,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51391,7 +51391,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1880" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51417,7 +51417,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1881" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51443,7 +51443,7 @@
         <v>4.5</v>
       </c>
       <c r="G1882" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51469,7 +51469,7 @@
         <v>4.5</v>
       </c>
       <c r="G1883" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51495,7 +51495,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51521,7 +51521,7 @@
         <v>4.5</v>
       </c>
       <c r="G1885" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51547,7 +51547,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51573,7 +51573,7 @@
         <v>4.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51599,7 +51599,7 @@
         <v>4.5</v>
       </c>
       <c r="G1888" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51625,7 +51625,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51651,7 +51651,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1890" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51677,7 +51677,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1891" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51703,7 +51703,7 @@
         <v>4.5</v>
       </c>
       <c r="G1892" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51729,7 +51729,7 @@
         <v>4.5</v>
       </c>
       <c r="G1893" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51755,7 +51755,7 @@
         <v>4.5</v>
       </c>
       <c r="G1894" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51781,7 +51781,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1895" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51807,7 +51807,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1896" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51833,7 +51833,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1897" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51859,7 +51859,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1898" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51885,7 +51885,7 @@
         <v>4.5</v>
       </c>
       <c r="G1899" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51911,7 +51911,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1900" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51937,7 +51937,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1901" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51963,7 +51963,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1902" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51989,7 +51989,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1903" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52015,7 +52015,7 @@
         <v>4.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52041,7 +52041,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1905" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52067,7 +52067,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1906" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52093,7 +52093,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1907" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52119,7 +52119,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1908" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52145,7 +52145,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1909" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52171,7 +52171,7 @@
         <v>4.75</v>
       </c>
       <c r="G1910" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52197,7 +52197,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1911" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52223,7 +52223,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1912" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52249,7 +52249,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1913" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52275,7 +52275,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1914" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52301,7 +52301,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1915" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52327,7 +52327,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1916" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52353,7 +52353,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G1917" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52379,7 +52379,7 @@
         <v>4.75</v>
       </c>
       <c r="G1918" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52405,7 +52405,7 @@
         <v>4.75</v>
       </c>
       <c r="G1919" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52431,7 +52431,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1920" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52457,7 +52457,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1921" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52483,7 +52483,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1922" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52509,7 +52509,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52535,7 +52535,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1924" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52561,7 +52561,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1925" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52587,7 +52587,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G1926" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52613,7 +52613,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1927" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52639,7 +52639,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1928" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52665,7 +52665,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1929" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52691,7 +52691,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1930" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52717,7 +52717,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1931" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52743,7 +52743,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1932" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52769,7 +52769,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1933" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52795,7 +52795,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1934" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52821,7 +52821,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1935" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52847,7 +52847,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52873,7 +52873,7 @@
         <v>4.5</v>
       </c>
       <c r="G1937" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52899,7 +52899,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52925,7 +52925,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1939" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52951,7 +52951,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1940" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52977,7 +52977,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1941" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53003,7 +53003,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1942" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53029,7 +53029,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1943" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53055,7 +53055,7 @@
         <v>4.5</v>
       </c>
       <c r="G1944" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53081,7 +53081,7 @@
         <v>4.5</v>
       </c>
       <c r="G1945" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53107,7 +53107,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1946" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53133,7 +53133,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1947" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53159,7 +53159,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1948" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53185,7 +53185,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1949" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53211,7 +53211,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1950" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53237,7 +53237,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1951" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53263,7 +53263,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1952" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53289,7 +53289,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1953" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53315,7 +53315,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1954" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53341,7 +53341,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1955" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53367,7 +53367,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53393,7 +53393,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1957" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53419,7 +53419,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1958" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53445,7 +53445,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1959" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53471,7 +53471,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1960" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53497,7 +53497,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1961" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53523,7 +53523,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1962" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53549,7 +53549,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53575,7 +53575,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1964" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53601,7 +53601,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1965" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53627,7 +53627,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1966" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53653,7 +53653,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1967" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53679,7 +53679,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1968" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53705,7 +53705,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1969" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53731,7 +53731,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1970" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53757,7 +53757,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53783,7 +53783,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1972" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53809,7 +53809,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53835,7 +53835,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1974" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53861,7 +53861,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53887,7 +53887,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53913,7 +53913,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1977" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53939,7 +53939,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1978" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53965,7 +53965,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1979" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53991,7 +53991,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54017,7 +54017,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1981" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54043,7 +54043,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G1982" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54069,7 +54069,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1983" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54095,7 +54095,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1984" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54121,7 +54121,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1985" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54147,7 +54147,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G1986" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54173,7 +54173,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G1987" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54199,7 +54199,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1988" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54225,7 +54225,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G1989" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54251,7 +54251,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54277,7 +54277,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1991" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54303,7 +54303,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1992" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54329,7 +54329,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1993" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54355,7 +54355,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54381,7 +54381,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1995" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54407,7 +54407,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54433,7 +54433,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G1997" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54459,7 +54459,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1998" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54485,7 +54485,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54511,7 +54511,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2000" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54537,7 +54537,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2001" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54563,7 +54563,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2002" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54589,7 +54589,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2003" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54615,7 +54615,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2004" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54641,7 +54641,7 @@
         <v>4.75</v>
       </c>
       <c r="G2005" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54667,7 +54667,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2006" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54693,7 +54693,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G2007" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54719,7 +54719,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2008" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54745,7 +54745,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2009" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54771,7 +54771,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2010" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54797,7 +54797,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2011" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54823,7 +54823,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2012" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54849,7 +54849,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2013" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54875,7 +54875,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54901,7 +54901,7 @@
         <v>4.5</v>
       </c>
       <c r="G2015" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54927,7 +54927,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2016" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54953,7 +54953,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2017" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54979,7 +54979,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2018" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55005,7 +55005,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2019" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55031,7 +55031,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2020" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55057,7 +55057,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2021" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55083,7 +55083,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2022" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55109,7 +55109,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2023" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55135,7 +55135,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2024" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55161,7 +55161,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2025" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55187,7 +55187,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2026" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55213,7 +55213,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2027" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55239,7 +55239,7 @@
         <v>4.75</v>
       </c>
       <c r="G2028" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55265,7 +55265,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2029" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55291,7 +55291,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2030" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55317,7 +55317,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2031" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55343,7 +55343,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2032" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55369,7 +55369,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2033" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55395,7 +55395,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2034" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55421,7 +55421,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2035" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55447,7 +55447,7 @@
         <v>5</v>
       </c>
       <c r="G2036" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55473,7 +55473,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2037" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55499,7 +55499,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2038" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55525,7 +55525,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2039" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55551,7 +55551,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55577,7 +55577,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2041" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55603,7 +55603,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2042" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55629,7 +55629,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2043" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55655,7 +55655,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2044" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55681,7 +55681,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2045" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55707,7 +55707,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2046" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55733,7 +55733,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2047" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55759,7 +55759,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2048" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55785,7 +55785,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G2049" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55811,7 +55811,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2050" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55837,7 +55837,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55863,7 +55863,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2052" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55889,7 +55889,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2053" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55915,7 +55915,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2054" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55941,7 +55941,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2055" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55967,7 +55967,7 @@
         <v>5</v>
       </c>
       <c r="G2056" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55993,7 +55993,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2057" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56019,7 +56019,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56045,7 +56045,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2059" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56071,7 +56071,7 @@
         <v>5</v>
       </c>
       <c r="G2060" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56097,7 +56097,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2061" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56123,7 +56123,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2062" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56149,7 +56149,7 @@
         <v>5</v>
       </c>
       <c r="G2063" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56175,7 +56175,7 @@
         <v>5</v>
       </c>
       <c r="G2064" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56201,7 +56201,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2065" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56227,7 +56227,7 @@
         <v>5</v>
       </c>
       <c r="G2066" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56253,7 +56253,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2067" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56279,7 +56279,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2068" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56305,7 +56305,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G2069" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56331,7 +56331,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2070" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56357,7 +56357,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2071" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56383,7 +56383,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56409,7 +56409,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2073" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56435,7 +56435,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2074" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56461,7 +56461,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56487,7 +56487,7 @@
         <v>5.5</v>
       </c>
       <c r="G2076" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56513,7 +56513,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2077" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56539,7 +56539,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2078" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56565,7 +56565,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G2079" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56591,7 +56591,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2080" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56617,7 +56617,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2081" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56643,7 +56643,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2082" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56669,7 +56669,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2083" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56695,7 +56695,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2084" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56721,7 +56721,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G2085" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56747,7 +56747,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56773,7 +56773,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2087" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56799,7 +56799,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2088" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56825,7 +56825,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2089" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56851,7 +56851,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2090" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56877,7 +56877,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2091" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56903,7 +56903,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56929,7 +56929,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2093" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56955,7 +56955,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2094" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56981,7 +56981,7 @@
         <v>5</v>
       </c>
       <c r="G2095" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57007,7 +57007,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2096" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57033,7 +57033,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2097" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57059,7 +57059,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2098" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57085,7 +57085,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2099" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57111,7 +57111,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2100" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57137,7 +57137,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57163,7 +57163,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57189,7 +57189,7 @@
         <v>5</v>
       </c>
       <c r="G2103" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57215,7 +57215,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2104" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57241,7 +57241,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2105" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57267,7 +57267,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2106" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57293,7 +57293,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2107" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57319,7 +57319,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2108" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57345,7 +57345,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2109" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57371,7 +57371,7 @@
         <v>4.78000020980835</v>
       </c>
       <c r="G2110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57397,7 +57397,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2111" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57423,7 +57423,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2112" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57449,7 +57449,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G2113" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57475,7 +57475,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2114" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57501,7 +57501,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2115" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57527,7 +57527,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57553,7 +57553,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G2117" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57579,7 +57579,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G2118" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57605,7 +57605,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2119" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57631,7 +57631,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2120" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57657,7 +57657,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2121" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57683,7 +57683,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57709,7 +57709,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2123" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57735,7 +57735,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2124" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57761,7 +57761,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2125" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57787,7 +57787,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G2126" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57813,7 +57813,7 @@
         <v>4.80000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57839,7 +57839,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G2128" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57865,7 +57865,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2129" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57891,7 +57891,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57917,7 +57917,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2131" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57943,7 +57943,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57969,7 +57969,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2133" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57995,7 +57995,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G2134" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58021,7 +58021,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2135" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58047,7 +58047,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2136" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58073,7 +58073,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58099,7 +58099,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2138" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58125,7 +58125,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2139" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58151,7 +58151,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2140" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58177,7 +58177,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2141" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58203,7 +58203,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2142" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58229,7 +58229,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G2143" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58255,7 +58255,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58281,7 +58281,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G2145" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58307,7 +58307,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G2146" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58333,7 +58333,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58359,7 +58359,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58385,7 +58385,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2149" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58411,7 +58411,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2150" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58437,7 +58437,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G2151" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58463,7 +58463,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2152" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58489,7 +58489,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G2153" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58515,7 +58515,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G2154" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58541,7 +58541,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G2155" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58567,7 +58567,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2156" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58593,7 +58593,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58619,7 +58619,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G2158" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58645,7 +58645,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58671,7 +58671,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2160" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58697,7 +58697,7 @@
         <v>4.73000001907349</v>
       </c>
       <c r="G2161" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58723,7 +58723,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2162" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58749,7 +58749,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2163" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58775,7 +58775,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2164" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58801,7 +58801,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2165" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58827,7 +58827,7 @@
         <v>4.75</v>
       </c>
       <c r="G2166" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58853,7 +58853,7 @@
         <v>4.75</v>
       </c>
       <c r="G2167" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58879,7 +58879,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G2168" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58905,7 +58905,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2169" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58931,7 +58931,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2170" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58957,7 +58957,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2171" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58983,7 +58983,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2172" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -59009,7 +59009,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2173" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -59035,7 +59035,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2174" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -59061,7 +59061,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2175" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -59087,7 +59087,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2176" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -59113,7 +59113,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G2177" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -59139,7 +59139,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2178" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -59165,7 +59165,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2179" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -59191,7 +59191,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G2180" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -59217,7 +59217,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G2181" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -59243,7 +59243,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2182" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -59269,7 +59269,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2183" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -59295,7 +59295,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G2184" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -59321,7 +59321,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2185" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -59347,7 +59347,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2186" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -59373,7 +59373,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G2187" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -59399,7 +59399,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2188" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -59425,7 +59425,7 @@
         <v>4.25</v>
       </c>
       <c r="G2189" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -59451,7 +59451,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2190" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -59477,7 +59477,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2191" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -59503,7 +59503,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2192" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -59529,7 +59529,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2193" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -59555,7 +59555,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2194" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -59581,7 +59581,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G2195" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -59607,7 +59607,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G2196" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -59633,7 +59633,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2197" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -59659,7 +59659,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G2198" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -59685,7 +59685,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2199" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -59711,9 +59711,61 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G2200" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H2200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="1" t="n">
+        <v>45527.2916666667</v>
+      </c>
+      <c r="B2201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>4.53000020980835</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>4.53000020980835</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>4.53000020980835</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>4.53000020980835</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>719</v>
+      </c>
+      <c r="H2201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="1" t="n">
+        <v>45530.4919097222</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>90</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>4.53000020980835</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>4.51000022888184</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>4.53000020980835</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>4.51000022888184</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>721</v>
+      </c>
+      <c r="H2202" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -44,142 +44,142 @@
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87106037139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458300590515</t>
+    <t xml:space="preserve">3.87106013298035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458276748657</t>
   </si>
   <si>
     <t xml:space="preserve">3.86577653884888</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86401534080505</t>
+    <t xml:space="preserve">3.86401510238647</t>
   </si>
   <si>
     <t xml:space="preserve">3.78652358055115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7424943447113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77771759033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62977933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733073234558</t>
+    <t xml:space="preserve">3.74249458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77771782875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62977910041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.677330493927</t>
   </si>
   <si>
     <t xml:space="preserve">3.65443563461304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66324162483215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64386868476868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48712420463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61040616035461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6896595954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6667640209198</t>
+    <t xml:space="preserve">3.66324138641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64386892318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4871244430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61040592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68965888023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66676378250122</t>
   </si>
   <si>
     <t xml:space="preserve">3.60336136817932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68085312843323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56637668609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.539959192276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61568927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64915204048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65267419815063</t>
+    <t xml:space="preserve">3.68085265159607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56637692451477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53995895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61568975448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64915227890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65267395973206</t>
   </si>
   <si>
     <t xml:space="preserve">3.65091300010681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64210724830627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59455537796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71431565284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75130033493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81294131278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356837272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81470203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80941915512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73368787765503</t>
+    <t xml:space="preserve">3.64210772514343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59455561637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71431541442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.751300573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81294107437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225485801697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81470227241516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80941867828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73368811607361</t>
   </si>
   <si>
     <t xml:space="preserve">3.73721051216125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71255421638489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73192739486694</t>
+    <t xml:space="preserve">3.71255445480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73192715644836</t>
   </si>
   <si>
     <t xml:space="preserve">3.721360206604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76891183853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76538920402527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74953866004944</t>
+    <t xml:space="preserve">3.76891255378723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76538944244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74953842163086</t>
   </si>
   <si>
     <t xml:space="preserve">3.74601674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7301664352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69846487045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6861367225647</t>
+    <t xml:space="preserve">3.73016619682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6984646320343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68613600730896</t>
   </si>
   <si>
     <t xml:space="preserve">3.72488260269165</t>
@@ -194,31 +194,31 @@
     <t xml:space="preserve">3.91861152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93446207046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98377561569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94326782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508960723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98553609848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91332793235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89395523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9608793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219403266907</t>
+    <t xml:space="preserve">3.93446254730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98377513885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326829910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508913040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98553657531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91332817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89395451545715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96088027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219427108765</t>
   </si>
   <si>
     <t xml:space="preserve">3.93622303009033</t>
@@ -227,19 +227,19 @@
     <t xml:space="preserve">3.92741703987122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88338804244995</t>
+    <t xml:space="preserve">3.88338828086853</t>
   </si>
   <si>
     <t xml:space="preserve">3.99916791915894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0261287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220730781555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018144607544</t>
+    <t xml:space="preserve">4.02612829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99018096923828</t>
   </si>
   <si>
     <t xml:space="preserve">3.97759985923767</t>
@@ -248,49 +248,49 @@
     <t xml:space="preserve">4.04410171508789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98299169540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423412322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625974655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88233804702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92727303504944</t>
+    <t xml:space="preserve">3.98299145698547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9542338848114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93626046180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88233852386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92727255821228</t>
   </si>
   <si>
     <t xml:space="preserve">3.92367839813232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83560609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89132523536682</t>
+    <t xml:space="preserve">3.83560657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89132499694824</t>
   </si>
   <si>
     <t xml:space="preserve">3.86436462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86256694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81943011283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799231529236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76550936698914</t>
+    <t xml:space="preserve">3.86256718635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81943035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70799255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7655086517334</t>
   </si>
   <si>
     <t xml:space="preserve">3.59475779533386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61273145675659</t>
+    <t xml:space="preserve">3.61273121833801</t>
   </si>
   <si>
     <t xml:space="preserve">3.67923426628113</t>
@@ -299,37 +299,37 @@
     <t xml:space="preserve">3.63070511817932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62171864509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65766620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63789439201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68103194236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57318925857544</t>
+    <t xml:space="preserve">3.62171840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65766596794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63789463043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68103218078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57318902015686</t>
   </si>
   <si>
     <t xml:space="preserve">3.61632657051086</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60374522209167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64688205718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6918158531189</t>
+    <t xml:space="preserve">3.6037449836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64688181877136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69181609153748</t>
   </si>
   <si>
     <t xml:space="preserve">3.73675060272217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75652170181274</t>
+    <t xml:space="preserve">3.75652122497559</t>
   </si>
   <si>
     <t xml:space="preserve">3.80325365066528</t>
@@ -338,28 +338,28 @@
     <t xml:space="preserve">3.86616182327271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81763291358948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81044268608093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7924690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74394011497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77449560165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7762930393219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887462615967</t>
+    <t xml:space="preserve">3.8176326751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81044292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79246926307678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7439398765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77449536323547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067182540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629351615906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887486457825</t>
   </si>
   <si>
     <t xml:space="preserve">3.74753499031067</t>
@@ -371,34 +371,34 @@
     <t xml:space="preserve">3.80145645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7331554889679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78348255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7241690158844</t>
+    <t xml:space="preserve">3.73315572738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78348231315613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72416925430298</t>
   </si>
   <si>
     <t xml:space="preserve">3.77090120315552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72057414054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371192932129</t>
+    <t xml:space="preserve">3.72057390213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371145248413</t>
   </si>
   <si>
     <t xml:space="preserve">3.72596621513367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70978951454163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70260000228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73854827880859</t>
+    <t xml:space="preserve">3.70978975296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70260047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73854804039001</t>
   </si>
   <si>
     <t xml:space="preserve">3.72956109046936</t>
@@ -407,37 +407,37 @@
     <t xml:space="preserve">3.72237205505371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72776365280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75292706489563</t>
+    <t xml:space="preserve">3.72776341438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75292682647705</t>
   </si>
   <si>
     <t xml:space="preserve">3.75831913948059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69541096687317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68462657928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69361329078674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68822169303894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73135876655579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7133846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7816858291626</t>
+    <t xml:space="preserve">3.69541072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68462634086609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69361352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485571861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68822121620178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73135828971863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338510513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168535232544</t>
   </si>
   <si>
     <t xml:space="preserve">3.83380913734436</t>
@@ -449,28 +449,28 @@
     <t xml:space="preserve">3.81583499908447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82661938667297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8284170627594</t>
+    <t xml:space="preserve">3.82661914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82841730117798</t>
   </si>
   <si>
     <t xml:space="preserve">3.92547535896301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93446254730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92188048362732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90031218528748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87335157394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84639072418213</t>
+    <t xml:space="preserve">3.93446230888367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90031170845032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87335109710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84639143943787</t>
   </si>
   <si>
     <t xml:space="preserve">3.83740401268005</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">3.8751482963562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94165182113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90929913520813</t>
+    <t xml:space="preserve">3.94165253639221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90929865837097</t>
   </si>
   <si>
     <t xml:space="preserve">3.95243620872498</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">3.98119378089905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97939682006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88413596153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94884157180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87874293327332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01534414291382</t>
+    <t xml:space="preserve">3.97939658164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88413548469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94884133338928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87874317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01534461975098</t>
   </si>
   <si>
     <t xml:space="preserve">4.02073669433594</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">4.00815439224243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04050779342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0530891418457</t>
+    <t xml:space="preserve">4.04050731658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05308961868286</t>
   </si>
   <si>
     <t xml:space="preserve">4.01714134216309</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">4.14295816421509</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06926584243774</t>
+    <t xml:space="preserve">4.0692663192749</t>
   </si>
   <si>
     <t xml:space="preserve">4.08903694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40357828140259</t>
+    <t xml:space="preserve">4.40357780456543</t>
   </si>
   <si>
     <t xml:space="preserve">4.37661743164062</t>
@@ -545,16 +545,16 @@
     <t xml:space="preserve">4.34606170654297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34785890579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32808828353882</t>
+    <t xml:space="preserve">4.34785938262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32808876037598</t>
   </si>
   <si>
     <t xml:space="preserve">4.27236986160278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11599779129028</t>
+    <t xml:space="preserve">4.11599731445312</t>
   </si>
   <si>
     <t xml:space="preserve">4.03691291809082</t>
@@ -563,61 +563,58 @@
     <t xml:space="preserve">3.9847891330719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04230451583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95603108406067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92008376121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91828608512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94704413414001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93266487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84099888801575</t>
+    <t xml:space="preserve">4.04230546951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95603060722351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92008352279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91828560829163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94704461097717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93266534805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84099936485291</t>
   </si>
   <si>
     <t xml:space="preserve">3.86795902252197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90390634536743</t>
+    <t xml:space="preserve">3.90390682220459</t>
   </si>
   <si>
     <t xml:space="preserve">3.94524669647217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96359658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112153053284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98194670677185</t>
+    <t xml:space="preserve">3.9635968208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98194646835327</t>
   </si>
   <si>
     <t xml:space="preserve">4.06819152832031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94524717330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89019632339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184619903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92689681053162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06452083587646</t>
+    <t xml:space="preserve">3.8901960849762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8718466758728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92689728736877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06452131271362</t>
   </si>
   <si>
     <t xml:space="preserve">4.12874603271484</t>
@@ -629,7 +626,7 @@
     <t xml:space="preserve">4.12691164016724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10672664642334</t>
+    <t xml:space="preserve">4.10672616958618</t>
   </si>
   <si>
     <t xml:space="preserve">4.05901622772217</t>
@@ -638,10 +635,10 @@
     <t xml:space="preserve">4.03699636459351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99479150772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05351209640503</t>
+    <t xml:space="preserve">3.99479198455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05351114273071</t>
   </si>
   <si>
     <t xml:space="preserve">4.08287143707275</t>
@@ -665,49 +662,49 @@
     <t xml:space="preserve">4.09021139144897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06268644332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15260124206543</t>
+    <t xml:space="preserve">4.0626859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15260171890259</t>
   </si>
   <si>
     <t xml:space="preserve">4.15627145767212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16544628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11039638519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09388160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20948648452759</t>
+    <t xml:space="preserve">4.16544580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11039686203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09388113021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20948600769043</t>
   </si>
   <si>
     <t xml:space="preserve">4.15443658828735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13792133331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12507677078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1195707321167</t>
+    <t xml:space="preserve">4.1379222869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12507629394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957120895386</t>
   </si>
   <si>
     <t xml:space="preserve">4.13608646392822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15076684951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10305595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17278528213501</t>
+    <t xml:space="preserve">4.15076637268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10305690765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17278671264648</t>
   </si>
   <si>
     <t xml:space="preserve">4.11223125457764</t>
@@ -719,7 +716,7 @@
     <t xml:space="preserve">4.10122156143188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16911697387695</t>
+    <t xml:space="preserve">4.16911649703979</t>
   </si>
   <si>
     <t xml:space="preserve">4.18379640579224</t>
@@ -728,7 +725,7 @@
     <t xml:space="preserve">4.21132135391235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09755182266235</t>
+    <t xml:space="preserve">4.0975513458252</t>
   </si>
   <si>
     <t xml:space="preserve">4.05167579650879</t>
@@ -749,7 +746,7 @@
     <t xml:space="preserve">4.13241624832153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12140703201294</t>
+    <t xml:space="preserve">4.12140655517578</t>
   </si>
   <si>
     <t xml:space="preserve">4.11590147018433</t>
@@ -758,7 +755,7 @@
     <t xml:space="preserve">4.11773633956909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14709615707397</t>
+    <t xml:space="preserve">4.14709663391113</t>
   </si>
   <si>
     <t xml:space="preserve">4.1489315032959</t>
@@ -767,10 +764,10 @@
     <t xml:space="preserve">4.19113636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19297170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99662661552429</t>
+    <t xml:space="preserve">4.19297122955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99662685394287</t>
   </si>
   <si>
     <t xml:space="preserve">4.04433631896973</t>
@@ -779,19 +776,19 @@
     <t xml:space="preserve">3.98561668395996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94341087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02048110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92322635650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03516101837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08654165267944</t>
+    <t xml:space="preserve">3.94341135025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0204815864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92322683334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03516149520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08654117584229</t>
   </si>
   <si>
     <t xml:space="preserve">4.04800653457642</t>
@@ -800,46 +797,46 @@
     <t xml:space="preserve">3.96726608276367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92506122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91772150993347</t>
+    <t xml:space="preserve">3.92506170272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91772174835205</t>
   </si>
   <si>
     <t xml:space="preserve">4.0002965927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97277164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93790626525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99846196174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04617118835449</t>
+    <t xml:space="preserve">3.97277116775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93790650367737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846124649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04617166519165</t>
   </si>
   <si>
     <t xml:space="preserve">3.88102173805237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85349678993225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95442128181458</t>
+    <t xml:space="preserve">3.85349631309509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.954421043396</t>
   </si>
   <si>
     <t xml:space="preserve">3.83514642715454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89937138557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90854716300964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93607139587402</t>
+    <t xml:space="preserve">3.89937162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90854692459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9360716342926</t>
   </si>
   <si>
     <t xml:space="preserve">3.86267185211182</t>
@@ -848,13 +845,13 @@
     <t xml:space="preserve">3.82597184181213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78927183151245</t>
+    <t xml:space="preserve">3.78927159309387</t>
   </si>
   <si>
     <t xml:space="preserve">3.807621717453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02039432525635</t>
+    <t xml:space="preserve">4.02039480209351</t>
   </si>
   <si>
     <t xml:space="preserve">4.04857444763184</t>
@@ -863,19 +860,19 @@
     <t xml:space="preserve">4.03918123245239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97342729568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99221396446228</t>
+    <t xml:space="preserve">3.97342658042908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9922137260437</t>
   </si>
   <si>
     <t xml:space="preserve">4.02978754043579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96403288841248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89827966690063</t>
+    <t xml:space="preserve">3.96403360366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89827990531921</t>
   </si>
   <si>
     <t xml:space="preserve">3.9170663356781</t>
@@ -884,28 +881,28 @@
     <t xml:space="preserve">3.77616453170776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70101714134216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75737762451172</t>
+    <t xml:space="preserve">3.70101690292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7573778629303</t>
   </si>
   <si>
     <t xml:space="preserve">3.73859095573425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71980404853821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71041035652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63526296615601</t>
+    <t xml:space="preserve">3.71980428695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71041059494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63526272773743</t>
   </si>
   <si>
     <t xml:space="preserve">3.6258692741394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52254176139832</t>
+    <t xml:space="preserve">3.52254152297974</t>
   </si>
   <si>
     <t xml:space="preserve">3.42860722541809</t>
@@ -917,7 +914,7 @@
     <t xml:space="preserve">3.35345959663391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33467268943787</t>
+    <t xml:space="preserve">3.33467292785645</t>
   </si>
   <si>
     <t xml:space="preserve">3.37224650382996</t>
@@ -929,10 +926,10 @@
     <t xml:space="preserve">3.45678758621216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4661808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36285305023193</t>
+    <t xml:space="preserve">3.46618103981018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36285281181335</t>
   </si>
   <si>
     <t xml:space="preserve">3.44739413261414</t>
@@ -941,7 +938,7 @@
     <t xml:space="preserve">3.43800067901611</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40042662620544</t>
+    <t xml:space="preserve">3.40042686462402</t>
   </si>
   <si>
     <t xml:space="preserve">3.4755744934082</t>
@@ -956,40 +953,40 @@
     <t xml:space="preserve">3.60708260536194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56950902938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50375461578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65405011177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48496794700623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68223023414612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59768891334534</t>
+    <t xml:space="preserve">3.56950879096985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50375485420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65404987335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48496770858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68222999572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59768915176392</t>
   </si>
   <si>
     <t xml:space="preserve">3.61647605895996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66344308853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58829569816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5507218837738</t>
+    <t xml:space="preserve">3.66344332695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58829545974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55072212219238</t>
   </si>
   <si>
     <t xml:space="preserve">3.53193497657776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56011533737183</t>
+    <t xml:space="preserve">3.56011557579041</t>
   </si>
   <si>
     <t xml:space="preserve">3.57890224456787</t>
@@ -998,19 +995,19 @@
     <t xml:space="preserve">3.64465641975403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6728367805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51314806938171</t>
+    <t xml:space="preserve">3.67283701896667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51314830780029</t>
   </si>
   <si>
     <t xml:space="preserve">3.70352864265442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54921531677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62637209892273</t>
+    <t xml:space="preserve">3.5492148399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62637186050415</t>
   </si>
   <si>
     <t xml:space="preserve">3.58779358863831</t>
@@ -1031,10 +1028,10 @@
     <t xml:space="preserve">3.74210715293884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81926393508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83855319023132</t>
+    <t xml:space="preserve">3.81926417350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8385534286499</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1043,12 +1040,15 @@
     <t xml:space="preserve">3.76139640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72281765937805</t>
+    <t xml:space="preserve">3.72281789779663</t>
   </si>
   <si>
     <t xml:space="preserve">3.64566111564636</t>
   </si>
   <si>
+    <t xml:space="preserve">3.60708284378052</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.56850433349609</t>
   </si>
   <si>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">3.41419053077698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43347978591919</t>
+    <t xml:space="preserve">3.43347954750061</t>
   </si>
   <si>
     <t xml:space="preserve">3.45276880264282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37561202049255</t>
+    <t xml:space="preserve">3.37561225891113</t>
   </si>
   <si>
     <t xml:space="preserve">3.39490151405334</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">3.33703374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27916598320007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18272018432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22129821777344</t>
+    <t xml:space="preserve">3.27916622161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18271994590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22129845619202</t>
   </si>
   <si>
     <t xml:space="preserve">3.14414167404175</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">3.2020092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1055634021759</t>
+    <t xml:space="preserve">3.10556316375732</t>
   </si>
   <si>
     <t xml:space="preserve">3.06698489189148</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">2.91267108917236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85480332374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71977877616882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83551406860352</t>
+    <t xml:space="preserve">2.85480356216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7197790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83551430702209</t>
   </si>
   <si>
     <t xml:space="preserve">2.97053861618042</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">3.12485241889954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98982787132263</t>
+    <t xml:space="preserve">2.98982763290405</t>
   </si>
   <si>
     <t xml:space="preserve">2.95124959945679</t>
@@ -1148,22 +1148,22 @@
     <t xml:space="preserve">2.75835704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77764654159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73906803131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54617619514465</t>
+    <t xml:space="preserve">2.77764678001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73906779289246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54617595672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.62333297729492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60404372215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58475470542908</t>
+    <t xml:space="preserve">2.60404396057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5847544670105</t>
   </si>
   <si>
     <t xml:space="preserve">2.50759768486023</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">2.46901917457581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3339946269989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16039180755615</t>
+    <t xml:space="preserve">2.33399486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16039204597473</t>
   </si>
   <si>
     <t xml:space="preserve">2.04465627670288</t>
@@ -1184,31 +1184,31 @@
     <t xml:space="preserve">2.21825933456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14110279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23754835128784</t>
+    <t xml:space="preserve">2.14110255241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23754858970642</t>
   </si>
   <si>
     <t xml:space="preserve">2.02536725997925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19897031784058</t>
+    <t xml:space="preserve">2.198970079422</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683760643005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29541635513306</t>
+    <t xml:space="preserve">2.25683784484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29541611671448</t>
   </si>
   <si>
     <t xml:space="preserve">2.31470537185669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26648235321045</t>
+    <t xml:space="preserve">2.26648211479187</t>
   </si>
   <si>
     <t xml:space="preserve">2.41115140914917</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">2.47866368293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43044090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27612686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28577136993408</t>
+    <t xml:space="preserve">2.43044066429138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27612709999084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28577160835266</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436393737793</t>
@@ -1232,28 +1232,28 @@
     <t xml:space="preserve">2.36292839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30506086349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22790384292603</t>
+    <t xml:space="preserve">2.30506110191345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2279040813446</t>
   </si>
   <si>
     <t xml:space="preserve">2.24719309806824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35328388214111</t>
+    <t xml:space="preserve">2.35328412055969</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435011863708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17968106269836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18932580947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17003655433655</t>
+    <t xml:space="preserve">2.17968082427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18932557106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17003631591797</t>
   </si>
   <si>
     <t xml:space="preserve">2.13145804405212</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">2.1025242805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11216878890991</t>
+    <t xml:space="preserve">2.11216902732849</t>
   </si>
   <si>
     <t xml:space="preserve">2.07359027862549</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">2.03501176834106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9867889881134</t>
+    <t xml:space="preserve">1.98678886890411</t>
   </si>
   <si>
     <t xml:space="preserve">1.92409884929657</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">1.92892122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93856585025787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9578549861908</t>
+    <t xml:space="preserve">1.93856573104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95785510540009</t>
   </si>
   <si>
     <t xml:space="preserve">2.20861482620239</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">2.37257313728333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38221764564514</t>
+    <t xml:space="preserve">2.38221788406372</t>
   </si>
   <si>
     <t xml:space="preserve">2.56546521186829</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.87409257888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66191148757935</t>
+    <t xml:space="preserve">2.66191124916077</t>
   </si>
   <si>
     <t xml:space="preserve">2.64262199401855</t>
@@ -1322,10 +1322,10 @@
     <t xml:space="preserve">2.65226674079895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61368846893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53653168678284</t>
+    <t xml:space="preserve">2.61368823051453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53653144836426</t>
   </si>
   <si>
     <t xml:space="preserve">2.52688670158386</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">2.70048975944519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71013426780701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69084525108337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72942328453064</t>
+    <t xml:space="preserve">2.71013402938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69084501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72942352294922</t>
   </si>
   <si>
     <t xml:space="preserve">2.78729128837585</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">2.94160485267639</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99947237968445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98018336296082</t>
+    <t xml:space="preserve">2.99947261810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98018312454224</t>
   </si>
   <si>
     <t xml:space="preserve">2.96089386940002</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">3.03805088996887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16343069076538</t>
+    <t xml:space="preserve">3.16343092918396</t>
   </si>
   <si>
     <t xml:space="preserve">3.21165370941162</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">3.17307543754578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13449716567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15378642082214</t>
+    <t xml:space="preserve">3.13449692726135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15378594398499</t>
   </si>
   <si>
     <t xml:space="preserve">3.26952147483826</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">3.32738900184631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25023198127747</t>
+    <t xml:space="preserve">3.25023221969604</t>
   </si>
   <si>
     <t xml:space="preserve">3.09591865539551</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">3.0766294002533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01876187324524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05734038352966</t>
+    <t xml:space="preserve">3.01876163482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05734014511108</t>
   </si>
   <si>
     <t xml:space="preserve">2.92231559753418</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">2.931960105896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90302634239197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88373708724976</t>
+    <t xml:space="preserve">2.90302658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88373732566833</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">2.84515881538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80658030509949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11520767211914</t>
+    <t xml:space="preserve">2.80658054351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11520791053772</t>
   </si>
   <si>
     <t xml:space="preserve">3.28881072998047</t>
@@ -1445,22 +1445,22 @@
     <t xml:space="preserve">3.59743809700012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67459511756897</t>
+    <t xml:space="preserve">3.67459487915039</t>
   </si>
   <si>
     <t xml:space="preserve">3.71317315101624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79033017158508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88677644729614</t>
+    <t xml:space="preserve">3.79033041000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88677668571472</t>
   </si>
   <si>
     <t xml:space="preserve">3.95428848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9446439743042</t>
+    <t xml:space="preserve">3.94464421272278</t>
   </si>
   <si>
     <t xml:space="preserve">3.98322248458862</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">4.0507345199585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97357797622681</t>
+    <t xml:space="preserve">3.97357773780823</t>
   </si>
   <si>
     <t xml:space="preserve">4.07002353668213</t>
@@ -1487,52 +1487,52 @@
     <t xml:space="preserve">4.23398208618164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34971761703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3400731086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794063568115</t>
+    <t xml:space="preserve">4.34971809387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34007263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794015884399</t>
   </si>
   <si>
     <t xml:space="preserve">4.4268741607666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45580768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22433757781982</t>
+    <t xml:space="preserve">4.45580816268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22433805465698</t>
   </si>
   <si>
     <t xml:space="preserve">4.08931255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03144550323486</t>
+    <t xml:space="preserve">4.03144454956055</t>
   </si>
   <si>
     <t xml:space="preserve">4.24362659454346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31113910675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2918496131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40758562088013</t>
+    <t xml:space="preserve">4.31113862991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29185009002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40758514404297</t>
   </si>
   <si>
     <t xml:space="preserve">4.50403070449829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5329647064209</t>
+    <t xml:space="preserve">4.53296422958374</t>
   </si>
   <si>
     <t xml:space="preserve">4.43651866912842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3690071105957</t>
+    <t xml:space="preserve">4.36900663375854</t>
   </si>
   <si>
     <t xml:space="preserve">4.1278920173645</t>
@@ -1544,43 +1544,43 @@
     <t xml:space="preserve">4.25327157974243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18575954437256</t>
+    <t xml:space="preserve">4.1857590675354</t>
   </si>
   <si>
     <t xml:space="preserve">4.14718055725098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02180051803589</t>
+    <t xml:space="preserve">4.02180099487305</t>
   </si>
   <si>
     <t xml:space="preserve">4.0796685218811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17611455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33042812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51367521286011</t>
+    <t xml:space="preserve">4.17611408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33042764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.46545267105103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37865161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48474168777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47509670257568</t>
+    <t xml:space="preserve">4.37865114212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48474216461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47509717941284</t>
   </si>
   <si>
     <t xml:space="preserve">4.49438619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44616317749023</t>
+    <t xml:space="preserve">4.44616365432739</t>
   </si>
   <si>
     <t xml:space="preserve">4.41722965240479</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">4.72585678100586</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6390552520752</t>
+    <t xml:space="preserve">4.63905572891235</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61012172698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57154273986816</t>
+    <t xml:space="preserve">4.6101222038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57154321670532</t>
   </si>
   <si>
     <t xml:space="preserve">4.27256011962891</t>
@@ -1613,13 +1613,13 @@
     <t xml:space="preserve">4.11824655532837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15682554244995</t>
+    <t xml:space="preserve">4.15682506561279</t>
   </si>
   <si>
     <t xml:space="preserve">4.38829612731934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54260921478271</t>
+    <t xml:space="preserve">4.54260969161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.61976623535156</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">4.67763376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78372430801392</t>
+    <t xml:space="preserve">4.78372478485107</t>
   </si>
   <si>
     <t xml:space="preserve">4.89945983886719</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">5.01519536972046</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45884656906128</t>
+    <t xml:space="preserve">5.45884704589844</t>
   </si>
   <si>
     <t xml:space="preserve">5.59387159347534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4974250793457</t>
+    <t xml:space="preserve">5.49742555618286</t>
   </si>
   <si>
     <t xml:space="preserve">5.28524398803711</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026853561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38169050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86088180541992</t>
+    <t xml:space="preserve">5.42026805877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38169002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86088132858276</t>
   </si>
   <si>
     <t xml:space="preserve">4.84159231185913</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">4.86295795440674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87276220321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9610013961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13747978210449</t>
+    <t xml:space="preserve">4.87276268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96100187301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13748025894165</t>
   </si>
   <si>
     <t xml:space="preserve">5.0198278427124</t>
@@ -1703,19 +1703,19 @@
     <t xml:space="preserve">4.90217542648315</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00021934509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81393671035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79432773590088</t>
+    <t xml:space="preserve">5.00021886825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81393623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79432725906372</t>
   </si>
   <si>
     <t xml:space="preserve">4.78452348709106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667531967163</t>
+    <t xml:space="preserve">4.67667579650879</t>
   </si>
   <si>
     <t xml:space="preserve">4.61784934997559</t>
@@ -1733,22 +1733,22 @@
     <t xml:space="preserve">4.89237117767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72569751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80413198471069</t>
+    <t xml:space="preserve">4.72569704055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80413246154785</t>
   </si>
   <si>
     <t xml:space="preserve">4.76491498947144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92178440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83354473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66687154769897</t>
+    <t xml:space="preserve">4.92178392410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83354520797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66687107086182</t>
   </si>
   <si>
     <t xml:space="preserve">4.69628429412842</t>
@@ -1778,16 +1778,16 @@
     <t xml:space="preserve">4.64726209640503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74530601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51000165939331</t>
+    <t xml:space="preserve">4.74530649185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51000118255615</t>
   </si>
   <si>
     <t xml:space="preserve">4.41195821762085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59824085235596</t>
+    <t xml:space="preserve">4.5982403755188</t>
   </si>
   <si>
     <t xml:space="preserve">4.52961015701294</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">4.53941488265991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54921865463257</t>
+    <t xml:space="preserve">4.54921913146973</t>
   </si>
   <si>
     <t xml:space="preserve">4.58843612670898</t>
@@ -1823,40 +1823,40 @@
     <t xml:space="preserve">4.48058891296387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38254499435425</t>
+    <t xml:space="preserve">4.38254451751709</t>
   </si>
   <si>
     <t xml:space="preserve">4.36293601989746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3237190246582</t>
+    <t xml:space="preserve">4.32371854782104</t>
   </si>
   <si>
     <t xml:space="preserve">4.31391429901123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.264892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25508880615234</t>
+    <t xml:space="preserve">4.26489305496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21587133407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25508832931519</t>
   </si>
   <si>
     <t xml:space="preserve">4.23547983169556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13743591308594</t>
+    <t xml:space="preserve">4.1374363899231</t>
   </si>
   <si>
     <t xml:space="preserve">4.39234924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33352327346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45117568969727</t>
+    <t xml:space="preserve">4.33352375030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45117521286011</t>
   </si>
   <si>
     <t xml:space="preserve">4.56882762908936</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">4.657066822052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37274026870728</t>
+    <t xml:space="preserve">4.37274074554443</t>
   </si>
   <si>
     <t xml:space="preserve">4.82374095916748</t>
@@ -1880,10 +1880,10 @@
     <t xml:space="preserve">4.28450155258179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1668496131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1962628364563</t>
+    <t xml:space="preserve">4.16684913635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19626235961914</t>
   </si>
   <si>
     <t xml:space="preserve">4.24528408050537</t>
@@ -11857,7 +11857,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G359" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11883,7 +11883,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G360" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11909,7 +11909,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G361" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11935,7 +11935,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G362" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11961,7 +11961,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G363" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11987,7 +11987,7 @@
         <v>4.5</v>
       </c>
       <c r="G364" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12013,7 +12013,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G365" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12039,7 +12039,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G366" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12065,7 +12065,7 @@
         <v>4.47599983215332</v>
       </c>
       <c r="G367" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12091,7 +12091,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G368" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12117,7 +12117,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G369" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12169,7 +12169,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G371" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12195,7 +12195,7 @@
         <v>4.35400009155273</v>
       </c>
       <c r="G372" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12221,7 +12221,7 @@
         <v>4.41800022125244</v>
       </c>
       <c r="G373" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12247,7 +12247,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G374" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12273,7 +12273,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G375" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12299,7 +12299,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G376" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12325,7 +12325,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G377" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12351,7 +12351,7 @@
         <v>4.39599990844727</v>
       </c>
       <c r="G378" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12377,7 +12377,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G379" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12403,7 +12403,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G380" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12429,7 +12429,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G381" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12455,7 +12455,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G382" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12481,7 +12481,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G383" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12507,7 +12507,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G384" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12533,7 +12533,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G385" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12559,7 +12559,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G386" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12585,7 +12585,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G387" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12611,7 +12611,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G388" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12637,7 +12637,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12663,7 +12663,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G390" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12689,7 +12689,7 @@
         <v>4.45800018310547</v>
       </c>
       <c r="G391" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12715,7 +12715,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G392" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12741,7 +12741,7 @@
         <v>4.42799997329712</v>
       </c>
       <c r="G393" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12767,7 +12767,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G394" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12793,7 +12793,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12819,7 +12819,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G396" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12845,7 +12845,7 @@
         <v>4.52600002288818</v>
       </c>
       <c r="G397" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12871,7 +12871,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G398" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12897,7 +12897,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12923,7 +12923,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G400" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12949,7 +12949,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G401" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12975,7 +12975,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G402" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13001,7 +13001,7 @@
         <v>4.46199989318848</v>
       </c>
       <c r="G403" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13027,7 +13027,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G404" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13053,7 +13053,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G405" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13079,7 +13079,7 @@
         <v>4.58799982070923</v>
       </c>
       <c r="G406" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13105,7 +13105,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G407" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13131,7 +13131,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G408" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13157,7 +13157,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G409" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13183,7 +13183,7 @@
         <v>4.49599981307983</v>
       </c>
       <c r="G410" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13209,7 +13209,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G411" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13235,7 +13235,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G412" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13261,7 +13261,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G413" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13287,7 +13287,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G414" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13313,7 +13313,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G415" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13339,7 +13339,7 @@
         <v>4.52400016784668</v>
       </c>
       <c r="G416" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13365,7 +13365,7 @@
         <v>4.5</v>
       </c>
       <c r="G417" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13391,7 +13391,7 @@
         <v>4.5</v>
       </c>
       <c r="G418" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13417,7 +13417,7 @@
         <v>4.5</v>
       </c>
       <c r="G419" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13443,7 +13443,7 @@
         <v>4.47200012207031</v>
       </c>
       <c r="G420" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13469,7 +13469,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G421" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13495,7 +13495,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G422" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13521,7 +13521,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G423" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13547,7 +13547,7 @@
         <v>4.48199987411499</v>
       </c>
       <c r="G424" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13573,7 +13573,7 @@
         <v>4.43599987030029</v>
       </c>
       <c r="G425" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13599,7 +13599,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G426" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13625,7 +13625,7 @@
         <v>4.5</v>
       </c>
       <c r="G427" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13651,7 +13651,7 @@
         <v>4.5</v>
       </c>
       <c r="G428" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13677,7 +13677,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G429" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13703,7 +13703,7 @@
         <v>4.54400014877319</v>
       </c>
       <c r="G430" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13729,7 +13729,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G431" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13755,7 +13755,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G432" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13781,7 +13781,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G433" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13807,7 +13807,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13833,7 +13833,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G435" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13859,7 +13859,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13885,7 +13885,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G437" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13911,7 +13911,7 @@
         <v>4.5479998588562</v>
       </c>
       <c r="G438" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13937,7 +13937,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G439" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13963,7 +13963,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G440" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13989,7 +13989,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G441" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14015,7 +14015,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G442" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14041,7 +14041,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G443" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14067,7 +14067,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G444" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14093,7 +14093,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G445" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14119,7 +14119,7 @@
         <v>4.50600004196167</v>
       </c>
       <c r="G446" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14145,7 +14145,7 @@
         <v>4.5</v>
       </c>
       <c r="G447" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14171,7 +14171,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G448" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14197,7 +14197,7 @@
         <v>4.50400018692017</v>
       </c>
       <c r="G449" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14223,7 +14223,7 @@
         <v>4.5</v>
       </c>
       <c r="G450" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14249,7 +14249,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G451" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14275,7 +14275,7 @@
         <v>4.48600006103516</v>
       </c>
       <c r="G452" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14301,7 +14301,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G453" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14327,7 +14327,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G454" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14353,7 +14353,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G455" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14379,7 +14379,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G456" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14405,7 +14405,7 @@
         <v>4.49200010299683</v>
       </c>
       <c r="G457" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14431,7 +14431,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G458" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14457,7 +14457,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G459" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14483,7 +14483,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G460" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14509,7 +14509,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G461" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14535,7 +14535,7 @@
         <v>4.48799991607666</v>
       </c>
       <c r="G462" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14561,7 +14561,7 @@
         <v>4.46600008010864</v>
       </c>
       <c r="G463" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14587,7 +14587,7 @@
         <v>4.41599988937378</v>
       </c>
       <c r="G464" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14613,7 +14613,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G465" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14639,7 +14639,7 @@
         <v>4.42399978637695</v>
       </c>
       <c r="G466" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14665,7 +14665,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G467" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14691,7 +14691,7 @@
         <v>4.5</v>
       </c>
       <c r="G468" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14717,7 +14717,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G469" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14743,7 +14743,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14769,7 +14769,7 @@
         <v>4.5</v>
       </c>
       <c r="G471" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14795,7 +14795,7 @@
         <v>4.5</v>
       </c>
       <c r="G472" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14821,7 +14821,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G473" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14847,7 +14847,7 @@
         <v>4.59800004959106</v>
       </c>
       <c r="G474" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14873,7 +14873,7 @@
         <v>4.50799989700317</v>
       </c>
       <c r="G475" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14899,7 +14899,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G476" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14925,7 +14925,7 @@
         <v>4.56799983978271</v>
       </c>
       <c r="G477" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14951,7 +14951,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G478" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14977,7 +14977,7 @@
         <v>4.52799987792969</v>
       </c>
       <c r="G479" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15003,7 +15003,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G480" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15029,7 +15029,7 @@
         <v>4.44799995422363</v>
       </c>
       <c r="G481" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15055,7 +15055,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G482" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15081,7 +15081,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G483" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15107,7 +15107,7 @@
         <v>4.40799999237061</v>
       </c>
       <c r="G484" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15133,7 +15133,7 @@
         <v>4.3439998626709</v>
       </c>
       <c r="G485" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15185,7 +15185,7 @@
         <v>4.2979998588562</v>
       </c>
       <c r="G487" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15211,7 +15211,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15237,7 +15237,7 @@
         <v>4.35599994659424</v>
       </c>
       <c r="G489" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15263,7 +15263,7 @@
         <v>4.44600009918213</v>
       </c>
       <c r="G490" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15289,7 +15289,7 @@
         <v>4.38199996948242</v>
       </c>
       <c r="G491" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15315,7 +15315,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G492" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15341,7 +15341,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15367,7 +15367,7 @@
         <v>4.27600002288818</v>
       </c>
       <c r="G494" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15393,7 +15393,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G495" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15419,7 +15419,7 @@
         <v>4.39799976348877</v>
       </c>
       <c r="G496" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15445,7 +15445,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15471,7 +15471,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G498" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15497,7 +15497,7 @@
         <v>4.4539999961853</v>
       </c>
       <c r="G499" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15523,7 +15523,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G500" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15549,7 +15549,7 @@
         <v>4.41200017929077</v>
       </c>
       <c r="G501" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15575,7 +15575,7 @@
         <v>4.32399988174438</v>
       </c>
       <c r="G502" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15601,7 +15601,7 @@
         <v>4.27799987792969</v>
       </c>
       <c r="G503" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15627,7 +15627,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G504" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15653,7 +15653,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G505" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15679,7 +15679,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G506" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15705,7 +15705,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G507" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15731,7 +15731,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G508" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15757,7 +15757,7 @@
         <v>4.29199981689453</v>
       </c>
       <c r="G509" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15783,7 +15783,7 @@
         <v>4.35799980163574</v>
       </c>
       <c r="G510" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15809,7 +15809,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G511" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15835,7 +15835,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15861,7 +15861,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G513" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15887,7 +15887,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G514" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15913,7 +15913,7 @@
         <v>4.5</v>
       </c>
       <c r="G515" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15939,7 +15939,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G516" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15965,7 +15965,7 @@
         <v>4.5</v>
       </c>
       <c r="G517" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15991,7 +15991,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G518" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16017,7 +16017,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16043,7 +16043,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G520" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16069,7 +16069,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G521" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16095,7 +16095,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G522" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16121,7 +16121,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G523" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16147,7 +16147,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G524" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16173,7 +16173,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G525" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16199,7 +16199,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G526" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16225,7 +16225,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G527" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16251,7 +16251,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G528" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16277,7 +16277,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G529" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16303,7 +16303,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G530" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16329,7 +16329,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G531" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16355,7 +16355,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16433,7 +16433,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G535" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16459,7 +16459,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G536" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16485,7 +16485,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G537" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16511,7 +16511,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16537,7 +16537,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G539" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16563,7 +16563,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16589,7 +16589,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G541" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16615,7 +16615,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G542" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16641,7 +16641,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G543" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16667,7 +16667,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16693,7 +16693,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G545" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16719,7 +16719,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G546" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16745,7 +16745,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G547" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16771,7 +16771,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G548" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16797,7 +16797,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16849,7 +16849,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G551" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16875,7 +16875,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G552" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16901,7 +16901,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G553" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16927,7 +16927,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G554" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16953,7 +16953,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G555" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16979,7 +16979,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G556" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17005,7 +17005,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G557" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17031,7 +17031,7 @@
         <v>4.25</v>
       </c>
       <c r="G558" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17057,7 +17057,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G559" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17083,7 +17083,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G560" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17109,7 +17109,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G561" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17135,7 +17135,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G562" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17161,7 +17161,7 @@
         <v>4.25</v>
       </c>
       <c r="G563" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17187,7 +17187,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G564" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17213,7 +17213,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G565" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17239,7 +17239,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G566" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17291,7 +17291,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G568" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17317,7 +17317,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G569" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17343,7 +17343,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G570" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17369,7 +17369,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17395,7 +17395,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G572" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17421,7 +17421,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17447,7 +17447,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G574" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17473,7 +17473,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G575" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17499,7 +17499,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G576" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17525,7 +17525,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G577" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17551,7 +17551,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G578" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17577,7 +17577,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G579" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17603,7 +17603,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G580" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17629,7 +17629,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G581" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17655,7 +17655,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G582" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17681,7 +17681,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17707,7 +17707,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17733,7 +17733,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G585" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17759,7 +17759,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G586" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17811,7 +17811,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G588" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17837,7 +17837,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17863,7 +17863,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G590" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17889,7 +17889,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G591" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17915,7 +17915,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G592" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17941,7 +17941,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G593" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17967,7 +17967,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G594" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17993,7 +17993,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G595" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18019,7 +18019,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G596" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18045,7 +18045,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18071,7 +18071,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18097,7 +18097,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G599" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18123,7 +18123,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G600" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18149,7 +18149,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G601" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18175,7 +18175,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G602" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18253,7 +18253,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G605" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18279,7 +18279,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18331,7 +18331,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G608" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18357,7 +18357,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G609" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18383,7 +18383,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G610" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18409,7 +18409,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G611" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18435,7 +18435,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G612" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18461,7 +18461,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18487,7 +18487,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G614" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18513,7 +18513,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G615" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18539,7 +18539,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G616" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18565,7 +18565,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G617" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18591,7 +18591,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G618" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18617,7 +18617,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G619" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18643,7 +18643,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G620" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18669,7 +18669,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G621" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18695,7 +18695,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G622" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18721,7 +18721,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G623" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18747,7 +18747,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G624" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18773,7 +18773,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G625" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18799,7 +18799,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18825,7 +18825,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18851,7 +18851,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G628" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18877,7 +18877,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G629" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18903,7 +18903,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18929,7 +18929,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19007,7 +19007,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G634" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19033,7 +19033,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G635" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19059,7 +19059,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G636" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19085,7 +19085,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G637" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19111,7 +19111,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G638" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19137,7 +19137,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G639" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19163,7 +19163,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G640" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19189,7 +19189,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G641" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19215,7 +19215,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G642" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19241,7 +19241,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19267,7 +19267,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G644" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19293,7 +19293,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G645" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19319,7 +19319,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G646" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19501,7 +19501,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G653" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19527,7 +19527,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19553,7 +19553,7 @@
         <v>4.25</v>
       </c>
       <c r="G655" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19579,7 +19579,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19605,7 +19605,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G657" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19631,7 +19631,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G658" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19657,7 +19657,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G659" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19683,7 +19683,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G660" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19709,7 +19709,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G661" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19735,7 +19735,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G662" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19761,7 +19761,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G663" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19787,7 +19787,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G664" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19813,7 +19813,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G665" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19839,7 +19839,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19865,7 +19865,7 @@
         <v>4.25</v>
       </c>
       <c r="G667" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19891,7 +19891,7 @@
         <v>4.25</v>
       </c>
       <c r="G668" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19917,7 +19917,7 @@
         <v>4.25</v>
       </c>
       <c r="G669" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19943,7 +19943,7 @@
         <v>4.25</v>
       </c>
       <c r="G670" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19969,7 +19969,7 @@
         <v>4.25</v>
       </c>
       <c r="G671" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19995,7 +19995,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20021,7 +20021,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G673" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20047,7 +20047,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20125,7 +20125,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G677" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20151,7 +20151,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G678" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20177,7 +20177,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G679" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20203,7 +20203,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G680" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20229,7 +20229,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20255,7 +20255,7 @@
         <v>4.25</v>
       </c>
       <c r="G682" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20281,7 +20281,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G683" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20307,7 +20307,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G684" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20333,7 +20333,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20359,7 +20359,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G686" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20385,7 +20385,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20411,7 +20411,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G688" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20437,7 +20437,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G689" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20463,7 +20463,7 @@
         <v>4.25</v>
       </c>
       <c r="G690" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20489,7 +20489,7 @@
         <v>4.25</v>
       </c>
       <c r="G691" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20515,7 +20515,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20541,7 +20541,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G693" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20567,7 +20567,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G694" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20593,7 +20593,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20619,7 +20619,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G696" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20645,7 +20645,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G697" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20671,7 +20671,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G698" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20697,7 +20697,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20723,7 +20723,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G700" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20749,7 +20749,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G701" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20775,7 +20775,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20801,7 +20801,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G703" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20827,7 +20827,7 @@
         <v>4.25</v>
       </c>
       <c r="G704" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20853,7 +20853,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20879,7 +20879,7 @@
         <v>4.25</v>
       </c>
       <c r="G706" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20905,7 +20905,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G707" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20931,7 +20931,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20957,7 +20957,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G709" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20983,7 +20983,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G710" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21009,7 +21009,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G711" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21035,7 +21035,7 @@
         <v>4</v>
       </c>
       <c r="G712" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21061,7 +21061,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G713" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21087,7 +21087,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21113,7 +21113,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21139,7 +21139,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G716" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21165,7 +21165,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G717" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21191,7 +21191,7 @@
         <v>3.75</v>
       </c>
       <c r="G718" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21217,7 +21217,7 @@
         <v>3.75</v>
       </c>
       <c r="G719" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21243,7 +21243,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G720" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21269,7 +21269,7 @@
         <v>3.5</v>
       </c>
       <c r="G721" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21295,7 +21295,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G722" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21321,7 +21321,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G723" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21347,7 +21347,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G724" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21373,7 +21373,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G725" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21399,7 +21399,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21425,7 +21425,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G727" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21451,7 +21451,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G728" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21477,7 +21477,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G729" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21503,7 +21503,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G730" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21529,7 +21529,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21555,7 +21555,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G732" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21581,7 +21581,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G733" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21607,7 +21607,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21633,7 +21633,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G735" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21659,7 +21659,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G736" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21685,7 +21685,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21711,7 +21711,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21737,7 +21737,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G739" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21763,7 +21763,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G740" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21789,7 +21789,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G741" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21815,7 +21815,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G742" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21841,7 +21841,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G743" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21867,7 +21867,7 @@
         <v>3.75</v>
       </c>
       <c r="G744" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21893,7 +21893,7 @@
         <v>3.75</v>
       </c>
       <c r="G745" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21919,7 +21919,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21945,7 +21945,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G747" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21971,7 +21971,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21997,7 +21997,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G749" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22023,7 +22023,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G750" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22049,7 +22049,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G751" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22075,7 +22075,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G752" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22101,7 +22101,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G753" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22127,7 +22127,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G754" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22153,7 +22153,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G755" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22179,7 +22179,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G756" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22205,7 +22205,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G757" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22231,7 +22231,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G758" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22257,7 +22257,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G759" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22283,7 +22283,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G760" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22309,7 +22309,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22335,7 +22335,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G762" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22361,7 +22361,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G763" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22387,7 +22387,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G764" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22413,7 +22413,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G765" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22439,7 +22439,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G766" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22465,7 +22465,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G767" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22491,7 +22491,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G768" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22517,7 +22517,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G769" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22543,7 +22543,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G770" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22569,7 +22569,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G771" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22595,7 +22595,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22621,7 +22621,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22647,7 +22647,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G774" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22673,7 +22673,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G775" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22699,7 +22699,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G776" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22725,7 +22725,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G777" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22751,7 +22751,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G778" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22777,7 +22777,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G779" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22803,7 +22803,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G780" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22829,7 +22829,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G781" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22855,7 +22855,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G782" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22881,7 +22881,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G783" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22907,7 +22907,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G784" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22933,7 +22933,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G785" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22959,7 +22959,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G786" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22985,7 +22985,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G787" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23011,7 +23011,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G788" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23037,7 +23037,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G789" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23063,7 +23063,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G790" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23089,7 +23089,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G791" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23115,7 +23115,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G792" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23141,7 +23141,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23167,7 +23167,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G794" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23193,7 +23193,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G795" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23219,7 +23219,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G796" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23245,7 +23245,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G797" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23271,7 +23271,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G798" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23297,7 +23297,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G799" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23323,7 +23323,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G800" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23349,7 +23349,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G801" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23375,7 +23375,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G802" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23401,7 +23401,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G803" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23427,7 +23427,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G804" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23453,7 +23453,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G805" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23479,7 +23479,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G806" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23505,7 +23505,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G807" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23531,7 +23531,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G808" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23557,7 +23557,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G809" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23583,7 +23583,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G810" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23609,7 +23609,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G811" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23635,7 +23635,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23661,7 +23661,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G813" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23687,7 +23687,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G814" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23713,7 +23713,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G815" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23739,7 +23739,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G816" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23765,7 +23765,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G817" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23791,7 +23791,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G818" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23817,7 +23817,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G819" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23843,7 +23843,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G820" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23869,7 +23869,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G821" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23895,7 +23895,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G822" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23921,7 +23921,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23947,7 +23947,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G824" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23973,7 +23973,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23999,7 +23999,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G826" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24025,7 +24025,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G827" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24051,7 +24051,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G828" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24077,7 +24077,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G829" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24103,7 +24103,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G830" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24129,7 +24129,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G831" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24155,7 +24155,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G832" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24181,7 +24181,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G833" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24207,7 +24207,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24233,7 +24233,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G835" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24259,7 +24259,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24285,7 +24285,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G837" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24311,7 +24311,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G838" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24337,7 +24337,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G839" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24363,7 +24363,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G840" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24389,7 +24389,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G841" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24415,7 +24415,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24441,7 +24441,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G843" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24467,7 +24467,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G844" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24493,7 +24493,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G845" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24519,7 +24519,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G846" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24545,7 +24545,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G847" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24571,7 +24571,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24597,7 +24597,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G849" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24623,7 +24623,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24649,7 +24649,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G851" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24675,7 +24675,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G852" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24701,7 +24701,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G853" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24727,7 +24727,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G854" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24753,7 +24753,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G855" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24779,7 +24779,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G856" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24805,7 +24805,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G857" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24831,7 +24831,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G858" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24857,7 +24857,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G859" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24883,7 +24883,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G860" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24909,7 +24909,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G861" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24935,7 +24935,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G862" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24961,7 +24961,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G863" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24987,7 +24987,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G864" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25013,7 +25013,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G865" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25039,7 +25039,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G866" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25065,7 +25065,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G867" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25091,7 +25091,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G868" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25117,7 +25117,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G869" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25143,7 +25143,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G870" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25169,7 +25169,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G871" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25195,7 +25195,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G872" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25221,7 +25221,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25247,7 +25247,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G874" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25273,7 +25273,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G875" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25299,7 +25299,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G876" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25325,7 +25325,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G877" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25351,7 +25351,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25377,7 +25377,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G879" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25403,7 +25403,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G880" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25429,7 +25429,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G881" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25455,7 +25455,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G882" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25481,7 +25481,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G883" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25507,7 +25507,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G884" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25533,7 +25533,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G885" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25559,7 +25559,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G886" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25585,7 +25585,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G887" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25611,7 +25611,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25637,7 +25637,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G889" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25663,7 +25663,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G890" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25689,7 +25689,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G891" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25715,7 +25715,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G892" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25741,7 +25741,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G893" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25767,7 +25767,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G894" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25793,7 +25793,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25819,7 +25819,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G896" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25845,7 +25845,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G897" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25871,7 +25871,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G898" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25897,7 +25897,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G899" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25923,7 +25923,7 @@
         <v>4</v>
       </c>
       <c r="G900" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25949,7 +25949,7 @@
         <v>4</v>
       </c>
       <c r="G901" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25975,7 +25975,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G902" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26001,7 +26001,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G903" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26027,7 +26027,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26053,7 +26053,7 @@
         <v>4</v>
       </c>
       <c r="G905" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26079,7 +26079,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G906" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26105,7 +26105,7 @@
         <v>4</v>
       </c>
       <c r="G907" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26131,7 +26131,7 @@
         <v>4</v>
       </c>
       <c r="G908" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26157,7 +26157,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G909" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26183,7 +26183,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G910" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26209,7 +26209,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26235,7 +26235,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G912" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26261,7 +26261,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G913" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26287,7 +26287,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G914" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26313,7 +26313,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G915" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26339,7 +26339,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G916" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26365,7 +26365,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G917" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26417,7 +26417,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G919" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26443,7 +26443,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G920" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26469,7 +26469,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G921" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26495,7 +26495,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G922" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26521,7 +26521,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G923" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26547,7 +26547,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G924" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26599,7 +26599,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G926" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26625,7 +26625,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G927" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26651,7 +26651,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G928" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26677,7 +26677,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G929" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26703,7 +26703,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G930" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26729,7 +26729,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G931" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26755,7 +26755,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G932" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26781,7 +26781,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G933" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26807,7 +26807,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26833,7 +26833,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G935" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26885,7 +26885,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G937" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26911,7 +26911,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G938" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26937,7 +26937,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G939" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -42225,7 +42225,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1527" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42251,7 +42251,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1528" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42277,7 +42277,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1529" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42355,7 +42355,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1532" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -59965,7 +59965,7 @@
     </row>
     <row r="2210">
       <c r="A2210" s="1" t="n">
-        <v>45540.6493171296</v>
+        <v>45540.2916666667</v>
       </c>
       <c r="B2210" t="n">
         <v>7219</v>
@@ -59986,6 +59986,32 @@
         <v>725</v>
       </c>
       <c r="H2210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="1" t="n">
+        <v>45541.5918055556</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>4.34999990463257</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>4.30000019073486</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>4.30000019073486</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>4.34999990463257</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>725</v>
+      </c>
+      <c r="H2211" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87282109260559</t>
+    <t xml:space="preserve">3.87282133102417</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87105941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458205223083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8657763004303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86401510238647</t>
+    <t xml:space="preserve">3.87105965614319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458252906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86577606201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86401605606079</t>
   </si>
   <si>
     <t xml:space="preserve">3.78652405738831</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74249410629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532933235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77771782875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62977957725525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733073234558</t>
+    <t xml:space="preserve">3.74249386787415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77771759033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62977910041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67733097076416</t>
   </si>
   <si>
     <t xml:space="preserve">3.65443563461304</t>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">3.663241147995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64386868476868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48712420463562</t>
+    <t xml:space="preserve">3.6438684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48712396621704</t>
   </si>
   <si>
     <t xml:space="preserve">3.61040616035461</t>
@@ -95,19 +95,19 @@
     <t xml:space="preserve">3.66676378250122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60336136817932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68085265159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56637692451477</t>
+    <t xml:space="preserve">3.6033616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68085289001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56637716293335</t>
   </si>
   <si>
     <t xml:space="preserve">3.539959192276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61568999290466</t>
+    <t xml:space="preserve">3.6156895160675</t>
   </si>
   <si>
     <t xml:space="preserve">3.64915180206299</t>
@@ -116,25 +116,25 @@
     <t xml:space="preserve">3.65267395973206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65091347694397</t>
+    <t xml:space="preserve">3.65091300010681</t>
   </si>
   <si>
     <t xml:space="preserve">3.64210748672485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59455537796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71431493759155</t>
+    <t xml:space="preserve">3.59455561637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71431541442871</t>
   </si>
   <si>
     <t xml:space="preserve">3.751300573349</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81294131278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356861114502</t>
+    <t xml:space="preserve">3.81294107437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356837272644</t>
   </si>
   <si>
     <t xml:space="preserve">3.86225414276123</t>
@@ -143,100 +143,100 @@
     <t xml:space="preserve">3.81470227241516</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80941891670227</t>
+    <t xml:space="preserve">3.80941963195801</t>
   </si>
   <si>
     <t xml:space="preserve">3.73368835449219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73721098899841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71255469322205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73192667961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72135996818542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76891183853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76538968086243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74953866004944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74601674079895</t>
+    <t xml:space="preserve">3.73721075057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71255397796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73192691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72135972976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76891255378723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76538944244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74953889846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74601650238037</t>
   </si>
   <si>
     <t xml:space="preserve">3.7301664352417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69846415519714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68613624572754</t>
+    <t xml:space="preserve">3.6984646320343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6861367225647</t>
   </si>
   <si>
     <t xml:space="preserve">3.72488260269165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8235080242157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95383477210999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91861128807068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446207046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98377585411072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94326877593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508936882019</t>
+    <t xml:space="preserve">3.82350826263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95383501052856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9186110496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93446254730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9837749004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326853752136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508913040161</t>
   </si>
   <si>
     <t xml:space="preserve">3.9855363368988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91332840919495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89395499229431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96088027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219427108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622279167175</t>
+    <t xml:space="preserve">3.91332864761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89395523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96087980270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219403266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622303009033</t>
   </si>
   <si>
     <t xml:space="preserve">3.92741751670837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88338804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99916744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0261287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220778465271</t>
+    <t xml:space="preserve">3.88338780403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99916791915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02612829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220706939697</t>
   </si>
   <si>
     <t xml:space="preserve">3.99018096923828</t>
@@ -248,64 +248,64 @@
     <t xml:space="preserve">4.04410219192505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98299169540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423364639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625974655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88233828544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92727279663086</t>
+    <t xml:space="preserve">3.98299145698547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9542338848114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625998497009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88233804702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92727303504944</t>
   </si>
   <si>
     <t xml:space="preserve">3.92367839813232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83560681343079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89132523536682</t>
+    <t xml:space="preserve">3.83560657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8913254737854</t>
   </si>
   <si>
     <t xml:space="preserve">3.86436462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86256647109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81942963600159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799231529236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76550889015198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475779533386</t>
+    <t xml:space="preserve">3.86256694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81943011283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70799255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76550912857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475755691528</t>
   </si>
   <si>
     <t xml:space="preserve">3.61273121833801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67923450469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6307053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62171864509583</t>
+    <t xml:space="preserve">3.67923426628113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63070511817932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62171840667725</t>
   </si>
   <si>
     <t xml:space="preserve">3.65766596794128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63789463043213</t>
+    <t xml:space="preserve">3.63789439201355</t>
   </si>
   <si>
     <t xml:space="preserve">3.68103194236755</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">3.57318925857544</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61632633209229</t>
+    <t xml:space="preserve">3.61632657051086</t>
   </si>
   <si>
     <t xml:space="preserve">3.60374474525452</t>
@@ -326,40 +326,40 @@
     <t xml:space="preserve">3.6918158531189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73675084114075</t>
+    <t xml:space="preserve">3.73675060272217</t>
   </si>
   <si>
     <t xml:space="preserve">3.75652146339417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8032534122467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86616158485413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81763339042664</t>
+    <t xml:space="preserve">3.80325365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86616182327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81763315200806</t>
   </si>
   <si>
     <t xml:space="preserve">3.81044316291809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79246950149536</t>
+    <t xml:space="preserve">3.79246926307678</t>
   </si>
   <si>
     <t xml:space="preserve">3.7439398765564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77449488639832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067182540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7762930393219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887510299683</t>
+    <t xml:space="preserve">3.77449584007263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629327774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887462615967</t>
   </si>
   <si>
     <t xml:space="preserve">3.74753522872925</t>
@@ -368,115 +368,115 @@
     <t xml:space="preserve">3.75112962722778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80145645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7331554889679</t>
+    <t xml:space="preserve">3.80145668983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73315596580505</t>
   </si>
   <si>
     <t xml:space="preserve">3.78348255157471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72416877746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77090072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72057390213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371169090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70978975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70260047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73854780197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956156730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237181663513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72776341438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75292682647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831913948059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69541049003601</t>
+    <t xml:space="preserve">3.7241690158844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77090096473694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72057414054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371145248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596621513367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70978951454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7026002407074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73854827880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956109046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237205505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72776365280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75292730331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831937789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69541072845459</t>
   </si>
   <si>
     <t xml:space="preserve">3.68462657928467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6936137676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485524177551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68822169303894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73135828971863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71338486671448</t>
+    <t xml:space="preserve">3.69361352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485571861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68822145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73135852813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7133846282959</t>
   </si>
   <si>
     <t xml:space="preserve">3.78168559074402</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8338086605072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81224036216736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81583476066589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82661914825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8284170627594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547512054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9218807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9003119468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87335157394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84639072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83740329742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514853477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94165229797363</t>
+    <t xml:space="preserve">3.83380913734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81224060058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81583499908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82661962509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82841730117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547535896301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92188048362732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90031170845032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87335133552551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84639120101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83740401268005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8751482963562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94165205955505</t>
   </si>
   <si>
     <t xml:space="preserve">3.90929913520813</t>
@@ -485,16 +485,16 @@
     <t xml:space="preserve">3.95243573188782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98119425773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97939682006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88413572311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9488410949707</t>
+    <t xml:space="preserve">3.98119378089905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97939658164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88413548469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94884181022644</t>
   </si>
   <si>
     <t xml:space="preserve">3.87874317169189</t>
@@ -503,52 +503,52 @@
     <t xml:space="preserve">4.01534414291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02073621749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00815486907959</t>
+    <t xml:space="preserve">4.02073669433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00815439224243</t>
   </si>
   <si>
     <t xml:space="preserve">4.04050779342651</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0530891418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01714134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06207609176636</t>
+    <t xml:space="preserve">4.05308961868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01714181900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0620756149292</t>
   </si>
   <si>
     <t xml:space="preserve">4.07106351852417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14295816421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06926536560059</t>
+    <t xml:space="preserve">4.14295864105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06926584243774</t>
   </si>
   <si>
     <t xml:space="preserve">4.08903694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40357875823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37661695480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34606266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34785938262939</t>
+    <t xml:space="preserve">4.40357828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37661743164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34606170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34785890579224</t>
   </si>
   <si>
     <t xml:space="preserve">4.32808828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27236938476562</t>
+    <t xml:space="preserve">4.27237033843994</t>
   </si>
   <si>
     <t xml:space="preserve">4.11599731445312</t>
@@ -560,13 +560,13 @@
     <t xml:space="preserve">3.98478865623474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04230546951294</t>
+    <t xml:space="preserve">4.04230499267578</t>
   </si>
   <si>
     <t xml:space="preserve">3.95603108406067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92008328437805</t>
+    <t xml:space="preserve">3.92008376121521</t>
   </si>
   <si>
     <t xml:space="preserve">3.91828584671021</t>
@@ -575,58 +575,58 @@
     <t xml:space="preserve">3.94704413414001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93266439437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84099864959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86795949935913</t>
+    <t xml:space="preserve">3.93266487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84099888801575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86795902252197</t>
   </si>
   <si>
     <t xml:space="preserve">3.90390658378601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94524621963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96359658241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99112200737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98194622993469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06819200515747</t>
+    <t xml:space="preserve">3.94524645805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96359634399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99112129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98194646835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06819152832031</t>
   </si>
   <si>
     <t xml:space="preserve">3.94524669647217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89019656181335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87184691429138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92689657211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06452131271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.128746509552</t>
+    <t xml:space="preserve">3.8901960849762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87184596061707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92689681053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06452083587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12874603271484</t>
   </si>
   <si>
     <t xml:space="preserve">4.17462158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12691116333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10672664642334</t>
+    <t xml:space="preserve">4.12691164016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10672616958618</t>
   </si>
   <si>
     <t xml:space="preserve">4.05901622772217</t>
@@ -641,22 +641,22 @@
     <t xml:space="preserve">4.05351161956787</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08287143707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03332614898682</t>
+    <t xml:space="preserve">4.0828709602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03332662582397</t>
   </si>
   <si>
     <t xml:space="preserve">4.07369661331177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0920467376709</t>
+    <t xml:space="preserve">4.09204626083374</t>
   </si>
   <si>
     <t xml:space="preserve">4.08103656768799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05534744262695</t>
+    <t xml:space="preserve">4.05534648895264</t>
   </si>
   <si>
     <t xml:space="preserve">4.09021186828613</t>
@@ -668,10 +668,10 @@
     <t xml:space="preserve">4.15260124206543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15627193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16544580459595</t>
+    <t xml:space="preserve">4.15627145767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16544628143311</t>
   </si>
   <si>
     <t xml:space="preserve">4.11039638519287</t>
@@ -686,19 +686,19 @@
     <t xml:space="preserve">4.15443658828735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13792133331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12507629394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11957168579102</t>
+    <t xml:space="preserve">4.13792181015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12507677078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11957120895386</t>
   </si>
   <si>
     <t xml:space="preserve">4.13608598709106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15076637268066</t>
+    <t xml:space="preserve">4.15076684951782</t>
   </si>
   <si>
     <t xml:space="preserve">4.10305643081665</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">4.11223125457764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07002687454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10122060775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16911649703979</t>
+    <t xml:space="preserve">4.07002639770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10122108459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16911697387695</t>
   </si>
   <si>
     <t xml:space="preserve">4.18379640579224</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">4.21132135391235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0975513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05167675018311</t>
+    <t xml:space="preserve">4.09755182266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05167627334595</t>
   </si>
   <si>
     <t xml:space="preserve">4.01864624023438</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">4.21866178512573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13241720199585</t>
+    <t xml:space="preserve">4.13241672515869</t>
   </si>
   <si>
     <t xml:space="preserve">4.12140655517578</t>
@@ -752,70 +752,70 @@
     <t xml:space="preserve">4.11590147018433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11773681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14709663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14893102645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1911358833313</t>
+    <t xml:space="preserve">4.11773633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14709615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1489315032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19113636016846</t>
   </si>
   <si>
     <t xml:space="preserve">4.19297170639038</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99662661552429</t>
+    <t xml:space="preserve">3.99662685394287</t>
   </si>
   <si>
     <t xml:space="preserve">4.04433631896973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9856162071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94341087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02048110961914</t>
+    <t xml:space="preserve">3.98561668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94341158866882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0204815864563</t>
   </si>
   <si>
     <t xml:space="preserve">3.92322683334351</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03516149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08654117584229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04800701141357</t>
+    <t xml:space="preserve">4.03516101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08654165267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04800653457642</t>
   </si>
   <si>
     <t xml:space="preserve">3.96726655960083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92506122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91772103309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0002965927124</t>
+    <t xml:space="preserve">3.92506146430969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91772150993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00029611587524</t>
   </si>
   <si>
     <t xml:space="preserve">3.97277164459229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93790626525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9984610080719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04617071151733</t>
+    <t xml:space="preserve">3.93790674209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99846124649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04617118835449</t>
   </si>
   <si>
     <t xml:space="preserve">3.88102173805237</t>
@@ -824,58 +824,58 @@
     <t xml:space="preserve">3.85349631309509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95442223548889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83514642715454</t>
+    <t xml:space="preserve">3.954421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83514618873596</t>
   </si>
   <si>
     <t xml:space="preserve">3.89937138557434</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90854692459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93607187271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86267137527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82597184181213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78927183151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80762219429016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02039432525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04857492446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03918123245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97342681884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99221348762512</t>
+    <t xml:space="preserve">3.90854716300964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93607115745544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86267161369324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82597160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78927159309387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80762147903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02039480209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04857444763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03918075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97342658042908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9922137260437</t>
   </si>
   <si>
     <t xml:space="preserve">4.02978754043579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96403384208679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89827990531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91706657409668</t>
+    <t xml:space="preserve">3.96403360366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89827919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9170663356781</t>
   </si>
   <si>
     <t xml:space="preserve">3.77616429328918</t>
@@ -884,61 +884,61 @@
     <t xml:space="preserve">3.70101690292358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7573778629303</t>
+    <t xml:space="preserve">3.75737762451172</t>
   </si>
   <si>
     <t xml:space="preserve">3.73859095573425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71980428695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71041059494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63526296615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62586975097656</t>
+    <t xml:space="preserve">3.71980404853821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71041035652161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63526248931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62586951255798</t>
   </si>
   <si>
     <t xml:space="preserve">3.52254176139832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42860746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28770542144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35345959663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33467268943787</t>
+    <t xml:space="preserve">3.42860722541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28770565986633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35345983505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33467292785645</t>
   </si>
   <si>
     <t xml:space="preserve">3.37224650382996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3816397190094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45678758621216</t>
+    <t xml:space="preserve">3.38164019584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45678782463074</t>
   </si>
   <si>
     <t xml:space="preserve">3.46618103981018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36285328865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44739413261414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43800091743469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40042662620544</t>
+    <t xml:space="preserve">3.36285305023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44739437103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43800067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40042686462402</t>
   </si>
   <si>
     <t xml:space="preserve">3.4755744934082</t>
@@ -947,49 +947,49 @@
     <t xml:space="preserve">3.49436140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31588554382324</t>
+    <t xml:space="preserve">3.31588578224182</t>
   </si>
   <si>
     <t xml:space="preserve">3.60708236694336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56950879096985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50375461578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65405011177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48496770858765</t>
+    <t xml:space="preserve">3.56950855255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50375485420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65404963493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48496794700623</t>
   </si>
   <si>
     <t xml:space="preserve">3.68222999572754</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59768891334534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61647605895996</t>
+    <t xml:space="preserve">3.59768915176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61647582054138</t>
   </si>
   <si>
     <t xml:space="preserve">3.66344332695007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58829569816589</t>
+    <t xml:space="preserve">3.58829545974731</t>
   </si>
   <si>
     <t xml:space="preserve">3.5507218837738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53193521499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56011557579041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57890200614929</t>
+    <t xml:space="preserve">3.53193497657776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56011533737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57890224456787</t>
   </si>
   <si>
     <t xml:space="preserve">3.64465641975403</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">3.6728367805481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51314783096313</t>
+    <t xml:space="preserve">3.51314830780029</t>
   </si>
   <si>
     <t xml:space="preserve">3.70352864265442</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">3.54921507835388</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62637209892273</t>
+    <t xml:space="preserve">3.62637186050415</t>
   </si>
   <si>
     <t xml:space="preserve">3.58779358863831</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">3.66495037078857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68423962593079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78068542480469</t>
+    <t xml:space="preserve">3.68423938751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78068566322327</t>
   </si>
   <si>
     <t xml:space="preserve">3.7999746799469</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">3.81926417350769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83855319023132</t>
+    <t xml:space="preserve">3.8385534286499</t>
   </si>
   <si>
     <t xml:space="preserve">3.85784244537354</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">3.51063656806946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41419053077698</t>
+    <t xml:space="preserve">3.41419076919556</t>
   </si>
   <si>
     <t xml:space="preserve">3.43347978591919</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">3.33703374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27916598320007</t>
+    <t xml:space="preserve">3.27916622161865</t>
   </si>
   <si>
     <t xml:space="preserve">3.18271994590759</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">3.14414167404175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2020092010498</t>
+    <t xml:space="preserve">3.20200896263123</t>
   </si>
   <si>
     <t xml:space="preserve">3.10556316375732</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">3.02840662002563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91267085075378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85480332374573</t>
+    <t xml:space="preserve">2.91267108917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85480356216431</t>
   </si>
   <si>
     <t xml:space="preserve">2.71977877616882</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">3.08627390861511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12485265731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98982787132263</t>
+    <t xml:space="preserve">3.12485241889954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98982763290405</t>
   </si>
   <si>
     <t xml:space="preserve">2.95124936103821</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">2.75835728645325</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77764654159546</t>
+    <t xml:space="preserve">2.77764678001404</t>
   </si>
   <si>
     <t xml:space="preserve">2.73906803131104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54617619514465</t>
+    <t xml:space="preserve">2.54617595672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.62333297729492</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">2.16039180755615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04465651512146</t>
+    <t xml:space="preserve">2.04465627670288</t>
   </si>
   <si>
     <t xml:space="preserve">2.21825933456421</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">2.23754858970642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02536702156067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19897031784058</t>
+    <t xml:space="preserve">2.02536725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.198970079422</t>
   </si>
   <si>
     <t xml:space="preserve">2.12181329727173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25683760643005</t>
+    <t xml:space="preserve">2.25683784484863</t>
   </si>
   <si>
     <t xml:space="preserve">2.29541611671448</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">2.26648235321045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41115140914917</t>
+    <t xml:space="preserve">2.41115164756775</t>
   </si>
   <si>
     <t xml:space="preserve">2.47866368293762</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43044090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27612686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28577136993408</t>
+    <t xml:space="preserve">2.43044066429138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27612709999084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28577160835266</t>
   </si>
   <si>
     <t xml:space="preserve">2.3436393737793</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">2.30506086349487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22790384292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24719309806824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35328388214111</t>
+    <t xml:space="preserve">2.2279040813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24719333648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35328412055969</t>
   </si>
   <si>
     <t xml:space="preserve">2.32434988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17968106269836</t>
+    <t xml:space="preserve">2.17968082427979</t>
   </si>
   <si>
     <t xml:space="preserve">2.18932557106018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17003655433655</t>
+    <t xml:space="preserve">2.17003631591797</t>
   </si>
   <si>
     <t xml:space="preserve">2.1314582824707</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">2.11216878890991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07359051704407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03501200675964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98678874969482</t>
+    <t xml:space="preserve">2.07359027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03501176834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98678886890411</t>
   </si>
   <si>
     <t xml:space="preserve">1.92409896850586</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">1.95785510540009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20861482620239</t>
+    <t xml:space="preserve">2.20861458778381</t>
   </si>
   <si>
     <t xml:space="preserve">2.15074729919434</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">2.37257313728333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38221764564514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56546545028687</t>
+    <t xml:space="preserve">2.38221788406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56546521186829</t>
   </si>
   <si>
     <t xml:space="preserve">2.87409257888794</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">2.64262223243713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59439921379089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68120050430298</t>
+    <t xml:space="preserve">2.59439897537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6812002658844</t>
   </si>
   <si>
     <t xml:space="preserve">2.65226674079895</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">2.51724195480347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70048975944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71013426780701</t>
+    <t xml:space="preserve">2.70048952102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71013402938843</t>
   </si>
   <si>
     <t xml:space="preserve">2.69084501266479</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">2.72942352294922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78729104995728</t>
+    <t xml:space="preserve">2.78729128837585</t>
   </si>
   <si>
     <t xml:space="preserve">2.94160485267639</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">2.98018312454224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9608941078186</t>
+    <t xml:space="preserve">2.96089386940002</t>
   </si>
   <si>
     <t xml:space="preserve">3.03805112838745</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">3.16343092918396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21165370941162</t>
+    <t xml:space="preserve">3.21165347099304</t>
   </si>
   <si>
     <t xml:space="preserve">3.23094296455383</t>
@@ -1394,19 +1394,19 @@
     <t xml:space="preserve">3.25987696647644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3080997467041</t>
+    <t xml:space="preserve">3.30809998512268</t>
   </si>
   <si>
     <t xml:space="preserve">3.32738924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25023198127747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09591865539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0766294002533</t>
+    <t xml:space="preserve">3.25023221969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09591841697693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07662916183472</t>
   </si>
   <si>
     <t xml:space="preserve">3.01876187324524</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">3.05734038352966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92231559753418</t>
+    <t xml:space="preserve">2.92231583595276</t>
   </si>
   <si>
     <t xml:space="preserve">2.93196034431458</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.90302634239197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88373708724976</t>
+    <t xml:space="preserve">2.88373732566833</t>
   </si>
   <si>
     <t xml:space="preserve">2.86444807052612</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.84515881538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80658030509949</t>
+    <t xml:space="preserve">2.80658054351807</t>
   </si>
   <si>
     <t xml:space="preserve">3.11520767211914</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">3.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59743809700012</t>
+    <t xml:space="preserve">3.59743785858154</t>
   </si>
   <si>
     <t xml:space="preserve">3.67459487915039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71317315101624</t>
+    <t xml:space="preserve">3.71317338943481</t>
   </si>
   <si>
     <t xml:space="preserve">3.79033017158508</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">3.98322248458862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05073404312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97357749938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07002401351929</t>
+    <t xml:space="preserve">4.0507345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97357773780823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07002353668213</t>
   </si>
   <si>
     <t xml:space="preserve">4.20504856109619</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">4.34971761703491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3400731086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39794063568115</t>
+    <t xml:space="preserve">4.34007263183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39794015884399</t>
   </si>
   <si>
     <t xml:space="preserve">4.42687463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45580768585205</t>
+    <t xml:space="preserve">4.45580816268921</t>
   </si>
   <si>
     <t xml:space="preserve">4.22433757781982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08931303024292</t>
+    <t xml:space="preserve">4.08931255340576</t>
   </si>
   <si>
     <t xml:space="preserve">4.03144502639771</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">4.1857590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14718103408813</t>
+    <t xml:space="preserve">4.14718055725098</t>
   </si>
   <si>
     <t xml:space="preserve">4.02180099487305</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">4.17611455917358</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33042812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51367521286011</t>
+    <t xml:space="preserve">4.33042764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.46545267105103</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">4.47509717941284</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49438619613647</t>
+    <t xml:space="preserve">4.49438667297363</t>
   </si>
   <si>
     <t xml:space="preserve">4.44616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41722965240479</t>
+    <t xml:space="preserve">4.41722917556763</t>
   </si>
   <si>
     <t xml:space="preserve">4.64869976043701</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">4.72585725784302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6390552520752</t>
+    <t xml:space="preserve">4.63905572891235</t>
   </si>
   <si>
     <t xml:space="preserve">4.62941074371338</t>
@@ -1604,10 +1604,10 @@
     <t xml:space="preserve">4.61012172698975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57154273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27256059646606</t>
+    <t xml:space="preserve">4.57154321670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27256011962891</t>
   </si>
   <si>
     <t xml:space="preserve">4.11824655532837</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">4.67763376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78372430801392</t>
+    <t xml:space="preserve">4.78372478485107</t>
   </si>
   <si>
     <t xml:space="preserve">4.89945983886719</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">5.59387159347534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4974250793457</t>
+    <t xml:space="preserve">5.49742555618286</t>
   </si>
   <si>
     <t xml:space="preserve">5.28524446487427</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">5.3045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42026853561401</t>
+    <t xml:space="preserve">5.42026805877686</t>
   </si>
   <si>
     <t xml:space="preserve">5.38169002532959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86088180541992</t>
+    <t xml:space="preserve">4.86088132858276</t>
   </si>
   <si>
     <t xml:space="preserve">4.84159183502197</t>
@@ -60107,7 +60107,7 @@
     </row>
     <row r="2215">
       <c r="A2215" s="1" t="n">
-        <v>45547.6448842593</v>
+        <v>45547.2916666667</v>
       </c>
       <c r="B2215" t="n">
         <v>4894</v>
@@ -60128,6 +60128,32 @@
         <v>729</v>
       </c>
       <c r="H2215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="1" t="n">
+        <v>45548.6496064815</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>9965</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>4.80000019073486</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>4.55999994277954</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>4.80000019073486</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>4.67999982833862</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>707</v>
+      </c>
+      <c r="H2216" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MASI.MI.xlsx
+++ b/data/MASI.MI.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87282061576843</t>
+    <t xml:space="preserve">3.87282109260559</t>
   </si>
   <si>
     <t xml:space="preserve">MASI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87106037139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87458205223083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86577606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86401581764221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78652334213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74249386787415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79532933235168</t>
+    <t xml:space="preserve">3.87105965614319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87458181381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8657763004303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86401510238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78652381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7424943447113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79532957077026</t>
   </si>
   <si>
     <t xml:space="preserve">3.77771759033203</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62977910041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67733097076416</t>
+    <t xml:space="preserve">3.62977933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.677330493927</t>
   </si>
   <si>
     <t xml:space="preserve">3.65443563461304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.663241147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6438684463501</t>
+    <t xml:space="preserve">3.66324138641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64386868476868</t>
   </si>
   <si>
     <t xml:space="preserve">3.48712420463562</t>
@@ -89,64 +89,64 @@
     <t xml:space="preserve">3.61040616035461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68965888023376</t>
+    <t xml:space="preserve">3.68965911865234</t>
   </si>
   <si>
     <t xml:space="preserve">3.66676378250122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60336136817932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68085312843323</t>
+    <t xml:space="preserve">3.6033616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68085289001465</t>
   </si>
   <si>
     <t xml:space="preserve">3.56637716293335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.539959192276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61568975448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64915180206299</t>
+    <t xml:space="preserve">3.53995943069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6156895160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64915204048157</t>
   </si>
   <si>
     <t xml:space="preserve">3.65267419815063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65091300010681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64210772514343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59455561637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71431541442871</t>
+    <t xml:space="preserve">3.65091276168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64210748672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59455537796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71431565284729</t>
   </si>
   <si>
     <t xml:space="preserve">3.751300573349</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81294083595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79356837272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86225390434265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.814701795578</t>
+    <t xml:space="preserve">3.81294107437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79356813430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86225461959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81470251083374</t>
   </si>
   <si>
     <t xml:space="preserve">3.80941915512085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73368787765503</t>
+    <t xml:space="preserve">3.73368763923645</t>
   </si>
   <si>
     <t xml:space="preserve">3.73721075057983</t>
@@ -155,37 +155,37 @@
     <t xml:space="preserve">3.71255445480347</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73192763328552</t>
+    <t xml:space="preserve">3.73192739486694</t>
   </si>
   <si>
     <t xml:space="preserve">3.72135996818542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76891207695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76538944244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74953866004944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74601674079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73016619682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69846439361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68613648414612</t>
+    <t xml:space="preserve">3.76891231536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76538968086243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74953842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74601697921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73016595840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6984646320343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68613624572754</t>
   </si>
   <si>
     <t xml:space="preserve">3.72488236427307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82350873947144</t>
+    <t xml:space="preserve">3.82350826263428</t>
   </si>
   <si>
     <t xml:space="preserve">3.95383501052856</t>
@@ -194,274 +194,274 @@
     <t xml:space="preserve">3.9186110496521</t>
   </si>
   <si>
+    <t xml:space="preserve">3.93446207046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9837749004364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94326758384705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91508865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9855363368988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91332840919495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89395523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96087956428528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89219403266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93622303009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92741751670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88338804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99916744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02612924575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97220730781555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9901807308197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97759985923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04410266876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98299169540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95423340797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93625998497009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88233804702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92727279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92367815971375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83560705184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89132475852966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86436462402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86256670951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81943011283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70799255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7655086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59475779533386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61273145675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67923426628113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6307053565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62171840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65766596794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63789463043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68103194236755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57318925857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61632633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60374474525452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64688158035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69181609153748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73675060272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75652146339417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80325388908386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86616182327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81763291358948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81044268608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79246950149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74394011497498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77449536323547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79067206382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77629375457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78887486457825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74753475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75112986564636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80145621299744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73315572738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78348255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72416925430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77090096473694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72057390213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76371145248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72596597671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70978951454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7026002407074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73854780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72956156730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72237157821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72776365280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75292682647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831937789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69541072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68462657928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69361329078674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66485571861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6882209777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73135828971863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71338486671448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78168487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8338086605072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81224083900452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81583499908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82661938667297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82841777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92547583580017</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.93446159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98377513885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9432680606842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91508936882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9855363368988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91332793235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89395523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96087956428528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89219403266907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93622326850891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92741703987122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88338828086853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99916744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02612829208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97220730781555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99018120765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97759938240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04410219192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98299193382263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95423340797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93625998497009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88233828544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92727279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92367768287659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83560633659363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89132499694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86436414718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86256694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81942963600159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70799231529236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7655086517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59475779533386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61273145675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67923450469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63070511817932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62171864509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65766596794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63789486885071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68103194236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57318902015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61632657051086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60374450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64688181877136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6918158531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73675084114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75652146339417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8032534122467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86616182327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81763243675232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81044268608093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79246950149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74394035339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77449512481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79067206382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77629327774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78887486457825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74753499031067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7511293888092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80145597457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73315572738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78348302841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72416877746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77090096473694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72057437896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76371169090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72596621513367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70978975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70260047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73854756355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72956109046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72237157821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72776341438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75292730331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831913948059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69541096687317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68462657928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69361352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66485548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68822121620178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73135828971863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71338510513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78168511390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83380913734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81224083900452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81583547592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82661938667297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82841730117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92547535896301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93446230888367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9218807220459</t>
+    <t xml:space="preserve">3.92188000679016</t>
   </si>
   <si>
     <t xml:space="preserve">3.9003119468689</t>
@@ -473,52 +473,52 @@
     <t xml:space="preserve">3.84639120101929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83740425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87514877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9416515827179</t>
+    <t xml:space="preserve">3.83740377426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87514853477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94165253639221</t>
   </si>
   <si>
     <t xml:space="preserve">3.90929865837097</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95243573188782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98119378089905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97939705848694</t>
+    <t xml:space="preserve">3.95243620872498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98119401931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97939682006836</t>
   </si>
   <si>
     <t xml:space="preserve">3.88413572311401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94884133338928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87874388694763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01534366607666</t>
+    <t xml:space="preserve">3.9488410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87874317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01534414291382</t>
   </si>
   <si>
     <t xml:space="preserve">4.02073669433594</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00815439224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04050779342651</t>
- 